--- a/data/sub_dev.xlsx
+++ b/data/sub_dev.xlsx
@@ -378,1610 +378,1610 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>None与2014-10-10胸部CT对比：1、左肺下叶切除术后，支气管断端未见异常增厚及异常强化灶。左肺上叶索条影较前稍增厚，追查。右肺内未见明显新增结节。2、左肺门淋巴结较前增多、增大，较大原约12MM×10MM（IM31），现约26MM×13MM（IM32）；纵隔多组见多发肿大淋巴结，较大约24MM×18MM（IM12），部分与气管或食管分界不清。考虑转移。3、左侧后胸膜局限性增厚，呈肿块状，约35MM×17MM（IM34）；左侧少量胸水；考虑胸膜转移。右侧局限性胸膜肥厚粘连，未见胸水征。4、左后肋术后改变，左侧第8后肋局部密度稍高，追查。余扫及诸骨未见骨质破坏灶。</t>
+          <t>结肠癌术后改变；腹腔多发结节，考虑种植转移，较前增大。腹主动脉旁、右侧髂总动脉旁结节，考虑淋巴结转移可能性大，大致同前。膀胱直肠窝内结节，考虑转移瘤可能性大，较前无明显变化。两肺病变，考虑纤维增殖灶，大致同前。两肺上叶多发结节，考虑转移瘤。肝右外叶结节，考虑转移瘤，较前稍增大。脾门区结节，考虑转移瘤可能性大。肝S8结节，考虑肝囊肿。胆囊小结石；左肾小结石，两肾囊肿；右肾下极新发斑片状低密度区，转移瘤？前列腺结石。乙状结肠癌术后：局部吻合口通畅，吻合口周围系膜模糊，吻合口周围系膜及腹腔见多发结节，最大约15MM×20MM，边界欠清，增强扫描可见不均匀强化。腹主动脉旁、右侧髂总动脉旁可见数个淋巴结，最大短径约11MM，边界欠清，增强可见不均匀强化。盆腔膀胱直肠间隙可见一结节，大小约14MM×17MM，增强可见不均匀强化。膀胱充盈良好，境界清楚。精囊大小、形态正常，密度均匀，膀胱精囊角存在。前列腺大小、形态正常，内见几个点状致密灶。两肺见多发散在条索状、小斑片状及类结节状高密度影，以两下肺为著，边界尚清晰。两肺上叶可见数个结节，较大直径约9MM，边界尚清。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜局部增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝右外叶可见一结节，大小约22MM×20MM，边界欠清，增强扫描可见轻度强化。肝S8见一类圆形低密度灶，直径约3MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见结石影，直径约3MM。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，近脾门区可见一低密度结节，大小约12MM×17MM，边界欠清，增强扫描可见轻度强化。胰腺大小、形态正常，密度均匀。两肾可见数个类圆形囊性低密度灶，最大约6MM×8MM，边界清，增强未见强化；左肾见一结节样致密影。左肾下极可见片状低密度区，边界不清，增强扫描强化程度低于周围皮质。两肾下腺未见异常。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>乙状结肠</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>纵隔多组见多发肿大淋巴结,胸膜</t>
+          <t>腹腔,腹主动脉旁,右侧髂总动脉旁,膀胱直肠窝,两肺上叶,肝右外叶,脾门区,右肾下极</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>乙状结肠癌综合治疗后,与2013-5-20片比较:双肺多发转移瘤,病灶数目及大小较前变化不大。右下肺叶片块灶,炎症?不排除不典型转移瘤,建议抗炎后复查。肝脏多发转移瘤,较前未见明显变化。纵隔、右侧心缘、腹膜后淋巴结,较前未见明显变化。腹盆腔肿物,考虑种植转移,较前明显增大。腹盆腔见少量积液,较前增多。脾肿大。乙状结肠癌综合治疗后,与2013-5-20片比较:双肺纹理清晰,双肺可见多发结节,直径约2MM~10MM,边界清楚,大部分病灶中心可见小空洞,实性成分较前缩小,病灶数目及大小较前变化不大。右下肺叶见一不规则形片块灶,大小约50MM×39MM,轮廓不光整,密度欠均匀,肺纹理轻度纠集,气管及支气管分支通畅。主动脉旁、隆突下、右侧心缘见数个淋巴结,最大者约10MM×21MM,增强后见明显强化,较前未见明显变化。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态不正常,肝内可见多发结节状、团块状病灶,部分融合,最大者长径为65MM,部分呈轻度强化,部分呈环形强化,较前未见明显变化。肝内胆管未见异常,其内未见结石影,胆囊大小未见异常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉未见异常。脾增大,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾所见未见异常。双肾上腺所见未见异常。腹腔干、腹主动脉旁见多个淋巴结,最大位于腹腔干左旁,大小约13MM×19MM,较前变化不大。腹腔见少量积液,较前增大。腹盆腔见膀胱前上方一巨大软组织灶,病灶大小约为224MM×124MM,病灶边界清,呈囊实性,实性部分见轻度强化,病灶与膀胱顶壁及肠系膜分界欠清,较前增大。膀胱充盈良好,境界清楚。子宫、子宫颈大小、形态未见异常。双侧附件区未见明显异常。盆腔见少量积液。扫描所见骨质未见破坏征象。</t>
+          <t>右肺癌术后，与2014-4-11片对比：右侧胸腔积液较前减少。左肺门及纵隔淋巴结稍肿大，建议复查。左侧肾下腺结节，腺瘤？较前未见明显变化。右侧肾盂结石，左肾囊肿，较前未见明显变化；左肾上极低密度灶，囊肿？建议复查。腹主动脉旁小淋巴结。右侧肩胛骨喙突及L3椎体上缘骨质密度减低灶，转移可能性大。右肺癌术后，与2014-4-11片对比：支气管残端见线样高密度影，未见明显软组织肿块影，右侧胸腔见少量积液，较前减少，右侧胸膜轻度增厚、粘连。左上肺内基底段见条状高密度影，周围见少许条索影，左上肺背段见双个小结节状钙化灶，大小约3MM，边界尚清楚。气管及左侧支气管分支通畅。左肺门及隆突上见小淋巴结，短径约6~11MM，轻度强化，较前未见明显变化。左侧胸腔未见积液。左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右侧肾盂见高密度结石影，左肾见低密度灶，大小约10MM×11MM，增强后未见强化。扫描范围内左肾上极见结节状稍低密度灶，大小约19MM×21MM，增强后未见明显强化。左侧肾下腺内侧支见结节，大小约11MM×16MM，较前未见明显变化，右肾下腺所见正常。腹主动脉旁见散在小淋巴结，短径小于5MM。右侧肩胛骨喙突及L3椎体上缘见类圆形骨质密度减低灶，边界欠清楚，右侧肩胛骨喙突周围见大片致密影。</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>乙状结肠</t>
+          <t>右肺</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>双肺,右下肺,肝脏,腹盆腔</t>
+          <t>右侧肩胛骨喙突,L3椎体上缘</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.结合临床,左乳癌术后,术区小片状高密度影,建议观察;宫颈转移,骨转移,变化不著2.左肺下叶类结节灶,变化不著;左肺炎症,较前(2015-12-25)好转3.子宫肌瘤4.双侧附件略饱满5.双侧腋窝、左锁上、腹腔腹膜后、盆腔小淋巴结左乳外侧局部结构紊乱,局部可见小斑片状强化影,未见具体结节灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,密度不均,增强后强化不均。宫体体积不规则增大,见多发软组织结节灶,增强后呈高低不均强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体及胸骨示密度不均。左侧坐骨局限性骨质密度减低。</t>
+          <t>左肺下叶尖段软组织灶，符合肺癌化疗后改变。左锁下、纵隔及左肺门多发肿大淋巴结，考虑转移。食管胸上段至贲门部增厚，考虑食管贲门癌化疗后改变。贲门旁、胃右血管旁数个小淋巴结，考虑转移待排。两下肺肺大泡，两下肺斑片状磨玻璃密度影条片影，考虑炎性病变。左中肺钙化灶。左肺中叶片状磨玻璃密度灶，考虑炎性病变与增殖灶鉴别。脾内低密度灶，考虑囊肿可能性大。右肾囊肿。左下肺癌并胸上段食管癌化疗后复查：左肺下叶尖段见不规则软组织灶，边界欠清，边缘分叶，大小约22MM×11MM，邻近胸膜受牵拉、粘连，病灶周围见无肺纹理透亮灶及条索影。两下肺见多发无肺纹理透亮灶，少许斑片状磨玻璃密度影及条片影。左肺中叶见一钙化点。左肺中叶见片状磨玻璃密度灶，边界清楚，与斜裂胸膜粘连。食管胸上段至贲门部增厚，最厚约14MM，增强扫描明显强化。贲门旁、胃右血管旁见数个小淋巴结，大者短径约6MM，增强扫描较明显强化。左锁下、左下上气管旁、血管前、主肺动脉窗及左肺门见多发肿大淋巴结，边界欠清，最大约21MM×13MM，增强扫描不均匀明显强化；右肺门及两侧腋窝未见明显肿大淋巴结。气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。心包见少量积液。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，内见一低密度结节，直径约6MM，增强扫描未见强化。胰腺大小、形态未见异常，密度均匀。右肾下极见一囊性灶，直径约14MM，增强扫描未见强化，左肾及两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见破坏征象。</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>左乳</t>
+          <t>左肺下叶尖段,胸上段食管</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22MM×11MM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>宫颈,骨</t>
+          <t>左锁下,纵隔及左肺门多发肿大淋巴结,贲门旁,胃右血管旁数个小淋巴结</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>左肺门、左肺上叶团块影,大小约7.68CM×6.58CM,平扫CT值约37HU,增强扫描CT值约55、56、54HU,周围可见斑片状高密度影,边界欠清;左肺上叶支气管截断,左肺动脉受侵犯。右肺水平裂(42)、左肺下叶(21、33)粟粒灶。两肺纹理清晰。右肺门区未见异常。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。所示双侧肾上腺区团块影,脾脏内低密度影,肝脏内囊性低密度影。1.左肺门、左肺上叶占位,考虑中央型肺癌可能大,左肺动脉受侵,左肺上叶阻塞性炎症;2.双肺粟粒灶;请随诊;3.所示腹部病变,部分转移征象可能,请详查。</t>
+          <t>右肺腺癌治疗后复查，与2013-9-17片对比：右下肺及上肺不张，右上肺不张较前稍好转。右侧胸腔积液积气，积液较前减少。肝内多发转移瘤，较前增多，部分增大。腹腔积液，较前增多。两肾多发结节，大致同前。胸骨、颈椎、胸椎、腰椎骨转移瘤，大致同前。右肺腺癌治疗后复查，与2013-9-17片对比：右胸膜结节状增厚，右胸腔见中量积液、少量积气，积液较前减少。右肺下叶、上叶体积缩小，见片状致密影，右上肺致密影范围较前稍缩小；余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚，左侧胸腔未见积液。肝脏形态失常，肝右叶增大，其外形轮廓略呈波浪状，肝内散在多发结节、肿块，边界不清，部分相互融合，增强扫描不均匀强化，侵犯肝左静脉、门静脉左前支，病灶较前增多，部分增大。肝内外胆管无扩张。胆囊不大，胆囊壁均匀增厚，增强扫描粘膜强化明显。肝门区未见肿大淋巴结。腹腔见积液，较前增多。脾稍大，最厚处约46MM，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约14MM×4MM，边界不清，增强扫描轻度强化，大致同前。胸骨、C7、T1、T6、T8、T9椎体及附件、T10、T11、L1右侧附件、L2、L3、L4椎体见不规则致密影，边欠清，范围较前无明显变化。右侧第5肋腋段见致密灶，较前无明显变化。</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>左肺门,左肺上叶</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7.68CM×6.58CM</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>腹部</t>
+          <t>右肺</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.结合病史，考虑为左肺上叶MT伴左侧肺门淋巴结转移；双肺慢性炎症；2.甲状腺密度不均匀伴右叶钙化灶，请随访超声检查；3.肝脏钙化灶；肝脏、右肾囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦粘膜增厚，考虑为慢性炎症；两侧额窦、下颌窦、蝶窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺密度不均，右叶见钙化灶。胸部PET/CT图像示两肺纹理清晰，左肺上叶背段及基底段见糖代谢异常增高的肿块影，大小约为66.7MM×44.2MM，最大SUV值为11.1，呈分叶状，边缘见毛刺；双肺另见散在无糖代谢异常增高的条索影；左肺门见糖代谢异常增高的肿大淋巴结，大小约为28.6MM×23.3MM，最大SUV值为11.7；纵隔及右侧肺门无明显糖代谢异常增高及肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无糖代谢异常增高及肿大淋巴结；两侧乳腺无糖代谢异常增高及占位。腹部PET/CT图像示肝脏表面光整，各叶比例匀称，右叶见局灶性糖代谢增高灶，未见明显占位，早期相最大SUV值为4.2，延迟1.0小时后该糖代谢增高灶消失，考虑为生理性表现；肝脏实质内另见数枚无糖代谢异常增高的囊性低密度灶，最大者大小约为27.8MM×20.6MM，肝脏内另见钙化灶；肝内外胆管无扩张；胃壁呈糖代谢生理性增强；肠道呈生理性糖代谢增强；右肾见大小约为44.5MM×32.8MM、无糖代谢异常增高的低密度灶；脾脏、胆囊、胰、左肾、两肾下腺无殊；腹膜后无糖代谢异常增高及肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生，考虑为退行性变。</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>左肺上叶</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>66.7MM×44.2MM</t>
+          <t>脑内多发强化结节，考虑转移瘤。左侧基底节区异常信号灶，考虑软化灶。两侧额叶、侧脑室旁白质多发缺血灶。生理性脑萎缩。鼻窦炎。左侧额叶、左侧丘脑、右侧直回见多个结节影，平扫T1WI呈稍低信号，T2WI呈稍高信号，增强扫描呈全瘤强化或环形强化，大小约3MM×3MM~8MM×8MM，部分病灶周围可见片状水肿。左侧基底节区见双个小片状异常信号灶，边界清，大小约3MM×3MM~5MM×9MM，T1WI呈低信号，T2WI呈高信号，增强后未见强化。两侧额叶皮层上白质、侧脑室旁见多个小片状、斑点状异常信号灶，边界欠清，T1WI呈等或稍低信号，T2WI呈稍高信号，T2flair呈高信号，增强后未见强化。余大脑组织、小脑、脑干形态正常，信号均匀，未见占位性病变。脑室系统稍扩大，脑沟、脑裂稍增宽。中线结构尚居中。颅骨骨质未见明确异常。两侧筛窦、蝶窦、下颌窦粘膜增厚。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>脑</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>右上肺癌术后5年复查：左肺中叶及上叶病灶，考虑炎症可能大，左上肺病灶较前吸收减少。右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大。左肺门及纵隔淋巴结较前未见明显变化。两侧胸膜增厚，大致同前。肝多发囊肿。右肾囊肿。右上肺癌术后复查，与2016-10-20对比：右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶及上叶纹理增粗、紊乱，见多发斑片及条片灶，边界欠清，与前片对比，左肺上叶病灶较前吸收减少，左肺中叶病灶较前未见明显变化。右肺见散在斑片、条索状灶，边界不清，局部肺纹理增多紊乱，较前未见明显变化。右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整，左上肺病变较前增多，余较前未见明显变化。气管、所示支气管及其分枝通畅。左侧气管食管沟、血管前、隆突上、左肺门见淋巴结，大者短径约10MM，均匀强化，较前未见明显变化。右侧胸稍增厚，内可见钙化灶及多个类圆形结节影，边界清，增强后强化，大者短径约4MM。左侧胸腔未见积液，左侧胸膜不均匀增厚。肝内见多个类圆形低密度灶，最大者约为24MM×22MM，边界清楚，增强扫描未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度灶。脾脏大小正常，密度均匀。胰腺大小、形态、密度未见异常。右肾见多个类圆形囊性灶，最大者约为6MM×3MM，边界清，增强扫描未见强化。左肾及两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。腰3椎体下缘见低密度区，边界清晰，与下方椎间盘关系密切。余扫描层面内未见明显骨质破坏。</t>
+          <t>左乳外侧局部结构紊乱，未见具体结节及异常强化灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见短径不足0.5CM小淋巴结。宫颈体积稍大，密度不均，增强后强化不均。宫体体积不规则增大，见多发软组织结节灶，增强后呈高低不均强化。左侧附件略饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体示密度不均。左侧坐骨局限性骨质密度减低。1.结合临床，左乳癌，宫颈转移，骨转移2.左肺下叶类结节灶，左肺炎症3.子宫肌瘤4.左侧附件略饱满5.双侧腋窝、腹腔腹膜后、盆腔小淋巴结以上请结合临床</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>右上肺叶</t>
+          <t>左乳</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>宫颈</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>肝囊肿。左侧胸腔少量积液（陈旧性）。胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。左侧附件区囊性灶，考虑卵巢囊肿。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径11MM，肝S5门脉旁见一个无回声灶，大小约25MM×13MM，类圆形，边界清，内部透声良好，后方回声增强。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约41MM×40MM×20MM，前位，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中。右侧卵巢显示清晰，左侧附件区见一个无回声团，大小约28MM×18MM，椭圆形，边界清，内不透声良好，后方回声增强。CDFI:子宫、两附件未见明确异常血流信号。左侧胸腔探及少量积液，内部透声不佳，宽约35MM。</t>
+          <t>1、胸中段食管管壁异常增厚，代谢活跃，符合食管癌表现，伴左下气管旁、隆突上、降主动脉后方及腹主动脉前淋巴结转移。2、左肺中叶一微小结节，未见高代谢，建议随诊。3、左下颌窦囊肿。4、左股骨头低密度灶，伴硬化边缘，未见高代谢，考虑为退行性变。5、左腮腺及左面部皮肤代谢弥漫性活跃，考虑为炎性或非特异性摄取。空腹6小时以下，静脉注射显像剂，平静休息56MMin后行全身PET及CT断层显像及胸部增强CT扫描，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。左侧下颌窦内见囊性密度影突出于腔内，未见摄取。左腮腺及左面部皮肤放射性分布弥漫性增浓，最大SUV：3.8，同机CT平扫未见确切异常密度，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，腺实质内未见异常放射性增高灶。两颈部及锁骨下区未见明显异常淋巴结浓聚。胸中段食管管壁异常不规则增厚，较厚处约1.8CM，呈中等程度强化，与邻近肺动脉及降主动脉分界尚清，PET示病灶呈显著浓聚，最大SUV：9.3，下上累及范围约5CM。左下气管旁、隆突上及降主动脉后方多发淋巴结放射性分布异常浓聚，最大SUV：4.1-7.2，较大者位于隆突上，约2.3CM×0.9CM大小。左肾下极水平腹主动脉前方尚可见一小淋巴结放射性分布增浓，最大SUV：2.7，直径约0.8CM。双肺显影清晰，肺纹理正常，左肺中叶见一微小结节，直径约0.3CM，边界光整，未见高摄取。心肌显影浅淡。冠脉管壁钙化。气管居中。胸膜无增厚，胸水征阴性。未见胸部软组织异常影像。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。膀胱放射性浓聚如常，膀胱壁无增厚。两侧髂血管旁及双侧腹股沟无异常淋巴结显示。前列腺大小正常，放射性分布大致正常。视野内轴心骨未见异常放射性浓聚。左股骨头近关节面处见低密度灶，边界伴硬化，未见高摄取。下、上肢关节带大致正常。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>胸中段食管管壁</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>右乳实质占位-考虑MT可能大；肝囊肿，胆囊结石，胆泥淤积肝肋上斜切125MM/（－），剑上纵切65MM/2指，肝区回声较密尚均，左叶见15MM×16MM无回声区。门脉主干内径10MM，左支内径7MM，流速0.18MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切32MM/（－）。胆囊78MM×35MM，内见泥砂样细密回声，另见13MM×10MM强回声伴声影，胆总管4MM。胰头14MM，胰体10MM，胰尾12MM。左肾103MM×45MM×48MM，肾盂分离(-)，右肾105MM×42MM×47MM，肾盂分离(-)。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胆胰肾血流正常。左侧乳腺腺体结构尚正常，未见明显肿块回声。右侧乳腺腺体结构尚正常，1点钟处见20MM×16MM低回声团块，边界尚清，后方回声衰减，CDFI示周边点状彩色血流，RI0.84，已定位。CDFI示两侧乳腺腺体血流分布尚正常。两侧腋窝未见明显肿块。CDFI示血流分布尚正常。</t>
+          <t>1、左肺上叶下舌段机化性炎症，随诊；2、左侧乳腺癌，左侧腋窝淋巴结转移，右下肺小结节，考虑转移可能性大，随诊；3、左侧甲状腺低密度灶，请详查。左肺上叶下舌段可见斑片状密度增高影，边界模糊不清。两肺纹理增多。两肺门区未见异常。所示气管支气管影正常。左侧腋窝可见一类圆形团块影，径长约1.17CM，边缘模糊，CT值约为57HU。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺可见一团块影，大小约为2.36CM×3.59CM，CT值约为26HU，边界清。所示左侧甲状腺可见一类圆形低密度影。</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>右乳</t>
+          <t>左侧乳腺</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.36CM×3.59CM</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>左侧腋窝淋巴结,右下肺</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.01.24片：右乳癌术后改变，局部未见肿瘤复发征象。左乳多发良性钙化灶，较前相仿。右肺下叶斑片灶，范围较前缩小。左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大，大致同前。右锁下小淋巴结，较前相仿。肝S7肝内胆管结石。肝S4小囊肿。骨质疏松。右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.01.24片：右侧乳腺缺如，右前胸壁皮肤稍增厚同前，未见明确结节、肿物影。左乳大小、形态正常，内见散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。两侧腋窝及两侧内乳区未见明确肿大淋巴结。右肺下叶舌段见一不规则软组织灶，大小约8MM×11MM（纵隔窗显示），边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后可见强化，较前稍缩小；病灶远端见少许条索及斑片状模糊影，范围较前相仿。右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、左侧斜裂见小斑片灶，较大者约5MM×4MM，边界尚清，大致同前。余两肺清晰，未见明确结节影。气管及支气管分枝通畅。右锁下小淋巴结大致同前；纵隔内及两肺门未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，肝S7见一点状致密灶，直径约2MM。肝S4见小囊性灶，较大直径约4MM，边界清晰，未见强化。肝内胆管、胆总管未见扩张，内未见结石。胆囊未见异常。肝门区及门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。扫描所见骨质呈骨质疏松改变，未见明确骨质破坏。</t>
+          <t>右侧乳腺癌综合治疗后，对比2016-5-25片：右侧乳腺未见明显结节及肿物。右前上胸壁肌间隙、右侧腋窝多发结节，考虑转移瘤，较前相仿。双肺弥漫多发结节灶，考虑转移，部分病灶较前稍增大。右侧内乳区、纵隔及双肺门多发肿大淋巴结，考虑转移，较前相仿。肝脏多发结节，考虑转移，较前增多、部分增大。右肾小结石。多发骨转移瘤，较前增多，部分增大。右侧乳腺癌综合治疗后，对比2016-5-25片：右侧乳腺体积较对侧稍小，未见明显结节及肿物。左侧乳腺大小形态及密度未见异常，未见占位性病变。左侧腋窝及左侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节，边界欠清，最大位于右侧腋窝，最大者约24MM×17MM，密度尚均匀，较前相仿。双肺内见弥漫多发大小不等结节灶，部分相融合、边界欠清，与邻近胸膜牵拉粘连，较大者大小约34MM×25MM(右肺中叶)，部分病灶较前稍增大。气管及支气管分支尚通畅。右侧内乳区、右上下气管旁、主动脉弓旁、隆突下及双肺门见数个肿大淋巴结，大者短径约15MM，边界欠清，较前相仿。双侧未见胸腔积液。双侧胸膜稍增厚、粘连。肝脏各叶比例未见异常，其外形轮廓光整，肝内见多发类圆形结节灶，较大者38MM×36MM，部分融合，边界欠清，密度欠均匀，较前增多、部分增大。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。脾、胰腺大小、形态未见异常，密度均匀。右下肾盏见斑点状致密影；左肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。双侧肩胛骨、左侧肱骨头、胸骨、C7、T1~6、T7~12、L1、2椎体及部分附件、多条肋骨见不规则骨质破坏区，部分骨质破坏区局部略膨胀，边界模糊，见软组织肿块形成并部分向椎管内突出致椎管狭窄，与前片对比，病灶较前增多，部分增大。</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>右乳,右肺下叶舌段</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8MM×11MM</t>
+          <t>右侧乳腺</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>右前上胸壁肌间隙,右侧腋窝,双肺,右侧内乳区,纵隔及双肺门多发肿大淋巴结,肝脏,骨</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>左上肺门肿物及左上肺不张，范围较前缩小。左中肺条片灶，考虑阻塞性炎症并肺不张，较前稍好转。右肺下上叶散在斑片灶及条片灶，考虑炎性病变，较前稍减少。纵隔、左肺门、腹主动脉旁淋巴结，较前缩小。左侧胸腔少量积液，较前减少。右侧胸腔少许积液；左侧胸膜不均匀增厚。肝内多发病变，考虑转移瘤，较前明显缩小、好转。肝囊肿。左肾囊肿。胸7、8、12、腰2、左侧第3后肋、右侧第8后肋转移。肺癌脑转移综合治疗后，对比2016-1-14片：左上肺萎缩致密，左上肺门周围见不规则软组织肿块，肿块与左上肺大片不张肺组织分界不清，范围约41MM×35MM，范围较前稍缩小，增强后不均匀明显强化，左上肺支气管变窄中断，左上肺动脉及左上肺静脉变窄、中断。左肺中叶见不规则条片影，边界不清，范围较前缩小；右肺下叶、上叶见散在斑片灶及条片状灶，边界清，较前稍减少；气管及支气管分枝通畅。两上气管旁、隆突上及左肺门见多个淋巴结，边界不清，最大短径约6MM，增强后中度强化，较前稍缩小。左侧胸腔少量积液较前减少，左侧胸膜见轻度不均匀增厚，增强后明显强化，右侧胸膜少许积液，右侧胸膜未见增厚。肝脏形态正常，外形轮廓光整，密度不均匀，肝内可见弥漫多发大小不等低密度灶，边界欠清，直径约3MM至19MM，部分相互融合，增强后呈环状强化或不均匀强化，较前缩小。肝S4、S5、S7见数个小囊性低密度灶，最大者约15MM×13MM，边界清楚，未见强化；肝内胆管正常，胆囊大小正常，其内未见结石影，胆总管未见扩张；门静脉所见正常。脾、胰腺大小、形态正常，密度均匀。左肾见2个囊性病灶，大的约57MM×52MM，边界清楚，增强扫描未见强化。右肾及两肾下腺所见正常。腹主动脉旁可见散在淋巴结，边界欠清，大者短径约5MM，增强扫描呈较明显强化，较前缩小减少。胸7、8、12、腰2椎体见骨质破坏区。左侧第3后肋及右侧第8后肋骨髓腔见条片状高密度灶，边界模糊。所见其余骨质未见明显异常。</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>左上肺门</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>41MM×35MM</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>胸7、8、12,腰2,左侧第3后肋,右侧第8后肋,脑</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，33，20-37，右房内径，31，19-40，右室舒张末内径，41，35-56，右室收缩末内径，24，23-35，室间隔厚度，9，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：73%；二尖瓣血流图示E/A，&amp;lt；，1；DT：194MMs，四、组织多普勒测定：，DTI示S波峰值：13CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>左上肺占位性病变，考虑肺癌可能性大；左上肺节段性不张；两侧肺气肿；两肺条索及斑片模糊影，考虑炎症并间质纤维化改变；左侧胸膜多发转移瘤；左侧中量胸腔积液；纵隔及左肺门淋巴结肿大，考虑转移；肝S1、4、6多发结节，考虑转移瘤可能性大；肝内多发囊肿；两肾小囊肿；腹腔干周围淋巴结肿大，考虑转移。两肺纹理紊乱，左肺上叶纵隔旁见一软组织肿块，约35MM×36MM，边界欠清，密度欠均，增强扫描可见不均匀明显强化。左上肺体积缩小，肺纹理聚集，呈斑片状稍高密度影，其内见支气管气相，增强扫描可见强化。余肺内见弥漫囊薄壁透亮影，左下肺、右下肺上舌叶及右上肺见斑片及条索状模糊影，部分呈网格状，增强扫描未见明显实性强化灶。气管及支气管分支通畅。左上气管旁、左肺门见多发淋巴结，大者直径约22MM，界清，增强扫描强化较明显。左侧见中量胸腔积液。左前、侧及左上小胸壁胸膜见多发结节状稍高密度影，大者约22MM×26MM，边界较清，增强扫描可见明显强化。右侧未见明显胸腔积液及胸膜增厚。肝脏形态、各叶比例未见明显异常，轮廓光整，肝S1、4、6内见多发类结节状稍低密度影，大者直径约19MM，边界较清，增强扫描轻度强化。肝内另见多发囊状低密度灶，界清，大者直径约24MM，增强扫描无明显强化。肝内外胆管无扩张，胆囊不大，未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见小囊状低密度灶，界清，大者直径约5MM，无明显强化。两肾下腺所见正常。腹腔干周围见数个淋巴结，大者直径约13MM，密度不均，增强扫描不均匀强化。所示骨质未见明显破坏征象。</t>
+          <t>左乳多发病灶，符合乳腺癌。左侧腋窝肿大淋巴结，考虑转移。双肺散在多发结节影，考虑转移瘤可能性大。纵隔、双侧锁骨上区淋巴结，性质待定，建议随诊复查。肝内多发病灶，考虑转移瘤。左肾囊肿。左侧上颌窦炎。胸骨、T9、T12、L1、L3椎体骨质密度改变，考虑转移瘤。左乳房皮肤明显增厚，最厚处约19MM，左乳内见多发斑片状、结节状软组织密度影，较大病灶位于左乳外象限，大小约30MM×25MM，边缘见多发毛刺牵拉左乳皮肤，增强扫描明显强化。左乳可见多发条片状稍高密度影，增强扫描明显强化。左侧腋窝见数个肿大淋巴结，边界不清，大者大小约11MM×18MM，增强扫描明显强化。右乳未见明确肿物。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见散在多发结节影，边界不清，部分呈磨玻璃密度，大者直径约7MM。右中肺、左上肺舌段见少量条索影，边界清。气管及支气管分支通畅。双下气管旁、隆突下、双肺门见多发淋巴结，边界不清，大者短径约7MM，明显强化。双侧锁骨上区见数个小淋巴结，大者短径约5MM，明显强化。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见散在多发稍低密度肿块或结节，边界欠清，大者大小约30MM×21MM，增强扫描轻度强化。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约7MM，未见强化。右肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺未见明确病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺未见异常。颈部未见肿大淋巴结。左侧上颌窦粘膜增厚。T12局部骨质密度减低，胸骨、T9、L1、L3椎体见片状骨质密度增高影，边界不清。余所见骨质未见明确破坏征象。。</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>左肺上叶</t>
+          <t>左乳</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>35MM×36MM</t>
+          <t>30MM×25MM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>左侧胸膜,纵隔及左肺门淋巴结,肝S1、4、6多发结节,腹腔干周围淋巴结</t>
+          <t>左侧腋窝肿大淋巴结,双肺,肝,胸骨,T9,T12,L1,L3椎体</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.结合病史，考虑为左肺下叶前段周围型MT；2.左肺下叶前段胸膜上不伴明显糖代谢异常增高的小结节，请随访除外转移；左肺下叶后段水平裂旁、右肺上叶外基底段胸膜上慢性炎性小结节可能性大；3.右乳外下象限良性占位（纤维腺瘤可能），左乳外下象限钙化灶，建议临床进一步检查；4.肝右外叶良性占位（血管瘤）可能，建议临床进一步检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺下叶前段见一大小约为22.5MM×14.0MM、糖代谢异常增高的不规则软组织结节，最大SUV值约为4.4，内见充气支气管，边缘分叶状伴长短毛刺，相邻胸膜牵拉凹陷；左肺下叶前段胸膜上见一直径约为3.0MM小结节影，左肺下叶后段水平裂旁和右肺上叶外基底段胸膜上各见一小结节片影，均未见明显糖代谢异常增高；各级支气管腔通畅；纵隔、两肺门、腋窝均未见明显糖代谢异常增高及肿大淋巴结；两侧胸腔无积液；心脏无明显增大；左乳外下象限见一点状钙化；右乳外下象限见一大小约为6.0MM×3.7MM稍高密度结节影，边缘清晰光整。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右外叶见一大小约为10.0MM×7.0MM稍低密度灶；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁未见异常增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，颈椎生理曲度变平；平扫骨窗示诸骨未见明显骨质破坏吸收征象。</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>左肺下叶前段</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22.5MM×14.0MM</t>
+          <t>右心增大二尖瓣关闭不全（轻-中度）三尖瓣少量返流右室舒张功能减低心包腔少-中量积液升主动脉25MM。瓣开16MM。右房前后径38MM。室间隔：8MM，右室前后径：51MM，右室后壁：9MM。左室径：20MM。右室收缩功能：射血分数（EF）59%肺动脉瓣：V：0.9MM/s。三尖瓣：E/A：0.6/0.6MM/s；反向：2.3MM/s，P：21MMHg。二尖瓣：E/A：0.5/1.0MM/s；反向：5.0MM/s，P：101MMHg。e'：3.3CM/s，E/e'=15.1。主动脉瓣：V：1.2MM/s。右心增大；左心大小形态正常，室间隔及右室后壁厚度正常，运动协调反向。静息状态上未见节段性室壁运动障碍。各瓣膜形态结构正常。右室收缩运动及收缩功能正常。右室舒张功能减低。心包腔可见少-中量积液，舒张期液体厚度：前心包0.5CM、后心包1.1CM。检查过程中偶见心律不齐。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>胆囊息肉肝肋上斜切116MM/（－），剑上纵切55MM/2指，肝区回声较密尚均，门脉主干内径10MM，左支内径7MM，流速0.21MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切28MM/（－）。胆囊83MM×30MM，壁下见数个中等回声团块，最大5MM×4MM，CDFI未见明显彩色血流，胆总管4MM。胰头15MM，胰体12MM，胰尾13MM。左肾100MM×41MM×43MM，肾盂分离（－），右肾98MM×40MM×42MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区及腹膜后未见明显肿块回声。CDFI示肝胰肾血流正常。</t>
+          <t>左上肺癌术后化疗后：左肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。右肺上叶及左肺中叶少许纤维增殖灶。左上胸膜稍增厚。两侧锁骨下区、纵隔及肺门小淋巴结，较前未见明显变化。肝小囊肿。两肾囊肿。左上肺癌术后化疗后，与2015-07-01片对比：左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左肺、右肺叶见散在小类结节灶，短径约3MM，边界欠清，密度欠均匀，较前未见明显变化；右肺上叶及左肺中叶尚见少许条索影，边界欠清。气管及余支气管分支未见明显狭窄及异常扩张。两侧锁骨下区、左侧气管食管沟、左下气管旁、主肺动脉窗、两侧肺门见数个小淋巴结，短径约3~6MM，边界清，密度均匀。两侧胸腔未见积液。左上胸膜稍增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见强化。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>左上肺</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>右肺门区可见片状软组织密度影,范围约为4.89CM×3.35CM,CT值约为36HU,边界不清;右肺中叶、右肺下叶部分支气管狭窄,远端闭塞;两肺内可见大片状高密度影,边缘模糊,右肺为著;双侧胸腔内可见弧形液性密度影;纵隔内可见肿大淋巴结影,径约2.67CM;主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺门肿块,考虑中央型肺癌并阻塞性炎症;2.两肺间质性炎症;3.双侧胸腔积液;4.纵隔淋巴结肿大,转移不除外。</t>
+          <t>右肺上叶尖段肿块，考虑肺癌并周围阻塞性炎症、肺不张。双肺上叶肺大泡。气管后、右下气管旁、右肺门淋巴结肿大，考虑转移可能性大。肝脏未见明确病变。肝内胆管轻度扩张。右肾囊肿。右肺上叶尖段见一软组织肿块，边界尚清，范围约53MM×45MM，呈分叶状，密度不均匀，内钙化点及小空洞，增强扫描呈不均匀强化，病灶与右上胸膜、纵隔胸膜分界不清，与邻近气管后淋巴结分界不清。右肺上叶(病灶周围)见多发斑片状影，边界模糊，密度不均匀。双肺上叶可见多发囊状透亮影，边界清，内无肺纹理，右肺为著。气管及其余支气管尚通畅。气管后间隙、右下气管旁、右肺门可见散在淋巴结，边界欠清，大者约15MM×21MM，增强后呈不均匀强化。左侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质密度均匀，未见异常强化表现。肝内胆管轻度扩张。胆囊大小正常，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，直径约42MM，边界清，未见强化。左肾及双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>右肺门</t>
+          <t>右肺上叶尖段</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.89CM×3.35CM</t>
+          <t>53MM×45MM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>纵隔淋巴结</t>
+          <t>气管后,右下气管旁,右肺门淋巴结</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>右侧乳癌术后胸壁、胸膜、淋巴结转移化疗后,与2013-6-24片比较:右侧乳腺缺失,右侧胸壁皮肤局部增厚,部分区域呈结节样,最厚处约4MM,较前片增厚。后方脂肪间隙消失。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧胸膜呈不均匀增厚,最厚处约10MM,密度不均匀,增强扫描呈较明显强化,较前片增厚。右侧胸膜腔内见少量积液。右肺体积缩小,密度增高,肺纹理聚拢。右肺上叶前段、右肺中叶内段、右肺下叶后基底段见片状高密度影,增强扫描强化明显,内见支气管气象,范围较前稍增大。气管及支气管分枝通畅。左肺上叶下舌段见片状毛玻璃样病变,密度较均匀,边界模糊。右上、下气管旁、隆突下、双肺门、食管旁见数枚肿大淋巴结,最大者约57MM×25MM,相互融合,增强不均匀强化,部分淋巴结与气管后壁、食管分界不清,较前稍增大。左侧叶间胸膜见局灶性稍增厚,较前未见明显变化。肝脏形态未见异常,其外形轮廓光整,密度普遍减低,肝内未见结节、肿块影,同前相似。肝内胆管未见扩张,其内未见结石影。胆囊其内未见结石影。胆总管未见扩张,其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾不大,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾未见异常。双肾上腺未见肿物。右肾上极水平下腔静脉后方见一肿大淋巴结,大小约23MM×15MM,增强扫描强化欠均匀,较前未见明显变化。扫描所见骨质未见骨质破坏征象。甲状腺右侧叶体积增大,增强扫描强化欠均匀,未见明显变化。右侧乳癌术后右胸壁、胸膜、淋巴结转移化疗后。右胸壁皮肤局限性增厚,符合肿瘤复发。纵隔、双肺门淋巴结转移,较前增大。右侧胸膜增厚、多发结节并胸腔积液,右胸膜结节较前增大。左侧叶间胸膜局限性稍增厚,较前未见明显变化。右肺肺不张及炎症,范围较前稍增大。左肺上叶下舌段片状病变,考虑炎症可能性大。脂肪肝;下腔静脉后方淋巴结肿大,考虑转移,未见明显变化。甲状腺右侧叶改变,考虑结节性甲状腺肿可能性大。</t>
+          <t>考虑右肺下叶中心型肺癌，侵犯右肺动脉，侵犯纵隔胸膜。右侧斜裂胸膜小结节，转移？追查。纵隔多发肿大淋巴结，考虑转移。右肺下叶阻塞性肺不张伴炎症。两侧肾下腺结节，考虑转移。右肺下叶纵隔旁及右肺门处可见不规则软组织肿块，远端可见斑片影，肿块范围约60MM×47MM（IM19），不均匀强化，局部与纵隔分界不清，包绕侵犯右肺动脉，右主支气管轻度变窄，右肺下叶尖后段及前段支气管截断，右侧斜裂可见结节影，大小约5MM×3MM（IM24），余肺内透亮度均匀，未见结节或实变影。纵隔4L、5、6区可见多发肿大淋巴结，较大约30MM×21MM（IM16），左肺门、两锁骨下区及两腋上未见肿大淋巴结。两侧胸膜光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。两侧肾下腺可见结节影，均匀强化。</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>右侧乳</t>
+          <t>右肺下叶纵隔旁及右肺门</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>60MM×47MM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胸膜,淋巴结,右胸壁,胸膜,淋巴结,纵隔,双肺门淋巴结,下腔静脉后方淋巴结</t>
+          <t>右肺动脉,纵隔胸膜,右侧斜裂胸膜,纵隔多发肿大淋巴结,两侧肾下腺</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>脑内多发强化结节，考虑转移瘤。左侧基底节区异常信号灶，考虑软化灶。两侧额叶、侧脑室旁白质多发缺血灶。生理性脑萎缩。鼻窦炎。左侧额叶、左侧丘脑、右侧直回见多个结节影，平扫T1WI呈稍低信号，T2WI呈稍高信号，增强扫描呈全瘤强化或环形强化，大小约3MM×3MM~8MM×8MM，部分病灶周围可见片状水肿。左侧基底节区见双个小片状异常信号灶，边界清，大小约3MM×3MM~5MM×9MM，T1WI呈低信号，T2WI呈高信号，增强后未见强化。两侧额叶皮层上白质、侧脑室旁见多个小片状、斑点状异常信号灶，边界欠清，T1WI呈等或稍低信号，T2WI呈稍高信号，T2flair呈高信号，增强后未见强化。余大脑组织、小脑、脑干形态正常，信号均匀，未见占位性病变。脑室系统稍扩大，脑沟、脑裂稍增宽。中线结构尚居中。颅骨骨质未见明确异常。两侧筛窦、蝶窦、下颌窦粘膜增厚。</t>
+          <t>左下肺癌多发转移化疗后复查：左肺下叶肿物，较前缩小。两肺散在小类结节影，较前稍缩小。左肺门及纵隔多发淋巴结，考虑转移，较前缩小。左侧胸膜散在小结节状增厚，不排除胸膜种植，较前相仿。多发骨病变，考虑转移瘤，骨质密度较前增高。甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大，大致同前。肝多发囊肿。左下肺癌多发转移化疗后，对比2016.12.25片：左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约26MM×19MM，密度欠均匀，增强扫描不均匀强化，范围较前缩小；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前相仿。左下肺胸膜上及右下肺尖后段、右上肺外基底段见多个小类结节灶，周边多见小条索影，较前稍缩小。左侧下上气管旁、隆突上及左肺门见多发淋巴结，大者短径约9MM，增强扫描不均匀强化，较前缩小。两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚，增强后强化，较前相仿。甲状腺右侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清。肝内见多个低密度影，边界光滑，增强扫描各期未见强化，最大位于S6/7，大小约35MM×25MM。胸骨柄、胸9、11、12椎体及两侧多根肋骨骨质见多发骨质密度减低及增高影，边界不清。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>左肺下叶</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>26MM×19MM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>脑</t>
+          <t>左肺门及纵隔多发淋巴结,左侧胸膜,骨</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号右室舒张功能减低，收缩功能正常心超声检测值：LA   32MM       AO     25MM        MV E 0.73MM/s     EF 69%LV   45MM       IVS     9MM           A 0.91MM/s     FS 39% RA   32MM       LVPW   10MMRV   21MM       PA     21MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+          <t>乳腺癌综合治疗后化疗后复查：左侧乳腺内侧小结节，较前缩小。左肺上叶近肺门区病变，较前明显缩小。左侧胸腔少量积液，大致同前。左肺下叶片状病变，考虑为炎症，较前缩小。肝脏多发转移瘤，较前缩小。胸腰椎椎体多发稍高密度灶，考虑骨转移瘤可能性大。乳腺癌综合治疗后化疗后复查，对比2014.10.28片：右侧乳腺术后缺失，右侧胸壁未见异常密度灶。左侧乳腺内侧缘见一小结节，直径约4MM，较前缩小。左侧腋窝见数个小淋巴结，较大者约8MM×8MM，大致同前。两侧锁骨下区及右侧腋窝未见肿大淋巴结。左肺上叶近肺门区软组织增多，边界不清，准确范围难以测量，病灶范围较前缩小。左肺下叶近水平裂见片状稍高密度病灶，边界不清，范围较前缩小，密度较前变淡。右肺纹理清晰，未见结节影。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸腔见少量积液，大致同前。右侧胸腔未见积液，两侧胸膜未见增厚。肝脏各叶比例在正常范围以内，其外形轮廓光整，肝内见弥漫分布低密度病灶，边界不清，周围见不均匀轻度环形强化，最大者直径约17MM，病灶较前缩小。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾稍大，密度均匀。胰腺大小、形态正常，密度均匀。两侧肾下腺未见异常。扫描范围胸腰椎椎体见多发边界不清的稍高密度灶，局部骨小梁模糊。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>右侧乳腺</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>肝脏,胸腰椎椎体,骨</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.右肺下叶肺癌,较(2016-02-17)CT增大;2.双肺多发小结节,部分病灶较前略增大;右肺下叶胸膜下小结节较前新发;3.前上纵隔结节,较前相仿;4.纵隔内多发增大淋巴结,转移不除外,左腋窝稍大淋巴结,请结合临床;5.第3胸椎右侧横突高密度灶,较前相仿;第8胸椎骨质破坏,较前相仿,考虑转移;部分胸椎术后改变。右肺下叶见片状肿块影,CT值约26HU,边界欠清,大小约4.7CM×2.7CM,呈分叶状,边缘可见毛刺,邻近胸膜凹陷。左肺叶(S28、36)、右肺(36、39、45、48)、中叶(31、34、36)、下叶胸膜下(19)及左肺下叶外侧底段(S30)见多发小结节影,边界清晰,大者径约0.7CM;两肺门区未见异常。前上纵隔可见结节影,径约1.0CM,CT值约38HU。纵隔见增大淋巴结影,大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整,其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。</t>
+          <t>左上肺门可见肿块影，形状不规则，分叶状，边界不清，边缘可见细小毛刺，病灶最大截面大小为5.5CM×7.3CM，CT值为36HU，周围可见多发斑片影，左肺上叶支气管截断，纵隔及左侧肺门可见多发肿大淋巴结，部分相互融合，大者径约2.3CM×3.7CM；纵隔内可见稍大淋巴结影，较大者径约2.3CM；左肺动脉形态不规整。双肺支气管血管束增强、紊乱，双肺可见多发圆泡状薄壁透亮影；双肺下叶小叶间隔增厚，呈网格状改变；双侧胸腔见液性密度影；双侧胸膜增厚。心影增大，主动脉及冠状动脉可见钙化。左侧肋骨多发骨质不规整。所示胆囊内可见多发结节状致密影，左肾上极可见类圆形低密度影。1.左肺上叶中央型肺癌并阻塞性炎症，左肺门及纵隔多发淋巴结转移，左肺动脉受侵，与2015-01-08相比，较前进展，请结合临床；2.支气管炎、肺大泡；双肺下叶间质改变；3.双侧胸膜增厚；双侧胸腔积液，较前进展；4.左侧多发肋骨形态不整，较前相仿；5.所示腹部改变，请结合相关检查。</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>右肺下叶</t>
+          <t>左肺上叶</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.7CM×2.7CM</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>纵隔内多发增大淋巴结,第8胸椎</t>
+          <t>5.5CM×7.3CM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.左下肺周围型肺癌,对比2012-08-15片,病变略增大;左侧膈胸膜局限性增厚,较前片新发;左肺上叶舌段、右肺下叶后基底段片状模糊影,较前片增大;2.纵隔多发增大淋巴结,对比前片变化不大;3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移;4.甲状腺占位,腹部改变,请详查。双肺透过度欠均,左下肺可见一肿块影,不规则,边界尚清,最大层面3.79CM×2.41CM,CT值约19HU,局部斜裂牵拉征象;左肺下叶基底段部分支气管略窄;左肺上叶舌段、右肺下叶基底段可见片状化模糊影。纵隔见多发小淋巴结,大者短径约0.76CM。右侧膈胸膜局限性增厚,局部椎体及肋骨密度不均匀。心脏大血管未见异常。右侧锁骨、胸骨、第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.85CM,CT值约为28HU。肝右叶多发低密度灶,右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。</t>
+          <t>1.右肺上叶前段中心型肺癌并阻塞性炎症，请结合纤维支气管镜检查；2.右肺下叶背段小结节，转移瘤不除外，随诊。右肺上叶前段见不规则团块影，可见分叶征及血管集束征，肿块大小约为2.20CM×1.87CM，CT值约为28HU，增强后三期CT值约为94、87、68HU。周围见片状模糊影。右肺下叶背段见小结节影，两肺门区未见异常。所示气管支气管影正常。纵隔内未见增大的淋巴结。两胸腔无积液征象。主动脉及冠状动脉管壁见钙化影。</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>左下肺</t>
+          <t>右肺上叶</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3.79CM×2.41CM</t>
+          <t>2.20CM×1.87CM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胸椎,左侧肋骨,胸骨,右侧锁骨</t>
+          <t>右肺下叶背段</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>左下中肺癌术后复查，较2013-7-16片对比：左肺癌术后改变，未见明确复发征象。右下肺多发肺大泡。纵隔小淋巴结。左侧胸腔积液较前吸收。肝多发囊肿。左侧第6后肋呈术后改变。左下中肺癌术后复查，较2013-7-16片对比：左侧胸廓稍缩小，纵隔结构轻度向左侧移位。两肺纹理稍增粗，右肺下叶见多个散在分布的大小不等的空腔影，壁薄。余肺野未见明确病变。气管和支气管分支通畅。两上气管旁、主肺动脉窗内见小淋巴结，大者约8MM×6MM，密度均匀。两侧肺门未见明显肿大淋巴结。左侧胸腔积液较前吸收，现两侧胸腔未见积液。左侧胸膜局灶性增厚。左侧第6后肋呈术后改变，余所见骨质结构未见异常。肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，密度不均匀，肝内见多个低密度灶，边界清楚，短径约3MM~21MM，增强扫描未见明显强化。肝内外胆管未见扩张，胆囊不大，壁不厚，内未见结石影。肝门区正常，门静脉所见正常。脾脏不大密度均匀；胰腺大小形态及密度未见异常。两肾及肾下腺区未见异常。肝门区和腹膜后未见肿大淋巴结。</t>
+          <t>直肠上动脉旁及直肠系膜可见多发小淋巴结，较大约6MM×5MM(SE4IM1)，数目小于7枚。双侧髂血管旁及腹股沟可见少许小淋巴结，较大约12MM×4MM(SE4IM15)。直肠下段可见溃疡型病变，肠壁不规则增厚，较厚处约13MM(SE4IM31)，增强扫描明显均可见强化，病变侵透肌层，外膜面毛糙，直肠系膜内可见多发索条影，邻近前缘可见结节状灶(SE4IM29)，与阴道后壁关系密切，下缘达肛提肌与直肠交界水平，与肛门内括约肌分界不清，与双侧肛提肌、肛门外括约肌分界尚清。子宫前倾位，宫颈可见多发长T1长T2信号灶，边清无强化，较大约10MM×9MM(SE4IM16)，子宫肌层可见短T2信号灶，较大约13MM×11MM(SE3IM13)，增强扫描强化同子宫肌层。双侧附件区未见异常。膀胱充盈差，膀胱壁未见异常增厚。盆腔少量积液。扫及诸骨骨质未见破坏征象。直肠下段占位，考虑直肠癌，肛门内括约肌受累，侵犯阴道待排。直肠上动脉旁及直肠系膜多发小淋巴结，转移不除外。子宫肌瘤，宫颈多发纳囊。盆腔少量积液。</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>左下中肺</t>
+          <t>直肠下段</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13MM</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>直肠上动脉旁及直肠系膜多发小淋巴结</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>肺癌放化疗后，对比2017-01-06CT：左胸腔积液，左上肺压缩性肺不张，左肺上叶后基底结节，较前未见明显变化；左肺上叶后基底段2个结节，考虑转移瘤，较前稍增大。左肺下叶后段、右肺上叶后基底段斑片影，考虑炎症，较前明显减少。左肺中叶斑片影，考虑炎症，较前稍增多。右肺在类结节及条索灶，考虑纤维增殖灶，较前未见明显变化。两下肺肺大泡。肝多发小囊肿。两肾囊肿。脊柱侧弯。胸椎、腰椎退行性改变。肺癌放化疗后，对比2017-01-06CT：左侧胸腔见中量积液，左肺上叶体积明显缩小，呈片状致密影，增强扫描明显强化；左肺上叶后基底段见一结节，边界欠清，大小约19MM×15MM，内密度不均，见斑点状、小片状钙化灶，增强后轻度强化，较前未见明显变化。左肺上叶后基底段另见2个结节，边界欠清，大者大小约26MM×20MM，不均匀轻度强化，较前稍增大。左肺下叶后段见斑片状稍高密度影，边界不清，较前减少。左肺中叶见斑片状、条索状稍高密度影，边界不清。右肺上叶见少许斑点状、条状稍高密度影，较前明显减少。右肺下叶尖后段及上叶见多发散在的类结节及条索灶，边界清，较前未见明显变化。两下肺见多发无肺纹理透亮区，边界清。左侧胸膜稍增厚。左肺上叶支气管分支变窄中断，气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。右侧胸腔未见积液。右侧胸膜无增厚、粘连。心包未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，其内见多发低密度灶，直径约2MM~5MM，边界清，增强未见强化。肝内胆管稍扩张，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉未见异常。脾、胰腺、两肾下腺未见异常。两肾见多发数个囊性低密度灶，较大直径约15MM，边界清，增强无强化。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。腰椎向右侧弯，多个胸椎、腰椎边缘骨质增生，部分见骨赘形成，未见明确骨质破坏征象。</t>
+          <t>左肺下叶基底干支气管截断，局部见不规则软组织肿块，大小约为47MM×46MM(IMA36)，肿块边缘见多发毛刺影，部分边缘与左侧叶间胸膜分界不清，其远端肺组织不张，呈不规则片絮影。右肺未见异常密度区及结节灶。左侧胸膜结节样增厚，左侧胸腔内见少量积液。纵隔内4、5、7、10组见多发淋巴结，较大淋巴结位于气管隆突下，大小约为39MM×39MM(IMA31)。双侧锁骨上区未见肿大淋巴结。T9椎体见低密度区，局部见不规则软组织密度影，病变区与邻近右侧胸膜分界不清。左肺下叶基底干占位伴肺组织不张，考虑恶性，肺癌可能性大。左侧胸膜增厚及左侧胸腔内积液，考虑右侧胸膜转移。纵隔内多发淋巴结，考虑转移。T9椎体低密度灶，骨转移?建议骨扫描检查。</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>肺</t>
+          <t>左肺下叶基底干</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19MM×15MM</t>
+          <t>47MM×46MM</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>右侧胸膜,纵隔内多发淋巴结,T9椎体</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>右全肺切除术后化疗后复查，对比2012-11-20片：右上胸腔肿块，侵犯右侧第7后肋，考虑肿瘤复发可能性大。右侧胸腔积液，较前减少。左肺上叶及左侧斜裂胸膜小类结节，较前变化不大，考虑为增殖性病变。左肾囊肿。右全肺切除术后化疗后复查，对比2012-11-20片：右上胸腔见软组织肿块，大小约54MM×55MM，边界不清，密度不均匀，增强扫描呈不均匀强化，邻近右侧第7后肋见骨质破坏。右侧胸腔见液性密度影，较前减少，右侧胸膜增厚。右侧胸廓变小，纵隔结构明显右移。左肺上叶外基底段、内基底段胸膜上见几个斑点影，大者直径约3MM，与胸膜粘连。左肺斜裂见一类结节影，长径约5MM。较前未见明显变化。气管及左支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔未见积液。左侧胸膜无明显增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀，未见明确异常密度灶或强化灶。胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾见一低密度灶，边界清，直径约10MM，未见强化，右肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示右侧锁骨区见大小约为10.6MM×4.5MM淋巴结；双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺饱满，密度不均匀。胸部PET/CT图像示右侧乳头深部和内侧象限见数枚糖代谢增高软组织结节，部分趋于融合，乳头后方为著，大小约为37.2MM×35.0MM，最大SUV值约为17.9，局部皮肤增厚，乳头内凹；右乳内下象限病灶紧贴毗邻胸壁；右乳外上象限另见一大小约为9.0MM×8.0MM、无明显糖代谢增高的软组织结节；右乳另见数枚钙化灶；右侧腋窝见数枚糖代谢增高的肿大淋巴结，较大且糖代谢较高者大小约为16.0MM×12.2MM，最大SUV值约为7.9；右侧内乳(第2/3前肋间隙)见直径约为7.5MM、糖代谢增高的淋巴结，最大SUV值约为3.8；左乳未见明显糖代谢异常增高，内侧象限(乳头水平)见致密小结节；左侧腋窝无殊；两肺野未见明显糖代谢异常增高；右肺上叶尖段和下叶内基底段见团片状模糊影，上叶尖段部分支气管略扩张，近肺门处支气管腔内软组织影略增多；左肺上叶尖后段见直径小于5.0MM磨玻璃结节；左肺上叶尖后段和右肺下叶前基底段各见一致密小结节；纵隔、双肺门未见明显糖代谢异常增高和肿大淋巴结；双侧胸腔无积液；心脏无明显增大。腹部PET图像示胃壁呈糖代谢生理性增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示骶管局部膨大，相邻骨质压迫吸收；其余骨骼未见明显骨质破坏。右侧乳腺多发MT伴右侧腋窝和内乳淋巴结转移；右侧锁骨区稍大淋巴结，请随访；左乳钙化灶；左肺上叶小磨玻璃结节，请随访；右肺慢性炎症可能；左肺上叶和右肺下叶慢性炎性结节趋于陈旧；甲状腺密度不均匀，请结合超声检查；骶管囊肿。</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>右全肺</t>
+          <t>右侧乳腺</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>37.2MM×35.0MM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>右侧第7后肋</t>
+          <t>右侧腋窝,内乳淋巴结</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>直肠癌术后肺转移、肝转移综合治疗后：直肠癌、两侧乳腺癌术后改变，局部未见明显复发。两肺多发病变，左肺下叶尖段病灶较前增大，余较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化。直肠癌术后肺转移、肝转移综合治疗后，与2014-10-08片对比：左肺下叶尖段见一结节灶，大小约19MM×16MM，边界不清，密度不均匀，增强扫描轻度不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连。左肺上叶前基底段见一结节，大小约12MM×11MM，边界不清，密度不均匀，增强扫描轻度强化。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见明显增厚。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化。两侧乳腺术后缺失，两侧胸壁未见明显肿物。两侧腋窝未见肿大淋巴结。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+          <t>肺癌化疗后，与2014-10-27片对比：右肺下叶病灶，较前稍增大。左肺中叶及右肺散增殖灶，较前未见明显变化。主肺动脉窗淋巴结，较前未见明显变化，考虑转移瘤。纵隔、右肺门小淋巴结，较前未见明显变化。肝右叶缺失，残余肝实质未见明确病变。胆囊结石。肺癌化疗后，与2014-10-27片对比：右肺下叶见不规则软组织密度灶，大小约为28MM×24MM，边界不清，周围见少许条索影，牵拉邻近胸膜，增强扫描明显强化，较前稍增大。左肺中叶、右下肺舌叶、右肺上叶外侧基底段见类结节影，长径为3MM，边界清晰，较前未见明显。余肺纹理清晰，未见实质性病变。气管及支气管分支通畅。主肺动脉窗见双个淋巴结，较大者大小约13MM×13MM，边界清晰，增强扫描呈明显强化，较前未见明显变化。左下气管旁、右侧肺门见小淋巴结，大者短径为5MM，边界清晰。两侧胸腔未见积液。右胸膜增厚粘连。左侧胸膜未见增厚、粘连。肝右叶缺失，余肝脏密度均匀，未见异常强化灶。肝内胆管未见扩张，胆囊及胆总管未见扩张，胆囊内见小结石，直径约3MM。肝门区结构未见异常。门静脉未见充盈缺损。脾密度均匀。胰腺大小、形态未见异常，密度均匀。两肾未见异常。两肾下腺未见病变。腹膜后未见肿大淋巴结。扫描所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>直肠,两侧乳腺</t>
+          <t>右肺下叶</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>28MM×24MM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>两肺,左肺下叶尖段,肝S4,S7</t>
+          <t>主肺动脉窗淋巴结</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>右侧乳腺小叶增生，右乳低回声区-考虑乳腺病，右侧腋窝淋巴结，左侧腋静脉旁低回声区-考虑淋巴结，肝左叶钙化灶，肝囊肿，左肾结石左乳已切除，再造术后，未见明显肿块回声。右侧乳腺导管增多，3-4点钟见4MM×3MM低回声区，10点钟见5MM×3MM类似回声区，CDFI均未见明显彩色血流。左侧腋静脉旁见4MM×3MM低回声区，CDFI未见明显彩色血流。右侧腋窝见10MM×4MM高回声团块，CDFI未见明显彩色血流。肝肋上斜切110MM/（－），剑上纵切41MM/2指，肝区回声较密尚均，肝左叶膈顶见6MM强回声，肝右外叶见20MM×14MM无回声区，门脉主干内径10MM。脾肋间切35MM/（-）。胆囊60MM×22MM，胆总管4MM，胰头16MM，胰体12MM，胰尾15MM，左肾98MM×42MM×44MM，内见4MM强回声团块，右肾91MM×45MM×44MM，两肾盂分离（－）。两侧输尿管未见明显扩张。CDFI肝胆胰肾血流正常。</t>
+          <t>右肺中叶见团块影，边界不清，径约2.5CM×3.4CM，CT值约39HU，增强三期分别为54、58、67HU。右肺尖(55)、右肺上叶(39)、下叶后基底段(36)、下叶基底段(28)小结节影，径约0.3CM。右肺下叶背段(39)淡片影，径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张，管壁稍增厚，多发小叶间隔增粗。纵隔内多发肿大淋巴结，短径约2.5CM，密度较均匀，CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大，心包稍增厚。左侧锁骨上窝见一淋巴结影，约为2.3CM×2.1CM，CT值32HU。胸11椎体右侧见结节状稍高密度影，直径0.9CM。腰1椎体见片状不规则高密度影。1.右肺中叶周围型肺癌，纵隔多发淋巴结转移；较2016.4.21相仿；2.右肺下叶背段结节，较前密度变淡；3.双肺小结节，较前相仿；4.右肺下叶支气管轻度扩张，小叶间隔增粗；5.全心增大，心包少量积液；6.右侧锁骨上淋巴结增大，胸11椎体右侧高密度影，转移可能，建议详查；腰1骨质增生；请随诊。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>右肺中叶</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.5CM×3.4CM</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>胸11椎体</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>右上肺癌术后2年复查，与2013-11-01片对比：左上肺新发病灶，考虑炎症可能。左肺中叶病灶，较前范围稍增大，考虑慢性炎症。右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大，较前变化不大，建议随诊。右侧胸膜稍增厚，内可见多个结节，较前新发，抗炎治疗后复查。肝多发囊肿。右肾囊肿。右上肺癌术后2年复查，与2013-11-01片对比：右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶纹理增粗、紊乱，见多发斑片影及条索影，边界欠清，较前稍增多。右肺见斑片状影，边界不清，局部肺纹理增多紊乱，右肺见少许斑片灶，边界欠清，同前变化不大。左肺上叶见多发斑片影，融合呈片状实变影，内可见含气支气管，较前新发。右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整。气管、所示支气管及其分枝通畅，未见明显软组织肿物或受压变窄。纵隔、两肺门未见明显肿大淋巴结。右侧胸稍增厚，内可见钙化灶及多个类圆形结节影，边界清，密度均，增强后明显强化，大者短径约4MM。左侧胸腔未见积液，左侧胸膜未见明显增厚。肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，密度不均匀，肝内见多个类圆形低密度灶，最大者约为24MM×22MM，边界清楚，增强扫描未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度灶。脾脏大小正常，密度均匀。胰腺大小、形态、密度未见异常。右肾见多个类圆形囊性灶，最大者约为6MM×3MM，边界清，增强扫描未见强化。左肾及两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。扫描层面内未见明显骨质破坏。</t>
+          <t>右肺中央型肺癌，侵犯右侧胸膜，右侧少量胸腔积液、心包积液。右肺小叶间隔增厚并多发斑片影和类结节灶，考虑肺癌并淋巴管播散可能性大。右侧锁骨上右侧肺门纵隔肿大淋巴结，考虑转移。左肺上叶小结节状稍高密度灶，可疑转移。双上肺见纤维增殖钙化灶，考虑陈旧性肺结核。肝S6小囊肿。右肾小囊肿。左肾肾盂小结石。右肺中叶、下叶支气管管腔狭窄，肺门区见大片状软组织肿物，范围难测量，侵犯邻近胸膜，增强扫描呈明显不均匀强化。右肺中叶肺不张。右肺小叶间隔增厚，见散在分布斑片影和类结节灶，以右下肺为著。左肺上叶另见一模糊稍高密度灶，大小约6MM×4MM。双上肺见纤维增殖钙化灶。左下肺见粗大长条索灶。右侧锁骨上、右侧肺门、右气管旁、左下气管旁、血管前方、隆突下见明显增大淋巴结，部分融合分界不清，最大者约23MM×15MM，增强扫描强化不均匀。左侧肺门未见明确肿大淋巴结。心包内见液体。右侧胸腔少量积液，左侧胸腔未见积液。左侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝S6见小囊肿，直径约2MM，增强扫描未见强化。肝内胆管正常，其内未见结石影，肝门区和门静脉未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾肾盂内见小致密影，直径约1MM。右肾见囊性密度灶，大小约31MM×24MM，增强扫描未见强化。左肾所见及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>右上肺</t>
+          <t>右肺</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>右侧锁骨上右侧肺门纵隔肿大淋巴结,左肺上叶</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。前纵隔胸腺区可见一低密度灶,直径约1.0CM,边界清,强化不著。右肺上叶可见两个结节灶,大者直径约2.5CM,边缘尚清晰,增强扫描可见强化。右侧斜裂胸膜增厚。肝脏密度减低,实质内可见两个结节灶,直径约1.5CM,动脉期边缘结节样强化,门脉期及延迟扫描对比剂向心性充填。另第二肝门区略可见低密度灶,直径约1.0CM,边缘尚清。另肝内见一点状致密影。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。1.结合临床,右乳癌术后;右肺结节灶,考虑转移,较前(2014-04-23)片增大。3.右侧叶间胸膜增厚4.前纵隔胸腺区低密度灶,变化不著5.肝内低密度灶,较前变化不著6.肝血管瘤7.脂肪肝;肝内钙化灶</t>
+          <t>肺癌化疗后复查，较2017-06-05CT片对比：右肺上叶背段病灶，符合肺癌，较前稍增大。右肺上叶阻塞性肺炎。右肺下叶舌段小片状灶，炎症可能，较前变化不大，建议复查。左肺、右肺下叶纤维增殖钙化灶。隆突上、右肺门、右上肺叶间多发淋巴结肿大，考虑转移，较前相似。肝右外叶与腹壁间隙结节，考虑转移淋巴结可能性大，较前稍增大。肝S7包膜上结节钙化灶。左肾下腺病灶，考虑转移瘤，较前稍增大。右肾结石。肺癌化疗后复查，较2017-06-05CT片对比：右肺上叶背段见一软组织团块，边界尚清，范围约66MM×42MM，呈分叶状，密度不均匀，内见钙化，增强扫描呈明显不均匀强化，累及邻近胸膜，较前增大；邻近右上肺背段、后基底段可见条状、斑片状影，边界不清，较前变化不大。右肺下叶舌段见斑片状灶，边界欠清，可见强化，较前变化不大。两肺下叶、左肺中叶、左肺上叶外基底段可见多发结节状致密灶，边界尚清，周围见多发索条状影，部分与胸膜粘连，较前相仿。气管及其余支气管尚通畅。隆突上、右肺门、右上肺叶间可见多发肿大淋巴结，边界欠清，部分相互融合，大者范围约32MM×30MM，部分内见钙化，增强呈不均匀强化，包绕挤压右上肺支气管，管腔变窄。右侧第6后肋受压。左侧胸膜未见增厚、粘连。两侧胸腔未见积液。肝右外叶与腹壁间隙见一结节，大小约30MM×16MM，边界清，呈不均匀强化，较前稍增大。肝脏形态正常，各叶比例尚可，其外形轮廓光整，肝S7边缘见一致密灶，边界清楚，直径约2MM，余肝实质密度均匀，未见异常强化表现。肝内胆管及胆总管未见扩张，其内未见结石影。胆囊不大，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾、胰腺大小、形态正常，密度均匀。右肾盂见致密灶。左肾下腺见一结节，大小约20MM×16MM，边界尚清，强化不均匀，较前稍增大。左肾及右肾下腺未见明确异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质结构未见破坏征象。</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>右乳</t>
+          <t>右肺上叶背段</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>66MM×42MM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>右肺上叶</t>
+          <t>隆突上,右肺门,右上肺叶间多发淋巴结,肝右外叶与腹壁间隙,左肾下腺</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>与2013-05-22前片对比:1.左乳腺癌;双侧腋窝淋巴结转移,较前进展;2.左肺上叶磨玻璃密度影,较前略大;3.右肺粟粒灶,较前相仿。请结合临床随诊。左肺上叶前段可见磨玻璃密度影,最大截面大小约1.1CM×1.05CM。右肺见粟粒影。两肺纹理尚清。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大,大血管壁可见钙化影。所示左侧乳腺可见团块影,最大截面大小约8.91CM×5.42CM,其内密度欠均,邻近左乳皮肤增厚。双侧腋窝淋巴结增大,以左侧为著,较大者径约2.0CM。</t>
+          <t>右肺下叶尖后段类结节灶，考虑肺癌可能性大。左肺下叶后段少许斑片灶，考虑炎性病变。左肺中叶小斑片灶，增殖性病灶？建议复查。甲状腺两叶结节，考虑结节性甲状腺肿可能性大。胸中段食管管腔内可疑病灶及胸上段食管管壁局限性增厚，建议进一步检查。肝S7低密度灶，囊肿？扫描范围内肝S6低密度灶，建议进一步检查（病灶未包全）。左下胸膜局限性增厚。两肺纹理清晰，右肺下叶尖后段近胸膜处见结节灶，大小约9MM×11MM，略呈分叶状，病灶边缘较毛糙，见短毛刺并可见胸膜牵拉，病灶内密度欠均匀，呈部分实性，周围见少许磨玻璃影，增强后实性成分较明显强化，病灶周围未见明显卫星灶。左肺下叶后段见少许斑片灶，边界欠清楚，左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉。气管及支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。左下胸膜轻度增厚、粘连，右侧胸膜无增厚、粘连。心包未见积液。胸中段食管管腔内似可见软组织灶向管腔内突出，边界尚清楚，中度强化，胸上段食管近膈面管壁可见局限性增厚，增强后较均匀强化。扫描范围内骨质未见破坏征象。扫描范围内甲状腺两叶见多个类结节灶，边界尚清楚，不均匀强化。肝S7见低密度灶，大小约5MM×5MM，未见明显强化，肝S6（Se3，Im139）见低密度灶，病灶未扫完。</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>左乳腺</t>
+          <t>右肺下叶尖后段</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8.91CM×5.42CM</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>双侧腋窝淋巴结</t>
+          <t>9MM×11MM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>左中下肺团片状软组织影代谢活跃，考虑恶性病变（左肺癌可能性大），病灶侵犯左水平裂，累及左斜裂及左肋胸膜；左肺门淋巴结代谢略活跃，疑转移。纵隔数个小淋巴结部分代谢略活跃，疑炎性病变，请结合临床。左下颌窦炎症。两颈II区淋巴结代谢略活跃，考虑炎性改变。两肾结石。子宫多发肌瘤。右附件区囊性低密度影代谢较活跃，考虑生理性摄取。空腹6h以下，静脉注射18F-FDG，静息约60MMin后行全身PET/CT断层显像，影像清晰。左中下肺团片状软组织影放射性浓密，SUV约15.8，大者约4.8CM×6.2CM，病灶边缘分叶，局部牵拉左侧肋胸膜，增强扫描呈轻中度不均匀强化，病灶侵犯左水平裂胸膜，局部与左斜裂及左肋胸膜分界不清；余两侧肺纹理未见明显异常，气管、支气管通畅。心脏各壁及纵隔大血管未见明显异常。两侧乳腺及两侧胸壁未见确切病灶和异常放射性分布。左肺门淋巴结放射性分布略浓密，SUV约2.9，大者约0.8CM×0.9CM；纵隔血管前、左下上气管旁及主动脉上数个小淋巴结部分放射性分布略浓密。右肺门及两侧腋窝未见肿大淋巴结及异常放射性分布。所见两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。左侧下颌窦低密度影放射性分布未见异常，额窦、蝶窦、筛窦及右侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。两颈II区数个淋巴结放射性分布略浓密，大者约0.9CM×1.0CM；余两颈多个小淋巴结放射性分布未见异常。肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。两侧肾盂点状高密度影放射性缺损，CT值约447Hu；脾周结节密度及放射性与脾脏相仿，大小约0.9CM×1.1CM（副脾）。胰腺及两肾下腺形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。子宫稍大呈波浪状，可见数个结节突出于宫体轮廓，放射性未见异常；右侧附件区囊性低密度影放射性较浓密，SUV约6.2；膀胱及肠管等形态、结构及放射性分布未见明显异常。两髂血管旁及两侧腹股沟未见肿大淋巴结及异常放射性分布。所见颅骨、躯干骨、四肢骨放射性分布未见明显异常。</t>
+          <t>直肠癌术后肺转移化疗后，直肠癌、两侧乳腺癌术后改变。两肺多发病变，较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶结节灶，考虑腺瘤可能性大，较前未见明显变化。直肠癌术后肺转移化疗后，与2014-1-9片对比：左肺下叶尖段见一结节状病灶，大小约16MM×12MM，边界尚清，密度不均，增强扫描轻度强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连；病变较前未见明显变化。左肺上叶前基底段见一结节，大小约12MM×8MM，边界清，密度均匀，增强扫描轻度强化。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、7MM×7MM，边缘模糊，周围见条索影，与邻近胸膜粘连。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见明显增厚。甲状腺左叶体积增大，见一结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化。两侧乳腺术后缺如，两侧胸壁未见明显肿物。两侧腋窝未见肿大淋巴结。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见低密度灶，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期见结节状强化，门脉期及延迟期强化范围增大。肝S7另见一颗粒状致密灶。肝内外胆管无扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块影；两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>左中下肺</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4.8CM×6.2CM</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>左肺门淋巴结</t>
+          <t>直肠,两侧乳腺</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>肺类癌化疗后，与2014-11-19片对比：两肺多发结节病钙化灶，考虑转移瘤，大致同前；两锁下、纵隔及两肺门多发淋巴结肿大，考虑转移瘤，部分较前稍增大；两颈多发肿大淋巴结，考虑转移瘤；甲状腺两叶增大并多发结节，较前未见明显变化；肝S6、8低密度灶，考虑小囊肿；腹主动脉旁多个小淋巴结，较前未见明显变化；左肾结石，两肾囊肿；多发骨转移瘤，大致同前。肺类癌化疗后，与2014-11-19片对比：两肺可见多发结节影，大小约2MM~9MM，部分边界欠清，密度欠均匀，部分内可见钙化影，与前片对比，未见明显变化。两锁下、胸骨下窝、血管前间隙、下、上气管旁、主动脉旁、隆突上及两肺门可见多个肿大淋巴结，边界不清，部分融合，最大约44MM×41MM，增强见不均匀强化。病灶包绕气管，包绕两侧头臂静脉、下腔静脉，血管管腔变扁，与前片对比，部分较前稍增大，气管内见软组织影。气管呈支架置入术后改变。两侧胸腔未见积液。两侧胸膜无增厚。甲状腺两叶体积增大，密度不均匀，内见多发低密度结节，边界不清，最大约19MM×20MM，密度不均匀，内见钙化灶，增强扫描可见轻度不均匀强化，强化程度低于正常甲状腺组织。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S6、8见一类圆形低密度灶，直径约5MM及2MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾盂可见数个结节样致密影，最大直径约11MM。两肾见数个类圆形低密度灶，最大直径约9MM，左侧肾盂见高密度结石影。两肾下腺未见异常。膈脚后、腹主动脉旁见多发淋巴结，短径约4~9MM。两颈II~V区见数个肿大淋巴结，最大者约21MM×15MM，边界不清，部分相互融合，增强扫描呈轻度强化。喉咽腔形态未见异常，两侧梨状窝对称。两侧真假声带未见增厚，前联合未见增厚。两侧颌上腺、腮腺大小形态未见异常，密度均匀。甲状腺两叶及峡部形态未见异常，密度均匀，未见占位性病变。胸骨、多个胸椎、腰椎、肋骨、左侧锁骨见成骨性骨质破坏，较前未见明显变化。</t>
+          <t>1.考虑右肺下叶周围型肺癌可能，双肺多发转移，右胸膜转移，较2015-04-10CT未见明显变化；2.右侧胸腔积液；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高，较前相仿；请结合临床。右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为30HU，其内密度不均，大小约为6.27CM×3.97CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影，大者径长约2.0CM；右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔积液征象。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约0.6CM。左侧第6前肋局部密度增高。</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>肺</t>
+          <t>右肺下叶</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6.27CM×3.97CM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>两肺,两锁下,纵隔及两肺门多发淋巴结,两颈多发肿大淋巴结</t>
+          <t>双肺,右胸膜</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>右上肺癌术后化疗后：左残肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。右肺上叶及左肺中叶少许纤维增殖灶。左上胸膜稍增厚。两侧锁骨下区、纵隔及肺门小淋巴结。肝小囊肿。两肾囊肿。右上肺癌术后化疗后，与2015-01-07片对比：左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左残肺、右肺叶见散在小类结节灶，短径约3MM，边界欠清，密度欠均匀，较前未见明显变化；右肺上叶及左肺中叶尚见少许条索影，边界欠清。气管及余支气管分支未见明显狭窄及异常扩张。两侧锁骨下区、左侧气管食管沟、左下气管旁、主肺动脉窗、两侧肺门见数个小淋巴结，短径约3~6MM，边界清，密度均匀。两侧胸腔未见积液。左上胸膜稍增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见强化。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
+          <t>1.考虑为乙状结肠MT伴病变肠周淋巴结转移、双肺多发转移及肝脏广泛转移，请结合临床；第2腰椎水平腹主动脉旁淋巴结转移可能；左侧心膈角淋巴结转移不除外；2.直肠中段结节状糖代谢增高灶，腺瘤或息肉可能，请结合肠镜检查；3.前列腺术后改变；两侧精囊腺糖代谢增高，考虑为炎症可能，请结合临床；4.双肺门及纵隔淋巴结炎可能；5.甲状腺术后改变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺右叶术后缺如，左叶未见明显占位。胸部PET/CT图像示双肺野内见多发大小不等的类圆形结节伴糖代谢异常增高，右、左肺最大者分别位于右肺上叶背段、左肺下叶后段，大小分别为6.8MM×5.9MM和7.5MM×6.9MM，最大SUV值分别为3.5和7.5；双肺门、腔静脉气管间、主动脉弓旁及气管隆突上见多发糖代谢异常增高的高密度淋巴结，最大者位于左肺门，大小约为16.4MM×13.8MM，最大SUV值约为13.9；左侧心膈角内见糖代谢增高的淋巴结，大小约为9.5MM×6.6MM，最大SUV值约为1.5；两侧胸腔无积液；心脏无明显增大；两侧腋窝无殊。腹部PET/CT图像示肝脏内弥漫分布糖代谢异常增高的低密度灶，部分融合，最显著三枚病灶大小分别为34.8MM×30.9MM、58.1MM×38.6MM及54.6MM×44.9MM，最大SUV值分别为29.5、24.3和24.2，与毗邻胆囊分界欠清；腹主动脉（约第2腰椎水平）见糖代谢轻度增高的淋巴结，大小约为11.8MM×9.6MM，最大SUV值约为1.0；胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；脾脏、胰、两肾、肾下腺无殊；腹腔无积液。盆部PET/CT图像示乙状结肠局部肠壁增厚伴糖代谢异常增高，最大SUV值约为25.6，病变累及长度约为45.6MM；周围脂肪间隙模糊，病变肠周见糖代谢异常增高的淋巴结，最大者大小约为23.3MM×18.3MM，最大SUV值约为11.9；直肠中段肠壁略增厚伴结节状糖代谢增高，最大SUV值约为33.8，延迟2小时后最大SUV值约为46.1，滞留指数约为36.4%；两侧精囊腺糖代谢增高，早期相最大SUV值约为12.9，延迟相最大SUV值约为19.7，滞留指数约为52.7%；前列腺术后改变，局部可见尿液积聚；两侧盆壁见不伴明显糖代谢增高的小淋巴结显示，较大者大小约为13.4MM×7.4MM；膀胱内显像剂生理性积聚；两侧腹股沟无殊；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>右上肺</t>
+          <t>乙状结肠</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>45.6MM</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>肠周淋巴结,双肺,肝脏,第2腰椎水平腹主动脉旁淋巴结,左侧心膈角淋巴结</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>颈部、两腋窝、纵隔、两肺门、腹腔、腹膜后多发淋巴结肿大（无旧片对比）。鼻咽未见明确肿物，颅底骨质未见破坏。肺部扫描未见明确异常改变。右肾囊肿。鼻咽腔未见狭窄，鼻咽各壁均未见增厚。两侧咽隐窝对称，未见变浅，两侧咽旁脂肪间隙清晰，两侧颈动脉鞘区结构清晰，口咽两侧壁未见增厚。咽后未见肿大淋巴结。颅底骨质未见破坏征象。两侧海绵窦形态未见明确异常。两侧下颌窦、筛窦、蝶窦、乳突均充气良好，骨壁完整。两眼大小、形态、位置未见异常，球后未见占位性病变。两颈结构清晰，各血管充盈良好。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称，两侧颌上腺大小、形态正常，密度均匀。甲状腺大小、形态未见异常。两颈见多个淋巴结影，一较大淋巴结位于左颌上，约13MM×19MM大小。胸廓对称，纵隔居中；两肺纹理走行清晰，两肺内未见明确实质性病变；气管、支气管分支通畅；最下纵隔、上气管旁、主肺动脉窗、隆突上、两肺门、两腋窝见多个淋巴结影，一较大淋巴结约15MM×13MM大小；两胸腔未见积液；两侧胸膜未见增厚、粘连；扫描层次中胸椎、胸壁骨及软组织未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一小囊肿，约5MM×6MM大小；左肾所见正常。两肾下腺所见正常。胃小弯旁、肝门区、门腔间隙、腹膜后、肠系膜根部见多个淋巴结，一较大淋巴结约26MM×16MM大小。</t>
+          <t>右肺癌化疗后，对比2016-8-30CT：右肺上叶背段肺门旁软组织灶，较前未见明显变化。右肺上叶胸膜上病变，较前未见明显变化。纵隔及右肺门淋巴结转移，较前未见明显变化。两肺下叶、左肺中叶、两肺上叶慢性炎症，伴纤维增殖灶形成，大致同前。两肺上叶基底段少许斑片灶，考虑炎症，较前减少。两肺肺气肿，同前。肝S6小囊肿较前稍增大，余肝多发小囊肿大致同前；两肾小囊肿，同前。右肺癌化疗后：右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化，病变远端右肺上叶背段胸膜上见不规则片状高密度灶，边界不清，密度不均匀，内见不规则空洞形成，范围约26MM×42MM，增强扫描轻中度不均匀强化。两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清，左肺上叶后基底段及右肺上叶外基底段见少许斑片灶。两肺纹理稀疏，见多发小类圆形透亮区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。右上气管旁、主肺动脉窗、隆突上、右肺门见多个肿大淋巴结，部分相互融合，较大者短径约20MM，增强扫描明显强化。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM。左肺门、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者大小约15MM×8MM，增强扫描未见强化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>右肺</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>纵隔,右肺门淋巴结</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>乙状结肠肠壁不均匀增厚，考虑结肠癌，浸润肠周间隙可能性大。肠周、邻近系膜及右侧髂总血管旁多发淋巴结，考虑转移可能性大。腹主动脉旁小淋巴结。两肺病变，考虑纤维增殖灶。肝S8小囊肿。左肾小结石。两肾小囊肿。前列腺结石。乙状结肠肠壁明显不均匀增厚，最厚约16MM，管腔不规则狭窄，增强扫描可见较明显不均匀强化，外壁毛糙，病灶周围脂肪间隙密度增高，呈网格状、斑片状，肠周、邻近系膜、及右侧髂总血管旁见多个淋巴结，最大者约13MM×18MM，部分融合，边界不清，内密度不均，增强扫描呈中度或明显不均匀强化。膀胱充盈良好，境界清楚。精囊大小、形态正常，密度均匀，膀胱精囊角存在。前列腺大小、形态正常，内见几个点状致密灶。两肺见多发散在条索状、小斑片状及类结节状高密度影，以两下肺为著，边界尚清晰。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜局部增厚、粘连。扫描范围内肝S8见小类圆形低密度影，大小约3MM×2MM，界清，增强扫描未见明显强化。脾不大，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。左肾盂内见小点状致密影。两肾实质内各见一类圆形囊性低密度灶，较大者约6MM×5MM，边界清，增强扫描未见明显强化。腹主动脉旁（肾门水平以上）见小淋巴结，直径约3~6MM，孤立散在。扫描范围内未见明确骨质破坏。</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>乙状结肠</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>最厚约16MM</t>
+          <t>None与2015-05-15胸部CT对比：1、左肺下叶切除术后，支气管断端未见异常增厚及异常强化灶。左肺上叶索条影同前，追查。右肺内未见明显新增结节。2、左肺门淋巴结较前缩小，较大原约21MM×12MM，现约21MM×10MM（IM31），纵隔多发肿大淋巴结较前缩小，原较大约21MM×18MM，现约20MM×14MM（IM11），部分与气管或食管分界不清。考虑转移。3、左侧后胸膜局限性增厚较前缩小，原约33MM×18MM，现约28MM×12MM（IMA36）；右侧局限性胸膜肥厚粘连，未见胸水征。4、左后肋术后改变，左侧第8后肋局部密度稍高同前，追查。余扫及诸骨未见骨质破坏灶。</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>纵隔多发肿大淋巴结</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>左乳内下象限肿块，符合乳腺癌（BI-RADS6），多灶病变可能大。左腋区淋巴结转移可能大，建议结合临床及其它检查考虑。两乳多量腺体型。左乳内下象限可见一分叶状肿块，约3.9CM×3CM（Se7，Im100），边缘不规则，增强后不均匀强化，呈平台型时间信号强度曲线；肿块周围、内上象限乳头后、下象限可见多发实性结节，边缘不规则，增强后明显强化，呈平台型曲线，较大者约1.1CM×0.7CM（Se7，Im117）。左乳皮肤稍厚，乳头未见上陷。右乳未见异常信号及强化。扫及左腋区可见数枚淋巴结，较大者约1.8CM×0.8CM（Se8，Im71）；右腋区及两侧内乳区未见肿大淋巴结。</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>左乳内下象限</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3.9CM×3CM</t>
+          <t>左肺癌治疗后，左下肺近肺门旁软组织团块，大致同前。左侧肺不张、两肺膨胀不全，较前未见明显变化。纵隔及肺门淋巴结，大致同前。左侧胸腔、心包大量积液，较前未见明显变化。多发骨转移瘤，大致同前。肝S2、S6血管瘤。肝S3囊肿，两肾囊肿。两侧肾下腺稍增粗，大致同前，建议随诊。肺癌治疗后复查，对比2015.4.27片：两肺透亮度减低，左肺体积缩小。左侧支气管变窄，左肺下叶近肺门旁见斑片影，大小约19MM×26MM，边界不清，密度不均，边缘见支气管气相，增强扫描可见不均匀较明显强化，病灶范围大致同前。左肺中叶近肺门区纵隔旁见楔形稍致密影，其内见支气管气相，大致同前。右上肺见散在斑片影，边界不清。气管及右侧支气管分枝通畅。左上气管旁、主肺动脉窗、隆突上及左肺门见多发淋巴结，大者短径约6MM，边界欠清，增强扫描轻度强化。心包腔及左侧胸腔大量积液，大致同前。两侧胸膜未见增厚。肝脏形态、比例未见明显异常，轮廓光整，肝S2前缘、S6内缘各见一斑片状稍低密度灶，大者约8MM×15MM，边界清晰，增强扫描动脉期结节样强化，门脉期强化范围扩大。肝S3见一囊状低密度灶，直径约5MM，界清，未见强化。肝内外胆管未见扩张，胆囊不大，未见结石影。胆总管未见扩张。肝门区未见明确病变。门静脉未见异常。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾可见小囊状低密度灶，直径约2MM~6MM，界清，无强化。两侧肾下腺增粗，最厚约6MM，增强扫描均匀强化。腹膜后未见肿大淋巴结。各胸椎、所示腰椎、右侧肱骨头、胸骨、左锁骨、双侧肋骨见多发斑片及结节状致密灶，边界较清，较前未见明显变化。</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>左腋区淋巴结</t>
+          <t>骨</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>None左肺癌术后化14疗、放疗后，对比2017-10-09CT：左肺呈术后改变，支气管残端未见明确肿物。左肺中上叶多发斑片状、片状高密度灶，密度不均匀，其中上叶病变内可见支气管充气征，考虑炎症并左肺上叶局限性肺不张可能性大，部分范围缩小，部分较前增大，建议治疗后复查。左上气管旁淋巴结，短径约8MM，较前稍缩小。左下气管旁、左肺门小淋巴结，大者短径约8MM，对比前片，左下气管旁淋巴结较前缩小。左侧胸腔少量积液。左侧第5、6后肋呈术后改变。肝S4类结节稍低密度灶（大小约7MM×11MM），较前相仿，转移瘤？建议随诊复查或MR进一步检查。右肾体积缩小。两肾盂小结石，右肾盂旁囊肿，较前相仿。</t>
+          <t>左上肺癌术后化疗后，与2014-11-13日片对比：左上肺癌术后改变，未见明确复发征。左残肺条片状软组织影，大致同前，考虑慢性炎症可能性大。左肺中叶增殖灶，大致同前。左侧胸膜轻度增厚，左侧胸腔少量积液较前减少。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后，与2014-11-13日片对比：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，未见明确软组织肿块。左残肺脊柱旁见条片状软组织影，较前变化不大。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。余肺未见实质性病变。纵隔稍向左偏移，两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，较前减少。左侧胸膜轻度增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化，大致同前。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，增强扫描未见强化，大致同前；左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，但连续性存在，大致同前。</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>左肺</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>肝S4</t>
+          <t>左上肺</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>右下肺见巨大团块状软组织肿块,边界不清,见毛刺征,呈分叶状,大小约45MM×51MM,增强扫描明显强化。双肺上叶、右肺下叶见多发结节影,较大者直径约9MM,增强扫描明显强化。右肺中叶内侧段、左肺上叶下舌段胸膜下见小结节影。气管及支气管分支通畅。双侧锁骨上、右上气管旁、主动脉弓旁、双下气管旁、主肺动脉窗、双肺门见多发淋巴结,较大者位于右肺门,大小约19MM×9MM。双侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左肾实质见一类圆形低密度病变,边界清晰,直径约5MM,增强扫描未见强化。右肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。右下肺团块状软组织肿块,考虑肺癌。双肺上叶、右肺下叶多发结节影,考虑转移瘤可能。右肺中叶内侧段、左肺上叶下舌段胸膜下小结节影,考虑增殖灶。纵隔、双肺门多发淋巴结,不排除转移可能。左肾小囊肿。肝脏未见明显病变。</t>
+          <t>双乳腺体丰富，左乳外侧象限见片状及结节状软组织密度影，相互融合呈肿块状，边缘模糊，最大截面积约2.6CM×3.5CM；增强扫描呈中度强化。左乳皮肤示增厚。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝见多发肿大淋巴结，大者短径约1.6CM。右侧腋窝见增大淋巴结，大者短径约0.8CM。双侧内乳区及双肺门未见明确肿大淋巴结，纵隔内右上气管旁见短径约0.5CM的小淋巴结。另于纵隔内心包右旁见低密度影，边界较清，密度较低，未见强化，考虑为心包上隐窝。双肺野较清晰，未见明确异常密度灶。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。1.左乳占位，结合临床，考虑乳腺癌；左侧腋窝淋巴结转移2.右侧腋窝淋巴结肿大3.颅脑扫描未见异常</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>右下肺</t>
+          <t>左乳</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>45MM×51MM</t>
+          <t>2.6CM×3.5CM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>双肺上叶,右肺下叶,纵隔,双肺门多发淋巴结</t>
+          <t>左侧腋窝淋巴结</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>轻度肺动脉高压常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,28,20-37,右房内径,32,19-40,右室舒张末内径,43,35-56,右室收缩末内径,23,23-35,室间隔厚度,9,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压为40MMHg。,三、右心功能测定：,FS:46%;LVEF:77%；二尖瓣血流图示E/A,&amp;gt;,1;DT:170MMs,四、组织多普勒测定：,DTI示S波峰值:10CM/s;E'/A',&amp;gt;,1,五、结论：,</t>
+          <t>肝囊肿；肝左叶钙化灶；左肾小结石肝肋上斜切114MM/（－），剑上纵切49MM/2指，肝区回声较密尚均，右外叶见18MM×13MM无回声区，肝左叶膈顶见6MM强回声，门脉主干内径10MM，左支内径7MM，流速0.16MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切26MM/（－）。胆囊83MM×21MM，胆总管4MM。胰头15MM，胰体12MM，胰尾16MM。左肾101MM×42MM×45MM，内见约4MM强回声，肾盂分离（－），右肾106MM×47MM×46MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI示肝肾血流正常。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>双肺支气管血管束增粗、模糊,双肺透过度不均,双肺可见多发囊状透亮影。左肺门可见不规则软组织密度影,边缘呈分叶状,最大截面约为4.65CM×4.21CM,平扫CT值约为21HU,增强扫描呈轻度不均匀强化,三期CT值分别为55HU、77HU、72HU。双肺下叶小叶间隔增厚,部分呈蜂窝状改变,左肺下叶可见不规则高密度影。右肺上叶(49、46、43)、下叶(27)、左肺上叶(47、20)可见小结节影,大者径约为1.03CM。纵隔及左肺门可见多发稍大淋巴结影,大者径约为1.41CM。两胸腔无积液征象。主动脉走行区可见条形钙化影。所示甲状腺左叶可见圆形稍低密度影,边缘模糊,最大截面约为1.66CM×1.67CM,增强未见明显强化。1.左肺门中心型肺癌伴左肺下叶阻塞性肺炎可能;纵隔及左肺门多发淋巴结,转移不除外;2.肺气肿征象;双肺肺大泡;双肺下叶间质性改变;3.甲状腺左叶病变,请结合相关检查。</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>左肺门</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>4.65CM×4.21CM</t>
+          <t>1.右侧顶叶转移结节较前增大，伴瘤内出血；右侧顶叶强化结节，考虑转移。2.左侧基底节区腔隙性脑梗塞、脑白质脱髓鞘改变同前。3.右下颌窦粘膜上囊肿同前。与2012-07-01头颅MRI增强比较：两侧大脑半球结构大致对称，灰白质界限清晰，右侧顶叶短T1长T2信号小结节较前增大并见不均匀强化，原约11MM×9MM（SE6IMA10），现约16MM×15MM（SE4IM10），周围水肿带范围较前增大。右侧顶叶另见一5MM强化结节（SE6IM18）。左侧基底节区多发小的长T1长T2信号灶大致同前，左侧脑室旁等T1稍长T2信号斑片影同前。小脑及脑干未见异常。中线结构居中，各脑室未见扩张，脑沟裂未见增宽。头颅诸骨未见骨质破坏灶。右下颌窦粘膜上长T1长T2信号灶同前。</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>右侧顶叶</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>右肺下叶周围型肺癌,右肺多发转移瘤,纵隔多发淋巴结转移,右侧胸膜转移及右侧胸腔积液征象,对比2016.01.20CT相仿,请结合临床。右肺下叶见团块影,长径约为3.47CM,CT值约为36HU,增强后CT值约为67HU、60HU及61HU;右肺另见多发大小不等界清结节影。左肺小结节(30),纵隔内见数个增大的淋巴结,大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象,增强后右胸膜见多个结节状强化。</t>
+          <t>1.左肺上叶下舌段结节，考虑恶性伴纵隔多发淋巴结转移可能，前纵隔区团片影、心包稍厚，局部胸骨密度减低，不除外转移可能；左侧肾上腺增粗；胸7、11椎体改变，详查；双侧第6肋局部转移?请结合临床详查；2.右肺上叶尖段小GGO，右肺下叶内侧基底段小磨玻璃灶；左肺尖磨玻璃灶及小结节影，请随诊；3.肺气肿征象；支气管炎；4.左肺下叶前内基底段索条。随诊双侧肺野透光度不一致，双肺上叶内见多发小囊状薄壁无肺纹理区；右肺上叶尖段(S17)可见一结节状磨玻璃密度影，最大径约为0.39CM；左肺上叶下舌段可见一结节状高密度影，最大径约为1.65CM，边缘欠规整，界清；左肺下叶前内基底段可见索条影。余双肺血管气管束增强，走行自然。纵隔内见多发增大的淋巴结，较大者短径约为1.33CM。前纵隔区团片影，心包稍厚。双侧胸腔内未见积液征象。双侧第6肋内局部密度欠均；左侧肾上腺形态饱满，内见一结节影，最大径约为2.55CM，CT值约为37HU。胸7椎体结节状高密度影。胸11椎体局部密度减低。</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>右肺下叶</t>
+          <t>左肺上叶下舌段</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3.47CM</t>
+          <t>1.65CM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>右侧胸膜</t>
+          <t>纵隔多发淋巴结,胸骨,双侧第6肋</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>左侧乳腺体积增大,左侧乳腺上象限及外象限见不规则团块状肿物,范围约114MM×28MM,边界不清,内见片状低密度区,增强呈不均匀强化,病灶侵犯皮肤,累及乳晕及乳头,乳腺浅筋膜深层见结节状增厚,病灶与胸大肌分界尚清。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区见多发肿大淋巴结,边界不清,密度不均匀,部分融合,大者大小约54MM×35MM,增强呈不均匀强化。左侧第2、3肋间水平内乳区(SE11,IM81)见肿大淋巴结,边界尚清,大小约9MM×7MM,增强呈明显强化。右侧颈部IV区及右侧腋窝见数个小淋巴结,边界清,孤立散在,大者短径约5MM,增强呈均匀轻度强化。右侧乳腺未见明显异常密度灶及强化灶。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称;双侧颌下腺、腮腺大小形态正常,密度均匀。双肺纹理清晰,未见结节影;气管及支气管分枝通畅,未见明显软组织肿物或受压变窄;双侧肺门及纵隔未见明确肿大淋巴结;左侧胸腔见少量积液,右侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀,肝S2、4、7、8见多个稍低密度灶,边界不清,部分融合,大者位于肝S4,大小约51MM×43MM,增强扫描动脉期呈轻度环形强化,门脉期及平衡期强化程度减低。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影;肝门区正常;门静脉未见异常;脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双肾及双肾上腺未见异常。腹主动脉旁见多发小淋巴结,边界欠清,大者短径约5MM,增强呈轻度强化。扫描层面未见明确骨质破坏征象。左侧乳腺病灶,考虑乳腺癌。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区及左侧内乳区淋巴结,考虑转移瘤。右侧颈部IV区及右侧腋窝小淋巴结。左侧少量胸腔积液。肝内多发病灶,考虑转移瘤。腹主动脉旁多发小淋巴结,转移待排,建议随诊。</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>左侧乳腺</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>114MM×28MM</t>
+          <t>C7-T4椎体及附件、C7-T1棘突多发骨质破坏，转移瘤可能大，T1病理性骨折，C7-T1水平椎管受侵。颈椎退变，C6椎体骨髓增殖性改变。C2-7椎间盘突出、变性，C3-6水平黄韧带肥厚，椎管狭窄。颈椎曲度略变直，部分椎体缘骨质增生，T1椎体变扁，所见范围C7-T4椎体及部分附件、棘突可见片状长T1信号，C7-T1水平棘突周围软组织可见散在结节状、条片状高信号，局部蔓延至C7-T1水平椎管内硬膜外，增强扫描后明显强化，C6椎体明显高信号改变。C2-7椎间盘T2WI下信号减低，纤维环向后突出，颈髓受压变窄，C3-6水平黄韧带肥厚，椎管狭窄。颈髓未见异常信号。</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>左侧腋窝,左侧锁骨下区,左侧颈部IV,V区及左侧内乳区淋巴结,肝,腹主动脉旁多发小淋巴结</t>
+          <t>C7-T4椎体及附件,C7-T1棘突</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>肝脂肪浸润；肝内外胆管轻度扩张肝肋上斜切105MM/（－），剑上纵切50MM/2指，肝区回声密集欠均，门脉主干内径10MM。脾肋间切30MM/（－）。胆囊79MM×39MM，胆总管7MM，肝内胆管轻度扩张。胰头14MM，胰体13MM，胰尾13MM。左肾110MM×40MM×41MM，肾盂分离（－），右肾111MM×40MM×42MM，肾盂分离（－）。两侧输尿管未见明显扩张。CDFI肝胆胰肾血流正常。两侧颌上、两侧颈血管旁及两侧锁骨下未见明显肿块回声。CDFI未见异常血流。左侧乳腺腺体结构尚正常，未见明显肿块回声。右侧乳腺未显示。CDFI示左侧乳腺腺体血流分布尚正常。腋窝未见明显肿块。CDFI示血流分布尚正常。</t>
+          <t>胰腺尾部见一大小约3.63CM×3.1CM不规则的肿块影，呈长T1稍及等高混杂T2信号，边界模糊，增强后不均匀轻度强化，病灶中央见囊变坏死区。肝脏见多个类圆形长T1长T2信号，增强后环形强化。肝内外胆管无扩张，胆囊未见异常征象。脾脏见一直径约0.9CM椭圆形环形强化的长T1短T2信号。上腹部局部腹膜明显强化，呈片状、网格状及小结节状改变。胰尾周围及后腹膜区及大血管旁见多个稍大的淋巴结影。腹腔内及双侧胸腔见积液信号。1、胰尾癌并肝脏多发转移瘤；腹膜广泛转移；腹膜后多发淋巴转移；2、脾脏异常信号，考虑为良性病变可能性大，请随诊；3、腹腔及双侧胸腔积液。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>胰尾</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3.63CM×3.1CM</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>肝脏,腹膜,腹膜后多发淋巴</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>右下肺叶切除术后改变，右残肺少许纤维增殖灶。左肺下叶后段新发小类结节影，考虑炎症可能，建议治疗后复查。右侧下胸腔包裹性积液，较前减少。肝S3、S5、S6小囊肿。两肾囊肿。甲状腺多发结节，考虑结节性甲状腺肿，较前相仿。右下肺叶切除术后复查，对比2016-09-19片：右下肺叶缺如，术区见条状金属影，未见异常软组织影，右下肺支气管及右下肺静脉截断。右残肺见少许条片影，边缘模糊，较前相仿。左肺野清晰，左肺下叶后段见一类结节，约9MM×6MM，边界稍模糊，可见强化，较前新增。气管及余支气管分枝通畅。两侧腋窝、肺门及纵隔未见肿大淋巴结。右前胸腔少量包裹性积液，较前减少。左侧胸腔未见积液。两侧胸膜未见明显增厚。肝脏形态、各叶比例未见明显异常，轮廓光整，肝S3、S5、S6见囊性低密度灶，界清，大者直径约6MM，未见强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发囊性低密度灶，大者约17MM×22MM，界清，无强化。两侧肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。甲状腺见多发稍低密度灶，界清，大者约11MM×10MM，密度不均，增强扫描轻中度强化，较前相仿。扫描所见骨质未见明确破坏征象。</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>右下肺叶</t>
+          <t>肝内多发低密度影，结合病史考虑转移。左肾旋转不良。前列腺内钙化灶。盆腔少量积液。L2、L5椎体改变，请结合临床及相关检查。CT平扫肝脏形态大小正常，表面光滑，各叶比例正常，肝实质内散在分布大小不等类圆形及片状略低密度影，边界不清，CT值约为21-43HU，增强扫描病灶边缘呈轻度强化。肝内外胆管未见明显扩张，胆囊不大，胆囊壁不厚。胰腺形态密度未见异常，脾不大，密度均匀。胃肠道管壁未见异常增厚，管腔无狭窄及扩张。肠系膜密度增高，并可见索条影。左肾门向外下方，右肾及两侧肾下腺未见异常，膀胱充盈尚可，壁不厚。前列腺内见钙化小结节。盆腔内可见少量液体影密度影，腹膜后未见确切肿大淋巴结影。L2椎体内见结节致密影，L5椎体密度增高并可见囊状透光区。</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>肝</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>右肺上叶前段见一团块状软组织肿物,大小约43MM×38MM,密度尚均匀,未见钙化、坏死,轮廓不光整,边缘可见分叶,部分边界欠清晰,增强扫描较明显不均匀强化,病灶远端见片状影,增强扫描明显强化。右肺上叶(SE7,IM90)见一结节,直径约3MM,边界清。右肺、左肺上叶舌段见数个类结节灶,大者直径约4MM,边界清。右肺中叶内侧段见条片影,边界清,增强扫描可见明显强化。左肺下叶见少许斑片影,边界不清。右肺上叶前段支气管狭窄,气管及左肺支气管分支通畅。右上下气管旁及右侧肺门见数个肿大淋巴结,大者短径约17MM,密度尚均匀,增强扫描可见中度或明显强化。右侧锁骨上窝见数个小淋巴结,大者短径约5MM,边界清,密度均匀。双侧胸腔未见积液。双侧胸膜未见增厚。CTA示:右肺上叶肺动脉走形于病灶,局部管壁稍僵硬,未见明显充盈缺损。肝脏形态未见异常,轮廓光整,各叶比例在正常范围以内,增强扫描动脉期肝S6见结节状强化影,其余各期呈等密度。肝内胆管未见明显异常。胆囊不大、壁不厚,其内未见结石。胆总管未见扩张,其内未见结石。肝门区结构清晰。门静脉未见明显异常。脾脏大小、形态未见明显异常,密度均匀。胰腺大小、形态未见明显异常,密度均匀。双肾及双侧肾上腺大小、形态未见明显异常,密度均匀。膈脚后、肝门区、腹主动脉旁、腹腔干周围未见明显肿大淋巴结。扫描层面内左侧第2前肋骨质连续性中断,周围软组织稍增多,所见其余骨质未见明显骨质破坏。右肺上叶前段病变,考虑右上肺癌并阻塞性肺不张。右肺上叶结节,性质待定,建议随诊。右肺、左肺上叶舌段类结节灶,考虑增殖灶可能性大。右肺中叶内侧段条片影,考虑节段性肺不张。左肺下叶斑片影,考虑炎症。右上下气管旁右侧肺门淋巴结肿大,考虑转移。右侧锁骨上窝小淋巴结,建议随诊。增强扫描动脉期肝S6结节状强化影,考虑异常灌注可能性大。左侧第2前肋骨折,周围软组织稍增多,请结合临床,以除外病理性骨折。</t>
+          <t>右乳内上象限可见软组织密度结节灶，大者截面大小约1.0CM×0.9CM，边缘较模糊，与周围腺体分界欠清，增强后呈较显著强化。右侧腋窝未见明显肿大淋巴结。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶，边界较模糊，大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结，大者短径约0.8CM。心包内示少量液体密度影。所扫肝内示低密度灶，直径约0.7CM，边缘略模糊，强化不著。1.右乳癌，较前(2016-03-11)片好转；右侧腋窝淋巴结转移治疗后基本消失2.双肺类结节灶，变化不著3.纵隔淋巴结肿大，较前略缩小4.肝内低密度灶，考虑囊肿，变化不著5.心包少量积液</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>右乳</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1.0CM×0.9CM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>右侧肺门淋巴结</t>
+          <t>右侧腋窝淋巴结</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>乳腺癌术后复发综合治疗后复查:双侧乳腺缺失,双侧前胸壁局部未见明显肿瘤复发征。右肺尖斑片状影,考虑放射性炎症,大致同前。左肺上叶舌段少许炎症。右肺上叶、中叶胸膜下索条及斑片影,考虑纤维增殖灶,较前未见明显变化。主动脉旁、左侧锁骨上窝小淋巴结,较前无明显变化。肝S4小囊肿。肝内胆管结石。甲状腺内高密度灶,考虑良性病变,结节性甲状腺肿合并钙化?建议复查。右侧腮腺小结节,考虑良性病变可能性大。多发骨转移瘤,较前部分稍增大、部分较前致密。T10右旁软组织结节影,考虑转移瘤可能性大,较前未见明显变化。乳腺癌术后复发综合治疗后复查,与2016-11-19片对比:双侧乳腺缺失,双侧前胸壁皮肤无明显增厚,皮下脂肪间隙稍模糊。双肺纹理清晰,右肺尖可见斑片状密影,边界欠清,内可见充气支气管影,较前相仿;右肺上叶及中叶近胸膜处可见斑片状、索条状密影,边界欠清,较前未见明显变化。左肺上叶舌段见少许斑片模糊影。气管及支气管分支通畅。左侧锁骨上窝、主动脉旁见小淋巴结,大者短径为7MM,边界清晰,大致同前。双侧胸腔内未见积液。胸膜未见增厚粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S4见一低密度灶,边界尚清,大小约5MM,增强扫描强化不明显。肝S4、S5包膜下见点状高密度灶,大小约7MM。胆囊大小正常,其内未见结石影;肝内胆管、胆总管未见扩张,其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺、双肾见及双肾上腺形态及密度未见明显异常。腹主动脉旁未见肿大淋巴结。甲状腺双叶见数个高密度灶,大者约8MM×6MM,边界清,未见强化。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。右侧腮腺见一结节,直径约5MM,边界清楚,内见钙化。双侧颌下腺、左侧腮腺大小形态正常,密度均匀。双颈未见明显肿大淋巴结。所示颅骨、颈椎、左侧锁骨、双侧肱骨头、双侧肩胛骨、双侧部分肋骨、胸骨、多发胸椎、腰椎及附件见骨质破坏,较前部分稍增大、部分较前致密。T10椎体右旁见软组织结节,大小为12MM×20MM,边界清晰,密度尚均匀,增强扫描明显强化,较前相仿。</t>
+          <t>肺癌放化疗后复查，对比2016.07.05片：左肺门区肿物并左肺上叶节段性不张，范围较前稍增大。左肺下叶尖段、后段及左肺中叶、上叶、右肺上叶舌段多发斑片状灶，范围较前缩小，考虑炎症。纵隔、左肺门淋巴结，较前未见明显变化。两侧半卵圆中心少许缺血灶。副鼻窦炎。肺癌化疗后复查，对比2016.07.05片：左肺体积缩小，气管、纵隔向左侧偏移，左侧中间段支气管及左中肺、左上肺支气管分支狭窄，左肺门区见不规则软组织影，与不张的左肺组织及左肺门、纵隔淋巴结相互融合，分界不清，范围难测量，病灶信号不均匀，增强扫描呈不均匀较明显强化。左肺下叶尖段、后段及左肺中叶、上叶、右肺上叶舌段见多发斑片状灶，边界欠清；范围较前减小。左下上气管旁、主肺动脉窗、隆突上、左肺门见多个淋巴结，其中左肺门淋巴结与左上肺门区病灶相互融合，较前未见明显变化。两侧胸腔未见积液，左上胸膜稍增厚，右侧胸膜未见增厚、粘连。两侧半卵圆中心见少许斑片状异常信号灶，边界清晰，较大者4MM×6MM，T1WI呈稍低信号，T2WI、FLAIR呈稍高信号，增强扫描未见强化。余大脑各叶、小脑及脑干形态正常，信号正常，增强后亦未见异常信号区；各脑室及脑池大小、形态未见异常；大脑中线结构未见移位；颅骨质未见破坏。两侧下颌窦、筛窦粘膜增厚，蝶窦、乳突充气良好，骨壁完整。</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>乳腺</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>骨,T10右旁</t>
+          <t>左肺门区</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>双肺纹理稀疏,双肺透过度增强。左肺下叶内基底段可见不规则形状肿块影,边界欠清,大小约为5.8CM×5.2CM,CT值约为25HU,左肺下叶内基底段支气管阻断,左肺下叶远端可见多发斑片样渗出影。另双肺可见多发大小不一结节影,大者径约为1.1CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。左侧胸腔内可见少量积液。心脏大血管未见异常。所示肝内可见多发低密度影。1、左肺下叶内基底段肿块,考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺炎,肺内多发转移瘤,左侧少量胸腔积液;2、肺气肿征象;3、肝内多发低密度灶-转移?请结合腹部CT。</t>
+          <t>左上肺癌术后化疗后，与2012-9-12片对比：左肺术后改变，左肺中叶斑片、条索灶，考虑增殖灶。左侧胸膜不均匀增厚，较前明显，转移？左侧胸腔少量弧形积液。肝内多发囊肿。左上肺癌术后化疗后，与2012-9-12片对比：左肺上叶术后缺如，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索，与胸膜粘连。余两肺未见明确实质性病变。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量弧形积液，左侧胸膜可见增厚，增强后见明显强化，与前片对比，胸膜增厚较前明显。右侧胸腔未见积液。右侧胸膜无增厚、粘连。扫描范围内肝内见多发低密灶，边界清，大者短径约11MM，未见强化。左侧第4、5前肋见斜行线样高密度影。</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>左肺下叶内基底段</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>5.8CM×5.2CM</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>肝,肺内</t>
+          <t>左上肺</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>左侧乳腺肿胀,局部见一较大软组织信号肿块,大小约5.4CM×3.0CM,边缘分叶毛糙,与腺体分界不清,并累及相邻胸肌;表现为T1WI等低信号,T2WI略高信号,压脂序列及DWI呈高信号,增强扫描可见明显强化,并可见左侧乳腺皮肤增厚,乳头内陷,增厚的皮肤内可见强化结节灶。左侧腋窝多发小淋巴结,大者短径约0.6CM。右侧乳腺内可见多发类结节状及斑片状异常信号,信号略示不均,表现平扫未见异常信号,DWI呈略高信号,增强扫描可见强化,部分边界清,部分模糊。右侧腋窝见数个小淋巴结,大者直径约0.5CM。胸骨局部及部分胸椎椎体内可见斑片状异常信号,1.左乳癌伴局部皮肤破溃(BI-RADS5级);局部皮肤结节灶,考虑转移;左侧腋窝淋巴结肿大2.右侧乳腺结节灶(BI-RADS4级),建议穿刺活检;右侧腋窝小淋巴结</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>左乳</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>5.4CM×3.0CM</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>局部皮肤</t>
+          <t>肝内多发肝血管瘤，与旧片对比未见明显变化与2012-3-9CT片对比肝内另见多发低密度灶，考虑为肝转移瘤，必要时结合MR检查胆囊结石；左肾错构瘤。与旧片对比未见明显变化部分胸腰椎、左侧髂骨翼及骶骨异常改变，请结合临床肝脏密度明显不均匀减低，肝右左叶内可见多发大小不等的类圆形、片状低密度灶，边缘模糊不清，最大者位于左后叶，形态不规则，大小约6.3CM×5.3CM，增强扫描早期可见病灶边缘呈结节状强化，延迟期大部分病灶强化向中央扩展；肝左叶另见多个略低密度改变，界限不清，胆囊不大，壁不厚，胆囊内见一环形高密度影；胰腺、脾脏形态密度未见异常。左肾前外侧皮质见一混杂密度影突出于肾皮质表面，大小为4.9CM×3.3CM，病变大部分为脂肪密度影，内部可见条片状软组织密度影，增强扫描可见强化。右肾及肾下腺未见异常。膀胱子宫附件区未见异常。腹膜后未见明显增大淋巴结。部分胸腰椎、左侧髂骨翼及骶骨可见局限骨质密度减低及多发高密度影结节、斑片影。</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>左肺癌化疗后，与2013-5-21日片对比：左肺下叶后段病灶，较前稍缩小。两肺多发小结节，较前缩小。左锁下、纵隔、左肺门淋巴结，较前变化不大。左侧肋胸膜局部增厚并强化，较前变化不大。肝内数个囊肿。胸骨、多个椎体及右侧第2、第11后肋骨质改变，较前变化不大。左肺癌化疗后，与2013-5-21日片对比：左肺下叶后段见一类结节灶，边界欠清，最大层面大小约14MM×12MM，呈分叶状，密度不均匀，增强扫描不均匀强化，与邻近侧胸壁胸膜牵拉、粘连，与前片对比稍缩小。两肺散在数个结节、类结节影，边界部分清楚，部分不清，最大者直径约5MM。气管及支气管分支未见明显狭窄及异常扩张。左锁下、左下气管旁、两上气管旁、主肺动脉窗、隆突上、两肺门见多枚淋巴结，最大者短径约7MM，增强扫描不均匀强化。两侧胸腔未见积液。左侧肋胸膜不均匀增厚，增强扫描较明显强化，较前变化不大，右侧胸膜无增厚。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，肝S2、S4、S8见多个类圆形低密度影，边界尚清，最大者约12MM×12MM，增强扫描未见明显强化。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾及两侧肾下腺未见明显异常。腹膜后未见肿大淋巴结胸骨、胸1、5、12椎体、腰1椎体、右侧第2后肋、右侧第11后肋骨质密度不均匀，见点状、小片状密度增高影，边界尚清。</t>
+          <t>左肺上叶见肿块影，大小约为7.08CM×2.34CM，CT值约53HU。右肺上叶见一径约0.5CM结节。两肺门区未见异常。所示气管支气管影正常。左主动脉弓旁、纵隔及右肺门淋巴结增大，大者短径约3.7CM。内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺癌伴左主动脉弓旁、纵隔及右肺门淋巴结转移；2.右肺小结节，随诊；3.左侧肾上腺增粗，建议详查。</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>左肺下叶后段</t>
+          <t>左肺上叶</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14MM×12MM</t>
+          <t>7.08CM×2.34CM</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>右肺门淋巴结</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>右肺癌术后化疗后复查,与2017-05-27片对比:右肺下叶术后缺失,右肺下叶支气管截断,残端见金属致密影,未见明显软组织肿块影。残余右肺见多个类结节灶及条索灶,边界清。右肺上叶纵隔旁见条片稍高密度影,边界欠清。左肺内未见明显实质性病变。气管及余支气管分支通畅,未见明显受压变窄及异常扩张。双侧锁上、纵隔(主肺动脉窗、右上气管旁、双下气管旁、隆突下)、右肺门见多个小淋巴结,最大者直径约7MM,部分边界欠清,较前变化不大。双侧胸腔未见明显积液。右侧胸膜稍增厚,较前变化不明显;左侧胸膜未见明显增厚、粘连。心包腔内见少量液性低密度影,较前变化不大。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝S4、S6、S7见小结节低密度灶,边界清,最大短径约6MM,增强扫描轻度强化,较前变化不大。肝内胆管正常,其内未见结石影,胆囊大小正常,其内见点状小结石,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾见小类圆形低密度灶,边界清,较大者直径约8MM,增强扫描未见明显强化。双肾上腺大小、形态未见异常,密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第5后肋、左侧第6前肋局部骨质密度增高,较前变化不大。T11、T12、L1、L3骨质密度不均匀增高,较前变化不大。右肺癌术后化疗后复查,与2017-05-27片对比:右肺下叶术后缺失,局部未见明确复发征象。双侧锁骨上、纵隔多发小淋巴结,较前无明显变化。右肺上叶纵隔旁条带影,考虑放射性肺炎可能,较前变化不大。肝S4、S6、S7小结节低密度灶,考虑转移瘤,较前变化不大。右侧第5后肋、左侧第6前肋,T11、T12、L1、L3骨质改变,考虑骨转移瘤,较前无明显变化。双肾囊肿。胆囊结石。</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>右肺</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>右侧第5后肋,左侧第6前肋,T11,T12,L1,L3,肝S4,S6,S7</t>
+          <t>左下肺叶切除术后，右对比2012-8-21片：左侧斜裂胸膜较明显增厚，所见较前变化不大。右上肺膈面下小类结节灶，大致同前，考虑增殖灶可能大。两锁下及纵隔内数个小淋巴结，大致同前。肝内多个小类圆形低密度区，考虑小囊肿可能大。扫描所见胃底体下部大弯侧胃壁结节，间质瘤？建议进一步检查。左下肺叶切除术后，右对比2012-8-21片：左肺体积缩小，纵隔稍向左侧偏移，左中肺残见少许索条影，左侧斜裂不均匀增厚，内见条状高密度金属影，较前变化不大。右下肺透亮度稍增高，见多发小圆形透亮区，大致同前。右上肺膈面下见小类结节灶，大小约4MM×5MM，边界清，大致同前。余两肺未见明显病变。气管及右肺各叶支气管分枝通畅，未见明显软组织肿物或受压变窄。两锁下、血管前、两上气管旁、主动脉旁、隆突上可见多个淋巴结，最大者短径约为8MM，边界尚清，较前变化不大。两侧胸腔未见积液。左侧胸膜稍增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见散在数个小类圆形低密度区，直径约3MM~6MM，边界清，增强后未见明确强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见胃底体下部大弯侧胃壁见结节状突起，大小约9MM×10MM，增强后较明显强化。左侧第6肋骨质不连续，呈术后改变。余扫描范围内胸椎、胸壁骨及软组织未见异常。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>右肺下叶后基底段可见一软组织肿块,边缘分叶,与邻近胸膜关系密切,最大截面约为4.2CM×3.5CM,增强后中度强化,双肺野内可见多发大小不一的结节影,大者长径约为1.8CM,10R、纵隔内2R、4R、4L、7区、双锁上、右侧心膈角区可见多发肿大淋巴结,大者短径约为1.2CM;右侧胸膜条形增厚伴强化,右侧胸腔可见液性密度影。T11椎体可见明显溶骨性骨质破坏影。右肺下叶癌并右侧胸膜转移、右肺门、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移、T11骨转移;右侧胸腔积液。</t>
+          <t>肾盂癌术后、化疗后复查，与2014-10-22片对比：术区未见明确肿瘤复发征象；脂肪肝；左肺下叶尖段条索、类结节影，考虑增殖灶，较前相仿；右肺上叶后基底段小结节，较前相仿，考虑增殖灶可能性大；右锁骨下窝、纵隔小淋巴结，较前未见明显变化；左心房内充盈缺损影，较前未见明显变化；甲状腺两叶病灶，考虑结节性甲状腺肿；腰1椎体压缩性骨折，大致同前。肾盂癌术后、化疗后复查，与2014-10-22片对比：右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态、比例正常，轮廓光整，肝实质密度普遍减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许低密度影，未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>右肺下叶</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4.2CM×3.5CM</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>右侧胸膜,右肺门,纵隔,双锁上,右侧心膈角多发淋巴结,双肺,T11</t>
+          <t>肾盂,右肾</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2016-10-30片：右乳癌术后改变，局部未见肿瘤复发征象。左乳良性钙化。右肺下叶软组织灶，范围较前缩小。左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大，大致同前。右锁下、纵隔及右肺门淋巴结，较前缩小。肝S7肝内胆管结石。肝S4小囊肿。右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2016-10-30片：右侧乳腺缺如，右前胸壁皮肤稍增厚同前，未见明确结节、肿物影。左乳大小、形态正常，内见散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。两侧腋窝及两侧内乳区未见明确肿大淋巴结。右肺下叶舌段见一不规则软组织灶，大小约12MM×10MM，边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后呈明显强化；病灶远端见少许条索及斑片状模糊影，范围较前缩小。右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、左侧斜裂见小斑片灶，较大者约5MM×4MM，边界尚清，大致同前。余两肺清晰，未见明确结节影。气管及支气管分枝通畅。右锁下、两上气管旁、主动脉弓旁、右肺门见数个淋巴结，较大短径约6MM，边界尚清，增强后呈中度强化，较前缩小。两侧胸腔未见积液。胸膜未见增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，肝S7见一点状致密灶，直径约2MM。肝S4见小囊性灶，较大直径约4MM，边界清晰，未见强化。肝内胆管、胆总管未见扩张，内未见结石。胆囊未见异常。肝门区及门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>右乳,右肺下叶舌段</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>12MM×10MM</t>
+          <t>1.胸部PET/CT显像示：与2012-5-4本院PET/CT图像相比，右肺多发结节较前明显缩小、减少，糖代谢异常增高灶消失；2.右肺下叶舌段新增糖代谢轻度增高的斑片影，考虑为放疗后改变；3.右上胸膜新增无明显糖代谢的结节，请结合临床。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行胸部PET/CT断层显像。胸部PET/CT图像示：与2012.5.4本院PET/CT图像比较，右肺下叶舌段新增糖代谢轻度增高的斑片影，最大SUV值为2.68，相邻肺组织收缩，原右肺多发结节较前均明显减少、缩小，糖代谢异常增高灶消失，最大者大小为4.4MM×2.1MM。右上胸膜见新增无明显糖代谢的小结节，大小为4.3MM×3.2MM，右上肺后基底段部分膨胀不全的斑片模糊影，最大SUV值约1.2，与前基本相似。余未见明确糖代谢增高灶及占位性病变；两侧胸腔无积液；心脏不大。胸部骨骼PET/CT图像时第1-10胸椎糖代谢程度明显减低，与2012-5-4本院PET/CT图像相似，考虑与放疗有关。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象。</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.06.07CT片未见明显变化;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。4.左下肺胸膜下粟粒灶。5.右侧腋窝增大淋巴结。6.一上位胸椎致密影,请详查。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。</t>
+          <t>右下肺癌、右侧胸膜转移、右侧胸腔大量积液、化疗后复查，同2011-12-20日CT对比，右下肺病灶较前略有缩小，右侧胸膜多发结节及右侧胸腔大量积液、右肺不张情况基本同前，纵隔、右肺门淋巴结大小基本同前，左侧肾下腺转移瘤大小基本同前，肝脏未见明确病变。右下肺癌化疗后复查：右下肺见不规则肿块影，大小约为55MM×48MM，边界欠清楚，密度不均匀，增强后不均匀强化。右下、上肺支气管变窄，右胸膜呈结节状增厚，右胸腔见大量积液，右肺受压不张缩向肺门；左胸膜未见增厚，左胸腔未见积液。左肺未见明确病变。左侧下上气管旁、食管旁、右侧肺门见数个淋巴结影，短径约3MM至13MM，边界尚清。肝脏形态正常，轮廓光整，右左叶比例适中，密度均匀，肝内未见明显异常密度影，增强扫描未见明显异常强化灶；肝内胆管未见异常，其内未见结石；胆囊大小、形态正常，胆囊壁增厚，胆总管未见扩张，其内未见结石；肝门区未见异常；门静脉所见未见异常；脾大小未见异常，密度均匀；胰腺大小、形态未见异常，密度均匀；左侧肾下腺可见软组织肿物，大小约为18MM×12MM密度不均，右侧肾下腺大小、形态、密度正常；两肾未见异常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描所见胸椎、腰椎骨质未见骨质破坏征象。</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>右肺下叶</t>
+          <t>右下肺</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3.97CM×4.64CM</t>
+          <t>55MM×48MM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>右肺,肋骨</t>
+          <t>右侧胸膜</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>右上肺癌术后、化疗后复查：术区未见明显肿瘤复发征象；左肺中叶和上叶少许纤维灶，较前变化不明显；多发肝囊肿，较前相仿；右肾上极结节，考虑血管平滑肌脂肪瘤可能性大，较前无明显变化；左肾囊肿；右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查，与2014-1-9日片对比：右上肺缺如，残肺含气良好，右肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清，较前无明显变化。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化，较前未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化，较前无明显变化。左肾实质内见散在多个类圆形低密度灶，最大者约27MM×29MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见骨质破坏征象。</t>
+          <t>左上肺癌术后化疗后，对比2016-4-12片：左上肺术后改变，局部未见明确复发征象。左肺下叶少许纤维增殖钙化灶。左肺下叶后段类结节灶，考虑增殖灶，大致同前。右下肺斑片灶，考虑增殖钙化灶，大致同前。左胸腔少量积液，较前未见明显变化。肝内数个小囊肿，大致同前。左上肺癌术后化疗后复查：左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，左下肺见少许条片状高密度影，内见钙化灶，相邻胸膜受牵拉。左肺下叶后段见一小类结节灶，边界尚清，大小约3MM×3MM，密度较高。右下肺尖后段见一小斑片影，大小约7MM×3MM，内见点状钙化。气管、支气管分支通畅。两肺门及纵隔未见肿大淋巴结影。左锁骨上动脉起自主动脉弓，经气管后方走行。考虑迷走型左锁骨上动脉。左胸腔见少量积液，左侧胸膜稍增厚、粘连，右侧胸腔未见积液，右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。肝内胆管正常，未见结石，胆囊不大，未见结石，胆总管未见扩张，未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。所示两肾未见异常。两肾下腺未见明确异常。胃右血管旁可见小淋巴结，大小约为6MM×7MM，腹主动脉旁未见肿大淋巴结。扫描所见多个胸腰椎见骨质增生，未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>右上肺</t>
+          <t>左上肺</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>左肺癌多发转移化疗后，与2013-03-19对比：左肺中叶病灶，较前缩小。左侧胸壁、斜裂及水平裂病变，较前缩小。副脾。左肾小囊肿。腹膜后、左前膈角、纵隔小淋巴结，较前未见明显变化。左肺癌多发转移化疗后复查：左肺中叶见一不规则肿物影，边界欠清，大小约为26MM×13MM，密度欠均匀，可见分叶及毛刺，与水平裂及斜裂胸膜关系密切，增强扫描病灶中等强化。病灶外缘见长状条致密灶，边清。左侧胸壁胸膜、斜裂及水平裂胸膜见多发结节增厚，最大结节约6MM×4MM，增强扫描轻度强化。右肺未见明确病变。左肺中叶支气管变窄，余气管及支气管分支通畅，未见明确肿物及受压变窄。两侧胸腔内未见积液。右侧胸膜未见增厚。左侧下上气管旁可见多个小淋巴结，最大短径约6MM，可见强化.两侧肺门未见肿大淋巴结。肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，密度均匀。肝内外胆管未见扩张，胆囊不大，壁不厚，内未见结石影。肝门区正常，门静脉所见正常，脾脏不大，密度均匀，前缘见一结节影，短径约8MM，密度及强化方式与脾脏类似。胰腺大小形态及密度未见异常。左肾见一类圆形囊性低密度灶，边界清，短径约3MM，未见强化。右肾及两侧肾下腺区未见异常。腹膜后、左前膈角可见多个小淋巴结，最大短径约6MM，孤立散在，轻度强化。</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>左肺中叶</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>26MM×13MM</t>
+          <t>肝脂肪浸润，胆囊胆固醇结晶，左侧颈部淋巴结肿大肝肋上斜切120MM/（－），剑上纵切57MM/2指，肝区回声密集欠均，门脉主干内径10MM，脾肋间切30MM/（－）。胆囊62MM×21MM，壁下见数个强回声伴彗尾征，胆总管4MM。胰头15MM，胰体12MM，胰尾13MM。左肾93MM×40MM×45MM，肾盂分离(-)，右肾100MM×39MM×44MM，肾盂分离(-)。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胆胰肾血流正常。左侧颈部外侧区见数个低回声团块，最大17MM×10MM，CDFI示其内较丰富彩色血流。右侧颌上、右侧颈血管旁及两侧锁骨下未见明显肿块回声。CDFI未见异常血流。左侧腮腺未显示，两侧颌上腺、右侧腮腺内部回声均匀，其内及周围未见明显肿块回声。颏上区未见明显肿块回声。CDFI未见异常彩色血流。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>肺癌化疗前、全脑放疗后，与2017-03-20片对比：两肺下叶、右肺上叶背段多发结节，考虑转移可能性大，部分较前稍增大，大部分较前未见明显变化。两肺上叶少许纤维增殖钙化灶灶，大致同前。小叶中央型肺气肿。右侧叶间胸膜小结节状增厚，较前变化不明显。两肾下腺病变，较前增大。大脑两侧及左侧小脑半球多发结节，病灶范围较前变化不大。肺癌化疗前、全脑放疗后，与2017-03-20片对比：右肺下叶见金属致密影，其旁少许索条影，与邻近胸膜牵拉粘连。两肺下叶、右肺上叶背段多发类结节灶，最大者约为19MM×12MM，边界尚清，增强扫描见不均匀明显强化，邻近见少许条片及斑片影，部分较前稍增大，大部分较前变化不大。两肺上叶见少许条索状高密度灶及小类结节状致密灶，边界清楚。两肺见多个小类圆形无肺纹理区。气管及支气管分支通畅。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。右侧叶间胸膜见小结节状增厚，直径约为2MM。肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾、胰腺、两肾大小、形态未见异常，密度均匀。右肾下腺见一结节，大小约为37MM×34MM，边界清楚，轻中度强化，较前增大。左肾下腺见结节，大小约为36MM×24MM，边界清楚，增强扫描见轻度强化，较前稍增大。膀胱充盈良好，境界清楚。精囊大小、形态未见明显异常，密度均匀，膀胱精囊角存在。前列腺大小，形态未见异常，密度均匀。盆腔未见软组织肿块影。直肠境界清楚，壁不厚，未见明确异常密度灶。两侧髂血管旁、腹股沟未见肿大淋巴结。左侧顶叶、右侧额叶、两侧枕叶及左侧小脑半球见多发结节，大者位于左侧小脑半球，大小约20MM×12MM，可见轻度强化，与前片对比，病灶范围变化不大，强化程度减低。余脑实质密度均匀。各脑沟脑裂未见明显异常。扫描范围内骨质未见明确破坏征象。</t>
+          <t>左乳MT术后病例：腹腔肝胃间隙淋巴结转移可能大；肝、两肾小囊肿；左侧大量胸腔积液伴左肺部分不张；右侧髂骨高密度结节，请结合核医学检查；左侧臀部及侧胸壁皮上结节，转移待排。肝脏表面光滑，各叶比例匀称，肝实质内见数枚囊性无强化灶，边界清晰；肝胃间隙见肿大淋巴结，大小约25MM，增强后轻中度强化；脾脏未见肿大，密度均匀，其内侧腹腔见类似强化结节（se301：im45）；胆囊壁无明显增厚，胆管未见扩张；胰腺未见明显异常；两侧肾脏见微小囊性无强化灶；子宫不大，膀胱壁无增厚，后腹膜未见肿大淋巴结；腹腔内无积液。左侧胸腔见大量液性密度影，左肺部分不张。右侧髂骨翼颈部骨质密度不均匀增高；左侧臀部及侧胸壁皮上见软组织结节影，增强后似见轻度强化。</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>肺</t>
+          <t>左乳</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>腹腔肝胃间隙淋巴结,左侧臀部,侧胸壁皮上</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>肺癌化疗后，与本院2014-11-13PET-CT对比：右肺下叶尖后段病灶，较前明显缩小，侵犯右侧斜裂胸膜，病灶远端阻塞性肺不张。左肺尖及两肺上叶纤维增殖钙化灶。主肺动脉窗、右侧内乳区淋巴结，考虑转移可能性大，其中内乳区淋巴结较前缩小，余变化不明显。左下上气管旁、隆突上小淋巴结。右上胸膜增厚，较前明显减轻。甲状腺右叶病变，考虑结节性甲状腺肿可能。右侧肾下腺结合部增粗并钙化，考虑良性病变可能性大。两肾盂小结石。肺癌化疗后，与本院2014-11-13PET-CT对比：右肺下叶尖后段见一类结节灶，大小约16MM×12MM，边界不清，呈分叶状，边缘见毛刺，密度欠均匀，增强扫描轻度强化，病灶侵犯右侧斜裂胸膜，远端右肺下叶尖后段及舌段见条片状致密影，边界欠清，密度欠均匀，增强扫描强化明显。与前片对比，病灶较前明显缩小。左肺尖及两肺上叶见散在条索灶，边界尚清，其中左肺尖病灶内夹杂颗粒状钙化灶。气管及支气管分支通畅。主肺动脉窗、右侧内乳区见数个淋巴结，大者短径约10MM，边界清，密度均匀，较明显强化，其中右侧内乳区淋巴结较前缩小，余淋巴结变化不明显。左下上气管旁、隆突上见小淋巴结，短径约5~8MM，界清，轻度强化。两侧胸腔未见积液。右上胸膜局限性不均匀增厚，增强扫描强化明显，较前明显减轻。左侧胸膜无增厚、粘连。所示甲状腺右叶内见一类圆形低密度灶，直径约5MM，界清，轻度强化，强化程度低于正常腺体。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂见数个致密灶。右侧肾下腺结合部增粗，内见钙化灶；左肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明确破坏征象。</t>
+          <t>右肺MT综合治疗后，与2013.11.4本院PET/CT图像比较：右肺上舌段及上叶前基底段结节较前增大，糖代谢增高，考虑转移，请结合临床；右肺炎症较前糖代谢程度减低。余较前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧下颌窦内软组织增厚影，考虑为慢性炎症。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示右肺上舌段见大小约14.3MM×9.5MM结节及直径约4.0MM结节影，其中较大一枚伴糖代谢异常增高，最大SUV值约6.0；右肺上叶前基底段见大小约11.4MM×9.5MM结节，伴糖代谢异常增高，最大SUV值约4.3。右肺另见斑片状影，内见支气管充气征，伴糖代谢增高，最大SUV值约2.1。右肺上叶背段胸膜上见不伴糖代谢增高的微小结节影。余右肺少许支扩及慢性炎症较前相仿。左肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。右侧胸膜局部略增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见异常占位；肝内外胆管无扩张；脾脏不大，密度均，未见异常占位；左肾见直径约6.0MM低密度灶，考虑为囊肿；胆囊、胰、右肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，内见钙化灶；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像示胸1～10椎弥漫性骨小梁稀疏伴糖代谢减低，考虑放疗后改变；余骨未见异常放射性浓聚及骨质破坏吸收征象。</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>右肺下叶尖后段</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>16MM×12MM</t>
+          <t>右肺</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>主肺动脉窗,右侧内乳区淋巴结</t>
+          <t>右肺上舌段及上叶前基底段</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>右侧卵巢囊性占位，考虑卵巢囊肿声像，建议阴道超声复查肝脏、胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径9MM，肝内未见明显肿物回声。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约38MM×35MM×27MM，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中，内膜厚约2MM。两侧卵巢可探及，右侧卵巢内可见一囊性占位，大小约11MM×11MM,边界清，后方回声增强CDFI:右侧囊性占位周边及内部未见明显血流信号。</t>
+          <t>轻度肺动脉高压常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，28，20-37，右房内径，32，19-40，右室舒张末内径，43，35-56，右室收缩末内径，23，23-35，室间隔厚度，9，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压为40MMHg。，三、右心功能测定：，FS：46%；LVEF：77%；二尖瓣血流图示E/A，&amp;gt；，1；DT：170MMs，四、组织多普勒测定：，DTI示S波峰值：10CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1.结合临床,左肺上叶占位,考虑左肺癌;纵隔淋巴结转移2.双肺纤维灶3.双肺气肿4.右肺下叶小结节灶,建议观察5.左侧胸膜增厚6.肝囊肿7.右侧肾上腺低密度灶,考虑腺瘤左肺上叶胸膜下见一不规则软组织密度肿块影,与胸膜相贴,截面积约6.8CM×3.6CM;增强呈较显著不均匀强化。纵隔内主动脉弓旁、左肺动脉旁见多发肿大淋巴结,大者短径约2.3CM。双肺野内见少许条索状影,其内可见囊泡状过度透光区。右肺下叶见一小结节灶,直径不足0.5CM。左侧胸膜局部增厚。左锁上见小淋巴结,短径不足0.5CM。肝脏体积略缩小,其内可见多发囊性密度灶,边界清,未见强化,大者直径约3.0CM。右侧肾上腺见一低密度灶,密度较低,直径约2.4CM。胆囊壁不厚。胰腺、脾、左侧肾上腺及双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>左肺上叶</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>6.8CM×3.6CM</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>纵隔淋巴结</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，32，19-40，右室舒张末内径，46，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：173MMs，四、组织多普勒测定：，DTI示S波峰值：8.9CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1.右肺下叶周围型肺癌较前2017-02-06相仿,伴双肺多发转移,部分较前相仿;2.右肺下叶间质性炎症,较前相仿;3.部分胸椎及邻近肋骨多发成骨性转移,较前相仿;4.所示甲状腺右叶病变,请结合相关检查;5.所示左肾囊肿。右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.50CM×1.89CM,CT值约59HU,见血管集束。双肺内可见多发结节样及粟粒样密度影,大者径约0.4CM。右肺下叶斑片状高密度影,边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。所示甲状腺右叶增大,密度不均匀。所示左肾低密度灶。</t>
+          <t>1.结合临床，右乳癌术后改变；肝内多发占位，结合临床，考虑转移，较前(2015-6-25)部分缩小，部分增大，但坏死成分增多；T1椎体不均匀骨质破坏，考虑转移，较前变化不著2.脂肪肝；3.右肾囊肿；4.腹膜后淋巴结肿大，较前变化不著；5.双肺小结节灶，较前变化不著，建议观察。右乳术后，术区壁未见增厚及异常强化。右侧腋窝结构紊乱，未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶，大者直径约0.6CM，边界欠清。肝脏密度普遍性减低，实质内见数个结节灶，大者直径约3.2CM，边缘有强化，部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常，右肾内示一囊性低密度灶，边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶，大者短径约1.0CM。各咽壁不厚，双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。骨窗显示T1椎体显示不均匀骨质破坏。</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>右肺下叶</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2.50CM×1.89CM</t>
+          <t>右乳</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>双肺,胸椎,肋骨</t>
+          <t>肝,T1椎体</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>右侧胸膜局限性增厚,右肺下叶可见大小约8.4CM×5.2CM的团块状高密度影,CT值为39HU,相邻肋骨未见明显骨质破坏。右肺上叶可见多发囊状透亮影。左肺下叶近斜裂处可见结节影,径约0.5CM。右肺门及纵隔内可见多发增大淋巴结影,大者短径约1.2CM。右侧部分肋骨可见高密度致密影。心影不大,心包局部增厚,可见液性密度影。1.右肺下叶占位,考虑恶性伴右肺门及纵隔淋巴结转移可能大;2.右肺上叶局限性肺气肿、肺大泡;3.左肺下叶近斜裂处结节,随诊;4.右侧胸膜增厚,心包少量积液;5.右侧部分肋骨点状致密影,请结合临床除外转移。</t>
+          <t>右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右侧胸膜示多发类结节灶，大者直径不足0.5CM。右肺中叶见一结节灶(图4-24)，直径约0.4CM，密度较低。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示数个小结节灶，大者短径约1.0CM，密度减低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床，右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移，较前(2015-4-7)结节示减少；骨转移，较前部分密度增高；左锁骨上淋巴结肿大，变化不著2.右肺中叶结节灶，变化不著3.脂肪肝，肝内钙化灶4.左侧副鼻窦炎</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>右肺下叶</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>8.4CM×5.2CM</t>
+          <t>右乳</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>右肺门及纵隔淋巴结,侧部分肋骨</t>
+          <t>右侧胸膜,骨</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,33,20-37,右房内径,31,19-40,右室舒张末内径,41,35-56,右室收缩末内径,24,23-35,室间隔厚度,9,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg,。,三、,右心功能测定：,LVEF:73%；二尖瓣血流图示E/A,&amp;lt;,1;DT:194MMs,四、组织多普勒测定：,DTI示S波峰值:13CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>左肺下叶背段支气管截断伴软组织肿块，考虑恶性，肺癌可能大。外周肺阻塞性改变。左肺门及纵隔5组多发肿大淋巴结，考虑转移。隆突下钙化灶，考虑陈旧病变。左侧肾上腺可疑结节，请参考腹部检查。左肺下叶背段支气管截断，局部见类圆形软组织密度肿块，边缘见浅分叶，强化不均，约56MM×42MM(IM39)，与肺门淋巴结融合，与左下肺门多支血管关系密切；远端肺内见斑片索条影。余肺清晰，未见结节及片絮状病灶。纵隔5组见融合状肿大淋巴结，约40MM×27MM(IM25)；隆突下见不规则钙化灶。锁骨上未见肿大淋巴结。双侧胸膜较光滑，未见胸水。扫描所及诸骨未见骨质破坏灶。扫及左侧肾上腺饱满，内侧支可疑结节(IM67)。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>左肺下叶</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>56MM×42MM</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>左肺门,纵隔5组多发肿大淋巴结</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>左肺上叶肺癌化疗后，与2014-08-19对比：左上肺叶病灶，较前范围稍增大。纵隔、左肺门淋巴结，未见明显变化。肝囊肿。左肾囊肿。胸7、8、12、腰2、左侧第3后肋病变，较前变化不大。左肺上叶肺癌化疗后：左上肺叶背段见一不规则形软组织密度灶，大小约24MM×19MM，呈分叶状，见短毛刺，其内密度欠均匀，增强扫描不均匀强化，病灶以远肺组织内见条片状密度增高影，邻近斜裂受牵拉。余肺纹理清晰，未见明确病变；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。左侧肺门见稍大淋巴结，大小约为8MM×7MM，增强扫描轻度强化，左侧上气管旁、隆突上见多个小淋巴结，大的短径约5MM，轻度强化。两侧胸腔未见积液。右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S4、S7、S7见数个小囊性低密度灶，最大者约15MM×14MM，边界清楚，密度均匀，增强后未见强化；肝内胆管正常，胆囊大小正常，其内未见结石影，胆总管未见扩张；肝门区正常；门静脉所见正常。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀。左肾见2个囊性病灶，大的约53MM×46MM，边界清楚，增强后未见强化。右肾所见正常；两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。腹腔未见积液。胸7、8、12、腰2椎体见骨质破坏区，周围见硬化边。左侧第3后肋骨松质见条片状高密度灶，边界模糊。</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>左上肺叶背段</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>24MM×19MM</t>
+          <t>贲门肿胀；十二指肠球部霜斑样溃疡；慢性非萎缩性胃炎。插镜情况：顺利。送达部位：十二指肠降部。食　　管：黏膜光滑，舒缩好，NBI观察未见明显异常区域。贲　　门：开闭好，E-G线清楚，右后壁粘膜充血肿胀，活检1块。胃　　底：黏液湖稍浑，所见黏膜光滑，未见静脉曲张。胃　　体：黏膜光滑，未见糜烂、溃疡或肿物。胃　　角：弧形，光滑。胃　　窦：蠕动好，黏膜稍充血肿胀，未见糜烂、溃疡或肿物。幽　　门：圆，开放状。球　　部：球腔形态正常，小弯侧前壁见霜斑样溃疡，粘膜充血肿胀，余黏膜未见异常。降　　部：黏膜未见异常。请4个工作日后到2号楼6楼病理科取活检结果。</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>右肺癌胰腺转移化疗后，右下肺及肺门区病变较前缩小，右肺较前复张。右侧锁骨下、纵隔、两肺门多发淋巴结，考虑转移，较前明显缩小。左中肺病变，考虑炎症，较前吸收。右侧少量胸腔积液，较前减少。胰腺颈部肿物，考虑转移瘤，较前缩小。肾囊肿。右肺癌胰腺转移化疗后，与2013-12-05片对比：右下肺及肺门区可见一不规则肿物影，边界不清，与不张右下肺组织分界不清，范围难以准确测量是，密度不均匀，见少许斑点状钙化，增强扫描不均匀强化，与前片对比，病变范围较前缩小，右肺较前复张。肿物与纵隔关系密切，部分包绕右肺动脉。右下肺支气管狭窄中断，右上肺支气管稍狭窄。左中肺见少许斑片状稍高密度灶及条索灶，范围较前缩小。原右上肺斑片灶已消失。右侧锁骨下、两下、上气管旁、主动脉旁、主肺动脉窗、隆突上及两肺门可见多发肿大淋巴结，边界不清楚，相互融合，密度不均匀，较大者大小约为14MM×25MM，增强后不均匀强化，较前明显缩小。左侧胸腔未见积液，右侧见少量胸腔积液，较前稍减少。右下胸膜稍增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰颈区域见一团块状肿物，大小约为43MM×59MM，边界欠清，密度不均匀，增强后轻度不均匀强化，较前缩小。胰管未见明显扩张。两肾见囊性病灶，较大者大小约为21MM×26MM，边界清楚，增强后未见强化，较前未见明显变化。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质未见明显破坏征象。</t>
+          <t>左乳术后，术区壁未见增厚及异常强化。左侧腋窝结构紊乱，未见异常强化灶。右乳及右侧腋窝未见异常密度灶。纵隔内2R、2L、4R、4L、7区及双肺门示多发结节灶，大者短径约0.7CM。双肺野内散在多发结节灶，大者短径约1.6CM。胸廓骨质未见破坏。肝内散在多发结节灶及肿块影，边缘强化，大者直径约5.7CM。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔肝门区、腹膜后门腔间隙、腹主动脉旁示多发结节灶，大者短径约1.4CM。结合临床，左乳癌术后改变；双肺多发转移；肝多发转移；腹腔腹膜后淋巴结转移；纵隔淋巴结略增大</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>右下肺及肺门区</t>
+          <t>左乳</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胰腺,右侧锁骨下,纵隔,两肺门多发淋巴结,胰腺颈部,胰腺</t>
+          <t>双肺,肝,腹腔腹膜后淋巴结</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>左肺下叶后段肿块，考虑周围型肺癌；病灶周围左肺下叶后段小结节，考虑肺内转移瘤可能性大。肺气肿。两侧锁骨下区、纵隔及左肺门淋巴结，考虑转移。两侧腋窝小淋巴结。肝小囊肿。右肾囊肿。T2椎体小结节，骨岛可能性大，建议复查。左肺下叶后段见一类圆形软组织密度肿物，大小约32MM×28MM，略呈浅分叶状，边缘毛糙，可见多发短毛刺，部分与左下胸膜粘连，密度欠均匀，内见空洞，增强扫描不均匀强化。左肺下叶后段（肿块上方）另见一小结节，直径约3MM，边界清，增强见轻度强化。余肺见多发散在小圆形透亮区。气管及支气管分支未见明显狭窄及异常扩张。两侧锁骨下区、左下、上气管旁、隆突上、左肺门见多个淋巴结，部分肿大，大者约21MM×17MM，边界尚清，密度尚均匀，增强扫描见强化。两侧腋窝见多个小淋巴结，边界清，大者短径约7MM。两侧胸腔未见积液。右侧胸膜无增厚、粘连。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，密度不均匀，肝S8、S5各见一小圆形低密度灶，大者直径约5MM，边界清，无强化。余肝实质未见异常密度及异常强化灶。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。右肾见一类圆形低密度灶，边界清，直径约15MM，无强化。左肾未见明显异常。两肾下腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。T2椎体见一小结节状高密度灶，直径约5MM。余扫描范围内骨质结构未见破坏征象。</t>
+          <t>右乳癌术后改变，右前胸壁皮肤不均匀增厚，考虑术后改变可能，建议随访。左乳良性钙化。右肺下叶下舌段软组织灶，原发性肺癌与转移瘤鉴别。左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大。右锁下、纵隔及右肺门淋巴结，性质待定，建议随访。右乳癌根治术后复查：右侧乳腺缺如，右前胸壁皮肤不均匀增厚，未见明确结节、肿物影，左乳大小、形态正常，内见数个散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。两侧腋窝及两侧内乳区未见明确肿大淋巴结。右肺下叶下舌段见一不规则软组织灶，大小约23MM×15MM，边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后呈明显强化；病灶远端见少许条索及斑片状模糊影；右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、左侧斜裂见数个小斑片灶，较大者约5MM×4MM，边界尚清。余两肺清晰，未见明确结节影。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右锁下、两上气管旁、主动脉弓旁、右肺门见数个淋巴结，较大短径约10MM，边界尚清，增强后呈中度强化。两侧胸腔未见积液。胸膜未见增厚。所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>左肺下叶后段</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>32MM×28MM</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>左肺下叶后段小结节,两侧锁骨下区,纵隔及左肺门淋巴结</t>
+          <t>右乳</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>肝脂肪浸润，甲状腺右叶结节伴钙化—性质待定，建议超声造影；两侧颈部见淋巴结肝肋上斜切120MM/（－），剑上纵切58MM/2指，肝区回声密集欠均，门脉主干内径10MM，脾肋间切30MM/（－）。左肾105MM×45MM×43MM，肾盂分离(-)，右肾100MM×43MM×42MM，肾盂分离(-)。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI示肝胆胰肾血流正常。甲状腺左叶41MM×15MM×13MM，甲状腺右叶42MM×14MM×13MM，内部见7MM×5MM混合回声团块，内见数枚强回声团块伴声影，较大约1.5MM，边界清，CDFI周边见短线状彩色血流，RI0.73。峡部3MM。甲状腺内部回声均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.23MM/s，RI0.56。颈部右侧甲状腺下动脉血流通畅，PSV0.22MM/s，RI0.55。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大18MM×7MM，右侧最大13MM×5MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
+          <t>右肺上叶后段见一不规则结节影，大小约2.1CM×2.0CM，边缘见浅分叶及短毛刺，内见细支气管充气，邻近胸膜牵拉，右肺上叶(IM26)见一小结节状钙化，右肺上叶(IM27)及左下肺(IM37)见小结节灶，较大约0.6CM，边缘清晰；两下肺见少许斑片索条影，所见各支气管腔通畅，纵隔内未见肿大淋巴结，两侧胸膜稍增厚，胸腔内无积液，甲状腺右侧叶明显增大，密度不均匀，内见钙化，气管明显受压左移。冠脉钙化。冠脉走行区致密影。右上肺MT，两肺小结节，同2018-03-22片大致相仿；两肺少许慢性炎症及陈旧灶；冠脉病变。甲状腺右叶病变伴气管受压左移，请结合超声。</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>右肺上叶后段</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2.1CM×2.0CM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>左肺上叶糖代谢异常增高的占位,考虑MT可能,请结合临床;左侧斜裂胸膜增厚;双侧胸腔少量积液;第2胸椎右侧横突局部糖代谢轻度增高,转移待排,建议随访骨扫描;肝脏多发糖代谢减低的占位,考虑良性病变;盆腔少量积液;甲状腺双腺叶糖代谢异常增高的病变,建议超声进一步检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺双腺叶糖代谢异常增高,最大SUV值约10.1,内可见低密度灶,较大者位于左叶,大小约26.0MM×25.0MM,内并可见钙化影。双侧颈部、锁骨区未见明显糖代谢异常增高灶。胸部PET/CT图像示左肺上叶见大小约27.5MM×18.1MM、边界不清的占位,内密度不均,可见支气管通入,边缘可见毛刺,远端胸膜牵拉,伴糖代谢异常增高,最大SUV值约9.5。左侧斜裂胸膜增厚。肺门、纵隔、胸壁、腋窝未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结,双肺门影不大;双侧胸膜无增厚;双侧胸腔少量积液;心脏无明显增大;双侧腋窝无明显肿大淋巴结;双侧乳腺无明显占位。腹部PET/CT图像示肝脏增大,内见多发低密度占位,最大者大小约148.0MM×105.0MM,部分内可见更低密度区,呈糖代谢减低。肝脏内另见2枚无糖代谢增高的囊性低密度灶,较大者大小约45.0MM×28.0MM。胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔少量积液。骨骼PET/CT图像示第2胸椎右侧横突局部糖代谢轻度增高,最大SUV值约2.8,局部骨皮质可疑毛糙。</t>
+          <t>左下肺癌楔形切除术后、化疗及靶向治疗后，和2016-06-14片对比：左下肺条片影，考虑术后改变可能性大，较前未见明显变化。右肺中叶及左下肺近胸膜结节灶，较前新增，可疑转移瘤。右肺上叶尖段小斑片稍高密度灶，较前稍增多。左肺上叶下舌段、右下肺斑片灶，考虑纤维灶。右下肺肺大泡。胆囊结石。双肾囊肿，部分复发性囊肿。T12椎体高密度灶，较前稍增大，可疑转移瘤。左侧侧胸壁不规则片状影，考虑术后改变。左侧肩胛骨前方脂肪瘤，较前相仿。左下肺癌楔形切除术后、化疗及靶向治疗后，和2016-06-14片对比：双肺纹理清晰，左肺下叶背段及后基底段见不规则条片影，边界欠清，邻近胸膜牵拉，较前未见明显变化。右肺上叶尖段见2个小斑片稍高密度灶，边界欠清，大者直径约6MM，较前稍增多。右肺中叶、左下肺近胸膜见多个结节灶，边界清，大者直径约7MM，增强后轻度强化。左肺上叶下舌段、右下肺见斑片灶，边界欠清。右下肺见多个含气透亮空腔影。气管及支气管分支通畅。双肺门、双侧腋窝及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。左侧胸膜局部稍增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾见多发囊性灶，最大约为17MM×13MM，边界清，增强扫描未见强化，部分平扫呈稍高密度。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。左侧侧胸壁见不规则片状影，边界不清，较前未见明显变化。左侧肩胛骨前方见一类圆形脂肪密度影，大小约18MM×16MM，边界清。T12椎体见一结节状高密度灶，长径约13MM，较前稍增大；左侧第4、5肋腋段骨质中断。余所见骨质结构未见明显破坏征象。</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>左肺上叶</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>27.5MM×18.1MM</t>
+          <t>左下肺</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>第2胸椎右侧横突</t>
+          <t>右肺中叶,左下肺近胸膜,T12椎体</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为37HU,其内密度不均,大小约为3.8CM×2.6CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.79CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1右肺下叶肺癌,并双肺、右胸膜多发转移,与2015-06-23CT片对比,肿块略减小,双肺多发转移较前减少、减小;右侧胸腔积液,较前减少;心包积液,较前相仿;2.甲状腺饱满。</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>右肺下叶</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>3.8CM×2.6CM</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>双肺,右胸膜</t>
+          <t>两侧半卵圆中心脱髓鞘改变同前。右侧小脑转移大小同前，强化减弱，左侧小脑强化结节略缩小。右侧枕叶强化结节同前，追查。与2015-1-6头部MRI对比：两侧大脑半球结构大致对称，中线结构居中。两侧半卵圆中央区小点片状长T1长T2信号同前，周围边界清楚，未见强化。右枕叶环形强化结节同前，仍约3MM(SE8，IM12)。右侧小脑稍长T2信号结节大小同前，仍约13MM×6MM（SE2IM8），增强扫描强化较前减弱；邻近脑膜现未见强化；左侧小脑半球类圆形强化结节较前缩小，原约4MM，现约3MM（SE8IM4）。脑干未见异常信号灶。中线结构居中，各脑室未见扩张，脑沟裂未见增宽。头颅诸骨未见骨质破坏灶。</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>右上肺癌术后、化疗后改变，局部未见明确复发征象，右侧胸膜增厚。原右肾下腺小结节影，较前缩小，现已不明显。左肾下极结节，考虑肾囊肿。右上肺癌术后、化疗后：右上肺缺如，右上肺野见散在条索影，对比2009-3-16日CT，未见明显变化，余两肺纹理清晰，肺内未见实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变，胸椎未见明显异常。扫描层面左肾下极见一类圆形囊性低密度影，边界清，大小23MM×24MM，增强扫描时未见强化，较前无大变化。原右肾下腺体部结节影，较前缩小，现已显示不清。</t>
+          <t>鼻咽癌治疗后复查，与2014-9-24对比：左肺上叶、右肺下叶病灶，较前未见明显变化，考虑纤维增殖钙化灶可能。右肺上叶新增磨玻璃灶，炎性病变可能大。原右侧锁骨下肿大淋巴结较前明显缩小。两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门多发肿大淋巴结，较前增大、增多，结合病史，考虑转移可能性大。肝脏未见明显占位病变。左肾囊肿。腹主动脉旁淋巴结，建议复查。鼻咽癌治疗后复查，与2014-9-24对比：两肺纹理清晰，左上肺、右下肺见数个小结节状病灶，大小约3MM~5MM，边界清楚，部分与左侧斜裂胸膜相连，部分病灶内见钙化灶，与前片对比，病灶较前变化不明显。两肺下叶见少许条索灶及空腔影，边清。右肺上叶后基底段新增小片状磨玻璃灶，边界模糊，长径约14MM。原右侧锁骨下多发肿大淋巴结较前明显缩小，大者短径约6MM；两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门见多发肿大淋巴结，部分相互融合成团块状灶，边界稍模糊，增强扫描不均匀强化稍明显，轴位最大约89MM×56MM（Se7，Im29），病灶包绕、推挤胸中段食管、下腔静脉、两侧主支气管、两肺动脉干、两下肺静脉、右上肺静脉致其管腔稍变窄，胸中段食管分界不清，管壁增厚，淋巴结较前增大、增多；气管及其余支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。门静脉未见充盈缺损影。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两侧肾盂未见结石，左肾见边界清晰的类圆形低密度灶，增强扫描各期均无明显强化，直径约8MM；余两肾实质未见异常。两肾下腺未见异常。腹主动脉旁见数枚淋巴结，较大者短径约8MM。左侧第5~7肋、右侧第4、5肋骨见模糊骨折线及周围骨质密度增高灶，边界模糊；余扫描范围内骨质未见骨质破坏征象。</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>右上肺</t>
+          <t>鼻咽</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>两侧下上气管旁,血管前,主肺动脉窗,隆突上,气管后方,两肺门多发肿大淋巴结</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>左上肺癌术后化疗后：左肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。右肺上叶及左肺中叶少许纤维增殖灶。左上胸膜稍增厚。肝小囊肿。两肾囊肿。右侧肾下腺结节状稍增粗，较前相仿，建议随诊。左上肺癌术后化疗后，与2015-12-30片对比：左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左肺、右肺叶见散在小类结节灶，短径约3MM，边界欠清，密度欠均匀，较前未见明显变化；右肺上叶及左肺中叶尚见少许条索影，边界欠清。气管及余支气管分支未见明显狭窄及异常扩张。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。左上胸膜稍增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见强化。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示脑实质内未见明显糖代谢异常增高灶或明显占位；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常；眼球环壁完整，球内未见异常密度灶，视神经未见明显异常密度灶，眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高及占位；咽旁间隙清晰；右侧上颌窦及筛窦粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示左侧锁骨区见糖代谢增高的淋巴结，大小约为6.4MM×5.9MM，平均CT值约为38.3HU，最大SUV值约为5.6；双侧颌下见糖代谢增高的淋巴结，较大者位于左侧，大小约为14.0MM×7.3MM，平均CT值约为66.8HU，最大SUV值约为3.6，考虑为炎症；甲状腺无明显肿大，未见明显糖代谢异常增高灶及占位；口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示左肺下叶外后基底段见糖代谢增高的结节，大小约为18.3MM×18.1MM，平均CT值约为20.3HU，最大SUV值约为11.9，边缘见分叶，牵拉邻近胸膜；左肺门不大，伴糖代谢增高，最大SUV值约为4.5，考虑为非特异性炎症；右肺上叶后段及左肺上叶舌段见小结节，直径小于5.0MM，其中右肺上叶结节伴糖代谢增高，最大SUV值约为1.1；各级支气管腔通畅；前纵隔见低密度结节，大小约为10.6MM×10.3MM，平均CT值约为43.4HU，最大SUV值约为0.7；双侧胸腔无积液；心脏无明显增大；双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结；右乳外侧象限钙化灶，左侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示右侧结肠旁沟系膜增厚伴糖代谢异常增高，最大SUV值约为4.1；肝脏右叶钙化灶；肝脏右叶近下腔静脉处局部糖代谢增高，直径约为7.1MM，早期及延迟1.5小时后最大SUV值均约为4.3；胃壁生理性显像剂分布；肠道内见显像剂生理性分布；脾脏不大，密度均匀，未见明显糖代谢异常增高灶及占位；胆囊和胆总管结石；双肾、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位；腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布；膀胱增大，内见显像剂生理性积聚；子宫钙化灶；双侧附件区未见明显糖代谢异常增高灶及占位；双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结；盆腔无积液；左侧臀部肌间隙内见多枚糖代谢增高的不规则结节，较大者大小约为18.4MM×13.4MM，平均CT值约为32.7HU，最大SUV值约为2.3。骨骼及肌肉PET/CT图像示第4、12胸椎、第2腰椎、骶骨及左侧股骨上段见溶骨性骨质破坏伴糖代谢异常增高，糖代谢较高三处分别位于第4胸椎、第12胸椎及左侧股骨，最大SUV值约为14.1、12.9和9.1，其中第4、12胸椎骨皮质连续性中断。肺MT靶向治疗后：左肺下叶癌灶肿瘤代谢活跃伴左侧锁骨区淋巴结转移，全身多处骨转移伴第4、12胸椎病理性骨折；右肺上叶转移和右侧结肠旁沟转移可能；左肺上叶转移不除外；脑实质内未见明显糖代谢异常增高灶，请结合临床；前纵隔良性病变；右乳钙化灶；肝脏右叶生理性摄取可能，请结合增强MRI检查；肝脏钙化灶；胆囊和胆总管结石；子宫肌瘤伴钙化；左侧臀部肌间隙良性病变可能。</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>左上肺</t>
+          <t>左肺下叶</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>18.3MM×18.1MM</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>左侧锁骨区淋巴结,骨,右肺上叶,右侧结肠旁沟,左肺上叶</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>右乳癌术后改变，右前胸壁皮肤不均匀增厚，考虑术后改变可能，建议随访。左乳良性钙化。右肺下叶下舌段软组织灶，原发性肺癌与转移瘤鉴别。左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大。右锁下、纵隔及右肺门淋巴结，性质待定，建议随访。右乳癌根治术后复查：右侧乳腺缺如，右前胸壁皮肤不均匀增厚，未见明确结节、肿物影，左乳大小、形态正常，内见数个散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。两侧腋窝及两侧内乳区未见明确肿大淋巴结。右肺下叶下舌段见一不规则软组织灶，大小约23MM×15MM，边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后呈明显强化；病灶远端见少许条索及斑片状模糊影；右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、左侧斜裂见数个小斑片灶，较大者约5MM×4MM，边界尚清。余两肺清晰，未见明确结节影。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右锁下、两上气管旁、主动脉弓旁、右肺门见数个淋巴结，较大短径约10MM，边界尚清，增强后呈中度强化。两侧胸腔未见积液。胸膜未见增厚。所见骨质未见明确破坏征象。</t>
+          <t>右乳腺癌治疗后复查，对比2016-11-25片：乳腺癌治疗后，左侧前胸壁局部皮肤结节状、条片状增厚，考虑复发，较前缩小。左侧前胸壁皮下结节，较前稍缩小。右侧乳腺多发肿块，考虑转移，较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结，考虑转移，较前缩小。隆突下淋巴结，较前缩小，考虑转移可能性大。肝S4小囊性病变，较前稍缩小。左肾囊肿。左肺上叶病变，考虑放射性肺炎。双侧锁骨头、胸骨及多发椎体骨质破坏，考虑转移瘤，部分病灶较前稍增大。右侧第1、2前肋、第6~8肋腋段不同程度骨质破坏，考虑转移可能性大，较前变化不明显。右乳腺癌治疗后复查，对比2016-11-25片：左侧乳腺术后缺失，左侧前胸壁局部皮肤呈条片状增厚，最大约35MM×5MM，较前缩小。左侧前胸壁皮下(SE5-15)见一结节影，大小约6MM×5MM，可见强化，较前稍缩小。左侧腋窝见少许条索影，未见肿大淋巴结。右侧乳腺见多个不均匀强化结节，边界欠清，大者约23MM×12MM，较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结，最大约21MM×18MM，边界欠清，密度不均匀，增强后不均匀轻中度强化，较前缩小。左上肺近前胸壁处见散在小斑片灶，边界欠清，较前相仿，余肺未见实质性病变。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。隆突下见一稍大淋巴结，大小约12MM×6MM，不均匀强化，较前稍缩小。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常，轮廓欠光整；肝S4见一小囊性病变，直径约3MM，增强扫描未见强化，较前缩小。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区、门静脉所见正常。脾大小正常，密度均匀，脾门区见一结节影，直径约4MM，密度与强化方式与脾脏相似。胰腺大小、形态正常，密度均匀。左肾见类圆形囊性灶，直径约7MM，边界清楚，未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见明显肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏，周围见软组织肿块形成，增强扫描轻度强化，较前变化不明显。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶，边界模糊，密度欠均匀，与前片对比，部分病灶范围较前增大。右侧第1、2前肋、第6~8肋腋段见不同程度骨质破坏，大致同前。</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>右乳</t>
+          <t>右乳腺</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>右侧乳腺,右侧腋窝、胸骨上窝多发肿大淋巴结,隆突下淋巴结,双侧锁骨头,胸骨,椎体,右侧第1、2前肋,第6~8肋腋段</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>右肺下叶后基底段占位,考虑周围型肺癌可能性大。左肺上叶结节,转移待排,建议追查。右侧胸膜增厚,考虑受侵可能。纵隔内淋巴结,性质待定。右肺下叶后基底段见类圆形结节,约为17MM×15MM(IM47),结节边缘见索条影与邻近胸膜相连。另见左肺上叶见小结节,约为8MM(IM17)。左肺舌叶、右肺中叶及右肺下叶见索条影。右侧胸膜增厚,左侧胸膜光滑,双侧未见胸水征象。纵隔内4、7、10R组见多发淋巴结,较大约15MM×11MM(IM22)。双侧锁骨上区未见肿大淋巴结。扫及诸骨未见破坏征象。</t>
+          <t>左肺上叶舌段(36)可见结节影，大小约1.94CM×1.76CM，CT值约26HU，边缘可见毛刺邻近胸膜牵拉；左肺上叶(28)见小结节影，径约0.6CM。双肺散在少许斑片状稍高密度影，边界模糊不清。左肺下叶背段索条灶、粟粒灶，局部牵拉支气管扩张。双肺下叶多发索条灶；双肺上叶胸膜下多发透亮小泡影。纵隔内及左肺门见增大淋巴结，大者短径约1.4CM。两胸腔未见积液征象。双侧胸膜增厚。主动脉、冠脉壁见致密影。1.左肺上叶舌段周围型肺癌，纵隔与左肺门多发淋巴结转移，较前2016-09-25CT进展；2.左肺上叶小结节，较前新发；3.双肺多发节段性炎症，较前减轻；双肺下叶机化性病灶，较前相仿；4.双肺上叶小叶间隔旁气肿；5.双侧胸膜增厚。</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>右肺下叶后基底段</t>
+          <t>左肺上叶舌段</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>17MM×15MM</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>左肺上叶</t>
+          <t>1.94CM×1.76CM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>直肠癌术后肺转移、肝转移综合治疗后，与2015-04-28日片对比：直肠癌术后改变，未见明确复发征。两侧乳腺癌术后改变，局部未见明显复发。两肺多发病变，左肺上叶前基底段病灶较前稍增大，余较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤，同前。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化，考虑良性。直肠癌术后肺转移、肝转移综合治疗后，与2015-04-28日片对比：左肺下叶尖段见一结节灶，大小约16MM×13MM，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前变化不大。左肺上叶前基底段见一结节，大小约15MM×13MM，边界不清，密度不均匀，增强扫描轻度强化，较前稍增大。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+          <t>肺癌放化疗后复查，对比2012-7-16CT：左上肺中央型肺癌并左上肺不张，范围较前缩小。两肺小结节，较前未见明显变化。左肺散在病灶，考虑炎症，较前无明显变化。右锁骨下窝、纵隔及左肺门多发淋巴结，较前未见明显变化。左侧胸腔少量积液，较前减少。甲状腺左叶病灶，考虑结节性甲状腺肿可能性大。下腹部未见占位性病变。胸10椎体稍高密度影，大致同前，可疑转移瘤。肺癌放化疗后复查，对比2012-7-16CT：左肺上叶支气管截断，左上肺不张，较前好转；近肺门区见团块状软组织肿物，边界不清，与不张肺组织分界不清，肿物范围较前缩小。左中下肺代偿尚可，肺内见边界不清的片状影，范围较前无明显变化。余两肺各叶见多个粟粒样小结节，孤立散在，最大者直径约4MM，边界尚清，较前未见明显变化。右上肺见一小致密影。右侧锁骨下窝、最下纵隔、左下上气管旁、主肺动脉窗、主动脉旁、隆突上及左肺门见多个大小不等的淋巴结，部分边界不清，最大约13MM×19MM，较前未见明显变化。左侧胸腔少量积液，右侧胸腔未见积液。两侧胸膜稍增厚。扫描范围甲状腺左叶见小结节状低密度影，大小约为5MM×6MM，边界欠清，增强后轻度强化。肝脏形态、大小未见异常，轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，内未见异常密度灶。胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。所示两肾及肾下腺未见异常。腹主动脉旁、膈脚后未见肿大淋巴结。胸10椎体右侧份见一类圆形稍高密度影，边界不清，直径8MM，余扫描范围未见明显骨质破坏。</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>直肠,两侧乳腺癌</t>
+          <t>左上肺</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>两肺,肝S4,S7</t>
+          <t>胸10椎体</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>右下肺叶切除术后改变，支气管残端未见软组织影。左肺中叶小斑片灶，较前相仿，考虑增殖灶。右侧胸腔少量积液，较前减少，右下胸纵隔旁少量包裹性积液，较前稍缩小。甲状腺两叶结节，考虑结节性甲状腺肿可能性大。右侧腋上片絮灶，考虑术后改变，范围较前缩小。肝S5稍低密度灶，考虑血管瘤，较前相仿。肝囊肿。右下肺叶切除术后，对比2017-05-02片：右下肺叶缺如，右下肺支气管截断呈术后改变，支气管残端未见明确软组织影及异常强化灶。右上肺叶膨胀尚可，内见多发纤维条索条片灶。左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉，较前变化不大。气管及余支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。右侧胸腔见少量游离性积液，较前减少，右下胸腔纵隔旁局部见包裹性积液。左侧胸腔未见积液。右侧胸膜轻度增厚、粘连。心包未见积液。扫描范围内甲状腺两叶见多个类结节灶，大者直径约11MM，边界清楚，不均匀强化。右侧腋上皮上脂肪间隙见片絮状密度增高影，边缘模糊，内见斑点状致密灶，与右侧前锯肌分界不清。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S6见数个低密度灶，大者约33MM×26MM，内无强化；肝S5见一小稍低密度灶，大小约7MM×5MM，增强扫描动脉期明显强化，门脉期及平衡期延迟强化。肝内胆管未见扩张，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质未见破坏征象。</t>
+          <t>左上肺癌术后化疗后，与2013-12-12片比较：左肺中叶及右肺下叶小结节，大致同前。左肺中叶散在索条影，考虑纤维增殖灶。两肺各级支气管普遍稍扩张，大致同前。左侧胸膜轻度增厚，左侧胸腔少量积液，大致同前。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后，与2013-12-12片比较：左肺上叶术后缺失，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左肺中叶、右肺下叶见数个小结节影，直径约2MM~3MM，轮廓光整，密度均匀，较前未见明显变化。两侧各级支气管普遍管腔稍扩张。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，大致同前，左侧胸膜轻度增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋见斜行线样高密度影，较前未见明显变化。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>左上肺</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>右侧乳腺癌化疗后,与2012-3-21比较,右侧乳腺病变较前缩小。右侧腋窝肿大淋巴结,考虑转移,较前缩小好转。胸骨右缘(SE9、IM14)小结节,较前缩小,可疑内乳淋巴结。双侧乳腺增生。右侧乳腺癌化疗后,与2012-3-21比较:右侧腋下肿大淋巴结,大小约6MM×7MM~14MM×15MM,边界不清,轮廓欠光整,增强后强化明显,与前片比较病灶缩小。胸骨右缘(SE9、IM14)见一小结节,大小约4MM×3MM,较前缩小。双侧乳腺大小及形态基本对称,双乳皮肤未见增厚,双侧乳头未见凹陷。右乳内上象限见一结节灶,边界不清,轮廓欠光整,与周围腺体分界不清,范围约13MM×14MM,边缘见毛刺,T1WI低信号,T2WI呈混杂低高信号,增强扫描明显不均匀强化,其时间-信号强度曲线为“速升平台”型,病灶与乳腺后方浅筋膜深、浅层粘连,与胸大肌界限欠清,与前片比较病灶范围缩小。左乳内上象限见一类圆形异常信号区,T1WI及T2WI扫描上均呈无信号,较前未见明显变化。双侧乳腺腺体较致密,增强后呈小结节状、斑片状强化。</t>
+          <t>1.左肺下叶中心型肺癌，侵及左下肺静脉，伴局部肺不张，左肺门、纵隔淋巴结转移2.左侧胸腔少量积液3.肝左叶囊实性占位，伴肝内胆管轻度扩张，考虑转移可能性大，建议活检或治疗后复查4.胰腺占位，考虑转移伴胰管轻度扩张左肺下叶支气管截断，局部见一软组织密度肿块，其远端见不张实变的肺组织影，病变大小不易准确测量，估计长径约5.5CM左右，病变与心包关系密切；增强后病变呈不均匀强化，并见病变包埋左下肺静脉。左肺上叶透光区略示增高。余双肺清晰。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结，并相互融合，4R、4L区见稍大淋巴结，大者短径约4.0CM，心包及右肺动脉轻度受压；增强后不均匀强化。左侧胸腔内见少许液性密度影。肝左叶见一大小约10.2CM×7.7CM囊性密度灶，厚壁，见壁结节向腔内突出，增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区，考虑为灌注异常。病变远端见少许轻度扩张的胆管影。门静脉左支受压变形。胆囊未见异常。胰腺颈部见一长径约0.9CM低密度灶，边缘略示模糊，其远端胆管轻度扩张。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>右侧乳腺</t>
+          <t>左肺下叶</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>5.5CM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>右侧腋窝肿大淋巴结</t>
+          <t>左肺门,纵隔淋巴结,肝左叶,胰腺</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>右肺尖示小片状不规则软组织密度影,截面约1.3CM×0.8CM(肺窗),边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈不均匀强化,其内可见小空泡影。双肺野内见多发结节及类结节灶,部分其内可见小空泡影,大者直径约1.5CM。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊。另右肺近斜裂胸膜处可见片状密度增高影,形态不规则,内见支气管充气征。双侧叶间胸膜示增厚,左侧叶间胸膜及左肺下叶见小类结节灶。左乳外上象限见一不规则软组织结节灶,长径约0.6CM,边缘分叶可见少许毛刺,增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约0.7CM,部分内可见钙化。1.结合临床,右肺癌治疗后,较前(2016-05-26)基本变化不著;双肺转移较前部分增大,部分变化不著2.结合临床,左乳癌治疗后,较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结,变化不著4.右肺局限性炎症及纤维炎性变,变化不著;双侧叶间胸膜增厚,均变化不著</t>
+          <t>右肺下叶见一大小约为7.1CM×7.8CM的软组织结节灶，边缘分叶，与胸膜相连，增强后呈中等强化。余右肺野可见斑片状条索状密度增高影，边缘模糊。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结，大者短径约2.3CM，向内侵及心包，远端肺野可见斑片状高密度影。右侧胸腔及心包腔内见少量积液。肝实质密度均质，胆囊胰腺脾未见异常。左肾实质内可见一脂肪密度影，直径约0.9CM，边界清，无强化。另左肾可见一囊性密度灶，直径约0.6CM。右肾实质内混杂密度灶，最大截面约1.5CM×1.9CM，可见少部分脂肪密度，增强扫描呈快进快出表现。腹腔及腹膜后未见肿大淋巴结。肠系膜区见一直径约1.9CM的软组织密度灶。右侧颌下及右侧颈动脉鞘区，颏下见肿大淋巴结，大者短径约3.0CM，各咽壁不厚，余双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。T8椎体内局部骨质稀疏。1.结合临床，右肺癌治疗后复发，伴右肺门、纵隔淋巴结转移，并考虑心包受侵；颈部淋巴结转移，较前2016-07-11进展；腹腔转移；右肺炎症，较前变化不著2.右侧胸腔及心包少量积液3.左肾血管平滑肌脂肪瘤，左肾囊肿；右肾占位，考虑血管平滑肌脂肪瘤可能性大，变化不著4.T8椎体局部骨质稀疏，请结合骨扫描</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>右肺尖,左乳</t>
+          <t>右肺下叶</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1.3CM×0.8CM,0.6CM</t>
+          <t>7.1CM×7.8CM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>双肺</t>
+          <t>腹腔,右肺门,纵隔淋巴结,颈部淋巴结</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-28-24右房内径：38升主动脉：31室间隔厚度：9右室舒末内径：45右室缩末内径：24右室后壁厚度：8左室内径：18肺动脉内径：20Doppler测值:各瓣口前向血流峰速度（m/s）二尖瓣：E峰0.6A峰0.8三尖瓣：E峰0.7A峰0.6主动脉瓣：1.3肺动脉瓣：1.0心功能测值：右室舒末容积EDV：65(ml)右室缩末容积ESV：20(ml)每搏量SV：45(ml)射血分数EF：69%右房内径正常高值，右室内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围。二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
+          <t>直肠癌术后肺转移、肝转移综合治疗后：直肠癌、两侧乳腺癌术后改变，局部未见明显复发。两肺多发病变，左肺下叶尖段病灶较前增大，余较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化。直肠癌术后肺转移、肝转移综合治疗后，与2014-10-08片对比：左肺下叶尖段见一结节灶，大小约19MM×16MM，边界不清，密度不均匀，增强扫描轻度不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连。左肺上叶前基底段见一结节，大小约12MM×11MM，边界不清，密度不均匀，增强扫描轻度强化。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见明显增厚。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化。两侧乳腺术后缺失，两侧胸壁未见明显肿物。两侧腋窝未见肿大淋巴结。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>直肠,两侧乳腺</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>两肺,左肺下叶尖段,肝S4,S7</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1.结合临床,左乳癌治疗后改变,胸肌局部强化结节灶,建议观察2.肝转移瘤,较前缩小;胸骨、肋骨转移2.右腋窝略增大淋巴结左乳结构紊乱,局部见可见片状较低密度灶,边缘清晰,增强后强化不著。左侧胸肌局部似见强化结节灶(5-7、10),边缘模糊,大者直径约1.1CM。右乳可见数个大小不一的钙化灶,右腋窝内可见数个结节灶,大者短径约0.6CM。双肺野清,其内未见异常密度影。纵隔内未见明显肿大淋巴结。肝内S4段示一低密度灶,边缘有强化,直径约0.6CM。余肝实质未见异常。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。胸骨、左第五后肋显示骨质破坏。</t>
+          <t>1.右肺下叶结节，考虑周围型肺癌，并纵隔及右肺门淋巴结转移，右肺门区及右肺中叶阻塞性肺炎，右肺上叶前段淋巴道转移可能；2.左肺下叶外底段小结节灶，随诊；3.所示脾门软组织影，请结合腹部检查；4.左侧第3侧肋欠规整。右肺下叶外底段可见结节影，径约2.3CM，边缘可见毛刺及胸膜牵拉征，平扫CT值约为28HU，增强扫描三期CT值分别为75HU、58HU、60HU。右肺门可见斑片状高密度影，增强扫描可见明显强化，右肺门支气管管壁增厚，管腔狭窄，右肺中叶部分不张实变。右肺上叶前段可见斑片状稍高密度影，其内可见支气管管壁增厚。左肺下叶外底段可见结节影。双肺纹理增多。纵隔、右肺门可见多发增大的淋巴结，大者径约1.3CM。所示脾门区软组织影。左侧第3侧肋欠规整。</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>左乳</t>
+          <t>右肺下叶</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2.3CM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>肝,胸骨,肋骨</t>
+          <t>右肺门淋巴结,右肺上叶前段淋巴道</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.04.19CT片,肋骨转移范围扩大;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。</t>
+          <t>左肺上叶舌段及下叶基底段可见不规则团块影，大者约2.94CM×2.16CM，CT值约40HU，周围可见血管集束征及毛刺征。双肺可见多发结节影，大者径约2.5CM。双肺门、纵隔内可见多发肿大淋巴结影。双侧胸腔内见液性密度影。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌，双肺门、纵隔淋巴结转移，双肺多发转移瘤，两肺淋巴道转移，对比2017.1.16片进展；2、双侧胸腔积液，较前新发；3、所示颈7-胸1溶骨性转移。</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>右肺下叶</t>
+          <t>左肺上叶</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3.97CM×4.64CM</t>
+          <t>2.94CM×2.16CM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>右肺,右侧胸膜,肋骨</t>
+          <t>双肺,颈7-胸1椎,双肺门,纵隔淋巴结,两肺淋巴道,骨</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>乳腺癌综合治疗后化疗后，对比2015-7-27片：左乳内象限结节灶，较前增多、增大。左侧腋窝淋巴结，大致同前。左侧胸腔积液较前增多。右侧胸腔少量积液。心包少量积液。右肺下叶前段斑片状稍高密度灶，考虑炎性病变，范围较前增大。右下肺上舌段、左下肺近纵隔胸膜处、左上肺近斜裂处片状软组织灶条片状软组织灶，范围较前增大。肝内多发转移，较前增多。左肾上极低密度灶，考虑左肾囊肿。脾大。肝周、脾周少量积液。胸腰椎体及左侧多根肋骨稍高密度灶，大致同前。右侧第8后肋病理性骨折，大致同前。乳腺癌综合治疗后，对比2015-7-27片：右侧乳腺术后缺失，右侧胸壁未见异常密度灶。左乳内象限见多个结节灶，边界清，最大约10MM×5MM，增强后明显强化。左侧腋窝见数个小淋巴结，较大者约8MM×8MM。两侧锁骨下区及右侧腋窝未见肿大淋巴结。右下肺前段见楔形片状稍高密度灶，密度不均匀，范围约40MM×22MM，增强后中度强化。左下肺近纵隔胸膜处及右下肺上舌段见片状密度增高影，边界清，大小约19MM×17MM，增强后明显强化。左上肺近斜裂处见条片状软组织灶，边界清，其内可见含气支气管征，范围约65MM×25MM，增强后明显强化。右侧斜裂下份增厚，最厚约5MM，增强后轻中度强化。左侧斜裂结节状增厚，大小约10MM×8MM，增强后明显强化。气管及支气管分支通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸腔见中量积液；右侧胸腔见少量积液。心包可见少量积液。两侧胸膜未见增厚。肝脏各叶比例在正常范围以内，其外形轮廓欠光整，呈分叶状，肝内见弥漫分布低密度病灶，边界不清，最大者约39MM×26MM，增强后轻中度强化。肝内胆管未见异常，其内未见结石影，胆囊大小未见异常，胆总管未见扩张。肝门区正常。门静脉未见异常。脾稍大，密度均匀。胰腺大小、形态未见异常，密度均匀。左肾上极见一类圆形低密度灶，边界清，直径约4MM，增强后未见强化。右肾未见明显异常。两侧肾下腺未见异常。肝周、脾周可见少量积液。左侧第10后肋、第6肋腋段、胸6、9~12及腰1椎体多发边界不清的稍高密度灶，局部骨小梁模糊。右侧第8后肋骨质连续性中断，可见骨痂形成。</t>
+          <t>右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.5CM×1.9CM，CT值约59HU，见血管集束。双肺内可见多发结节样及粟粒样密度影，大者径约0.4CM。右肺下叶斑片状高密度影，边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。甲状腺右叶增大，密度不均匀。所示左肾低密度灶。1.右肺下叶周围型肺癌较前2016-11-28略减小，伴双肺多发转移，部分较前略减小、消失；2.右肺下叶炎症，较前相仿；3.部分胸椎及邻近肋骨密度增高，较前相仿；4.甲状腺右叶病变，请结合相关检查；5.所示左肾囊肿。</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>乳腺</t>
+          <t>右肺下叶</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2.5CM×1.9CM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>左乳内象限,肝,右侧第8后肋</t>
+          <t>双肺</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>右上肺背段、前基底段及外侧基底段结节局部代谢活跃，疑恶性病变，肺癌可能性大，累及相邻胸膜；右下气管旁、右侧肺门及右上肺叶多个淋巴结代谢活跃，疑转移；肝脏S5、S8数个低密度结节代谢活跃，疑转移；L5及左侧坐骨体低密度结节代谢活跃，疑转移；L3左份局部代谢活跃，转移待排；右侧胸腔少量积液。左侧附件囊性低密度影代谢低上，疑卵泡，建议随诊。子宫直肠陷窝积液。空腹6h以下，静脉注射18F-FDG，静息约60MMin后行全身PET/CT断层显像，影像清晰。两侧脉络丛及松果体钙化灶放射性缺损，CT值约79Hu；所见两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及两侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。两颈I、II区多个小淋巴结放射性分布未见异常。右上肺背段、前基底段及外侧基底段结节局部放射性浓聚，SUV约8.4，大小约2.3CM×3.5CM，边界清楚，边缘毛糙，周边伴条索影，宽基底与胸膜相贴，部分层面紧贴右肺斜裂。左侧肺纹理未见明显异常，气管、支气管通畅。右侧胸腔少量游离低密度液体影放射性分布稀疏，CT值约12Hu。两侧乳腺及两侧胸壁未见确切病灶和异常放射性分布。右下气管旁、右侧肺门及右上肺叶多个淋巴结放射性分布浓密，SUV约7.5，最大者约0.9CM×0.9CM。左肺门未见肿大淋巴结及异常放射性分布。两侧腋窝多个小淋巴结放射性分布未见异常。肝脏S5、S8数个低密度结节放射性浓聚，SUV约20.5，大者约2.1CM×2.3CM，边界清楚。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、胰腺、两肾及肾下腺形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。膀胱及肠管等形态、结构及放射性分布未见明显异常。子宫内可见节育器影，放射性分布未见异常。左侧附件囊性低密度影放射性分布稀疏，CT值约6Hu，大小约0.7CM×0.8CM。子宫直肠陷窝可见低密度影放射性分布稀疏，CT值约12Hu。两髂血管旁未见肿大淋巴结及异常放射性分布。两侧腹股沟多个小淋巴结放射性分布未见异常。L5及左侧坐骨体低密度结节放射性浓聚，SUV约10.7，大者约1.2CM×1.3CM，部分伴硬化边。L3左份局部放射性分布浓密，SUV约5.7。所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>右上肺背段、前基底段及外侧基底段</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2.3CM×3.5CM</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>右下气管旁,右侧肺门及右上肺叶多个淋巴结,肝脏S5,S8,L5及左侧坐骨体,L3左份</t>
+          <t>主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，39，19-40，右室舒张末内径，44，35-56，右室收缩末内径，28，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：66%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：215MMs，四、组织多普勒测定：，DTI示S波峰值：10.2CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>肝多发转移，较前进展。胸腰椎弥漫骨转移大致同前。肝门部淋巴结，部分同前。扫及右上肺仍见不规则软组织结节，请参考胸部CT结果。与2015-03-25腹部MRI比较：肝脏体积增大较前明显，肝内弥漫多发转移灶较前增多，部分较前增大，如S4为主病变融合较前明显，现较大层面约14.2CM×8.1CM（Se5IM12），原约13.0CM×7.5CM；部分病变较前缩小，如S7者现直径约2.5CM（Se5IM12），原约3.0CM。肝门部淋巴结部分同肝内病灶分界不清，部分同前，较大仍约1.7CM×1.0CM（Se5IM23），未见腹水。胆囊不大，壁均匀增厚、强化。脾脏、胰腺及两侧肾下腺、肾实质内未见异常信号。胸腰椎椎体及附件仍见弥漫异常强化同前。扫及右上肺仍见不规则软组织结节，请参考胸部CT结果。</t>
+          <t>右肺腺癌化疗后，右上肺结节较前增大。肝S8转移瘤，较前增大。胸骨、颈胸腰椎多发骨转移瘤，较前未见明显变化。右肺腺癌化疗后复查，与2012.6.29片对比：右上肺叶前、外基底段各见一结节，直径约12MM、8MM，较前增大，相应区域见条片状病灶，边界欠清，右侧胸膜粘连。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。右侧胸膜局灶性增厚。两侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S8见数个结节灶，边界不清，直径约14MM~27MM，增强扫描不均匀强化，病灶较前增大。肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。所示两肾未见异常。肝门区及腹膜后未见肿大淋巴结。胸骨、C7、T1、T9左侧横突、L1右侧附件、L2、L3椎体见不规则致密影，边欠清，较前未见明显变化。</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>右上肺叶前、外基底段</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>12MM,8MM</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>肝,胸腰椎</t>
+          <t>肝S8,胸骨,颈胸腰椎</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>左下肺癌多发转移化疗后，对比2017.02.25片：左肺下叶肿物，较前稍增大。纵隔小淋巴结，较前变化不大。左侧胸膜散在小结节状增厚，较前无明显变化。多发骨病变，考虑转移瘤，大致同前。甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大，大致同前。肝多发囊肿，基本同前。左下肺癌多发转移化疗后，对比2017.02.25片：左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约27MM×22MM，密度欠均匀，增强扫描均匀明显强化，较前稍增大；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前变化不大。左上气管旁见小淋巴结，边界清，短径约4MM，增强后轻度强化，大致同前。两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚，增强后强化，较前无明显变化。甲状腺两侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清，大致同前。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度影，边界光滑，增强扫描各期未见强化，最大位于S6/7，大小约35MM×25MM，基本同前。肝内外胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾上极在脊柱前方相连。两肾下腺大小、形态未见异常，密度均匀。胃右、腹腔干、腹主动脉旁见淋巴结，最大短径约4MM，孤立散在，大致同前。胸骨柄、胸11椎体右前份、胸12椎体左后份及左侧第2前肋、左第8肋腋段骨质密度不均匀，部分内见低密度区，边缘模糊，局部椎体骨皮质欠连续。胸骨柄、胸9、11、12椎体及两侧多根肋骨骨质见多发骨质密度减低及增高影，边界不清，较前变化不大。</t>
+          <t>右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为37HU，其内密度不均，大小约为3.8CM×2.6CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.79CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1右肺下叶肺癌，并双肺、右胸膜多发转移，与2015-06-23CT片对比，肿块略减小，双肺多发转移较前减少、减小；右侧胸腔积液，较前减少；心包积液，较前相仿；2.甲状腺饱满。</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>左肺下叶近肺门区</t>
+          <t>右肺下叶</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>27MM×22MM</t>
+          <t>3.8CM×2.6CM</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胸骨柄,胸11椎体右前份,胸12椎体左后份,左侧第2前肋,左第8肋腋段骨</t>
+          <t>双肺,右胸膜</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>两肺转移瘤，请结合临床对比原片。纵隔淋巴结显示。两侧胸膜限局性增厚。心包囊肿可能大，请结合临床。右侧第7肋骨转移可能大，请结合临床。右侧乳腺术后。扫描显示胸廓对称，两肺多发大小不等结节影、团片影，部分呈分叶状，较大团片位于左肺上叶，范围约为2.7CM×2.1CM，CT值约为39HU，增强扫描CT值约为85HU，边界模糊，可见小毛刺及胸膜凹陷征，两肺另见索条影。各级支气管通畅，无扩张与狭窄。两侧肺门不大，纵隔居中，纵隔内淋巴结显示。心脏大小正常。心包左侧见囊性低密度影，CT值为10Hu。两侧胸膜局部增厚,胸膜上可见多发小结节影。右侧第7肋骨骨质破坏，骨皮质不连续。右侧乳腺缺如。</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>两肺,右侧第7肋骨</t>
+          <t>左肺癌化疗后复查，与2016-06-15对比：左上肺背段肿物，较前明显缩小。左肺上叶前基底段胸膜上病灶，较前新发，考虑炎症可能性大，建议复查。右肺下叶、左肺中叶及两肺上叶散在类结节及条索灶，考虑纤维增殖灶可能。两下肺肺大泡。肝囊肿。两肾囊肿。肺癌化疗后复查：左上肺后基底段见一肿物，大小约30MM×25MM，浅分叶，可见细小毛刺，内密度不均，见斑点状、小片状钙化灶；增强后轻度强化；左肺上叶后基底段支气管分支受压变窄。左肺上叶前基底段胸膜上见斑片状密度增高影，边界不清，与邻近胸膜粘连；另右肺下叶尖后段、左肺中叶、两肺上叶见多发散在的类结节及条索灶；两下肺见多发无肺纹理透亮区，边界清。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜无增厚、粘连。心包未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，其内见散在多发低密度灶，直径约2MM~5MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多发数个囊性低密度灶，较大直径约15MM，边界清，增强无强化。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。腰椎向右侧弯，所见骨质未见破坏征象。</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>左上肺后基底段</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>30MM×25MM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>左肺体积减小,部分肺组织及支气管缺如,纵隔左偏;左残肺近纵隔旁见肿块影及线样致密影,边缘呈分叶征,其内可见截断支气管影,肿块最大截面约为5.1CM×2.6CM,CT值约为49HU,邻近胸膜增厚。双肺多发结节影,大者径约1.2CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。左第5前侧肋骨及下位胸椎多发密度增高。1.左肺术后,左残肺肿块,考虑复发可能,较2015.12.10CT增大;2.双肺多发转移瘤,较前明显增多、增大;3.左侧第5前肋及下位胸椎多发密度增高,考虑转移。</t>
+          <t>右乳癌术后复发病例，肝右内叶与右外叶交界处病变伴胆管扩张，转移可能；左侧肾下腺占位，腺瘤机会大；两肾囊肿；脂肪肝；肝左后叶（VII段）微小结节灶，随访；左侧胸腔积液。肝脏右叶增大，肝实质信号不均匀。肝左后叶（VII段）可见一小结节灶，直径约0.6CM，动脉期明显强化，实质期仍为高信号；肝右左叶交界处见结节状低密度影，边界不清，直径约2.9ｃm，增强后呈不规则环形强化，周围可见少许囊性影，肝内血管分布均匀，走向自然，未见狭窄或充盈缺损；胰腺无殊，两肾见囊状无强化影；左侧肾下腺见结节灶，大小约14MM×11MM，增强后边缘强化。腹腔内无积液；左侧胸腔见弧形液体密度影。</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>左肺</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>5.1CM×2.6CM</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>双肺,下位胸椎,左侧第5前肋,下位胸椎</t>
+          <t>右乳</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>肾盂癌化疗后复查：术区未见明确肿瘤复发征象；轻度脂肪肝；左肺下叶尖段条索、类结节影，考虑增殖灶，较前相仿；右肺上叶后基底段小结节，较前相仿，建议随诊；右锁骨下窝、纵隔小淋巴结，较前未见明显变化；左心房内充盈缺损影，较前未见明显变化；甲状腺两叶病灶，考虑结节性甲状腺肿，较前相仿；腰1椎体压缩性骨折，较前未见明显变化。肾盂癌化疗后复查，与2014-02-26日片对比：右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态、比例正常，轮廓光整，肝实质密度轻度减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许低密度影，未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余所见骨质未见明确破坏征象。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示2012-4-10本院MRI图像示脑内多发异常强化灶处未见明显糖代谢异常，脑内另见多发小低密度灶；余脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结，最大者大小为19.1MM×15.8MM，最大SUV值为11.27；余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。双侧锁骨区糖代谢异常增高的肿大淋巴结较前增多、增大，糖代谢程度增高。胸部PET/CT图像示左下肺MT术后，纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结，最大者大小为14.7MM×11.2MM，最大SUV值为11.33；余处未见明显糖代谢异常增高灶及占位性病变；双侧胸腔无积液；心脏不大。与2010-12-6本院PET/CT图像相比，右侧内乳新增糖代谢异常增高的肿大淋巴结，纵隔淋巴结较前缩小，糖代谢程度与前相仿。腹部PET/CT图像见腹主动脉旁见多发糖代谢异常增高的肿大淋巴结，最大者大小为16.4MM×12.2MM，最大SUV值为13.54；肝脏表面光整，各叶比例匀称，肝实质密度普遍减低，低于脾脏，实质内未见异常占位；肝内外胆管无扩张；双肾多发无明显糖代谢的低密度灶，边界清楚，最大者大小为26.3MM×23.0MM；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变；腹腔无积液。与2010-12-6本院PET/CT图像相比，腹主动脉旁新增多发糖代谢异常增高的肿大淋巴结。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺不大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像见右侧肱骨上段及右侧髂骨局部见糖代谢异常增高的高密度灶，最大SUV值分别为2.78、3.64；余处未见异常糖代谢增强灶及骨质破坏吸收征象。与2010-12-6本院PET/CT图像相比，右肱骨及髂骨新增糖代谢异常增高灶。左下肺MT综合治疗后，与2010-12-6本院PET/CT图像相比，左锁骨区、内乳、后腹膜新增多发淋巴结转移，右肱骨及髂骨新增转移灶；右锁骨区转移性淋巴结较前增多、增大，糖代谢程度增高，纵隔转移性淋巴结较前缩小，糖代谢程度相仿；本院2012-4-10增强MRI所示脑内多发强化灶未见明显糖代谢异常，请结合临床；脑内多发腔隙性梗塞灶；脂肪肝；双肾无明显糖代谢的低密度灶，考虑为良性病变。</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>肾盂</t>
+          <t>左下肺</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>纵隔淋巴结,髂骨,右肱骨,左锁骨区,内乳,后腹膜新增多发淋巴结,右锁骨区转移性淋巴结</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1.右肺上叶肿块影,考虑为周围型肺癌合并纵隔淋巴结转移可能性大,请结合临床;2.左肺术后改变,左肺下叶纤维索条灶;3.左侧胸膜肥厚、钙化;4.右肺下叶小结节影,请密切随诊。右肺上叶可见一较大肿块影,密度不均匀,CT值为16~38HU;边缘不光滑,可见毛刺,周围可见片状高密度影;最大层面大小约为8.3CM×6.5CM;右上肺支气管截断。右肺下叶可见一小结节影,直径约为0.6CM。左肺体积减小;左肺下叶可见纤维索条影。纵隔内可见增大淋巴结影,大者短径约为1.3CM;双侧胸腔未见积液征象,左侧胸膜增厚,并可见条形钙化影;主动脉管壁及冠脉走行区可见点条形钙化影。</t>
+          <t>1.右肺中叶周围型肺癌，纵隔多发淋巴结转移；较2016.6.71相仿；2.原双肺小结节本次显示不清，右肺中叶新见小结节，随诊；3.右肺下叶支气管轻度扩张，小叶间隔增厚，不除外淋巴道转移，请随诊；4.全心增大，请结合临床；5.右侧锁骨上淋巴结增大，胸11椎体右侧高密度影，考虑转移，建议ECT检查。右肺中叶见团块影，边界不清，径约2.5CM×3.4CM，CT值约39HU。右肺水平裂处(33)可见小结节，径约0.35CM。两肺门区未见异常。右肺下叶支气管轻度扩张，管壁稍增厚，多发小叶间隔增粗。纵隔内多发肿大淋巴结，短径约2.5CM，密度较均匀，CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大，心包稍增厚。右侧锁骨上窝见一淋巴结影，约为2.3CM×2.1CM，CT值32HU。胸11椎体右侧见结节状稍高密度影，直径0.9CM。腰1椎体见片状不规则高密度影。</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>右肺上叶</t>
+          <t>右肺中叶</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>8.3CM×6.5CM</t>
+          <t>2.5CM×3.4CM</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>纵隔淋巴结</t>
+          <t>淋巴道,胸11椎体</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,32,20-37MM,右房内径,39,19-40MM,右室舒张末内径,50,35-56MM,右室收缩末内径,31,23-35MM,室间隔厚度,10,6-11MM,右室后壁厚度,10,6-11MM,肺动脉收缩压,32,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,67,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;gt;,1；DT：,170,ms,DTI示S波峰值：,10,cm/s；E/A,&amp;gt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻微,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+          <t>直肠癌术后肺转移、肝转移综合治疗后，与2015-08-05日片对比：直肠癌术后改变，未见明确复发征。两侧乳腺癌术后改变，局部未见明显复发。两肺多发病变，左下肺及上肺病灶，较前增大；余较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤，同前。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化，考虑良性。直肠癌术后肺转移、肝转移综合治疗后，与2015-08-05日片对比：左肺下叶尖段见一结节灶，大小约21MM×17MM，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前稍增大。左肺上叶前基底段见一结节，大小约17MM×24MM，边界不清，密度不均匀，增强扫描轻度强化，较前稍增大。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>直肠,两侧乳腺</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>两肺,肝S4,S7</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>肺动脉主干及其主要分支走行正常,管腔未见明显充盈缺损。右侧肺门处见不规则软组织灶,大小约4.6CM×4.1CM,包绕右下肺动脉及邻近支气管,远端肺组织见斑片状模糊影,两肺另见多发散在小斑片、类结节影,两肺上叶见小囊性透气灶,右下肺各支气管腔狭窄,肺门及纵隔见肿大淋巴结,胸膜无增厚,双侧胸腔内见积液。T6椎体密度不均,内见类结节状低密度灶,周围见硬化边。心包少量积液。右心膈角淋巴结肿大。肝内见多发结节状低密度灶。肺动脉主干未见明显栓塞征象;右肺门MT、包绕右下肺动脉,伴右下肺阻塞性炎症,两肺散在斑片结节灶,纵膈、肺门及右心膈角淋巴结肿大,两侧少量胸腔积液;两肺轻度气肿;T6椎体异常密度,建议核素骨扫描。肝脏多发转移。</t>
+          <t>1.结合临床，右肺癌治疗后，右肺门纵隔淋巴结转移，较前2014-8-21变化不著；双肺转移，较前明显2.结合临床，左乳癌治疗后较前变化不著右肺上叶示一不规则软组织密度结节灶，截面约1.3CM×1.5CM，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶，截面约3.6CM×1.7CM，边缘毛刺牵拉邻近胸膜凹陷，内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织肿块，截面约1.5CM×2.0CM，边缘毛刺，增强后呈较显著强化。另右肺跨斜裂胸膜处，上下叶内见一混合磨玻璃密度灶，截面约4.0CM×1.9CM，形态不规则，牵拉邻近胸膜凹陷，内见支气管充气征。余双肺见多发结节灶，大者直径约0.5CM，部分内见小空泡。左乳见一不规则软组织结节灶，截面约0.7CM×1.0CM，边缘分叶可见少许毛刺，增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结，大者短径约1.0CM，部分内可见钙化。</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>右肺门</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>4.6CM×4.1CM</t>
+          <t>右肺,左乳</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>肝脏</t>
+          <t>右肺门纵隔淋巴结,双肺</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>右乳癌术后病例，肝、骨多发转移，心膈角淋巴结转移，肝内病灶较2010-12-24增多，胆囊结石，脾大，副脾，右侧肾盂旁囊肿。右乳术后缺如。肝表面凹凸不平，肝实质内满布大小不等结节影，部分融合，T1WI呈低信号，T2WI呈高信号，动态增强扫描动脉期病灶明显强化，部分呈环状强化，门脉期及延迟期呈持续强化，肝内血管未见充盈缺损。脾脏增大，增强扫描未见异常强化，脾门可见一直径约1.5CM的类圆形类似脾脏信号结节影。胆囊增大，内可见多发大小不等充盈缺损，肝内外胆管无扩张。右侧肾门可见大小约3CM×2.5CM的囊性信号影，增强扫描未见强化，延迟期未见造影剂充填，部分肾盏轻度扩张。左肾及胰腺无殊。所示胸、腰、骶椎、部分附件及髂骨可见多发异常信号伴强化。心膈角可见增大淋巴结，腹腔无积液。</t>
+          <t>左上肺癌术后化疗后，与2015-03-12日片对比：左上肺术后改变，局部未见明确复发征。左残肺散在斑片及索条，大致同前，考虑纤维增殖性病灶。右上肺背段新见小类结节，性质待定，转移待排，建议观察。右下肺舌段新见斑片灶，考虑炎症。左侧胸膜轻度增厚，左侧胸腔少量积液，大致同前。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后，与2015-03-12日片对比：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，局部未见明确软组织肿块。左残肺见少许斑片灶、条索病灶，与胸膜粘连，较前变化不大。右下肺舌段新见散在斑片灶，边界欠清，增强后较明显强化。右上肺背段（SE6，im23）新见一小类结节，直径约3MM，边界清。纵隔稍向左偏移，两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，左侧胸膜增厚，大致同前，右侧胸腔未见积液，右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化，大致同前。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，增强扫描未见强化，大致同前；左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，但连续性存在，大致同前。</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>右乳</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>肝,骨,心膈角淋巴结</t>
+          <t>左上肺</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>左乳实质占位-考虑MT；两侧腋窝淋巴结肝肋上斜切118MM/（－），剑上纵切60MM/2指，肝区回声稍增强增粗，门脉主干内径10MM，左支内径7MM，流速0.19MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切36MM/（－）。左侧乳腺腺体结构尚正常，8-9点见14MM×10MM低回声团块，边界不清，呈蟹足样，局部与后方肌层关系密切，CDFI示周边少量短线状彩色血流，测及RI1.0。右侧乳腺腺体结构尚正常，未见明显肿块回声。CDFI示两侧乳腺腺体血流分布尚正常。两侧腋窝见数个低回声团块，左侧最大7MM×5MM，右侧最大12MM×6MM，CDFI示血流分布尚正常。</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>左乳</t>
+          <t>左侧额叶转移灶较前相仿。左侧枕叶结节较前略增大、水肿范围扩大，结合临床密切观察。右侧枕叶新见双枚强化结节伴邻近脑膜增厚强化，考虑转移。两侧下颌窦炎。与2017-05-13头颅MRI比较：左侧额叶转移灶较前相仿，现范围仍约36MM×27MM（Se8IM14），增强后边缘强化同前，邻近脑实质大片状水肿区范围较前相仿，左侧侧脑室前角未见受压，中线结构居中。左侧枕叶结节较前略增大，原约12MM×10MM（Se8IM12），现约16MM×13MM（SE8Im12）周围水肿较前范围稍增大，邻近脑膜增厚，增强后亦见强化。右侧枕叶新见双枚强化结节，约为8MM×4MM（SE8Im11）、14MM×10MM（SE8Im10），病变周围脑实质见片状水肿区，邻近脑膜亦增厚强化。小脑及脑干未见异常。中线结构居中，各脑室未见扩张，脑沟裂未见增宽。颅骨未见明显异常信号。两侧下颌窦粘膜稍厚，呈长T1长T2信号。</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>直肠癌术后肺转移、肝转移综合治疗后：直肠癌、两侧乳腺癌术后改变，局部未见明显复发。两肺多发病变，未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化。直肠癌术后肺转移、肝转移综合治疗后，与2014-7-22片对比：左肺下叶尖段见一结节灶，大小约17MM×12MM，边界不清，密度不均匀，增强扫描轻度不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连。左肺上叶前基底段见一结节，大小约12MM×11MM，边界不清，密度不均匀，增强扫描轻度强化。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔少量积液。两侧胸膜未见明显增厚。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化。两侧乳腺术后缺失，两侧胸壁未见明显肿物。两侧腋窝未见肿大淋巴结。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+          <t>左侧纵隔肿物、左肺下叶后段类结节灶，均考虑肺癌可能性大。左肺下叶、中叶纵隔旁见斑片影，考虑炎症。两侧锁骨下区、纵隔、左肺门肿大淋巴结，考虑转移。两侧肾下腺结节，考虑转移瘤。腹主动脉旁肿大淋巴结，考虑转移。左侧第2肋骨骨质破坏伴软组织灶，考虑转移。肝小囊肿。左侧中后纵隔见不规则团块状软组织肿块，边界不清，最大层面大小约102MM×71MM，密度欠均匀，增强扫描轻度强化。病灶推压、包绕下腔静脉、左肺动脉干，血管管腔明显变窄，管壁未见明确受侵。病灶部分包绕气管、右左主支气管及左肺中间支气管，气管管腔狭窄，未见截断。左肺下叶、中叶纵隔旁见斑片影，边界模糊不清。左肺下叶后段见2个类结节灶，边界不清，大小约17MM×13MM、11MM×11MM，边缘毛糙，密度及强化方式与纵隔肿物类似。余肺未见明确实质性病变。两侧锁骨下区、右上气管旁、隆突上、左肺门见多发肿大淋巴结，最大者约40MM×34MM，部分纵隔淋巴结与纵隔肿物分界不清，增强扫描轻度强化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S3、S5各见一类圆形低密度灶，直径约3MM、9MM，边界清楚，未见强化。肝内胆管、胆总管未见扩张，其内未见结石，胆囊大小正常，其内未见结石。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾未见异常。两侧肾下腺见几个结节灶，最大者约17MM×16MM，增强扫描不均匀强化。腹主动脉旁见肿大淋巴结，大小约28MM×26MM，边界尚清，不均匀轻度强化。左侧第2肋骨见骨质破坏，局部伴软组织肿块形成。扫描所见其余骨质未见明显破坏征象。</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>直肠,两侧乳腺</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>肺,肝S4,S7</t>
+          <t>左侧纵隔,左肺下叶后段</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>102MM×71MM,17MM×13MM,11MM×11MM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>左肺门区、左主支气管周围软组织，较前稍缩小。左肺中上叶及右下肺纵隔旁大片密度增高影，考虑放射性炎症及纤维化。左肺中叶条片影，考虑节段性肺不张。两肺上叶斑片影，考虑炎症性病变，较前稍加重。纵隔小淋巴结，较前缩小。左下纵隔囊性灶，范围较前稍增大。两侧肺气肿，大致同前。两侧胸膜稍增厚，左侧较前增厚。心包中量积液。两肾小囊肿。左下肺癌术后放化疗后，同2016-7-15CT对比：左下肺术后缺如，左肺门区、左主支气管周围软组织增厚，内见金属缝合钉影，左主支气管后壁不光滑，左主支气管管腔变窄，病灶较前稍缩小。左肺中叶膨胀不良，左肺中上叶及右肺下叶纵隔旁见大片状、网格状及条索状密度增高影，部分见支气管充气征，边界与软组织影分界不清。左肺中叶条片影，较前增大。左肺上叶外基底段及右肺上叶基底段可见斑片状密度增高影，边界欠清。两肺纹理较粗乱，两肺呈过度充气状。气管、左中、上叶及右肺各叶支气管分枝通畅。左下、上气管旁、主肺动脉窗、隆突上可见数个肿大淋巴结，较大短径约9MM，边界欠清，增强可见明显强化，较前缩小。纵隔内左下上气管旁见一不规则囊肿影，较前范围稍增大；两侧胸膜稍增厚，左侧较前增厚。两侧胸腔未见积液，心包中量积液。肝脏形态正常，比例正常，外形轮廓光整，密度均匀，快速注射造影剂后，动脉期未见明确异常强化灶，门脉期及平衡期未见明确低密度区；肝内胆管未见扩张，胆囊大小正常，内未见结石影，胆总管未见扩张；肝门区未见肿大淋巴结；门静脉未见充盈缺损；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；两肾可见数个类圆形囊性低密度灶，较大直径约5MM，界清，增强无强化；两侧肾下腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围内胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
+          <t>右肺上叶尖段纵隔旁周围型MT可能；右侧肺门、纵隔双侧锁骨区淋巴结转移；第3颈椎转移；两肺上叶、左肺下叶炎性病变可能；两肺磨玻璃小结节，建议随访；两肺小气囊；甲状腺左叶中部小腺瘤可能，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦粘膜轻度增厚，考虑为慢性炎症，其余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢增高的肿大淋巴结，较大者位于左侧，最大SUV值约为14.4，大小约为52.1MM×25.5MM；甲状腺形态如常，左叶中部见一枚大小约为6.8MM×6.0MM的小低密度影；口咽、喉咽部无殊。胸部PET/CT图像示两肺纹理增粗，右肺上叶尖段见一枚大小约为14.9MM×4.4MM、糖代谢异常增高的软组织结节影，最大SUV值约为6.8，密度欠均匀，边缘呈分叶状，并与右肺尖胸膜分界欠清；左肺上叶尖后段见大小约为11.0MM×8.8MM、不伴糖代谢增高的斑片影，局部似见气管纠集征象；右肺上叶后段见一枚大小约为10.3MM×7.0MM、不伴糖代谢增高的斑片影，内密度欠均匀，邻近似见胸膜牵拉；左肺下叶基底段近肺门处见范围约为23.9MM×19.2MM的条片状高密度影，最大SUV值约为1.7；其余两肺见多发不伴糖代谢增高的小磨玻璃结节影，较大者位于左肺上叶舌段，直径约为6.0MM；左肺上叶尖后段见一枚直径约为2.3MM的不规则小结节，两肺散在囊状透亮无肺纹理区；右侧肺门及纵隔(上纵隔血管间隙、血管前间隙、主肺动脉窗、主动脉弓左及隆突下)见多发糖代谢异常增高的肿大淋巴结，糖代谢较高及较大者位于隆突下，最大SUV值约为13.4，大小约为48.1MM×21.7MM；左侧肺门、双侧胸壁、腋窝等无殊。双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺无明显增大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第3颈椎左侧附件见溶骨性骨质破坏伴糖代谢异常增高，最大SUV值约为8.7；其余骨骼未见糖代谢异常增高或骨质破坏吸收征象。</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>左下肺</t>
+          <t>右肺上叶尖段</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>14.9MM×4.4MM</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>右侧肺门,纵隔双侧锁骨区淋巴结,第3颈椎</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>左乳癌伴肝肺转移化疗后,与2014-07-23片对比:左侧乳腺腺体组织较右侧减少,呈术后改变,残存左侧乳腺组织内见不规则形团块状、结节状病灶,部分相互融合,边界不清,密度不均匀,其内见点状钙化影,大者范围约17MM×38MM,增强扫描不均匀明显强化,较前缩小,左侧胸大肌、胸小肌内可见多个强化结节,较大者大小约7MM×10MM,边界不清,较前缩小。病灶与左侧胸壁软组织及邻近皮肤分界不清,左乳皮肤不规则明显增厚,较前减轻,增强扫描不均匀强化;邻近皮下脂肪间隙变窄消失。左侧乳头轻度内陷。右侧乳腺大小、形态未见明显异常,腺体丰富,密度均匀,未见明确占位性病变。左侧锁骨上区、左侧腋窝见数个肿大淋巴结,较大者大小约8MM×10MM,边界不清,包膜不完整,增强扫描明显强化,较前缩小。右侧腋窝见多发小淋巴结,短径在5MM以内,边界清。双肺纹理粗乱,双侧前肋间胸膜、右侧叶间裂胸膜及左上肺舌段可见多个结节影,较大者大小约5MM×5MM,边界欠清,增强扫描可见强化,较前缩小;另右上肺前段、右中肺内侧段多发类结节灶,边界尚清,较前相仿。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。肝S7/8可见一类圆形低密度灶,大小约11MM×9MM,边界尚清,增强扫描呈明显结节状强化。肝S4另见一类圆形稍低密度灶,平扫边界欠清,直径约6MM,增强扫描强化不明显。肝内外胆管、胆总管及胆囊未见异常。肝门区正常。门静脉所见正常。脾及胰腺大小、形态正常,密度均匀。所见层面双肾及双侧肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。脑实质内未见明确异常密度影及异常强化灶,脑沟、裂、池不宽,脑室对称不大,中线结构无移位。扫描层面胸骨体、胸骨柄骨质破坏,形态不规则,局部见软组织影形成;余骨质未见明确破坏征象。左乳癌伴肝肺转移化疗后:左侧乳腺肿物,考虑较前缩小。左侧锁骨上区、左侧腋窝肿大淋巴结,考虑转移,较前缩小。右侧腋窝多发小淋巴结。双侧肋间胸膜、右侧叶间裂胸膜及左上肺舌段多发结节影,考虑转移瘤,较前缩小。右上、中肺多发类结节灶,考虑纤维增殖灶可能性大,较前相仿。肝S7/8低密度灶,考虑血管瘤。肝S4缘稍低密度灶,性质待定,建议随诊。胸骨骨质破坏,考虑转移瘤。颅脑未见明确异常。</t>
+          <t>左上肺癌综合治疗后，对比2016-05-16片：左枕叶、左颞叶及第3脑室周围白质区病灶，考虑转移瘤，范围较前稍增大。两侧额顶叶小缺血灶同前。空蝶鞍。左上肺癌综合治疗后，对比2016-05-16片：左枕叶、左颞叶及第3脑室周围白质区可见数个异常信号灶，较大者约24MM×17MM（左侧枕叶），边界欠清，T1WI呈稍等信号，T2WI及Flair呈稍高信号，DWI呈稍高信号，增强后呈明显强化，病灶范围较前稍增大；左侧枕叶及颞叶病灶旁软脑膜不均匀增厚，明显强化，较前明显。两侧额顶叶白质内见几个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI及FLAIR下呈高信号，增强后未见强化，较前未见明显变化。小脑及脑干形态正常，信号均匀，增强后未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。蝶鞍内见脑脊液充填，垂体变薄，较前未见明显变化。扫描范围内所见两侧下颌窦、筛窦、蝶窦充气良好，骨壁完整。两眼球后未见异常信号。</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>左侧乳腺</t>
+          <t>左上肺,左上肺</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>肝,肺,右侧叶间裂胸膜,左上肺舌段,胸骨,左侧锁骨上区,左侧腋窝肿大淋巴结,双侧肋间胸膜</t>
+          <t>左枕叶,左颞叶,第3脑室周围白质区病灶</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>左肺下叶后段病灶，考虑肺癌可能性大。两肺多发小结节，考虑转移。左锁下、纵隔、左肺门淋巴结，不除外部分为转移。左侧肋胸膜局部增厚并强化，建议观察。肝内数个囊肿。多个椎体及右侧第2、第11后肋骨质改变，不除外转移。左肺下叶后段见一类结节灶，边界欠清，最大层面大小约17MM×14MM，呈分叶状，密度不均匀，增强扫描不均匀强化，与邻近侧胸壁胸膜牵拉、粘连。两肺散在数个结节、类结节影，边界部分清楚，部分不清，最大者大小约5MM×6MM。气管及支气管分支未见明显狭窄及异常扩张。左锁下、左下气管旁、两上气管旁、主肺动脉窗、隆突上、两肺门见多枚淋巴结，最大者短径约7MM，增强扫描不均匀强化。两侧胸腔未见积液。左侧肋胸膜不均匀增厚，增强扫描较明显强化，右侧胸膜无增厚、粘连。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，肝S2、S4、S8见多个类圆形低密度影，边界尚清，最大者约12MM×12MM，增强扫描未见明显强化。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾及两侧肾下腺未见明显异常。腹膜后未见肿大淋巴结胸1、5、12椎体、腰1椎体、右侧第2后肋、右侧第11后肋骨质密度不均匀，见点状、小片状密度增高影，边界尚清。</t>
+          <t>左肺门区病灶代谢活跃，考虑恶性病变，肺门转移淋巴结与肺癌原发灶鉴别；左下肺病灶代谢活跃，考虑恶性病变；纵隔数个淋巴结代谢活跃，两侧肾下腺病灶代谢活跃，全身多处骨质破坏代谢活跃，考虑转移。轻度脂肪肝。胆囊多发小结石。子宫体局部代谢略活跃，建议随诊；右侧卵巢囊肿。两肺纤维增殖灶。空腹6h以下，静脉注射18F-FDG，静息约60MMin后行全身PET/CT断层显像，影像清晰。左肺门区软组织影放射性浓聚，SUV约25.6，大小约2.2CM×3.1CM，边缘见多个短毛刺。左下肺前段近胸膜处偏心空洞结节影放射性分布浓密，SUV约3.9，最大横截面约1.1CM×1.9CM，病灶边缘见毛刺，相邻胸膜粘连牵拉。另两下肺、左上肺少许条索、小斑状致密影放射性分布未见明显异常，部分内见钙化。气管、支气管通畅。两侧胸壁未见确切病灶和异常放射性分布。纵隔左下上气管旁数个淋巴结放射性浓聚，SUV最高约12.1，最大约1.3CM×1.4CM；余纵隔、右肺门及两侧腋窝未见肿大淋巴结及异常放射性分布。两侧乳腺放射性分布未见明显异常。所见两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及两侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。两下颈小淋巴结放射性分布未见明显异常。肝脏密度不均匀稍降低放射性分布未见明显异常，CT值约42Hu（脾CT值约47Hu）。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊内多发斑点状高密影放射性缺损，CT值约70Hu。胃及十二指肠放射性分布未见明显异常。两侧肾下腺软组织影放射性浓聚，SUV最高约31.4，右侧者大小约4.3CM×4.8CM，左侧者大小约1.0CM×2.0CM，其中右肾下腺病灶与相邻胃壁、胰体尾、右肾及脾脏分界欠清。脾脏附近小结节影密度及放射性分布与脾相仿，大小约1.0CM×1.0CM（副脾）。脾脏、胰腺、两肾形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。右侧附件区囊状低密度影放射性缺损，大小约1.1CM×1.3CM，CT值约6Hu。子宫体见小结节状突起放射性略浓密。膀胱及肠管等形态、结构及放射性分布未见明显异常。两髂血管旁及两腹股沟未见肿大淋巴结及异常放射性分布。两侧第5肋骨、左侧第8肋骨、C7、T4、T6、T7、L1、L4、L5椎体及附件、右侧肩胛骨、右侧髂骨、左侧髋臼多处骨质破坏放射性浓聚，SUV最高约18.6，其中L5病灶侵犯右侧椎旁神经孔；左侧股骨下段髓腔密度局灶性增厚放射性分布略浓密，SUV约3.3。</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>左肺下叶后段</t>
+          <t>左肺门区,左下肺病灶</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>17MM×14MM</t>
+          <t>2.2CM×3.1CM,1.1CM×1.9CM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>两肺,左锁下,纵隔,左肺门淋巴结,椎体,右侧第2,第11后肋</t>
+          <t>肺门转移淋巴结,纵隔数个淋巴结,两侧肾下腺,两侧第5肋骨,左侧第8肋骨,C7,T4,T6,T7,L1,L4,L5椎体及附件,右侧肩胛骨,右侧髂骨,左侧髋臼</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>肺淋巴下皮癌化疗后，对比（2013-7-11）：两肺多发结节病钙化灶，考虑转移瘤，大致同前；两锁下、纵隔及两肺门多发淋巴结肿大，考虑转移瘤，部分较前增大；甲状腺两叶增大并多发结节，考虑结节性甲状腺肿；胸骨、胸椎、腰椎多发骨质致密影，大致同前。肺淋巴下皮癌化疗后：两肺可见多发结节影，大小约2MM~9MM，部分边界欠清，密度欠均匀，部分内可见钙化影。气管及支气管分支通畅。两锁下、血管前间隙、下、上气管旁、主动脉旁、隆突上及两肺门可见数个肿大淋巴结，边界不清，部分融合，最大约36MM×37MM，增强见不均匀强化。病灶包绕气管，气管管腔狭窄；包绕右侧头臂静脉，血管管腔变扁，下腔静脉内见小片状充盈缺损。两侧胸腔未见积液。两侧胸膜无增厚、粘连。甲状腺两叶体积增大，密度不均匀，内见多发低密度结节，边界不清，最大约19MM×20MM，密度不均匀，内见钙化灶，增强扫描可见轻度不均匀强化，强化程度低于正常甲状腺组织。</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>肺</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2MM~9MM</t>
+          <t>风心：1、轻度二尖瓣狭窄伴轻度反流2、主动脉瓣钙化3、轻度肺动脉高压伴轻度三尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，43，19-40，右室舒张末内径，35，35-56，右室收缩末内径，23，23-35，室间隔厚度，12，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，室间隔基底段稍增厚，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣增厚，开放略呈圆隆状，二维估测瓣口面积2.0CM，2，，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约46MMHg，。，三、，右心功能测定：，LVEF：61%；二尖瓣血流图示狭窄波形，四、组织多普勒测定：，DTI示S波峰值：9.9CM/s；，五、结论：，</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>右上肺癌并转移免疫治疗后复查，对比2017-05-31片：右肺上叶肿物，范围较前稍缩小；周围阻塞炎症，较前略有吸收。左肺下叶小结节灶，增殖灶可能性大，较前未见明显变化。右肺下叶舌段、左肺中叶斑片灶，考虑炎症，部分较前吸收减少。右胸腔少量积液，较前相仿。纵隔隆突上、右肺门淋巴结肿大，考虑转移，部分较前稍缩小。纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前无明显变化。肝多发小囊肿。左肾小囊肿。前列腺钙化。多个胸腰椎椎体致密灶，考虑许莫氏结节，大致同前。右上肺癌并转移免疫治疗后复查，对比2017-05-31片：右肺上叶外后基底段见一软组织肿块，边缘不光整，大小约为62MM×42MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，侵犯邻近胸膜，较前稍缩小。病灶周围见斑片状灶，边界不清楚，范围较前稍缩小。左肺下叶尖段见小结节（se11,im73），边界清，直径约2MM，较前相仿。右肺下叶舌段、左肺中叶见少许斑片状密度增高灶，边缘模糊，部分较前吸收减少。右肺上叶段支气管变窄，气管及左侧支气管分支通畅。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约18MM，不均匀强化，部分较前稍缩小。两上气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM，较前未见明显变化。右侧胸腔见少量液性密度灶，较前相仿，左侧胸腔未见积液，左侧胸膜未见增厚。肝脏形态正常，轮廓光整，肝内见多个小类圆形低密度灶，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约4MM，未见强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，见斑点状致密灶。腹主动脉旁、两侧髂血管旁、腹股沟未见肿大淋巴结。多个胸腰椎椎体见半环形致密影，边界清，边缘硬化，较前未见明显变化。</t>
+          <t>两乳MT术后：1.考虑为右肺上叶转移；2.右肺下叶及左肺上叶慢性炎性小结节可能，请随访；3.肝脏囊肿；右肾小结石。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示两乳MT术后，术区未见明显糖代谢异常增高灶及占位；两侧腋窝内未见明显糖代谢异常增高及肿大淋巴结；双肺纹理增粗，右肺上叶后基底段见糖代谢异常增高的类圆形结节，直径约为10.3MM，最大SUV值约为4.3，平均CT值约为9.8Hu；左肺上叶外侧基底段及右肺下叶舌段近胸膜另见微小结节，直径分别约为3.1MM和1.9MM，最大SUV值分别为0.5和0.4；各级支气管腔通畅；纵隔无明显糖代谢异常增高及肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大。腹部PET/CT图像示胃壁呈糖代谢生理性增强；肠道内显像剂生理性积聚；肝脏表面光整，各叶比例匀称，肝脏左后叶见小囊性灶，直径约为5.6MM，最大SUV值约为2.1，平均CT值约为21.3Hu；肝内外胆管无扩张；脾脏不大，密度均匀，未见明显占位；右肾见小结石；胆囊、胰、左肾及两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道内显像剂生理性积聚；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。平扫骨窗示诸骨未见明显骨质破坏吸收征象。</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>右上肺</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>62MM×42MM</t>
+          <t>两乳</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>纵隔隆突上,右肺门淋巴结</t>
+          <t>右肺上叶</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1.左侧胸膜恶性肿瘤,对比2012.06.25前片病变范围减小;双肺、胸3椎体及纵隔淋巴结转移,较前相仿;2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚,最厚约1.5CM,CT值约30HU。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约1.8CM×1.2CM;右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>左侧胸膜</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>1.5CM</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>双肺,胸3椎体,纵隔淋巴结</t>
+          <t>None与2015-2-25胸部CT比较：1.左肺门团块较前缩小，较大层面原约69MM×42MM（IM30），现约51MM×32MM（IM30），仍包绕左上肺动脉干。左肺上叶胸膜上小结节同前，较大约6MM（IM47）。2.两肺气肿及弥漫肺大泡同前，较大肺大泡仍约56MM×55MM（IM37）。3.左肺门淋巴结较前缩小，原约32MM×21MM（IM28），现约32MM×17MM（IM29）。纵隔、两侧锁骨下、腋上未见肿大淋巴结。4.两侧胸膜光滑，未见胸水。胸廓诸骨未见骨质破坏。5.扫及胃底大弯侧胃脾之间高强化结节同前，仍约20MM×19MM（IM58）。</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号右室舒张功能减低，收缩功能正常心超声检测值：LA   25MM       AO     25MM        MV E 0.50MM/s     EF 74%LV   44MM       IVS    8MM            A 0.76MM/s     FS 42% RA   23MM       LVPW   7MMRV   16MM       PA     17MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+          <t>右侧肺门区见一肿物，边界不清，最大层面大小约73MM×56MM，密度不均，增强扫描后较明显强化。肿物截断右肺中叶及下叶支气管，并包绕右肺动脉。右肺中叶及下叶不张体积缩小，呈片状高密度影，内见肺血管走形，不张肺组织与肺门肿物分界不清。右肺门、隆突下、血管前、右上下气管旁、左下气管旁及右侧锁骨上区见多发肿大淋巴结，融合呈团，部分与肺门肿物分界不清，大者大小约59MM×54MM，增强后不均匀强化。右肺上叶多发模糊斑片影及类结节灶，近水平裂处为著，边界欠清。左肺下叶背段小类结节灶，边界清，大小约3MM×3MM(SE9，IM252)，气管及左侧支气管分支通畅。左侧腋窝见一淋巴结，大小约11MM×11MM，密度欠均匀。右侧腋窝未见肿大淋巴结。右侧胸腔少量积液；左侧胸腔未见积液。右上胸膜局部不规则增厚，可见强化。左后胸壁见一肿物(SE9，IM174)，边界不清，大小约36MM×19MM，增强扫描后明显强化，肿物与左侧第6后肋分界不清，第6后肋骨皮质中断破坏。肝脏内见多发结节、肿物，边界模糊，大者大小约45MM×51MM，增强后呈环形强化。肝内另见小低密度灶，边界清，直径约2-4MM，未见强化。肝内外胆管未见异常。胆囊未见异常。门静脉未见异常。肝门区、门腔间隙、腹腔干周围见多发肿大淋巴结，大者大小约24MM×43MM。脾、胰腺大小、形态正常，密度均匀。双肾见几个囊性灶(右肾2个，左肾1个)，边界清，大者直径约6MM，未见强化。右侧肾上腺稍增粗；左侧肾上腺未见正常。膀胱充盈良好，境界清楚。精囊、前列腺、直肠未见明显异常。腹主动脉旁、双侧髂血管旁、腹股沟未见肿大淋巴结。余扫描所见骨质未见明确异常。右肺门肿物，符合中央型肺癌，并右肺中叶、下叶肺不张。右肺门、纵隔、右上锁骨上区、肝门区、门腔间隙、腹腔干周围多发肿大淋巴结，考虑转移。左侧腋窝淋巴结，可疑转移。右肺上叶斑片影及类结节灶，考虑炎症可能；左肺下叶背段纤维增殖灶。右上胸膜增厚，转移待排；右侧胸腔积液。左后胸壁肿物并左侧第6后肋骨质破坏，考虑转移。肝脏多发转移瘤。右肾上腺增粗，考虑转移。双肾小囊肿。盆腔未见明确异常。</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>右侧肺门</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>73MM×56MM</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>右肺门,纵隔,右上锁骨上区,肝门区,门腔间隙,腹腔干周围多发肿大淋巴结,左侧腋窝淋巴结,左后胸壁,肝脏,右肾上腺</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>左下肺叶切除术后，右对比2012-8-21片：左侧斜裂胸膜较明显增厚，所见较前变化不大。右上肺膈面下小类结节灶，大致同前，考虑增殖灶可能大。两锁下及纵隔内数个小淋巴结，大致同前。肝内多个小类圆形低密度区，考虑小囊肿可能大。扫描所见胃底体下部大弯侧胃壁结节，间质瘤？建议进一步检查。左下肺叶切除术后，右对比2012-8-21片：左肺体积缩小，纵隔稍向左侧偏移，左中肺残见少许索条影，左侧斜裂不均匀增厚，内见条状高密度金属影，较前变化不大。右下肺透亮度稍增高，见多发小圆形透亮区，大致同前。右上肺膈面下见小类结节灶，大小约4MM×5MM，边界清，大致同前。余两肺未见明显病变。气管及右肺各叶支气管分枝通畅，未见明显软组织肿物或受压变窄。两锁下、血管前、两上气管旁、主动脉旁、隆突上可见多个淋巴结，最大者短径约为8MM，边界尚清，较前变化不大。两侧胸腔未见积液。左侧胸膜稍增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见散在数个小类圆形低密度区，直径约3MM~6MM，边界清，增强后未见明确强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见胃底体下部大弯侧胃壁见结节状突起，大小约9MM×10MM，增强后较明显强化。左侧第6肋骨质不连续，呈术后改变。余扫描范围内胸椎、胸壁骨及软组织未见异常。</t>
+          <t>1.左下肺周围型肺癌，双肺多发转移；2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大；3.第4、8、11胸椎椎体转移，左侧第5、7后肋转移；4.甲状腺占位，请详查；5.肝右叶多发低密度灶，双侧肾上腺区软组织密度影，转移可能性大，请详查。左下肺可见一肿块影，边界不规则，最大层面4.67CM×4.37CM，CT值约21-46HU；左肺下叶基底段部分支气管略窄；双肺多发大小不等之结节影；双肺透光度不均匀。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结，大者短径约1.30CM。两胸腔无积液征象。心脏大血管未见异常。第4、8胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.9CM×0.7CM，CT值约为26HU。肝右叶多发低密度灶，双侧肾上腺区可见软组织密度影。</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>左下肺</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4.67CM×4.37CM</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>双肺,第4、8、11胸椎椎体,左侧第5、7后肋,双侧肾上腺区</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>肝内多发边缘强化结节，考虑为肝血管瘤可能性大。肝内多发不均匀强化或环形强化病变，结合病史转移瘤可能大胆囊结石。左肾错构瘤。约T9胸椎可疑骨质破坏肝脏饱满，表面光滑，各叶比例协调，于肝右左叶内可见多发大小不等的低密度灶，边缘模糊不清，最大者位于左后叶，直径约6.8CM。增强扫描早期可见病灶边缘呈结节状强化，其后强化向中央扩展，延迟期病灶进一步强化。肝内另见多个大小不等的低密度灶，较大者位于肝左叶前下段，最大径约6,7CM，增强后不均匀强化或环形强化。胆囊不大，壁不厚，胆囊底部见一环形高密度影。胰腺、脾脏形态正常。左肾前外侧皮质见一混杂密度影突出于肾皮质表面，最大径约4.5CM，基底部肾皮质结构紊乱，病变大部分为脂肪密度影，内部可见不规则软组织密度影。增强扫描病变实质部分明显强化。约T9胸椎可见限局性骨质密度减低。</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>肝</t>
+          <t>肝囊肿。左侧胸腔少量积液（陈旧性）。胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。左侧附件区囊性灶，考虑卵巢囊肿。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径11MM，肝S5门脉旁见一个无回声灶，大小约25MM×13MM，类圆形，边界清，内部透声良好，后方回声增强。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约41MM×40MM×20MM，前位，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中。右侧卵巢显示清晰，左侧附件区见一个无回声团，大小约28MM×18MM，椭圆形，边界清，内不透声良好，后方回声增强。CDFI：子宫、两附件未见明确异常血流信号。左侧胸腔探及少量积液，内部透声不佳，宽约35MM。</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>左肺癌术后:1、纵隔7区、左肺门、左心包旁增大淋巴结伴代谢活跃,考虑转移;右肺多发小结节,未见高代谢,随访。2、需与术后改变鉴别并密切随访:左胸腔包裹性积液;左侧胸壁及左侧6、7后肋术区代谢增高。3、右肺气肿。心包少量积液。肝小囊肿。肛门部痔疮。椎体少许骨质增生。4、垂体区软组织结节伴代谢活跃,垂体瘤?请结合垂体MRI。余脑代谢未见明显异常。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺术后,左侧胸腔包裹性积液,边缘部伴轻度摄取,SUVMAX2.3。右肺气肿,右肺散在小结节,较大者约3MM,未见异常浓聚。右侧胸膜无增厚,胸水征阴性。纵隔7区、左肺门、左心包旁见增大淋巴结伴放射性浓聚,SUVMAX3.6-13.02,7区较大者约2.5CM×1.7CM。心肌浅淡显影,心包少量积液。左胸壁术区放射性增高,SUVMAX2.6。左6、7后肋术区放射性浓聚,SUVMAX4.7。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。垂体区见软组织结节伴放射性浓聚,SUVMAX20.56,结节大小约1.6CM×1.2CM。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝内多发小囊性低密度灶,放射性稀疏,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。肛门部放射性增高,SUVMAX5.5。椎体边缘少许骨质增生。项韧带可见钙化。上、下肢关节带大致正常。</t>
+          <t>直肠癌术后肺转移、肝转移综合治疗后：直肠癌、两侧乳腺癌术后改变，未见明显复发两肺多发病变，未见明显变化肝S4、S7病灶，考虑消融术后改变，较前未见明显变化肝S7结节，考虑血管瘤肝S7肝内胆管结石甲状腺左叶结节灶，较前未见明显变化直肠癌术后肺转移、肝转移综合治疗后，与2014-3-10片对比：左肺下叶尖段见一结节灶，大小约17MM×12MM，边界不清，密度不均匀，增强扫描轻度不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前未见明显变化。左肺上叶前基底段见一结节，大小约12MM×11MM，边界不清，密度不均匀，增强扫描轻度强化。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔少量积液。两侧胸膜未见明显增厚。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化。两侧乳腺术后缺失，两侧胸壁未见明显肿物。两侧腋窝未见肿大淋巴结。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>左肺</t>
+          <t>直肠,两侧乳腺</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>纵隔7区,左肺门,左心包旁增大淋巴结</t>
+          <t>肝S4,S7,肺</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>右上肺癌术后、化疗后，与2012-01-05对比：右侧胸膜稍增厚，较前无明显变化。左肺中叶和上叶少许斑片状影，考虑炎症，大致同前。肝内低密度灶，考虑肝囊肿。右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查：右上肺缺失，右上肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×25MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
+          <t>右上肺癌术后，与2015-11-16对比：右上胸膜增厚。左肺下叶、上叶斑点影，考虑增殖灶可能性大，较前未见明显变化。纵膈及右侧锁骨下淋巴结转移，较前稍缩小。右侧胸腔少量积液，较前无明显变化。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌术后，与2015-11-16对比：右肺下叶术后缺失，右肺上叶见少许纤维条索，边界清晰，未见明确结节影；左下肺及上肺见小斑点状影，边界欠清，直径约2MM；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个肿大淋巴结，最大大小约12MM×12MM，较前稍缩小；右侧胸腔见少量积液，较前无明显变化。左侧胸腔未见积液。右上胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，余肝实质密度均匀；肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影；肝门区正常；门静脉所见正常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；右肾见一类圆形囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常；两肾下腺所见正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1993,404 +1993,459 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1.结合病史,考虑右乳癌并同侧腋窝淋巴转移(BI-RADSIV级)。2.双乳点片状强化灶(BI-RADSII级)。右乳外上象限可见异常信号灶,边缘分叶、毛糙,最大截面约2.7CM×2.1CM,表现为T1WI、T2WI等信号,压脂序列高信号,DWI高信号,增强后可见不均匀强化,动态增强曲线呈流出型;右乳晕区皮肤增厚。余双侧乳腺可见散在点片状强化灶。右腋窝可见多个肿大淋巴结,大者约0.8CM。左侧腋窝可见多发小淋巴结,其内可见偏心性脂肪信号。余未见异常。</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>右乳</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2.7CM×2.1CM</t>
+          <t>None与2014-4-14胸部CT对比：1、左肺下叶切除术后，支气管断端未见异常增厚及异常强化灶。左肺上叶索条影同前，追查。右肺内未见明显新增结节。2、左肺门淋巴结较前缩小，较大现约21MM×12MM（IM31），原约26MM×13MM（IM32）；纵隔多组见多发肿大淋巴结，现较大约21MM×18MM（IMA11），原约24MM×18MM（IM12），部分与气管或食管分界不清。考虑转移。3、左侧后胸膜局限性增厚，呈肿块状，现约33MM×18MM（IMA36），原约35MM×17MM（IM34）；左侧少量胸水；考虑胸膜转移。右侧局限性胸膜肥厚粘连，未见胸水征。4、左后肋术后改变，左侧第8后肋局部密度稍高同前，追查。余扫及诸骨未见骨质破坏灶。</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>同侧腋窝淋巴</t>
+          <t>纵隔多组见多发肿大淋巴结,胸膜</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>“肺肉瘤样癌外院放化疗后”：右肺下叶、上叶斑片状、条片状影，放射性炎症并局限性肺不张可能性大，较前进展。右侧胸腔积液并部分包裹性积液形成。两侧肋胸膜、纵隔胸膜不均匀增厚，考虑转移瘤，累及心包膜及右第3前肋。右侧第8肋骨破坏并软组织肿块，考虑转移瘤，侵犯累及背部肌肉及胸膜。腹部未见明确病变。两侧会阴部囊性灶，考虑前庭大腺。“肺肉瘤样癌外院放化疗后”，对比2017.4.6外院片：右肺下叶上舌段、上叶可见多发斑片状、条片状高密度影，边界模糊，密度不均匀，内见支气管气象，增强扫描呈明显强化，内见小血管穿行。左肺纹理尚清，肺野未见明确实质性病变。气管及支气管分支通畅。右侧胸腔可见积液，部分呈包裹性改变。两侧肋胸膜、纵隔胸膜不均匀增厚，并可见多发结节及肿块，较大者位于右心缘旁，边界不清，范围约33MM×20MM，密度不均匀，增强呈明显不均匀强化，病灶累及心包膜；另见右前肋胸膜病灶累及右侧第3前肋内缘骨皮质。右侧第8肋骨骨质破坏，周围可见软组织肿块，范围约49MM×48MM，增强扫描呈不均匀强化，向外侵犯背部肌肉，向内侵犯胸膜。肝脏形态正常，外形轮廓光整，密度均匀，增强扫描未见异常强化表现。胆囊大小正常，未见结石。肝内胆管及胆总管未见扩张，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾未见明确异常。两肾下腺未见明确异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈可，境界清楚，膀胱壁未见增厚。子宫萎小，密度及强化未见异常，宫腔未见扩张，子宫颈未见明确异常。两侧附件区未见软组织肿块。直肠未见明确异常。两侧髂血管旁、腹股沟未见肿大淋巴结。两侧会阴部各见一囊性灶，直径约19~23MM，平扫呈高密度，增强后未见明显强化。余扫描范围内骨质结构未见破坏征象。</t>
+          <t>左上肺癌术后化疗后复查，对比2016-12-23片：左上肺癌术后化疗后改变，未见明确复发征象。两肺散在斑片及索条，考虑纤维增殖灶，较前相仿。右上肺胸膜上片状影，大致同前。右侧肋胸膜不均匀增厚，右侧斜裂不均匀结节状增厚，较前未见明显变化。两侧胸腔少量积液，部分包裹，较前未见明显变化。肝内多发囊肿，肝内胆管轻度扩张。两肾小囊肿。左上肺癌术后化疗后复查，对比2016-12-23片：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，局部未见明确软组织肿块。左残肺及右肺散在见少许斑片灶、条索病灶，与胸膜粘连，左肺下叶后段斑片状、类结节状病灶，较前相仿。右上肺胸膜上见片状密度增高影，范围约54MM×18MM，边界欠清，增强扫描明显强化，较前未见明显变化。两肺门及纵隔未见肿大淋巴结。两侧少量胸腔积液，右侧斜裂见不均、结节状增厚，较前未见明显变化。右侧胸膜不均匀增厚，增强扫描明显强化，部分见条状钙化，较前未见明显变化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者约20MM×17MM，边界清，增强扫描未见强化，较前未见明显变化。胆囊体积不大，其内未见结石，肝内胆管轻度扩张，胆总管内未见明确结石。肝门区、门静脉未见异常。脾、胰腺大小、形态正常，密度均匀。两肾见小低密灶，边界清，较大直径约4MM，增强扫描未见强化。两肾下腺未见异常。腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，未见明显异常软组织影，较前未见明显变化。</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>肺</t>
+          <t>左肺上叶</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>直肠癌肝肺转移综合治疗后；两乳癌术后：吻合口代谢较活跃，疑治疗后改变；左下肺、左上肺结节代谢略活跃，疑治疗后改变；肝脏S4病灶代谢未见异常，考虑治疗后改变。左中肺、左上肺斑片影代谢未见异常，请结合临床。两下颌窦炎症。甲状腺左叶结节代谢较活跃，请结合临床。肝脏S7结节代谢低上，结合病史，考虑血管瘤；S7肝内胆管结石。空腹6h以下，静脉注射18F-FDG，静息60MMin后行全身PET/CT断层显像，影像清晰。直肠癌肝肺转移综合治疗后；两乳癌术后：直肠部分缺如，吻合口处放射性分布浓密，SUV约6.5。余肠管、膀胱、子宫等形态、结构及放射性分布未见明显异常。两侧髂血管旁及腹股沟未见明显肿大淋巴结及异常放射性分布。两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽、喉咽未见异常。两侧下颌窦稍低密度影放射性分布未见异常；额窦、蝶窦、筛窦结构及放射性分布未见明显异常。甲状腺左叶稍低密度结节放射性分布浓密，SUV约4.1，大小约1.0CM×1.3CM，余甲状腺放射性分布未见异常。颈部未见肿大淋巴结及异常放射性分布。左下肺尖段、左上肺前基底段结节放射性分布浓密，SUV约4.5，最大约1.3CM×1.7CM；左中肺外侧段及左上肺后基底段近胸膜处斑片影放射性分布未见明显异常；右下肺前段钙化灶放射性分布未见异常。气管、支气管通畅。心脏及大血管放射性分布未见异常。两侧乳腺缺如，两侧前胸壁呈术后改变。余胸壁未见确切病灶和异常放射性分布。纵隔、两肺门及两侧腋窝未见肿大淋巴结及异常放射性分布。肝脏S4稍低密度结节代谢未见异常，大小约1.3CM×2.2CM，其内见小片状稍高密度影；S7稍低密度结节放射性分布稀疏，大小约1.6CM×2.6CM；S7局部点状高密度影放射性分布未见异常；余肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊、胃及十二指肠放射性分布未见异常。脾脏、胰腺、两肾及肾下腺形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。所见颅骨、各躯干骨、四肢骨放射性分布未见明显异常。</t>
+          <t>1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-04-01)右肺下叶肿块影略增大，余较前片相仿；2.心包少量积液，较前相仿；3.甲状腺改变，请结合临床。右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，长径约为2.0CM×1.6CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>直肠,两乳</t>
+          <t>右肺下叶</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2.0CM×1.6CM</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>肝脏S4,左下肺尖段,左上肺前基底段</t>
+          <t>双肺,右胸膜</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>右肺癌综合治疗后，与2016-09-05日片对比：右残肺少许纤维增殖灶，大致同前。左肺数个小类结节灶，较前变化不大。右锁下、纵隔数个淋巴结，较前变化不大。右侧胸腔少量积液，右侧胸膜稍增厚，大致同前。甲状腺右叶病灶，考虑结节性甲状腺肿，大致同前。肝S2、7小囊肿。胆囊结石。右肾囊肿。胸10椎体右侧稍高密度灶，较前相仿。右肺癌综合治疗后，与2016-09-05日片对比：右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影。左肺见数个类结节，较大者直径约3MM，边界清，较前未见明显变化。气管及支气管分支通畅。右侧锁骨下、血管前、左下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，密增强后见较明显强化，较前未见明显变化。右侧胸腔见少量积液，较前变化不明显。左侧胸腔未见积液。右上胸膜稍增厚，大致同前。扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2、S7肝左静脉旁见囊性灶，直径约3MM，边界清楚，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清，增强扫描未见强化，左肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。胸10椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。余扫描层面未见明确骨质破坏征象。</t>
+          <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低，内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2017-1-09)片变化不著，左肺转移，显示不清；左肾上腺饱满，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.脂肪肝，肝囊肿；左肾囊肿</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>右肺下叶</t>
+          <t>右乳</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>骨,左肺</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>左肺下叶见不规则团块影,呈浅分叶,与邻近胸膜关系密切,较大截面约5.2CM×4.5CM,其内密度欠均匀,CT值约16HU。右肺上叶(HR178)、左肺上叶(169)见高密度结节影,边界清晰,大者径约0.7CM。两肺支气管血管束模糊,双肺另见多发条索影。两肺门区未见异常。纵隔内未见多发小淋巴结,大者短径约0.75CM。两胸腔无积液征象。心脏大血管未见异常。双侧甲状腺密度不均匀减低,甲状腺左叶见结节样致密影。1.左肺下叶周围型肺癌,双肺上叶小结节,转移不除外,请结合临床、详查;2.支气管炎征象,双肺多发条索灶;3.所示双侧甲状腺病变,请结合相关检查。</t>
+          <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.2CM×5.2CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.4CM。左肺下叶外基底段(S34)可见粟粒影。心影大小正常范围。右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约1.0CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；较2014.01.14CT相仿，请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>左肺下叶</t>
+          <t>右肺下叶</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5.2CM×4.5CM</t>
+          <t>4.2CM×5.2CM</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>双肺上叶</t>
+          <t>右侧胸膜,右侧腋窝,纵隔淋巴结,骨,胸3椎体,右侧多个肋骨</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>两侧附件增大，MT可能,右侧附件区囊腺瘤机会大；子宫多发小肌瘤，建议MRI检查；后腹膜及肝胃间隙、髂血管旁多发肿大淋巴结，左侧腹膜增厚，左侧肾后筋膜结节（种植转移可能）；肝微小囊肿，脾脉管瘤可能大，两肾囊肿；胆结石；左侧胸腔积液伴左肺压迫性不张。两侧附件区见软组织影，增强后轻中度强化；右侧附件区见囊实性灶，大小约32MM×46MM，肝胃间隙及后腹膜、髂血管旁见多发肿大淋巴结，左侧肾后筋膜见软组织影，直径约12.5MM；左侧腹膜增厚；肝脏表面光滑，各叶比例匀称，肝左叶见无强化小囊性灶，肝内血管未见狭窄或充盈缺损；脾脏未见肿大，内见多发等低密度小结节灶，直径&amp;lt;5MM，动脉期边界较清，门脉期病灶似有逐渐填充；胆管未见扩张；两肾见无强化小囊性灶，胰腺无殊；腹盆腔内无积液。子宫形态欠规则，见多枚结节状等低密度灶，直径约25MM，部分结节状内见斑片状钙化灶，增强后环状或斑片状明显强化，肝周见结肠影，左侧大量胸腔积液伴左肺压迫性不张。</t>
+          <t>左上肺叶肺癌化疗后，与2013-12-12对比：左上肺叶结节，较前稍缩小，周围肺不张较前复张。左肺门、左侧上气管旁、隆突上淋巴结，较前缩小。肝囊肿。左肾囊肿。第7、8胸椎体、第2腰椎转移瘤，范围较前未见明显变化。左上肺叶肺癌化疗后，与2013-12-12对比：左上肺叶背段见一不规则形团块灶，大小约18MM×16MM，呈分叶状，见短毛刺，其内密度欠均匀，增强后呈不均匀强化，病灶周围肺组织体积缩小，密度增高，邻近斜裂受牵拉，余肺纹理尚清晰，未见明确结节；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。左侧肺门、左侧上气管旁、隆突上见多个淋巴结，大的短径约5MM，均较前缩小。两侧胸腔未见积液。右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S4、S5、S7见数个小囊性低密度灶，最大者约13MM×12MM，边界清楚，密度均匀，增强后未见强化；肝内胆管正常，胆囊大小正常，其内未见结石影，胆总管未见扩张；肝门区正常；门静脉所见正常。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀。左肾见2个囊性影，大的约53MM×46MM，边界清楚，增强后未见强化。右肾所见正常；两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。腹腔未见积液。第7、8胸椎体、第2腰椎体可见骨质破坏区，周围见硬化边。</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>两侧附件</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>左侧肾后筋膜</t>
+          <t>左上肺叶背段</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>18MM×16MM</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>左肺癌切除术后复查，与2013-3-14片对比：左肺术后改变，未见肿瘤复发。两肺多发肺大泡。左侧少量胸腔积液，大致同前。两肾多发囊肿。右侧肾盂结石，左侧输尿管结石。左肺癌切除术后复查，与2013-3-14片对比：左肺下叶缺如，残肺膨胀良好，左侧斜裂见长条状密度增高灶，大致同前。右肺下叶、两肺上叶胸膜上见多发肺大泡影，边界清楚，两肺未见明显结节影。气管、左中、上叶及右肺各叶支气管分枝通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸膜轻度增厚，左侧胸腔见少量积液，较前变化不大。右侧胸腔未见积液，右侧胸膜未见增厚。肝脏大小正常，各叶比例在正常范围以内，外形轮廓光整，密度均匀。肝内胆管未见扩张。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石头影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态及密度未见异常。两肾见数个囊性灶，最大者大小约11MM×9MM，边界清晰，密度均匀，未见强化。左侧输尿管及右侧肾盂见致密灶。两侧肾下腺所见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
+          <t>右肺下叶占位、双肺结节，考虑肺癌、肺内多发转移可能。纵隔、右肺门、右锁骨上区多发肿大淋巴结，转移。双肺间质病变。右肾上腺结节，转移?请结合腹部检查。左肺上叶见一软组织结节，约26MM×20MM(IM29)，分叶状，可见强化。右肺下叶外基底段软组织肿块，约37MM×31MM(IM42)，边缘分叶，可见强化。双肺内另见散在小结节影，较大约7MM(IM21)。双肺见散在网格影，右肺上叶胸膜下为著。纵隔2R、4-7组、右肺门、右锁骨上区见多发肿大淋巴结，较大约57MM×42MM(IM30)。双侧胸膜增厚，右侧少量胸水。扫及胸廓诸骨未见明确破坏征象。扫及右侧肾上腺结节(IM57)。</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>左肺</t>
+          <t>右肺下叶外基底段</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>37MM×31MM</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>双肺,肺内,纵隔,右肺门,右锁骨上区多发肿大淋巴结,右肾上腺</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1.结合临床,右肺癌治疗后,右肺门及纵隔淋巴结转移,较前2014-10-10好转;双肺转移,较前明显好转2.结合临床,左乳癌治疗后,较前变化不著右肺上叶示一不规则软组织密度结节灶,截面约1.1CM×0.8CM,边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶,截面约3.6CM×1.7CM,边缘毛刺牵拉邻近胸膜凹陷,内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织结节灶,直径约1.0CM,边缘毛刺,增强后呈较显著强化。另右肺跨斜裂胸膜处可见软组织密度影,形态不规则,牵拉邻近胸膜凹陷,内见支气管充气征。余双肺见多发结节灶,大者直径约0.2CM。左乳见一不规则软组织结节灶,截面约0.7CM×1.0CM,边缘分叶可见少许毛刺,增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结,大者短径约0.7CM,部分内可见钙化。</t>
+          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，较2014-10-13相仿；2.右肺下叶磨玻璃结节，较前相仿；3.所示多发骨转移征象，右侧第10后肋病理性骨折，左侧第10后肋形态欠规整，胸2椎体内及胸骨柄内病灶较前部分范围略增大。右肺下叶背段见类圆形肿块影，约2.14CM×1.82CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，其CT值约35HU。右肺下叶见斑片影(S39)。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.18CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2椎体内可见结节状高密度影，胸2附件骨质可见溶骨性破坏区。</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>右肺,左乳</t>
+          <t>右肺下叶背段,右肺下叶背段</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2.14CM×1.82CM</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>右肺门,纵隔淋巴结,双肺</t>
+          <t>右肺门,纵隔淋巴结,骨</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>左乳癌术后9年复查,与2011-11-4片对比:左侧乳腺术后缺失,左前胸壁呈术后改变,局部未见明显软组织肿块。右侧乳腺大小、形态未见明显异常,未见异常密度灶及异常强化灶。双侧腋窝见小淋巴结,最大约为约为5MM×7MM,较前未见明显变化。双侧内乳区未见明显肿大淋巴结。右肺上叶、中叶见少许斑片影,边缘模糊,双肺余叶纹理清晰,未见明确结节灶。气管及支气管分支通畅。右下气管旁、主动脉弓旁、隆突下、右肺门、右中下肺叶间见多个淋巴结,最大约为14MM×18MM,密度尚均匀,较前稍增大。右侧胸腔见少量积液,左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态未见异常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S5见一低密度灶,大小约24MM×24MM,边界不清,增强扫描病变边缘轻度强化。肝内胆管未见异常,其内未见结石。胆囊大小未见异常,其内未见结石。胆总管未见扩张,其内未见结石。肝门区结构清晰,肝静脉、门静脉未见异常。脾大小、形态未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾、双肾上腺大小、形态未见异常,密度均匀。膈脚后、腹腔干、腹主动脉旁未见肿大淋巴结。扫描层次中多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨见结节状骨质致密,部分骨皮质边缘欠光整,较前未见明显变化。左乳癌术后9年复查,与2011-11-4片对比:左乳癌术后改变,局部未见明显复发征象。肝S5低密度灶,考虑转移瘤。多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨骨转移瘤,较前未见明显变化。右肺上叶、中叶斑片影,较前未见明显变化。纵隔、右肺门、右中下肺叶间淋巴结,较前稍增大。双侧腋窝小淋巴结。右侧胸腔少量积液。</t>
+          <t>右乳外下象限占位，符合癌。右肺上叶前内基底段肿块，结合病史考虑转移可能性大，原发肺癌待除外，结合相关检查。两肺多发结节，转移可能性大。纵隔淋巴结增大，追查。右侧乳腺外下象限见不规则软组织，较大截面约48MM×24MM（IM27），与右侧胸大肌及右腋上肿大淋巴结分界不清，表面皮肤欠光整，局部增厚。右肺上叶前内基底段斜裂胸膜上见梭形软组织密度影，较大截面约39MM×30MM（IM36），相应支气管受压变窄，远端肺实变。两肺内另见多发结节影，较大约10MM×9MM（IM37）；部分结节呈磨玻璃密度，如左肺尖约11MM×6MM者（IM10）。纵隔内见散在淋巴结，较大者约16MM×6MM（IM19）。两侧胸膜光滑，未见胸水征象。胸廓诸骨未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>左乳</t>
+          <t>右乳外下象限</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>48MM×24MM</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>肝S5,腰椎椎体及附件,肋骨,胸骨,左侧肩胛骨,右侧肱骨,胸椎</t>
+          <t>右肺上叶前内基底段,两肺</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1、右肺中心型肺癌,空腔形成,右肺门、纵隔多发淋巴结转移;2、右侧胸膜增厚;3、左肾上腺外支转移征象,腹膜后小淋巴结,请结合相关部位检查。右主支气管管壁增厚,右肺上叶可见不规则团块影,内见空腔形成,壁厚约1.4CM,CT值约34HU,内壁光整,外壁不规则;周围多发斑片、索条影;增强扫描可见轻中度不均匀强化,三期CT值约59HU、60HU、69HU。右肺门、纵隔内多发肿大淋巴结,可见融合,大者短径约1.4CM,增强扫描可见环形强化。左肺野未见异常密度影。两肺门区未见异常。支气管血管束正常,气管支气管通畅。右侧胸膜增厚,两胸腔无积液征象。心脏大血管未见异常。左肾上腺外支增粗,腹膜后见多个小淋巴结影,短径约4MM。</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>右肺</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>右肺门,纵隔多发淋巴结,左肾上腺外支</t>
+          <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   27MM       AO     27MM        MV E 0.60MM/s     EF 62%LV   41MM       IVS     9MM           A 0.51MM/s     FS 33% RA   33MM       LVPW    7MMRV   21MM       PA     19MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>右肺上叶可见团块影,大小约为3.6CM×4.6CM,呈分叶状,CT值约为34HU,周围可见棘状突起,周围并可见多发小结节状、斑点状高密度影,右侧支气管管壁增厚,管腔变窄,肿块与右肺动静脉、上腔静脉关系密切。两肺纹理清晰。两肺门区未见异常。纵隔内增大的淋巴结影,径约2.0CM。两胸腔无积液征象。心脏大血管未见异常。1.右肺上叶中心型肺癌,右侧主支气管受累,与右肺动静脉、上腔静脉关系密切,受侵可能性大,建议进一步详查;2.纵隔淋巴结转移。</t>
+          <t>1、左上肺肺门区高代谢结节，首先考虑中心型肺癌，建议支气管镜。纵隔7、8区淋巴结转移。双肺纹理增多，伴多发小结节、小树丫样斑片影，多沿支气管树分布或位于胸膜下，均未见高代谢，性质待定。2、脑部未见明显异常代谢征象。双肺轻度气肿。右下肺钙化灶。前列腺增生伴钙化。右股骨头、T10、L5骨岛。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。左上肺肺门区见一软组织结节，约2.7CM×2.3CM，边缘毛糙，伴异常放射性浓聚，最大SUV32.98。双肺纹理增多，伴多发小结节、小树丫样斑片影，多沿支气管树分布或位于胸膜下，均未见放射性浓聚。双肺轻度气肿。右下肺见钙化灶。双侧胸膜无增厚，胸水征阴性。纵隔7、8区见肿大淋巴结，较大者约2.6CM×1.7CM，伴异常浓聚，最大SUV分别为15.23和9.18。余纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺增大伴钙化，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。右股骨头、T10、L5骨岛。视野内皮肤及软组织内未见异常放射性摄取。</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>右肺上叶</t>
+          <t>左上肺肺门区</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3.6CM×4.6CM</t>
+          <t>2.7CM×2.3CM</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>纵隔淋巴结</t>
+          <t>纵隔7、8区淋巴结</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>脂肪肝，胆囊结石，两侧颈部见淋巴结，右侧乳腺退化不全，右侧腋窝见淋巴结肝肋上斜切118MM/（－），剑上纵切60MM/2指，肝区回声密集增强，门脉主干内径10MM。脾肋间切32MM/（－）。胆囊61MM×23MM，内见数枚强回声团块伴声影，最大约15MM，胆总管5MM。胰头15MM，胰体11MM，胰尾13MM。左肾102MM×43MM×45MM，肾盂分离（－），右肾112MM×42MM×44MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胰肾血流正常。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大11MM×5MM，右侧最大12MM×6MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。两侧颌上腺、腮腺内部回声均匀，未见明显肿块回声。颏上区未见明显肿块回声。CDFI未见异常彩色血流。左侧乳腺未显示。右侧乳腺导管增多，腺体结构尚正常，未见明显肿块回声。彩色多普勒示其内未见异常彩色血流。右侧腋窝见数个低回声区，最大10MM×4MM，CDFI未见明显彩色血流。左侧腋窝未见明显肿块。CDFI示血流分布尚正常。</t>
+          <t>甲状腺右叶增生结节，子宫肌瘤甲状腺左叶及峡部未显示，甲状腺右叶43MM×13MM×16MM，内见数枚低回声团块，最大4MM×3MM，CDFI未见明显彩色血流。甲状腺右叶内部回声均匀，甲状腺右叶内血流分布正常。颈部右侧甲状腺下动脉血流通畅，PSV0.24MM/s，RI0.53。两侧颌上、两侧颈血管旁及两侧锁骨下未见明显肿块回声。CDFI未见异常血流。左侧乳腺腺体结构尚正常，未见明显肿块回声。右侧乳腺未显示。CDFI示左侧乳腺腺体血流分布尚正常。两侧腋窝未见明显肿块。CDFI示血流分布尚正常。肝肋上斜切120MM/（－），剑上纵切52MM/2指，肝区回声较密尚均，门脉主干内径10MM，左支内径7MM，流速0.16MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径6MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。经腹壁检查：子宫前位，大小34MM×22MM×29MM，内膜呈线状，近宫颈处见31MM×33MM低回声团块，CDFI未见明显彩色血流。两侧附件区未见明显肿块回声。</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦粘膜增厚,考虑为慢性炎症;其余副鼻窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结,左侧锁骨区见一枚大小约为9.1MM×6.8MM的淋巴结,考虑为慢性非特异性炎症;口咽、喉咽部无占位;甲状腺无肿大,双叶密度欠均,左叶中部见一枚大小约为10.1MM×5.4MM的低密度灶。胸部PET/CT图像示左侧乳腺外上象限见一枚糖代谢异常增高的软组织影,病灶自左乳腺体延伸至皮下,呈不规则分叶状,边缘见细短毛刺,最大SUV值约为15.6;左侧腋下见数枚稍大淋巴结,较大者大小约为12.2MM×7.7MM,其中一枚(约主动脉弓水平)见糖代谢轻度增高,最大SUV值约为2.4;右肺中叶内侧段及左肺上叶下舌段见不伴糖代谢异常增高的纤维条索灶,各级支气管腔通畅;双肺门、纵隔、胸壁、右侧乳腺、右侧腋窝等均未见明显糖代谢异常增高灶或占位。双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,肝左叶见数枚低密度影,较大者位于左外叶,直径约为9.8MM,其余肝脏实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示右下盆腔小肠局灶性糖代谢增高,最大SUV值约为6.2,延迟1.5小时后最大SUV值约为5.1,局部未见明显肠壁增厚;左侧附件区见一大小约为31.4MM×29.7MM的囊性低密度影,边缘见糖代谢轻度增高,最大SUV值约为3.0;子宫形态不规则增大,右缘见一大小约为58.2MM×43.2MM、糖代谢轻度增高的等密度团块影,最大SUV值约为2.8;膀胱内显像剂生理性积聚;余肠道呈线型生理性糖代谢增强;盆腔及双侧腹股沟处未见明显糖代谢异常增强或占位;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。考虑为左乳外上象限MT伴左侧腋下淋巴结转移可能,请结合临床;甲状腺左叶无糖代谢异常增高的低密度灶,考虑为良性病变可能,建议结合超声检查;两肺慢性炎症;肝左叶囊肿;盆腔小肠局灶性糖代谢增高,考虑为生理性摄取或良性病变可能;子宫肌瘤,左侧卵巢良性病变(囊肿可能),请结合妇科超声检查。</t>
+          <t>右肺上叶尖段见4.5CM×3.5CM大小的肿块，边界尚清，平扫CT值为27HU，增强扫描肿块呈环形强化，三期CT值约38HU、60HU、42HU，内见不强化的低密度区，右肺上叶支气管壁增厚毛糙。双肺支气管血管束稍粗。双肺内见多个囊状低密度影。双肺门区未见异常。纵隔内见增大的淋巴结，较大者短径约3.2CM。主动脉、冠脉钙化影。1.右肺上叶尖段肿块，考虑肺癌，纵膈淋巴结转移可能大，右肺上叶支气管壁局部增厚毛糙，请结合临床；2.支气管炎、肺气肿。</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>左侧乳腺</t>
+          <t>右肺上叶尖段</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4.5CM×3.5CM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>左侧腋下淋巴结</t>
+          <t>纵膈淋巴结</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>左上肺癌术后化疗后，与2012-12-12片对比，左中肺叶、右下肺叶数个小结节，转移？建议密切随诊。左肺中叶斑片、条索灶，较前无明显变化，考虑增殖性病变。左侧胸膜轻度增厚，较前未见明显变化。左侧胸腔少量积液，较前稍减少。肝内多发囊肿。右肾小囊肿。左侧第4、5前肋术后改变。左上肺癌术后化疗后，与2012-12-12片对比：左肺上叶术后缺如，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左中肺叶、右下肺叶见数个小结节，直径约2~3MM，轮廓尚光整，密度尚均匀。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，较前稍减少，左侧胸膜轻度增厚，较前未见明显变化。右侧胸腔未见积液。右侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋见斜行线样高密度影，较前未见明显变化。</t>
+          <t>左下肺癌多发转移综合治疗后：左肺下叶术后缺如。两肺上叶前基底段胸膜上病灶，考虑纤维增殖灶可能性大，建议复查。纵隔及两肺门多个淋巴结，转移瘤？两侧肾下腺病灶，考虑转移瘤。胸12椎体病灶，考虑转移瘤可能性大。肝囊肿。右肾高密度结节，考虑复杂囊肿可能性大。两肾囊肿。左下肺癌多发转移综合治疗后：甲状腺峡部增大，见一稍低密度灶，边界清，大小约14MM×13MM，不均匀强化。左肺下叶术后缺如。余两肺纹理清晰，两肺上叶前基底段胸膜上见类结节影及少许条索影，边界清。气管及其余支气管分支通畅。主动脉旁、两上气管旁、隆突上及两肺门见多个淋巴结，边界清，较大者短径约9MM，均匀强化。两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内散在数个类圆形稍低密度灶，边界清，较大者大小约16MM×15MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左侧肾下腺明显增粗，最厚处约11MM，不均匀强化，右侧肾下腺见一结节，直径约12MM，明显强化。右肾见一稍高密度灶，边界清，大小约15MM×10MM，增强扫描强化不明显。两肾见多个稍低密度灶，边界清，较大者直径约28MM，未见强化。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫内见节育器，宫颈大小、形态未见异常。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。胸12椎体见团块状骨质密度增高影。</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>左上肺</t>
+          <t>左肺下叶</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>纵隔及两肺门多个淋巴结,两侧肾下腺,胸12椎体</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>左上肺癌综合治疗后，对比2016-10-28片：左枕叶、左颞叶及第3脑室周围白质区病灶，考虑转移瘤，与前片对比，左侧颞叶病灶较前缩小，其余病灶较前未见明显变化。两侧额顶叶小缺血灶同前。空蝶鞍。右侧乳突炎症。左上肺癌脑转移综合治疗后，对比2016-10-28片：左枕叶、左颞叶及第3脑室周围白质区见数个异常信号灶，较大者约24MM×18MM（左侧枕叶），边界欠清，T1WI呈稍等信号，T2WI及Flair呈稍高信号，DWI呈稍高信号，增强后呈明显强化，与前片对比，左侧颞叶病灶较前缩小，其余病灶较前未见明显变化；左侧枕叶及颞叶病灶旁软脑膜不均匀增厚，明显强化，较前未见明显变化。两侧额顶叶白质内见几个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI及FLAIR下呈高信号，增强后未见强化，较前未见明显变化。小脑及脑干形态正常，信号均匀，增强后未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。蝶鞍内见脑脊液充填，垂体变薄，较前未见明显变化。扫描范围内所见两侧下颌窦、筛窦、蝶窦充气良好，骨壁完整。右侧乳突见分泌物。两眼球后未见异常信号。</t>
+          <t>左下肺团块状病灶，考虑肺癌可能性大。两肺胸膜上多发类结节状病灶，增殖灶？建议复查。左下气管旁小淋巴结，性质待定。肝S5低密度灶，考虑肝囊肿。右肾小囊肿。左下肺后段可见团块状病灶，大小约23MM×28MM，形态欠规则，可见浅分叶，边缘毛糙，边缘见较多长短毛刺，可见胸膜牵拉，两肺近胸膜上可见多个类结节状病灶，边界欠清楚，大小约3~6MM，边界欠清楚。气管及支气管分支通畅。左下气管旁见淋巴结，大小约10MM，轻度强化，两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S5可见低密度灶，大小约5MM，边界清楚，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见低密度灶，大小约8MM，边界清楚，增强后未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>左上肺</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>左枕叶,左颞叶,第3脑室周围白质区,脑</t>
+          <t>左下肺后段</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>23MM×28MM</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>左肺癌切除术后：左肺术后改变，左中上肺少许索条及斑片灶，大致同前，考虑纤维增殖性病灶。两肺局限性肺气肿。左侧少量胸腔积液，大致同前。肝脏未见明确病变。两肾多发囊肿。左肺癌切除术后复查：左肺下叶缺如，残肺膨胀良好，左侧斜裂胸膜稍增厚，左中肺及左上肺见不规则条片影，边界欠清。右肺下叶、两肺上叶胸膜上见局限性类圆形透亮度增加区，大致同前，两肺未见明显结节影。气管、左中、上叶及右肺各叶支气管分枝通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸膜轻度增厚，左侧胸腔见少量积液，较前变化不大。右侧胸腔未见积液，右侧胸膜未见增厚。肝脏大小正常，各叶比例在正常范围以内，外形轮廓光整，密度均匀。肝内胆管未见扩张。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石头影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态及密度未见异常。两肾见数个囊性灶，最大者大小约11MM×9MM，边界清晰，密度均匀，未见强化。两肾动脉壁见散在钙化斑。两侧肾下腺所见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
+          <t>直肠与乙状结肠交界处及其下方直肠壁略示增厚，相应节段肠腔略狭窄，其外膜面略示毛糙，肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可，壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。左肺上叶及下叶背段示斑片状密度增高影，其内见充气支气管征。右肺下叶可见斑片状、条片状密度增高影。右肺中叶示小类结节灶。纵隔内见多枚小淋巴结影，部分钙化，双侧胸膜未见增厚，双侧胸腔未见液性密度影。纵隔内2R区示一结节灶，短径约1.4CM。肝右叶实质内示低密度肿块，形态不规则，大者位于上段，截面约1.9CM×1.8CM，边缘模糊，增强后其内示不均质点状强化。胆囊充盈可，壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然，右侧肾上腺体部可见结节灶，短径约1.6CM。双肾密度欠均，局部示片状低密度区。腹膜后未见显著增大淋巴结。鼻咽、口咽、喉形态可，壁不厚。甲状腺右叶示类圆形低密度灶。双颈部未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示：胸骨、部分肋骨、多发椎骨及双侧髂骨骨质密度增高。1.结合临床，直肠癌治疗后，较前(2015-3-24)变化不著。2.结合临床，左肺癌治疗后，病变显示不清；左肺炎症，较前变化不著；右肺下叶炎症，较前示明显；右肺小类结节灶，建议观察；肝转移，变化不著；纵隔淋巴结转移，较前增大；双侧肾上腺结节灶，考虑转移，较前增大。3.结合临床，多发骨转移治疗后，变化不著。4.双肾低密度灶，变化不著。5.颅脑CT扫描未见明显异常。6.甲状腺右叶低密度灶。</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>左肺</t>
+          <t>直肠,左肺</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>肝,双侧肾上腺,骨,纵隔淋巴结</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>左乳下象限非肿块样强化，BI-RADS6。两乳多发强化结节，追查。左侧腋上多发淋巴结，追查。两乳呈多量腺体型，两乳见多发结节状背景强化，约3-5MM，呈流入型时间信号强度曲线。左乳下象限可见非肿块样强化，范围约65MM×51MM（SE602IM114），边缘模糊，动脉早期病灶明显强化，呈平台/流入型时间信号强度曲线。肿块周围多发强化结节，较大者位于左乳内上及外上象限，边缘模糊，分别约8MM×6MM、9MM×8MM（SE602IM104、120），呈流入/平台型时间信号强度曲线，左乳头未见凹陷，右乳皮肤未见增厚。右乳多发强化结节，较大位于外象限及上象限，分别约6MM×4MM、7MM×6MM（SE602IM28、34），呈流入型时间信号强度曲线。右乳皮肤未见增厚，右侧乳头未见凹陷。左侧腋上见多发淋巴结，较大约16MM×11MM（SE602IM116）；右侧腋窝及两内乳区未见肿大淋巴结。</t>
+          <t>右肺小细胞肺癌化疗后复查，与2017-05-23片相比：右下肺尖后段肿块，较前改变不明显。两上肺少许纤维增殖灶。纵隔、右肺门多发淋巴结，考虑转移，基本同前。右肺小细胞肺癌化疗后复查：右下肺尖后段见分叶状软组织肿块，大小约49MM×46MM，可见毛刺，未见明显空洞，T2WI、DWI呈稍高信号，T1WI呈等信号，增强扫描不均匀明显强化。病灶周围见斑片及索条状T2WI稍高信号、T1WI呈等或稍低信号，增强扫描轻度强化。病灶侵犯右侧纵隔胸膜，右肺下叶尖后段支气管闭塞。两上肺见小条索状T2WI稍高信号、T1WI稍低信号灶，增强扫描部分病灶强化稍明显。气管、余支气管及分支管通畅。左下气管旁、右上气管旁、主动脉旁、主肺动脉窗、隆突上及右肺门见多发淋巴结，T2WI呈稍高信号，T1WI呈等信号，增强扫描不均匀环状强化，大者短径约15MM。两侧胸腔未见积液。余两侧胸膜无增厚、粘连。心包未见积液。扫描范围未见明显骨质破坏征象。</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>右下肺尖后段</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>49MM×46MM</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>纵隔,右肺门多发淋巴结</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>左肺癌术后化疗后，与2013-02-27对比，左肺中叶、右肺下叶小结节影，同前未见明显变化。左肺中叶慢性炎症。左侧胸膜轻度增厚，较前未见明显变化。左侧胸腔少量积液，较前未见明显变化。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后：左肺上叶术后缺失，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左肺中叶、右肺下叶见数个小结节影，直径约2~3MM，轮廓光整，密度均匀。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，左侧胸膜轻度增厚。右侧胸腔未见积液。右侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约15MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹膜未见明显肿大淋巴结。</t>
+          <t>肺癌放化疗后：左肺门旁病灶较前稍缩小。左下肺、左上肺斑片影，与前片对比，较前缩小。左肺中叶小结节，较前变化不明显。左肺中叶多发新发淡薄斑片影，考虑炎症。右肺下叶少量纤维增殖灶，大致同前。左侧少量胸腔积液，较前吸收。两侧锁骨下窝、纵隔及左肺门淋巴结，较前变化不明显。肝S8钙化灶，较前变化不明显。右肾小囊肿同前。两颈II-V区小淋巴结。肺癌放化疗后复查，对比2016-06-27片：左肺门旁见少量软组织密度灶，边界欠清，病灶包绕左肺下叶支气管，范围难以准确测量，较前稍缩小；左肺下叶及左肺上叶见多发斑片灶，边界不清，部分病灶见空气支气管征，与前片对比，病灶较前稍缩小，增强扫描强化稍明显。左肺中叶见多发新发淡薄斑片影，边界模糊。左肺中叶见小结节灶，短径约3MM，较前变化不明显。右肺下叶见少许条索影及类结节灶，大致同前。两侧锁骨下窝、左下气管旁、左上气管旁及左肺门见多发淋巴结，部分相互融合，最大约18MM×16MM，较前变化不明显。左侧胸腔见少量积液，较前吸收；右侧胸腔未见积液，两侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S8近膈顶见片状致密，边界清。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见类圆形低密度灶，直径约5MM，边界清楚，未见强化。所示左肾及两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。两颈结构清晰，各血管充盈良好，甲状腺两叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称；两侧颌上腺、腮腺大小形态正常，密度均匀；两颈II-V区可见多个小淋巴结，短径约3-5MM，孤立散在，均匀强化。扫描范围未见明显骨质破坏征象。</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>左上肺</t>
+          <t>左肺门旁</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>右肺腺癌治疗后复查，与2013-9-17片对比：右下肺及上肺不张，右上肺不张较前稍好转。右侧胸腔积液积气，积液较前减少。肝内多发转移瘤，较前增多，部分增大。腹腔积液，较前增多。两肾多发结节，大致同前。胸骨、颈椎、胸椎、腰椎骨转移瘤，大致同前。右肺腺癌治疗后复查，与2013-9-17片对比：右胸膜结节状增厚，右胸腔见中量积液、少量积气，积液较前减少。右肺下叶、上叶体积缩小，见片状致密影，右上肺致密影范围较前稍缩小；余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚，左侧胸腔未见积液。肝脏形态失常，肝右叶增大，其外形轮廓略呈波浪状，肝内散在多发结节、肿块，边界不清，部分相互融合，增强扫描不均匀强化，侵犯肝左静脉、门静脉左前支，病灶较前增多，部分增大。肝内外胆管无扩张。胆囊不大，胆囊壁均匀增厚，增强扫描粘膜强化明显。肝门区未见肿大淋巴结。腹腔见积液，较前增多。脾稍大，最厚处约46MM，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约14MM×4MM，边界不清，增强扫描轻度强化，大致同前。胸骨、C7、T1、T6、T8、T9椎体及附件、T10、T11、L1右侧附件、L2、L3、L4椎体见不规则致密影，边欠清，范围较前无明显变化。右侧第5肋腋段见致密灶，较前无明显变化。</t>
+          <t>1.右肺中叶周围型肺癌，与外院2012.09.12化疗前CT片相比未见明显变化；病灶周围片状高密度影，考虑阻塞性肺炎；2.双肺多发转移瘤，较前未见明显变化；3.右侧肺门增大，纵隔淋巴结增大，与外院2012.09.12片相比未见明显进展。双肺纹理清晰。右肺中叶可见团块影，边界较清晰，大小约为4.23CM×3.89CM，周围可见片状稍高密度影，双肺可见多发结节影，较大者径约0.48CM；右侧肺门增大，所示气管支气管影正常。纵隔内见增大淋巴结影，径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>右肺</t>
+          <t>右肺中叶</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4.23CM×3.89CM</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>双肺</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>右肾癌术后，术区未见明确肿物。两肺小结节，较前未见明显变化。纵隔小淋巴结，较前未见明显变化。左心房内异常密度影，可疑栓子，范围大致同前。甲状腺右叶病灶，考虑为结节性甲状腺肿。肝脏及盆腔未见明确占位病变。腰1椎体压缩性骨折，大致同前。右肾癌术后化疗后，与2012-10-23片比较：右肾缺失，局部未见明确软组织肿物。左肾及两侧肾下腺形态、大小及密度未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质内未见明显异常密度灶及异常强化灶。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左下肺及右上肺见数个小结节影，直径约为2MM~4MM，边界欠清楚，较前未见明显变化。气管及支气管分支通畅。两上气管旁、主动脉弓旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房内见团块状异常密度影，平扫呈稍高密度，增强扫描未见明显强化，大致同前。所示甲状腺右叶见一类圆形低密度病灶，大小约为8MM×11MM，增强后未见明显强化。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影，大致同前。余所见骨质未见明确破坏征象。</t>
+          <t>右上肺癌术后复查，与2014-06-19片对比：左肺中叶病灶，较前范围稍增大，考虑慢性炎症。右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大，较前变化不大，建议随诊。右侧胸膜增厚，大致同前。右上肺癌术后4年复查，与前片对比：右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶纹理增粗、紊乱，见多发斑片影及条索影，边界欠清。右肺见斑片状影，边界不清，局部肺纹理增多紊乱，右肺见少许斑片灶，边界欠清，同前变化不大。右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整。气管、所示支气管及其分枝通畅，未见明显软组织肿物或受压变窄。纵隔、两肺门未见明显肿大淋巴结。右侧胸稍增厚，内可见钙化灶及多个类圆形结节影，边界清，增强后强化，大者短径约4MM。左侧胸腔未见积液，左侧胸膜未见明显增厚。</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>右肾</t>
+          <t>右上肺</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>None与2015-05-15胸部CT对比：1、左肺下叶切除术后，支气管断端未见异常增厚及异常强化灶。左肺上叶索条影同前，追查。右肺内未见明显新增结节。2、左肺门淋巴结较前缩小，较大原约21MM×12MM，现约21MM×10MM（IM31），纵隔多发肿大淋巴结较前缩小，原较大约21MM×18MM，现约20MM×14MM（IM11），部分与气管或食管分界不清。考虑转移。3、左侧后胸膜局限性增厚较前缩小，原约33MM×18MM，现约28MM×12MM（IMA36）；右侧局限性胸膜肥厚粘连，未见胸水征。4、左后肋术后改变，左侧第8后肋局部密度稍高同前，追查。余扫及诸骨未见骨质破坏灶。</t>
+          <t>左肺上叶糖代谢异常增高的占位，考虑MT可能，请结合临床；左侧斜裂胸膜增厚；双侧胸腔少量积液；第2胸椎右侧横突局部糖代谢轻度增高，转移待排，建议随访骨扫描；肝脏多发糖代谢减低的占位，考虑良性病变；盆腔少量积液；甲状腺双腺叶糖代谢异常增高的病变，建议超声进一步检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺双腺叶糖代谢异常增高，最大SUV值约10.1，内可见低密度灶，较大者位于左叶，大小约26.0MM×25.0MM，内并可见钙化影。双侧颈部、锁骨区未见明显糖代谢异常增高灶。胸部PET/CT图像示左肺上叶见大小约27.5MM×18.1MM、边界不清的占位，内密度不均，可见支气管通入，边缘可见毛刺，远端胸膜牵拉，伴糖代谢异常增高，最大SUV值约9.5。左侧斜裂胸膜增厚。肺门、纵隔、胸壁、腋窝未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结，双肺门影不大；双侧胸膜无增厚；双侧胸腔少量积液；心脏无明显增大；双侧腋窝无明显肿大淋巴结；双侧乳腺无明显占位。腹部PET/CT图像示肝脏增大，内见多发低密度占位，最大者大小约148.0MM×105.0MM，部分内可见更低密度区，呈糖代谢减低。肝脏内另见2枚无糖代谢增高的囊性低密度灶，较大者大小约45.0MM×28.0MM。胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET/CT图像示第2胸椎右侧横突局部糖代谢轻度增高，最大SUV值约2.8，局部骨皮质可疑毛糙。</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>左肺上叶</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>27.5MM×18.1MM</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>纵隔多发肿大淋巴结</t>
+          <t>第2胸椎右侧横突</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>宫颈MT综合治疗后病例：1.右侧盆壁淋巴结转移；2.甲状腺弥漫性病变，请结合彩超检查；两侧颈部淋巴结慢性炎症，请随访；3.左乳头水平内侧象限纤维腺瘤可能，建议进一步检查除外MT；左乳钙化灶；右肺慢性炎性小结节；左肺慢性炎症及陈旧灶；4.肝脏囊肿；右肾囊肿；左肾结石；右侧腹股沟疝。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示两颈血管旁多发伴糖代谢增高的淋巴结，糖代谢最高者位于右颈血管旁，最大SUV值约为6.3，大小约为12.8MM×8.0MM；甲状腺弥漫性肿大，密度欠均，不伴糖代谢增高；口咽、喉咽部无殊。胸部PET/CT图像示左乳头水平内侧象限见糖代谢异常增高的软组织结节，最大SUV值约为8.0，大小约为20.3MM×17.3MM，乳头深部见大小约7.5MM×5.0MM可疑结节，外下象限小钙化灶；右肺下叶尖后段及右肺上叶外侧基底段各见一直径小于4.0MM、不伴糖代谢增高的微小结节；左肺下叶尖段见钙化小结节；各级支气管腔通畅；纵隔、两肺门及腋窝无明显糖代谢异常增高及肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显糖代谢异常增高及占位。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝左后叶上段见小囊状灶，直径约为5.0MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；左肾见多发小结节状致密影；右肾见小类圆形囊性灶，直径约为5.5MM；胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示子宫及两附件术后缺如；右侧盆壁见伴糖代谢异常增高的肿大淋巴结，最大SUV值约为10.1，大小约为20.8MM×14.6MM；右腹股沟区见腹腔内容物疝入；膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；两侧腹股沟处未见明显糖代谢异常增高及肿大淋巴结；盆腔无积液。骨骼PET图像示骶尾骨弥漫性糖代谢减低，考虑为放疗后改变；其余骨骼未见异常糖代谢增强。CT定位片见上胸椎、腰椎侧弯；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，多个腰椎间盘见真空征，均考虑为退行性变。左侧背部及臀部部分肌肉糖代谢增高，考虑为生理性表现。</t>
+          <t>右上肺癌术后改变，右侧胸膜稍增厚，右侧胸腔少量包裹性积液，较2011-11-7日片好转。左肺散在病灶，考虑为慢性炎症，较前无大变化。右肺门软组织影，较前无大变化，考虑肿大淋巴结可能性大。肝囊肿。右肾囊肿。右上肺癌术后：右上肺叶缺如，右侧胸廓稍缩小，右残肺代偿良好，左肺中叶纹理增粗、紊乱，见多发斑片影及条索影，左肺下叶后段见少许条索影。气管、所示支气管及其分枝通畅，未见明显软组织肿物或受压变窄。右侧胸稍增厚，右侧胸腔少量积液，局部包裹。右肺门软组织影增多，边界欠清。左侧胸腔未见积液，左侧胸膜未见明显增厚。扫描层次中胸椎、胸壁骨未见转移征象。肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，肝内见多个低密度区，直径约为2MM~20MM，边界清楚，密度均匀，未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度。脾脏大小正常，密度均匀。腹水征阴性。胰腺大小、形态、密度未见异常。左肾未见异常密度。右肾形态、大小未见异常，其内见囊性低密度区，大小约为5MM×4MM。两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>宫颈MT</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>右侧盆壁淋巴结</t>
+          <t>右上肺</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,33,20-37MM,右房内径,45,19-40MM,右室舒张末内径,43,35-56MM,右室收缩末内径,28,23-35MM,室间隔厚度,14,6-11MM,右室后壁厚度,10,6-11MM,肺动脉收缩压,38,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,64,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;lt;,1；DT：,192,ms,DTI示S波峰值：,7,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,增大,，右室内径,正常,，室间隔基底段增厚,余右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻度,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,示轻微,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻度,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+          <t>右主支气管后壁见结节样病变，密度均匀，边界较清楚，范围约11MM×20MM，右主支气管变窄。病变向外延伸致右肺中间支气管、下叶支气管壁增厚，管腔变窄。右肺中叶、下叶见少量片状稍高密度病变，密度不均匀，边界模糊。右肺上叶后段见片状无纹理低密度区，边界清楚，壁薄。左下气管旁、气管隆突下见多发肿大淋巴结，最大者短径约14MM。左肺上叶舌段家少量斑片状高密度病变，边界较清楚。双侧胸腔未见积液。胸膜未见增厚。扫描范围内胸椎、胸壁骨及软组织未见异常。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形轮廓光整。肝S、6分别见一个小低密度灶，密度均匀，增强扫描未见明显强化，边界清晰、锐利，较大者直径约6MM。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉所见未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。双肾见数个类圆形低密度病变，密度均匀，边界清晰，增强扫描未见明显强化，最大者直径约10MM。双肾上腺未见明显异常。腹腔干周围、腹主动脉旁、肠系膜根部未见肿大淋巴结。右侧主支气管、中间支气管、中叶及下叶支气管壁增厚，符合中央型肺癌并右肺中、下叶阻塞性肺炎纵膈肿大淋巴结，考虑转移瘤右肺上叶后段肺大泡左肺上叶舌段片状病变，考虑增值性病变肝多发低密度病变，考虑肝囊肿双肾多发囊肿。</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>右肺</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>11MM×20MM</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>纵膈肿大淋巴结</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>右乳癌化疗后复查,对比2017-11-26PET/CT:右侧乳腺上象限见多个不规则肿块、结节,部分互相融合,较大者大小约35MM×21MM,病灶累及右侧乳头及乳晕处皮肤,乳腺腺体后脂肪间隙模糊,增强扫描不均匀明显强化,较前缩小。左乳腺实质内未见异常密度及异常强化灶。右侧腋窝及右侧内乳区见多发肿大淋巴结,边界欠清,最大者约8MM×7MM,增强扫描明显强化,较前明显缩小。双侧锁骨上区及左侧腋窝未见明显肿大淋巴结。双肺纹理清晰,右肺中叶内侧段及左肺上叶下舌段见少许斑片影、条索影,边界不清,余肺野内未见明显实质性病变。气管及支气管分支通畅。余纵膈、双肺门未见肿大淋巴结。双侧胸腔未见积液。双侧胸膜稍增厚、粘连,未见强化。肝脏大小、形态未见异常,各叶比例在正常范围内。肝内见多发稍低密度结节、肿块,边界不清,大者位于肝S7/8,最大层面范围约36MM×28MM,密度不均匀,内见坏死,邻近肝包膜凹陷,增强扫描轻度强化,较前明显缩小。肝内外胆管未见扩张,其内未见结石影,胆囊内见稍高密度结石,较大者直径约7MM,壁不厚。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大,密度均匀,脾门见一结节影,长径约11MM,密度及强化方式与脾相近。右肾见一小囊性灶,边界清,较大者长径约6MM,未见强化。胰腺、左肾及双肾上腺未见明确病变。胃左动脉旁、腹主动脉旁见多发淋巴结,边界欠清,较大者大小约11MM×8MM,明显强化,胃左动脉旁淋巴结稍增大,余部分淋巴结较前稍缩小。甲状腺双叶及峡部形态正常,右叶中部见一低密度结节,边界清,直径约4MM,轻度强化。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、双侧腮腺大小、形态正常,密度均匀。双颈II~IV区见数个淋巴结,大者约为8MM×6MM,均匀明显强化,较前相仿。左侧第2肋、右侧第4肋、T6、7、12、L2椎体及部分附件见不规则骨质密度减低,边界不清,右侧第4肋腋段骨皮质不连续,周围见骨痂形成。右侧肱骨头、L4左侧附件见类结节状高密度影。右乳癌化疗后复查,对比2017-11-26PET/CT:右乳多发肿块、结节,符合乳腺癌治疗后改变,较前缩小。右腋窝及右内乳区肿大淋巴结,考虑转移,较前明显缩小。肝内多发稍低密度结节、肿块,考虑转移瘤,较前明显缩小。胃左动脉旁、腹主动脉旁淋巴结,部分较前稍增大,考虑转移可能性大。全身多发骨质破坏,考虑转移瘤。右侧第4肋腋段病理性骨折可能。胆囊结石。右肾囊肿。副脾。右肺中叶及左肺上叶斑片影、条索影,考虑慢性炎症可能。双侧胸膜稍增厚。甲状腺右叶结节,考虑结节性甲状腺肿。双颈II~IV区淋巴结同前,考虑反应性淋巴结。</t>
+          <t>直肠癌术后肺转移化疗后复查，与2013-07-01CT片对比：肝S7血管瘤大致同前。肝S4异常信号灶，较前大致相仿，考虑转移瘤。左肾微小囊肿。直肠癌术后肺转移化疗后复查：肝脏形态正常，轮廓光整，各叶比例在正常范围以内，信号不均匀，肝S7见一类圆形异常信号灶，大小约9MM×11MM，T1WI呈低信号，T2WI呈高信号，呈“灯泡征”。边界清，增强扫描动脉期边缘见结节状强化，门脉期及延迟期逐渐向中心强化。肝S4见一斑片状异常信号，边界欠清，范围约9MM×12MMnm，T1WI呈稍低信号，T2WI呈稍高信号，增强扫描轻度强化。余肝实质未见异常信号及强化。肝内外胆管未见扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾大小正常，信号均匀，增强扫描未见异常强化。胰腺大小、形态正常，信号均匀，增强扫描未见异常强化。左肾皮质内见一小点状囊状信号灶，T1WI呈低信号，T2WI呈明亮高信号，边界清，约1MM，无强化。右肾大小、形态正常，信号均匀，增强扫描未见异常强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>右乳</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>35MM×21MM</t>
+          <t>直肠,直肠</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>胃左动脉旁淋巴结,右腋窝及右内乳区肿大淋巴结,肝,腹主动脉旁淋巴结,骨</t>
+          <t>肝S4,肺</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1、左肺上叶支气管走行区高代谢结节,倾向恶性(中央型肺癌?)。左肺上叶支气管截断,远端肺不张。左肺门淋巴结转移可能大。2、余双肺散在少许小结节及微小结节,不伴代谢,性质待定,胸CT随访。3、余躯干部及脑部未见明显异常代谢征象。4、双上颌窦炎性病变。副脾(两个)。前列腺钙化。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺上叶支气管走行区可见浓聚结节,SUVMAX4.7,直径约1.2CM(PET图像),左肺上叶支气管截断,远端肺不张。余双肺散在少许小结节及微小结节,未见明显放射性摄取。左肺门见轻度浓聚小淋巴结,SUVMAX2.9,直径约1.1CM,纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。双胸膜轻度弥漫增厚,胸水征阴性。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。双上颌窦内可见软组织密度影。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部及锁骨区未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀,脾门部见副脾结节(两个)。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,内见点状钙化,放射性分布未见异常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。</t>
+          <t>结合临床，右乳腺癌并右腋窝淋巴结肿大，考虑转移；左腋窝淋巴结肿大右乳头上方腺体内见一软组织肿块影，边缘模糊，肿块最大截面约2.9CM×1.4CM，增强后示显著强化。左侧乳腺未见爱你异常。双侧腋窝内见多发肿大淋巴结，大者位于右侧，短径约1.5CM。双侧肺野清晰，气管及各级支气管开口通畅，未见异常。</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>左肺上叶</t>
+          <t>右乳腺</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1.2CM</t>
+          <t>2.9CM×1.4CM</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>左肺门淋巴结</t>
+          <t>右腋窝淋巴结</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>None肺癌化疗后复查，对比2017-12-22CT片：右肺门区见软组织影，包绕局部支气管及血管，分界欠清，大小约35MM×19MM，强化不均，较前相仿。右上肺体积缩小，呈节段性不张，范围较前相仿。左肺下叶前段见条片影，边界模糊，与胸膜粘连，考虑炎症，较前相仿。两侧轻度肺气肿，左肺多发肺大泡，较前相仿。纵隔、右肺门见多发淋巴结，界清，较大者短径11MM，轻度强化，较前相仿。右侧胸腔大量积液，部分包裹；左侧少量胸腔积液，较前相仿。右后肋胸膜、纵隔胸膜不均匀明显增厚，部分呈结节状，大者约33MM×15MM，强化不均，考虑转移，较前有所增厚。肝内多发囊肿，界清，较大者位于S5，直径35MM，未见强化。肝内外胆管、胆总管无扩张，胆囊稍大，壁稍厚，胆囊窝见积液，考虑胆囊炎。右肾下腺呈结节状增厚，最厚约10MM，密度均匀，较前相仿。两肾囊肿，大者直径13MM，界清，无强化。右肾见一脂肪密度结节，界清，约7MM×9MM×16MM，未见强化，邻近肾周筋膜见少许条索影，未见强化，多考虑错构瘤，较前相仿。脾脏、胰腺、左侧肾下腺未见明显异常。腹腔及腹膜后未见肿大淋巴结。T6、T11、L1、L3椎体及附件、左侧股骨下段髓腔前缘见致密影，界清，较前增多，考虑骨转移。左侧第3前肋、右侧第8肋骨腋段骨质密度不均，较前相仿。</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>右肺门区</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>35MM×19MM</t>
+          <t>右肺上叶前段见一团块状软组织肿物，大小约43MM×38MM，密度尚均匀，未见钙化、坏死，轮廓不光整，边缘可见分叶，部分边界欠清晰，增强扫描较明显不均匀强化，病灶远端见片状影，增强扫描明显强化。右肺上叶(SE7，IM90)见一结节，直径约3MM，边界清。右肺、左肺上叶舌段见数个类结节灶，大者直径约4MM，边界清。右肺中叶内侧段见条片影，边界清，增强扫描可见明显强化。左肺下叶见少许斑片影，边界不清。右肺上叶前段支气管狭窄，气管及左肺支气管分支通畅。右上下气管旁及右侧肺门见数个肿大淋巴结，大者短径约17MM，密度尚均匀，增强扫描可见中度或明显强化。右侧锁骨上窝见数个小淋巴结，大者短径约5MM，边界清，密度均匀。双侧胸腔未见积液。双侧胸膜未见增厚。CTA示：右肺上叶肺动脉走形于病灶，局部管壁稍僵硬，未见明显充盈缺损。肝脏形态未见异常，轮廓光整，各叶比例在正常范围以内，增强扫描动脉期肝S6见结节状强化影，其余各期呈等密度。肝内胆管未见明显异常。胆囊不大、壁不厚，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构清晰。门静脉未见明显异常。脾脏大小、形态未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。双肾及双侧肾上腺大小、形态未见明显异常，密度均匀。膈脚后、肝门区、腹主动脉旁、腹腔干周围未见明显肿大淋巴结。扫描层面内左侧第2前肋骨质连续性中断，周围软组织稍增多，所见其余骨质未见明显骨质破坏。右肺上叶前段病变，考虑右上肺癌并阻塞性肺不张。右肺上叶结节，性质待定，建议随诊。右肺、左肺上叶舌段类结节灶，考虑增殖灶可能性大。右肺中叶内侧段条片影，考虑节段性肺不张。左肺下叶斑片影，考虑炎症。右上下气管旁右侧肺门淋巴结肿大，考虑转移。右侧锁骨上窝小淋巴结，建议随诊。增强扫描动脉期肝S6结节状强化影，考虑异常灌注可能性大。左侧第2前肋骨折，周围软组织稍增多，请结合临床，以除外病理性骨折。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>右后肋胸膜,纵隔胸膜,T6,T11,L1,L3椎体及附件,左侧股骨下段,骨</t>
+          <t>右侧肺门淋巴结</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见高密度肿块影,形态不规则,边界不清楚,大小约1.89CM×3.6CM,CT值约29HU;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见液性密度影,部分形成包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚,邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大,右侧心膈角区多发结节,右侧第2、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。肝实质密度明显减低。1.右下中心型肺癌,右肺及右侧胸膜多个结节考虑转移,较前CT(201.-03-01)病变进展,右侧胸腔积液,较前增多;纵隔淋巴结增大;2.右侧第2、8肋骨成骨性转移,较前相仿;3.右乳钙化结节,详查;4.脂肪肝。</t>
+          <t>双侧胸廓对称，肺野透过度不均，右肺下叶后段见软组织密度团块影，大小约4.8CM×3.7CM，右肺下叶后基底段支气管截断，病灶周围可见血管集束征，与邻近胸膜粘连，周围肺野散在多发条片影。右侧胸腔内见少量积液征象，胸壁见引流管影。双肺见多发大小不等结节影，大者径约0.5CM。左侧支气管通畅。纵隔居中，右肺门及纵隔内见多发肿大淋巴结。心脏大小正常。所示部分胸椎骨质欠规整，边缘清楚。1.右肺下叶占位性病变，考虑周围型肺癌可能伴纵隔及右肺门淋巴结转移，请结合临床；2.双肺多发小结节，考虑转移瘤可能，随诊；3.右侧胸腔积液引流术后；4.所示部分胸椎骨质骨质破坏，转移可能。</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2400,1178 +2455,1173 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1.89CM×3.6CM</t>
+          <t>4.8CM×3.7CM</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>右肺,右侧胸膜,肋骨</t>
+          <t>双肺,胸椎,纵隔及右肺门淋巴结</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>贲门肿胀；十二指肠球部霜斑样溃疡；慢性非萎缩性胃炎。插镜情况：顺利。送达部位：十二指肠降部。食　　管：黏膜光滑，舒缩好，NBI观察未见明显异常区域。贲　　门：开闭好，E-G线清楚，右后壁粘膜充血肿胀，活检1块。胃　　底：黏液湖稍浑，所见黏膜光滑，未见静脉曲张。胃　　体：黏膜光滑，未见糜烂、溃疡或肿物。胃　　角：弧形，光滑。胃　　窦：蠕动好，黏膜稍充血肿胀，未见糜烂、溃疡或肿物。幽　　门：圆，开放状。球　　部：球腔形态正常，小弯侧前壁见霜斑样溃疡，粘膜充血肿胀，余黏膜未见异常。降　　部：黏膜未见异常。请4个工作日后到2号楼6楼病理科取活检结果。</t>
+          <t>右侧乳腺癌化疗后，与2012-3-21比较，右侧乳腺病变较前缩小。右侧腋窝肿大淋巴结，考虑转移，较前缩小好转。胸骨右缘(SE9、IM14)小结节，较前缩小，可疑内乳淋巴结。双侧乳腺增生。右侧乳腺癌化疗后，与2012-3-21比较：右侧腋下肿大淋巴结，大小约6MM×7MM~14MM×15MM，边界不清，轮廓欠光整，增强后强化明显，与前片比较病灶缩小。胸骨右缘(SE9、IM14)见一小结节，大小约4MM×3MM，较前缩小。双侧乳腺大小及形态基本对称，双乳皮肤未见增厚，双侧乳头未见凹陷。右乳内上象限见一结节灶，边界不清，轮廓欠光整，与周围腺体分界不清，范围约13MM×14MM，边缘见毛刺，T1WI低信号，T2WI呈混杂低高信号，增强扫描明显不均匀强化，其时间-信号强度曲线为“速升平台”型，病灶与乳腺后方浅筋膜深、浅层粘连，与胸大肌界限欠清，与前片比较病灶范围缩小。左乳内上象限见一类圆形异常信号区，T1WI及T2WI扫描上均呈无信号，较前未见明显变化。双侧乳腺腺体较致密，增强后呈小结节状、斑片状强化。</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>右侧乳腺</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>右侧腋窝肿大淋巴结</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>右肺门肿块,考虑中央型肺癌,右肺动脉主干受累;伴纵膈及右肺门多发肿大淋巴结转移。右侧胸腔积液,心包少量积液。左侧肾上腺结节,转移不除外,追查。右肺门见不规则软组织肿块影,与纵隔肿大淋巴结及周围不张肺组织分界不清,融合灶较大层面约112MM×96MM(IM26),边缘模糊;右肺动脉主干受累,右肺支气管闭塞,左主支气管壁受累。右肺中叶内侧段及右肺下叶见大片实变及模糊片絮影。左肺未见肺内结节及实变影。纵隔及右肺门多发肿大淋巴结,大部分轮廓显示不清。右侧胸腔积液,心包少许积液。扫及胸廓诸骨未见明确破坏征象。扫及左侧肾上腺见结节,约14MM×12MM(IM59)。</t>
+          <t>右肺上叶肿物，考虑肺癌，周围少许阻塞炎症。左肺下叶小结节影，增殖灶可能性大。气管隆突上、右肺门淋巴结肿大，考虑转移。两腋窝小淋巴结，考虑良性淋巴结。肝囊肿。左肾囊肿。多个胸腰椎椎体环形致密影，考虑施莫氏结节。右肺上叶外基底段见一软组织肿块，边缘不光整，大小约为64MM×46MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，牵拉邻近胸膜。病灶周围见斑片、类结节影，边界欠清楚。左肺下叶尖段见小结节，边界清，直径约2MM。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约14MM，不均匀强化。气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM。两侧胸腔未见积液，左侧胸膜未见增厚。肝脏形态正常，轮廓光整，密度不均匀。肝内见多个小类圆形低密度影，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度影，边界清，直径约4MM，无强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。多个胸腰椎椎体见环形致密影，边界清。</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>右肺门</t>
+          <t>右肺上叶外基底段</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>112MM×96MM</t>
+          <t>64MM×46MM</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>纵膈及右肺门多发肿大淋巴结,左侧肾上腺</t>
+          <t>气管隆突上,右肺门淋巴结</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>左上肺鳞癌放化疗后：左上肺软组织肿块部分代谢活跃，考虑残留；两肺多个结节代谢活跃，纵隔及两肺门多个淋巴结代谢活跃，考虑转移；肝脏右叶低密度结节代谢活跃，疑转移；全身多发骨转移灶代谢活跃。鼻咽粘膜炎症。左上肺门区较多斑片条索影部分代谢活跃，考虑放疗后改变。纵隔、左肺门伴发多个钙化灶。左肾小囊肿。右颞骨局部骨质致密代谢未见异常。空腹6h以下，静脉注射18F-FDG，静息60MMin后行全身PET/CT断层显像，影像清晰。左上肺鳞癌放化疗后：左上肺内基底段软组织肿块影部分放射性浓聚，SUV约8.7，范围约3.1CM×4.3CM，边缘欠清，病灶中见多个钙化灶放射性分布稀疏；两肺多个结节影放射性浓聚，SUV约10.9，大者约1.1CM×1.6CM；左上肺门区较多斑片条索影部分放射性分布浓密，SUV约6.5。左上肺支气管变狭窄；气管、余支气管通畅。两侧胸壁未见确切病灶和异常放射性分布。纵隔右、左上气管旁、隆突上、主动脉弓旁及两肺门多个淋巴结放射性浓聚，SUV约12.7，大者约1.8CM×2.0CM；纵隔、左肺门伴发多个钙化灶放射性分布稀疏。两侧腋窝未见明显肿大淋巴结及异常放射性分布。两侧脉络丛及松果体钙化灶放射性分布稀疏；余所见两侧脑实质密度、形态正常，放射性分布均匀、对称；诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽粘膜放射性分布浓密，SUV约6.5；两侧扁桃体放射性浓聚，SUV约8.3；喉咽形态、结构及放射性分布未见异常。额窦、蝶窦、筛窦及两侧下颌窦结构及放射性分布未见明显异常。甲状腺结构及放射性分布未见明显异常。两颈未见明显肿大淋巴结及异常放射性分布。肝脏右叶S4低密度结节影放射性浓聚，SUV约8.8，大小约1.0CM×1.1CM，边界欠清；余肝脏结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊、胃及十二指肠放射性分布未见异常。左肾囊性低密度影放射性分布稀疏，大小约0.8CM×1.0CM；脾脏、胰腺、右肾及两肾下腺形态、结构及放射性分布未见异常。腹腔、腹膜后未见明显肿大淋巴结及异常放射性分布。盆腔放射性分布均匀；前列腺、膀胱、肠管等形态、结构及放射性分布未见明显异常。两侧髂血管旁及腹股沟未见明显肿大淋巴结及异常放射性分布。C1、T12、L3、右侧第8肋骨局部见骨质破坏，放射性浓聚，SUV约11.3；右颞骨局部骨质致密放射性分布未见明显异常；所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。</t>
+          <t>左上肺癌术后化疗后，与2016-6-22片对比：左肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。右肺上叶及左肺中叶少许纤维增殖灶。左上胸膜稍增厚。肝小囊肿。两肾囊肿。右侧肾下腺结节状稍增粗，较前相仿，建议随诊。左上肺癌术后化疗后，与2016-6-22片对比：左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左肺、右肺叶见散在小类结节灶，大者短径约3MM，边界欠清，密度欠均匀，较前变化不明显；右肺上叶及左肺中叶尚见少许条索影，边界欠清。气管及余支气管分支未见明显狭窄及异常扩张。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。左上胸膜稍增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见明显强化，较前变化不明显。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗，较前变化不明显。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。扫描范围内骨质未见明显破坏征象。</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>左上肺</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>两肺,纵隔及两肺门,肝脏右叶,C1,T12,L3,右侧第8肋骨</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>与2012.7.24日CT比较1.右肺上叶中心型肺癌,伴肺内转移可能性大,右侧主支气管及肺段支气管管段狭窄,闭塞,较前片进展,请结合临床;2.左肺舌叶斑片影,转移待除外;3.纵隔淋巴结转移较前增大。右肺上叶可见团块影,大小约为4.7CM×3.2CM,呈分叶状,CT值约为29HU,周围可见棘状突起,周围并可见多发结节、斑片条索影,右侧支气管管壁增厚,管腔变窄,右肺下叶及中叶支气管狭窄,肿块与右肺动静脉、上腔静脉关系密切。左肺舌叶可见斑点模糊影。左肺门区未见异常。纵隔内增大的淋巴结影,径约2.1CM。两胸腔无积液征象。心脏大血管未见异常。</t>
+          <t>肾盂癌化疗后复查，对比2013-8-21片：右肾癌术后，术区未见明确肿物。轻度脂肪肝。左肺下叶尖段条索、类结节影，考虑增殖灶，较前未见明显变化。右肺上叶后基底段小结节，大致同前，建议随诊。右锁骨下窝、纵隔小淋巴结，较前未见明显变化。左心房内异常密度影，较前未见明显变化。甲状腺两叶病灶，考虑结节性甲状腺肿，大致同前。腰1椎体压缩性骨折，较前未见明显变化。肾盂癌化疗后复查，对比2013-8-21片：右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质密度轻度减低，内未见明显异常密度灶及异常强化灶。肝内外胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，大致同前。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房内见团块状异常密度影，平扫呈稍高密度，增强扫描未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>右肺上叶</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>4.7CM×3.2CM</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>肺内,左肺舌叶,纵隔淋巴结</t>
+          <t>肾盂,右肾</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>右肺腺癌化疗后复查，与2012-11-09片对比：右上肺病灶较前略缩小。肝内多发转移瘤，较前增多、增大。两肾多发结节灶，部分较前增大，考虑转移瘤。门腔静脉间淋巴结，考虑转移瘤。胸骨、颈椎、胸椎、腰椎骨转移瘤，范围较前增大。右肺腺癌化疗后复查，与2012-11-09片对比：右上肺叶前内基底段见双个结节，直径约14MM、9MM，较前稍缩小，相应区域见条片状病灶，边界欠清，与右侧胸膜粘连。余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚。两侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内散在多发结节灶，边界不清，最大者约42MM×50MM，边界不清，部分融合，增强扫描不均匀强化，较前增多、增大。肝内外胆管无扩张，胆囊显示不清。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约9MM×8MM，边界不清，增强扫描轻度强化。门腔静脉间见一淋巴结，大小11MM×15MM，增强轻度强化。胸骨、C7、T1、T9椎体及附件、T11、L1右侧附件、L2椎体见不规则致密影，边欠清，范围较前增大。</t>
+          <t>左肺癌术后改变，未见明确残留征象。左下肺少许纤维灶。右下肺短条状影，考虑增殖钙化灶。左胸腔少量积液。肝囊肿。左上肺癌术后：左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，左下肺见少许条片状密度增高影，，相邻胸膜受牵拉；右下肺尖后段见一短条状影，约7MM×3MM大小，内见点状钙化影；余两肺纹理走行清晰，两肺内未见明确实质性病变；气管、支气管分支通畅；两肺门及纵隔未见肿大淋巴结影；左胸腔见少量积液；左侧胸膜增厚、粘连；扫描层次中胸椎、胸壁骨未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。腹主动脉旁未见肿大淋巴结。</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>右上肺叶前内基底段</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>14MM,9MM</t>
+          <t>左上肺</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>右肺鳞癌化疗后复查，与2017-4-11对比：左上肺、左中肺、右下肺小结节，较前变化不明显，考虑纤维增殖钙化灶可能，建议观察。右上肺后基底段斑片状影，考虑炎症。原右侧锁骨下淋巴结较前变化不明显。两侧下上气管旁、纵隔、两肺门多发肿大淋巴结，较前稍增大、坏死范围增大。前心膈角处淋巴结，新发，考虑转移。两侧胸腔积液。肝S4稍低密度影，考虑转移瘤。肝S4增强扫描片状稍低密度影，考虑假病灶可能性大。增强扫描动脉期肝脏其余区域不均匀斑片状强化，考虑化疗后肝损伤可能性大。左肾囊肿。腹主动脉旁淋巴结，较前稍缩小。左侧第5~7肋、右侧第4、5肋骨骨质改变，较前变化不明显。右肺鳞癌化疗后复查，与2017-4-11对比：两肺纹理清晰，左上肺、左中肺、右下肺见数个小结节状病灶，大小约3MM~5MM，边界清楚，部分与左侧斜裂胸膜相连，部分病灶内见钙化灶，较前变化不明显。两肺下叶见少许条索灶及空腔影，边清。前片所示右肺上叶后基底段小片状磨玻璃灶，本次扫描已不明显。右上肺后基底段（SE7-IM49）见斑片状影，边界模糊，大小约33MM×15MM，密度不均匀。原右侧锁骨下多发淋巴结较前变化不明显，大者短径约6MM。两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门、前心膈角见多发肿大淋巴结，部分相互融合成团块状灶，边界稍模糊，轴位最大范围约98MM×60MM（Se6，Im30），增强扫描不均匀强化稍明显，可见大片坏死，病灶包绕、推挤胸中段食管、下腔静脉、两侧主支气管、两肺动脉干、两下肺静脉、右上肺静脉致其管腔稍变窄，胸中段食管分界不清，管壁增厚，病灶较前稍增大、坏死范围增加。气管及其余支气管分支通畅。两侧胸腔见少量积液，右侧较多。两侧胸膜无增厚、粘连。肝S4（SE9-IM15）见1个稍低密度影，边界欠清，直径约7MM，增强扫描轻度强化。肝S4（SE6-IM62）增强扫描见1个片状稍低密度影，边界清，约30MM×13MM。增强扫描动脉期肝脏其余区域呈不均匀斑片状强化，延迟期呈等密度。肝S8胆管轻度扩张，其余肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。门静脉未见充盈缺损影。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两侧肾盂未见结石，左肾见边界清晰的类圆形低密度灶，增强扫描各期均无明显强化，直径约8MM；余两肾实质未见异常。两肾下腺未见异常。腹主动脉旁见数枚淋巴结，较大者短径约6MM，较前稍缩小。左侧第5~7肋、右侧第4、5肋骨见模糊骨折线及周围骨质密度增高灶，边界模糊，较前变化不明显；余扫描范围内骨质未见骨质破坏征象。</t>
+          <t>肺癌化疗后复查，对比2016-08-05片：左下肺后段病变，考虑肿瘤播散可能性大，部分不除外阻塞性肺炎，较前缩小。右肺下叶、左肺下叶前段、上叶背段、后基底段新发病变，考虑炎症。纵隔、左肺门多发淋巴结，考虑转移瘤，较前稍缩小。肝S4囊肿。肝S7/6病变，考虑海绵状血管瘤可能性大。右肾结石。腹腔干旁淋巴结稍肿大，性质待定，建议随诊。所见椎体密度普遍不均匀减低，较前未见明显变化。肺癌化疗后复查，对比2016-08-05片：左肺下叶后段多支支气管远段管壁增厚，管腔狭窄，左下肺后段肺动脉分支管壁增厚，管腔未见充盈缺损，较前未见明显变化，沿支气管血管周围肺组织见多发斑点、斑片状高密度影，边界模糊，增强扫描见强化，较前缩小。右肺下叶、左肺下叶前段、上叶背段、后基底段见多发斑片状高密度灶，边界模糊不清。两下肺见多发斑片状无肺纹理透亮区，以左下肺为著，较前未见明显变化。血管前、主肺动脉窗、左下上气管旁、右上气管旁、隆突上、左肺门见多发淋巴结，边界欠清，部分融合，增强扫描较明显不均匀强化，部分内见坏死，较前缩小，下腔静脉受压。两侧胸腔未见积液；两侧胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S4见一低密度灶，边界尚清，大小约8MM×5MM，增强扫描强化不明显。肝S7/6见一结节，大小约为10MM×7MM，增强扫描动脉期、静脉期见明显强化，至延迟期强化程度与肝实质相近。胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一点状致密灶，左肾及两肾下腺形态及密度未见明显异常。腹腔干周围见一淋巴结，短径约为11MM，边界清楚，密度均匀，增强扫描见明显强化。膈脚后、胃右、腹主动脉旁未见肿大淋巴结。所见椎体密度普遍不均匀减低，较前未见明显变化。</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>肺</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>左下肺后段,纵隔,左肺门多发淋巴结</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚,最厚约2.09CM,CT值约40HU,增强扫描后3期CT值分别约59HU、65HU、71HU。两肺见多发大小不等高密度影,部分呈磨玻璃密度改变,大者约1.66CM×1.21CM。两肺纹理增强。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发淋巴结影。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。左肺胸膜病变,考虑恶性间皮瘤伴双肺多发转移,纵隔淋巴结转移,较2011.04.19片比较病变进展;胸3椎体转移灶。</t>
+          <t>右肺尖示小片状不规则软组织密度影，截面约1.3CM×0.8CM(肺窗)，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈不均匀强化，其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊，并可见少许类结节灶，大者直径约1.1CM。另右肺近斜裂胸膜处可见片状密度增高影，形态不规则，内见支气管充气征。双侧叶间胸膜示增厚，左侧叶间胸膜及左肺下叶见小类结节灶，大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶，长径约0.6CM，边缘分叶可见少许毛刺，增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约0.7CM，部分内可见钙化。1.结合临床，右肺癌治疗后，较前(2016-3-24)变化不著；双肺转移较前进展2.结合临床，左乳癌治疗后，较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结，变化不著4.右肺局限性炎症及纤维炎性变；双侧叶间胸膜增厚，均变化不著</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>左肺胸膜</t>
+          <t>右肺尖,左乳</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2.09CM</t>
+          <t>1.3CM×0.8CM,0.6CM</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>胸3椎体,双肺,纵隔淋巴结</t>
+          <t>双肺</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET/CT图像示左侧颞叶见伴糖代谢减低的大片状稍低密度影,边界不清晰,邻近脑池受压变窄,中线结构未见明显移位;余脑实质未见明显糖代谢异常或占位。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。副鼻窦未见明显异常。颈部PET/CT图像示右侧锁骨区见伴糖代谢增高的淋巴结,糖代谢最高且较大者大小约为11.2MM×9.0MM,最大SUV值为3.0;甲状腺双叶无肿大,密度欠均匀,右叶伴糖代谢增高,最大SUV值为3.2;余颈部及左侧锁骨区未见明显糖代谢异常增高灶或肿大淋巴结;口咽、喉咽无殊。胸部PET/CT图像示左肺上叶尖后段见伴糖代谢异常增高的环形结节影,大小约为8.7MM×6.9MM,最大SUV值为9.2;右肺上叶尖段胸膜下见伴糖代谢轻度增高的片状实变影,范围约为37.2MM×9.47MM,最大SUV值为2.1,与邻近胸膜分界不清;右肺上、下叶及左肺上、下叶见多发不伴糖代谢异常增高的小结节影,直径均小于5.0MM;两肺野散在少许斑片条索影及小囊状透亮影;胸廓入口处右侧气管食管沟、腔静脉气管间隙、主肺动脉窗、气管隆突下、右肺门见多发淋巴结,部分伴糖代谢增高,糖代谢最高且较大者位于右肺门,大小约为11.8MM×8.8MM,最大SUV值为4.5;左肺门、双侧腋窝未见明显糖代谢异常增高灶或肿大淋巴结;双侧胸腔无积液;心脏无明显增大。腹部PET图像示胃壁、肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫示肝脏表面光整,各叶比例匀称,内见多发囊性低密度影,较大者位于左叶,大小约为8.3MM×7.4MM;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;左肾上极见直径约为6.7MM的囊性灶;胆囊、胰、右肾、双侧肾上腺未见明显占位;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示肛管糖代谢增高,最大SUV值为5.2,考虑为生理性摄取或炎性病变可能;膀胱充盈差,内见显像剂生理性积聚;余肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强;膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺无明显增大,密度均;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示全身多处骨骼见点状致密影,考虑为“骨岛”可能;脊柱多个椎体及椎小关节骨质增生,提示为退行性改变。考虑为左肺上叶尖后段周围型MT可能;左侧颞叶糖代谢减低的稍低密度灶,MT待排,请结合增强MRI检查;右肺上叶尖段陈旧灶可能;两肺上、下叶小结节,请结合临床随访;两肺少许慢性炎症及轻度气肿;右侧锁骨区、纵隔、右侧肺门淋巴结炎性病变可能;甲状腺双叶良性病变可能,请结合超声检查;肝脏囊肿;左肾囊肿。</t>
+          <t>左肺门旁肿物，考虑肺癌。左下肺多发斑片灶，考虑炎症。两侧锁骨下窝、纵隔肿大淋巴结，考虑转移。肝S8结节，考虑肝内胆管结石。左肺门旁见一软组织肿块影，边界欠清，大小约38MM×33MM×40MM，边界不清，增强后明显不均匀强化，左肺下叶见多发斑片状模糊影。两侧锁骨下窝、下气管旁、前纵隔、左上气管旁、主肺动脉窗见多发肿大淋巴结，部分相互融合，增强后明显环形强化，内可见坏死区。两侧胸腔未见积液，两侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S8近膈顶见片状致密，边界清，肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。所示两肾及两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>左肺上叶</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>8.7MM×6.9MM</t>
+          <t>左肺门旁</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>两侧锁骨下窝,纵隔肿大淋巴结</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>右肺癌化疗后，与2016-08-23片对比：右上肺门区肿物及其后方数个小结节，较前未见明显变化。右肺下叶前段类结节，大致同前。右肺下叶舌段条索状密度增高影，考虑纤维灶，较前变化不大。两锁下、纵隔及两肺门多发淋巴结，较前无明显变化。右侧胸膜多发转移瘤，较前无明显变化；右侧胸腔少量积液。肝囊肿。肝S5肝内胆管结石。右肺癌化疗后，与2016-08-23片对比：右上肺门区见一团块状肿物，大小约43MM×36MM，密度不均匀，增强扫描见不均匀强化，病变内缘紧贴纵隔胸膜，包绕右上肺基底段支气管开口段，管腔稍狭窄，较前未见明显变化。病灶后方肺内见数个小结节，大者约6MM×5MM，边界清，较前未见明显变化。右肺下叶前段见数个类结节，较大直径约5MM。右肺下叶舌段见条索状密度增高影，边界模糊。左肺内未见明确病灶。两锁骨下窝、左下气管旁、血管前间隙、两上气管旁、主-肺动脉窗、主动脉旁、隆突上及两肺门见多个肿大淋巴结，最大者约9MM×14MM，较前无明显变化。两侧肺动脉内未见充盈缺损。右侧胸膜广泛增厚，散在大量结节、团块状病灶，最大者约24MM×52MM，增强扫描强化明显，较前未见明显变化。右侧胸腔见少量积液，较前相仿。左侧胸腔未见积液；左侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S3、4、5、6、8见数个圆形低密度灶，最大约12MM×12MM，边界清楚，增强扫描未见强化，较前相仿。肝S5见斑点致密灶，直径约6MM。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见明确破坏征象。</t>
+          <t>右侧乳腺癌术后改变，局部未见明确肿物。右侧内乳血管旁结节，考虑转移瘤可能。右侧内乳血管旁数个小淋巴结，性质待定，建议复查。左肺上叶舌段、右肺中叶内侧段少许纤维增殖灶。甲状腺左右叶病变，考虑良性病变。肝S7肝内胆管结石。右侧肩胛骨致密结节，考虑骨岛可能性大。右侧乳腺癌术后：右乳术后缺失，右侧胸壁未见明显软组织肿物。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧内乳血管旁见一结节(SE10，IM76)，大小约14MM×8MM，增强扫描强化明显；右侧内乳血管旁另见数个小淋巴结，大者短径约4MM，增强扫描轻中度强化。左肺上叶舌段、右肺中叶内侧段见少许条索影，边界清；余肺内未见明显实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。扫描所见甲状腺右叶见一小低密度灶，直径约4MM，增强扫描强化不明显；甲状腺左叶见一小斑点状钙化灶。扫描所见肝S7见一结节状致密影。右侧肩胛骨见一结节状致密影；余扫描范围内未见明确骨质破坏。</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>右上肺门</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>43MM×36MM</t>
+          <t>右侧乳腺</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>右侧胸膜</t>
+          <t>右侧内乳血管旁</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>主动脉瓣钙化常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,39,19-40,右室舒张末内径,44,35-56,右室收缩末内径,28,23-35,室间隔厚度,10,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg,。,三、,右心功能测定：,LVEF：66%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:215MMs,四、组织多普勒测定：,DTI示S波峰值:10.2CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>右房增大伴右室舒张功能减退常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，42，19-40，右室舒张末内径，46，35-56，右室收缩末内径，28，23-35，室间隔厚度，11，6-11，右室后壁厚度，10，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：40%；LVEF：70%；二尖瓣血流图示E/A，&amp;lt；，1；DT：170MMs，四、组织多普勒测定：，DTI示S波峰值：8.7CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>右侧乳腺10点钟方向,距离乳头2CM可见一个低回声病灶,大小约为28MM×17MM,不规则形,非平行生长,边缘不完整,可见细分叶、成角、毛刺等改变,内部回声不均匀,可见点状强回声,后方回声衰减。病灶处乳腺浅筋膜浅、深层中断。COOPER'S韧带夹角增大。CDFI:上述病灶内点状血流信号,可探及动脉频谱:VP:37CM/S,RI:0.73。左侧乳腺各层组织结构清晰,腺组织较均质,呈细蜂窝状较强回声,其内未见明确肿物回声。乳腺导管未见扩张。CDFI:左侧乳腺腺体内未见明确异常血流信号。右侧腋窝及右侧锁骨上区可见多个淋巴结回声,较大约29MM×15MM(腋下组),10MM×7MM(腋中组)、5MM×4MM(腋上组)、13MM×10MM(锁骨上区),椭圆形,边界清,皮髓质分界不清,淋巴门结构未探及。CDFI:上述淋巴结部分可见门型血流信号。左侧腋窝、左侧颈部及左侧锁骨上区未见明确异常淋巴结回声。右侧乳腺10点钟实性病灶,符合乳腺CA(BI-RADS分类:5)。右侧腋窝右侧锁骨上区多发淋巴结,考虑转移性淋巴结。左侧乳腺未见明确占位性病变(BI-RADS分类:1)。左侧腋窝左侧颈部左侧锁骨上区未见明确异常淋巴结声像。</t>
+          <t>右乳癌综合治疗后，肝占位放疗后病例：1.肝右左叶交界处无明显糖代谢增高病灶，请结合临床；左肾下腺无糖代谢增高结节灶，考虑良性病变；重度脂肪肝，两肾结石，右肾囊肿；2.左肺中叶及右肺下叶舌段少许慢性炎症，双侧少量胸腔积液；左腋窝数枚无糖代谢稍大淋巴结；3.脑膜瘤术后，左颞枕叶软化灶，左侧颞枕骨部分缺如；4.右侧下颌窦炎。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像：脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示左侧颞骨、枕骨部分缺如，左侧颞叶及枕叶见不规则片状低密度影，边界尚清，范围约45.7MM×18.0MM，余脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右侧下颌窦粘膜增厚，其内见液性密度影，两侧额窦、筛窦、蝶窦和左侧下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET图像示两肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示两肺纹理清晰可，左肺中叶及右肺下叶舌段见少许斑片条索影，余未见明显异常占位；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔少量积液；心影不大；左腋窝见数枚无糖代谢增高稍大淋巴结，右侧腋窝无明显肿大淋巴结。腹部PET/CT图像见胃壁均匀性轻度糖代谢生理性增强；肝脏表面尚光，肝实质密度弥漫降低，明显低于脾脏，肝右左叶交界处见片状相对稍高密度区，边界欠清，范围约81.6MM×41.3MM，该病灶未见明显糖代谢异常增高，延迟2小时后，肝实质内仍未见明显糖代谢异常增高灶；左侧肾下腺见无糖代谢异常增高结节灶，大小约14.2MM×9.4MM，延迟2小时后仍未见糖代谢增高，脾脏无肿大，密度均匀；所示胆囊、胰腺无殊；右肾见一直径约13.2MM无糖代谢增高囊状低密度灶，两肾实质内见小点状钙化密度影；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈可，壁光滑无增厚；子宫和两附件区缺如；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体及椎小关节骨质增生。</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>右侧乳腺</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>28MM×17MM</t>
+          <t>右乳</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>右侧腋窝右侧锁骨上区多发淋巴结</t>
+          <t>肝</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>双肺结节,结合临床考虑转移,建议与旧片比较。纵隔肿大淋巴结,考虑转移。左侧胸腔、心包积液。肝脏病变建议结合腹部检查。右乳术后缺如,术区未见复发征象。双肺弥漫多发结节,较大位于右肺上叶,约30MM×19MM(IMA44)。左肺下叶见钙化结节(IMA8)。纵隔2R、4、7、10组见肿大淋巴结,较大者约45MM×22MM(IMA34)。双侧胸膜略厚,左侧见少量胸水。心包积液。胸廓诸骨未见骨质破坏。扫及肝脏见低密度结节(IMA12)。</t>
+          <t>1.乙状结肠癌，由肠系膜下动脉供血；2.肝内小囊肿，静脉期肝内轻度强化灶，转移待除外，请结合临床，必要时详查；3.平腰2/3椎间隙水平腹主动脉局限性增宽，腹主动脉瘤可能性大；4.双肾囊肿。乙状结肠肠壁增厚，管腔狭窄，周围脂肪间隙尚清，增强后病变明显强化，病变周围可见增多迂曲动脉，由肠系膜下动脉供血，近端结肠管腔未见扩张。余腹腔肠管未见异常强化。肝脏大小形态正常，肝脏左内叶可见小圆形低密度影，边界清，增强各期未见强化。增强后静脉肝脏实质可见多个轻度强化灶，直径约0.5CM。余脾脏、胰腺形态大小正常，内未见异常强化影。两肾实质内可见小圆形低密度影，边界清，增强各期未见强化。胆囊不大，其内未见异常密度影。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。腹膜后未见异常增大的淋巴结影。全腹平扫、增强及三维重建示腹主动脉及双髂总动脉多发混合斑块，走形迂曲，平腰2/3椎间隙腹主动脉增宽，直径约2.9CM。肠系膜上下动脉、腹腔干、双肾动脉形态走形未见异常。</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>右乳</t>
+          <t>乙状结肠</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>双肺结节,纵隔肿大淋巴结</t>
+          <t>肝</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,36,19-40,右室舒张末内径,43,35-56,右室收缩末内径,29,23-35,室间隔厚度,9,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg,。,三、,右心功能测定：,LVEF：62%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:153MMs,四、组织多普勒测定：,DTI示S波峰值:10.0CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>右上肺癌术后、化疗后复查：术区未见明显肿瘤复发征象，右肺少许条索影，考虑慢性炎症，较前好转。左肺中叶和上叶少许纤维灶，较前变化不明显。隆突上方食管壁增厚，管腔稍狭窄，平滑肌瘤与食管癌鉴别。肝囊肿。左肾囊肿。右侧肾下腺病变，较前未见明显变化。右肾上极结节，考虑血管平滑肌脂肪瘤可能性大，较前无明显变化。右上肺癌术后、化疗后复查，与2016-01-21日片对比：右上肺缺如，残肺含气良好，右肺野见散在少许条索影，边清，较前减少。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清，较前无明显变化。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。隆突上方食管腔狭窄，食管壁较前明显增厚，可见边界清楚肿物影，矢状位大小约42MM×20MM增强后强化。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化，较前无明显变化。左肾实质内见散在多个类圆形低密度灶，最大者约27MM×29MM，边清，未见强化。右侧肾下腺见一病变，大小7MM×11MM，密度欠均匀，增强轻度强化。左侧肾下腺未见明显病变。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。右侧胸壁骨呈术后改变，余扫描范围内骨质未见骨质破坏征象。</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>右上肺</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>肺癌化疗后复查，与2015-08-31片比较：右肺下叶肿物，较前明显增大。两肺小类结节灶，大致同前，考虑增殖灶可能，建议随诊。左肺中叶及右肺斑片灶，炎症？左肺病变范围较前缩小，右肺病变较前明显。纵隔、右肺门淋巴结，右肺门淋巴结较前明显增大。右侧胸膜稍增厚、粘连，大致同前。胆囊结石。甲状腺左叶低密度灶，考虑结节性甲状腺肿可能性大。肺癌化疗后复查：右肺下叶尖后段见软组织肿块，大小约53MM×43MM，密度不均匀，增强扫描见较明显强化，病灶牵拉胸膜。左肺中叶及右下肺舌叶、右肺上叶小类结节灶，长径约3MM~5MM，边界尚清。左肺中叶、右肺下叶舌段及右肺上叶胸膜上见少许片状影，边界欠清。右肺下叶尖后段部分支气管分支变窄，其余气管及支气管分枝尚通畅。右上气管旁、主肺动脉窗、右侧肺门见多个淋巴结，较大者位于右肺门，部分融合，范围约31MM×36MM。两侧胸腔未见积液。右胸膜增厚、粘连；左侧胸膜未见增厚。扫描所见甲状腺左叶见多发斑片状低密度影，边界清，最大层面大小约12MM×8MM，增强后强化不明显。肝右叶缺失，余肝脏密度尚均匀，未见异常密度灶。肝内胆管未见扩张，内未见结石影。胆囊及胆总管未见扩张，胆囊内见结节状致密影。肝门区、门静脉未见异常。脾稍增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾未见异常。两肾下腺未见肿物。腹膜后未见肿大淋巴结。扫描范围未见明显骨质破坏征象。</t>
+          <t>左肺下叶前段病灶，考虑肺癌可能，建议抗炎后复查。左肺下叶磨玻璃结节灶，建议密切随诊复查。左肺门淋巴结稍大，可疑转移。左乳外下象限小结节，考虑良性病变，纤维腺瘤？增生灶？肝内散在小囊肿。左肺下叶前段见一不规则片状软组织灶，边界欠清，范围约19MM×20MM，边缘见毛刺，呈分叶状，牵拉邻近胸膜，密度欠均匀，内见小空洞，未见钙化，增强扫描呈明显不均匀强化，并见小血管及细支气管进入。左肺下叶另见3个磨玻璃灶，大者约9MM×7MM，边界尚清，密度尚均匀。左肺中叶及右肺上叶可见散在点状、索条状影，边界欠清，部分支气管稍增宽。气管及其余支气管尚通畅。左肺门可见稍大肿大淋巴结，边界尚清，大小约12MM×14MM，呈欠均匀强化。左下气管旁、两上气管旁及隆突上可见小淋巴结，短径约3MM至6MM，呈均匀强化。两侧胸膜未见增厚。两侧胸腔未见积液。左侧乳腺外下象限内见强化小结节，大者直径约6MM，边界尚清。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内可见散在小囊状低密度灶，大者位于S4，直径约5MM，增强扫描未见强化。肝内胆管未见扩张。胆囊大小正常，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。扫描范围内两肾未见明确异常。两肾下腺未见明确异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>右肺下叶尖后段</t>
+          <t>左肺下叶前段</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>53MM×43MM</t>
+          <t>19MM×20MM</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>右乳内上象限可见软组织密度结节灶,大者截面大小约1.0CM×0.9CM,边缘较模糊,与周围腺体分界欠清,增强后呈较显著强化。右侧腋窝未见明显肿大淋巴结。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶,边界较模糊,大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结,大者短径约0.8CM。心包内示少量液体密度影。所扫肝内示低密度灶,直径约0.7CM,边缘略模糊,强化不著。1.右乳癌,较前(2016-03-11)片好转;右侧腋窝淋巴结转移治疗后基本消失2.双肺类结节灶,变化不著3.纵隔淋巴结肿大,较前略缩小4.肝内低密度灶,考虑囊肿,变化不著5.心包少量积液</t>
+          <t>1.右肺下叶癌并右侧胸膜转移、双肺多发转移，较前2014-11-07好转；纵隔、双锁上、右侧心膈角多发小或稍大淋巴结，较前部分缩小，部分变化不著3.胸椎T11骨转移，变化不著；第1腰椎附件局限性密度增高，请结合临床4.左侧胸膜略厚，变化不著右肺下叶后基底段可见一软组织肿块，边缘分叶毛刺，与邻近胸膜关系密切，最大截面约为1.7CM×1.5CM(纵隔窗)，增强后中度强化。双肺野内可见多发大小不一的结节影，大者长径约为0.7CM，纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大或小淋巴结，大者短径约为0.6CM。右侧胸膜(含叶间胸膜)增厚，局部呈类结节或线状强化。左侧胸膜略厚。T11椎体可见溶骨性骨质破坏。第1腰椎椎弓根密度示增高。</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>右乳</t>
+          <t>右肺下叶</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1.0CM×0.9CM</t>
+          <t>1.7CM×1.5CM</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>右侧腋窝淋巴结</t>
+          <t>右侧胸膜,双肺,胸椎T11</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>右肺腺癌化疗后复查，与2012-09-06片对比：右上肺病灶较前增大。肝内多发转移瘤，较前增多、增大。两肾多发结节灶，可疑转移瘤。胸骨、颈椎、胸椎、腰椎骨转移瘤较前未见明显变化。右肺腺癌化疗后复查，与2012-09-06片对比：右上肺叶前内基底段见双个结节，直径约15MM、11MM，较前增大，相应区域见条片状病灶，边界欠清，与右侧胸膜粘连。余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚。两侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内散在多发结节灶，边界不清，最大者约30MM×34MM，边界不清，部分融合，增强扫描不均匀强化，较前增多、增大。肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约7MM×8MM，边界不清，增强扫描轻度强化。肝门区及腹膜后未见肿大淋巴结。胸骨、C7、T1、T9左侧横突、L1右侧附件、L2、L3椎体见不规则致密影，边欠清，较前未见明显变化。</t>
+          <t>右上肺癌术后、化疗后，右侧胸膜稍增厚，局部未见明确复发征象。肝S6低密度灶较前（2008-11-06）无明显变化，考虑肝囊肿。两肾囊肿。右上肺癌术后、化疗后复查：右上肺缺失，右上肺野见少许散在条索影，与2009-12-24日CT片对比，未见明显变化，余两肺纹理清晰，肺内未见实质性病变。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变，胸椎未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S6见散在几个小圆形低密度灶，短径约3MM~6MM，边界清楚，增强扫描未见强化。与2008-11-06片对比，未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾实质内见散在多个类圆形低密度灶，最大者约23MM×26MM，边界清楚，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>右肺</t>
+          <t>右上肺</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>左上肺癌术后化疗后复查，对比2016-12-23片：左上肺癌术后化疗后改变，未见明确复发征象。两肺散在斑片及索条，考虑纤维增殖灶，较前相仿。右上肺胸膜上片状影，大致同前。右侧肋胸膜不均匀增厚，右侧斜裂不均匀结节状增厚，较前未见明显变化。两侧胸腔少量积液，部分包裹，较前未见明显变化。肝内多发囊肿，肝内胆管轻度扩张。两肾小囊肿。左上肺癌术后化疗后复查，对比2016-12-23片：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，局部未见明确软组织肿块。左残肺及右肺散在见少许斑片灶、条索病灶，与胸膜粘连，左肺下叶后段斑片状、类结节状病灶，较前相仿。右上肺胸膜上见片状密度增高影，范围约54MM×18MM，边界欠清，增强扫描明显强化，较前未见明显变化。两肺门及纵隔未见肿大淋巴结。两侧少量胸腔积液，右侧斜裂见不均、结节状增厚，较前未见明显变化。右侧胸膜不均匀增厚，增强扫描明显强化，部分见条状钙化，较前未见明显变化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者约20MM×17MM，边界清，增强扫描未见强化，较前未见明显变化。胆囊体积不大，其内未见结石，肝内胆管轻度扩张，胆总管内未见明确结石。肝门区、门静脉未见异常。脾、胰腺大小、形态正常，密度均匀。两肾见小低密灶，边界清，较大直径约4MM，增强扫描未见强化。两肾下腺未见异常。腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，未见明显异常软组织影，较前未见明显变化。</t>
+          <t>宫颈MT综合治疗后病例：1.右侧盆壁淋巴结转移；2.甲状腺弥漫性病变，请结合彩超检查；两侧颈部淋巴结慢性炎症，请随访；3.左乳头水平内侧象限纤维腺瘤可能，建议进一步检查除外MT；左乳钙化灶；右肺慢性炎性小结节；左肺慢性炎症及陈旧灶；4.肝脏囊肿；右肾囊肿；左肾结石；右侧腹股沟疝。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示两颈血管旁多发伴糖代谢增高的淋巴结，糖代谢最高者位于右颈血管旁，最大SUV值约为6.3，大小约为12.8MM×8.0MM；甲状腺弥漫性肿大，密度欠均，不伴糖代谢增高；口咽、喉咽部无殊。胸部PET/CT图像示左乳头水平内侧象限见糖代谢异常增高的软组织结节，最大SUV值约为8.0，大小约为20.3MM×17.3MM，乳头深部见大小约7.5MM×5.0MM可疑结节，外下象限小钙化灶；右肺下叶尖后段及右肺上叶外侧基底段各见一直径小于4.0MM、不伴糖代谢增高的微小结节；左肺下叶尖段见钙化小结节；各级支气管腔通畅；纵隔、两肺门及腋窝无明显糖代谢异常增高及肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显糖代谢异常增高及占位。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝左后叶上段见小囊状灶，直径约为5.0MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；左肾见多发小结节状致密影；右肾见小类圆形囊性灶，直径约为5.5MM；胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示子宫及两附件术后缺如；右侧盆壁见伴糖代谢异常增高的肿大淋巴结，最大SUV值约为10.1，大小约为20.8MM×14.6MM；右腹股沟区见腹腔内容物疝入；膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；两侧腹股沟处未见明显糖代谢异常增高及肿大淋巴结；盆腔无积液。骨骼PET图像示骶尾骨弥漫性糖代谢减低，考虑为放疗后改变；其余骨骼未见异常糖代谢增强。CT定位片见上胸椎、腰椎侧弯；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，多个腰椎间盘见真空征，均考虑为退行性变。左侧背部及臀部部分肌肉糖代谢增高，考虑为生理性表现。</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>左肺上叶</t>
+          <t>宫颈MT</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>右侧盆壁淋巴结</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>肝内实质占位-性质待定，建议进一步检查；脂肪肝；甲状腺弥漫性病变；甲状腺两侧叶增生结节；两侧颈部见淋巴结；右乳退化不全；左胸壁手术区积液肝肋上斜切124MM/（－），剑上纵切57MM/2指，肝区回声密集增强，肝内见数个低回声团块，最大10MM，CDFI未见明显彩色血流，门脉主干内径10MM。CDFI肝血流正常。甲状腺左叶42MM×16MM×15MM，甲状腺右叶45MM×17MM×18MM，峡部2MM。两侧叶见多个低回声团块，左叶最大位于中上部6MM×4MM，右叶最大位于下极14MM×8MM，CDFI见少量点状彩色血流，甲状腺内部回声增粗不均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.21MM/s，RI0.56。颈部右侧甲状腺下动脉血流通畅，PSV0.26MM/s，RI0.61。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大9MM×3MM，右侧最大10MM×4MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。左侧乳腺未显示。左侧胸壁手术区见50MM×15MM混合回声区，以无回声区为主，边界清，CDFI未见彩色血流。右侧乳腺导管增多，未见明显肿块回声。CDFI示右侧乳腺血流分布尚正常。两侧腋窝未见明显肿块回声，CDFI示血流分布尚正常。</t>
+          <t>右肺尖示小片状不规则软组织密度影，截面约1.3CM×0.8CM(肺窗)，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈不均匀强化，其内可见小空泡影。双肺野内见多发结节及类结节灶，部分其内可见小空泡影，大者直径约1.5CM。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊。另右肺近斜裂胸膜处可见片状密度增高影，形态不规则，内见支气管充气征。双侧叶间胸膜示增厚，左侧叶间胸膜及左肺下叶见小类结节灶。左乳外上象限见一不规则软组织结节灶，长径约0.6CM，边缘分叶可见少许毛刺，增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约0.7CM，部分内可见钙化。1.结合临床，右肺癌治疗后，较前(2016-05-26)基本变化不著；双肺转移较前部分增大，部分变化不著2.结合临床，左乳癌治疗后，较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结，变化不著4.右肺局限性炎症及纤维炎性变，变化不著；双侧叶间胸膜增厚，均变化不著</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>右肺尖,左乳</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1.3CM×0.8CM,0.6CM</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>双肺</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>左肺门区病灶代谢活跃，考虑恶性病变，肺门转移淋巴结与肺癌原发灶鉴别；左下肺病灶代谢活跃，考虑恶性病变；纵隔数个淋巴结代谢活跃，两侧肾下腺病灶代谢活跃，全身多处骨质破坏代谢活跃，考虑转移。轻度脂肪肝。胆囊多发小结石。子宫体局部代谢略活跃，建议随诊；右侧卵巢囊肿。两肺纤维增殖灶。空腹6h以下，静脉注射18F-FDG，静息约60MMin后行全身PET/CT断层显像，影像清晰。左肺门区软组织影放射性浓聚，SUV约25.6，大小约2.2CM×3.1CM，边缘见多个短毛刺。左下肺前段近胸膜处偏心空洞结节影放射性分布浓密，SUV约3.9，最大横截面约1.1CM×1.9CM，病灶边缘见毛刺，相邻胸膜粘连牵拉。另两下肺、左上肺少许条索、小斑状致密影放射性分布未见明显异常，部分内见钙化。气管、支气管通畅。两侧胸壁未见确切病灶和异常放射性分布。纵隔左下上气管旁数个淋巴结放射性浓聚，SUV最高约12.1，最大约1.3CM×1.4CM；余纵隔、右肺门及两侧腋窝未见肿大淋巴结及异常放射性分布。两侧乳腺放射性分布未见明显异常。所见两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及两侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。两下颈小淋巴结放射性分布未见明显异常。肝脏密度不均匀稍降低放射性分布未见明显异常，CT值约42Hu（脾CT值约47Hu）。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊内多发斑点状高密影放射性缺损，CT值约70Hu。胃及十二指肠放射性分布未见明显异常。两侧肾下腺软组织影放射性浓聚，SUV最高约31.4，右侧者大小约4.3CM×4.8CM，左侧者大小约1.0CM×2.0CM，其中右肾下腺病灶与相邻胃壁、胰体尾、右肾及脾脏分界欠清。脾脏附近小结节影密度及放射性分布与脾相仿，大小约1.0CM×1.0CM（副脾）。脾脏、胰腺、两肾形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。右侧附件区囊状低密度影放射性缺损，大小约1.1CM×1.3CM，CT值约6Hu。子宫体见小结节状突起放射性略浓密。膀胱及肠管等形态、结构及放射性分布未见明显异常。两髂血管旁及两腹股沟未见肿大淋巴结及异常放射性分布。两侧第5肋骨、左侧第8肋骨、C7、T4、T6、T7、L1、L4、L5椎体及附件、右侧肩胛骨、右侧髂骨、左侧髋臼多处骨质破坏放射性浓聚，SUV最高约18.6，其中L5病灶侵犯右侧椎旁神经孔；左侧股骨下段髓腔密度局灶性增厚放射性分布略浓密，SUV约3.3。</t>
+          <t>肺类癌化疗后，与2015-4-3片对比：两肺多发结节并钙化灶，考虑转移瘤，大致同前；两锁下、纵隔及两肺门多发淋巴结肿大，考虑转移，部分较前增大；肝S6病灶，考虑转移瘤；肝S5、6小低密度灶，考虑囊肿；左肾结石，两肾囊肿；膈脚后、肝门区、腹腔干周围、腹主动脉旁多发淋巴结，部分较前稍增大；两侧髂血管旁多发肿大淋巴结，考虑转移；两颈多发肿大淋巴结，考虑转移，较前稍增大；甲状腺两叶增大并多发结节，较前未见明显变化；多发骨转移瘤，部分病灶较前增大。肺类癌化疗后，与2015-4-3片对比：两肺可见多发结节影，大小约2MM~9MM，部分边界欠清，密度欠均匀，部分内可见钙化影，与前片对比，未见明显变化。两锁下、胸骨下窝、血管前间隙、下、上气管旁、主动脉旁、隆突上、两肺门、左心缘旁可见多个肿大淋巴结，边界不清，部分融合，最大约53MM×44MM，增强见不均匀强化，病灶包绕气管，包绕两侧头臂静脉、下腔静脉，血管管腔变扁，与前片对比，部分淋巴结较前增大，气管内见软组织影。气管呈支架置入术后改变。两侧胸腔未见积液。两侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S6见一类圆形低密度灶，边界尚清，大小约25MM×21MM，增强扫描不均匀明显强化。肝S5、6各见一小低密度灶，直径约2-3MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾盂可见数个结节样致密影，最大直径约11MM。两肾见数个类圆形低密度灶，最大直径约9MM。两肾下腺未见异常。膈脚后、肝门区、腹腔干周围、腹主动脉旁见多发淋巴结，部分边界欠清，最大者短径约12MM，较明显强化，部分较前稍增大。膀胱充盈良好，境界清楚。精囊腺、前列腺未见明显异常。直肠未见明显异常。两侧髂血管旁见多发淋巴结，最大者短径约20MM，明显强化。两侧腹股沟未见明显肿大淋巴结。两颈II~V区见数个肿大淋巴结，最大者约21MM×17MM，边界不清，部分相互融合，增强扫描较明显强化，较前稍增大。喉咽腔形态未见异常，两侧梨状窝对称。两侧真假声带未见增厚，前联合未见增厚。两侧颌上腺、腮腺大小形态未见异常，密度均匀。甲状腺两叶体积增大，密度不均匀，内见多发低密度结节，边界不清，最大约19MM×20MM，密度不均匀，内见钙化灶，增强扫描可见轻度不均匀强化，强化程度低于正常甲状腺组织。胸骨、多个颈椎、胸椎、腰椎、骶椎、左侧锁骨、两侧多个肋骨、两侧髂骨、坐骨、耻骨及所见股骨见多发成骨性骨质破坏，右侧第8肋骨质破坏区周围见软组织肿块，较前明显。</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>左肺门区,左下肺病灶</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2.2CM×3.1CM,1.1CM×1.9CM</t>
+          <t>肺</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>肺门转移淋巴结,纵隔数个淋巴结,两侧肾下腺,两侧第5肋骨,左侧第8肋骨,C7,T4,T6,T7,L1,L4,L5椎体及附件,右侧肩胛骨,右侧髂骨,左侧髋臼</t>
+          <t>两肺,两锁下,纵隔及两肺门多发淋巴结,肝S6,两侧髂血管旁多发肿大淋巴结,两颈多发肿大淋巴结,胸骨,颈椎,胸椎,腰椎,骶椎,左侧锁骨,两侧多个肋骨,两侧髂骨,坐骨,耻骨,股骨,右侧第8肋骨</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1.左肺上叶舌段病变,考虑周围型肺癌,较外院2011.04.26CT(1460749)前片稍增大;右肺上叶前段索条影;2.双肺多发结节,转移?较前片增多、增大,请结合临床;3.纵隔淋巴结增大;下位胸椎致密影;4.左侧乳腺缺如。左肺上叶舌段斑片影,边缘模糊,大小约3.33CM×1.84CM,邻近斜裂明显牵拉凹陷;右肺上叶前段、可见索条影。双肺多发小结节影,大者径约0.58CM。两肺门区未见异常。所示气管支气管影正常。纵隔内可见增大的淋巴结,大者短径约1.02CM。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺缺如。下位胸椎可见致密影。</t>
+          <t>1.结合临床，右肺癌并阻塞性肺不张、肺炎；右肺结节灶，考虑转移2.左肺类结节灶，建议观察3.肝及左肾低密度结节灶，囊肿可能，建议观察4.左侧肾上腺略饱满，建议观察右肺中叶支气管截断，见一软组织肿块，远端见不张肺组织及索条影，肿块截面约3.7CM×2.3CM，边缘分叶、毛刺，边缘见索条影牵拉邻近胸膜，增强后呈中等不均匀强化。右肺见结节灶，大者长径约1.1CM。左肺(6-31)见一直径不足0.5CM小类结节灶，密度较低。纵隔内隆突下见短径不足1.0CM小淋巴结。肝内见少许低密度结节灶，边缘较清晰，直径不足0.5CM，未见强化。胆、胰、脾、右侧肾上腺及扫描野内右肾未见异常。左肾见直径不足0.5CM小低密度结节灶。左侧肾上腺略饱满。腹腔及腹膜后未见增大淋巴结。</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>左肺上叶舌段</t>
+          <t>右肺中叶</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3.33CM×1.84CM</t>
+          <t>3.7CM×2.3CM</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>双肺</t>
+          <t>右肺</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>左下肺癌术后1年复查，同2015-9-23日CT对比，左肺门区、左主支气管周围软组织，较前范围稍增大，考虑复发可能性大；纵隔淋巴结肿大，考虑转移瘤可能性大；左下气管旁囊性灶，范围较前增大；两肺上叶斑片影，考虑炎症性病变；两侧胸膜稍增厚；心包少量积液；两肾小囊肿。左下肺癌术后1年复查，同2015-9-23日CT对比：左下肺术后缺如，左中、上肺膨胀良好，现左肺门区、左主支气管周围软组织增厚，内见金属缝合钉影，左主支气管后壁不光滑，软组织影范围较前稍增大，左主支气管管腔变窄。两肺纹理较粗乱，两肺呈过度充气状；左肺上叶外基底段，右肺上叶后、外基底段可见斑片状密影，边界欠清。气管、左中、上叶及右肺各叶支气管分枝通畅。左下、上气管旁、主肺动脉窗、隆突上可见数个肿大淋巴结，较大短径约19MM，边界欠清，增强可见明显强化。左下气管旁见一不规则囊肿影；两侧胸膜稍增厚，两侧胸腔未见积液，心包少量积液。肝脏形态正常，比例正常，外形轮廓光整，密度均匀，快速注射造影剂后，动脉期未见明确异常强化灶，门脉期及平衡期未见明确低密度区；肝内胆管未见扩张，胆囊大小正常，内未见结石影，胆总管未见扩张；肝门区未见肿大淋巴结；门静脉未见充盈缺损；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；两肾可见数个类圆形囊性低密度灶，较大直径约5MM，界清，增强无强化；两侧肾下腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围内胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
+          <t>右乳癌术后化疗后：肝右左叶交界处病灶，较2013-6-25片稍增大，肝内胆管扩张较前明显；左肾下腺结节，肝左后叶小病灶，较前片相仿；两肾小囊肿；双侧少量胸水。肝右左叶交界处见不规则异常信号灶，大小约3MM×3.5MM，T1WI为低信号，边缘见斑片状稍高信号影，T2WI为等略高信号，动脉期异常不均匀强化，门脉期呈边缘持续强化，肝右叶肝内胆管扩张，病灶与胆囊分界不清，另见肝左后叶一小点状T2高T1低持续强化灶，大小约6MM，肝内血管尚可。脾脏饱满，信号尚均。胰腺无殊。两肾见小囊性灶。左肾下腺见一结节异常信号灶，大小约1CM×1.2CM，不均匀强化。后腹膜未见肿大淋巴結，腹腔未见明确积液。双侧胸腔见少量弧形液性信号灶。</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>左下肺</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>纵隔淋巴结</t>
+          <t>右乳</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   28MM       AO     28MM        MV E 0.37MM/s     EF 62%LV   51MM       IVS     8MM           A 0.42MM/s     FS 34% RA   27MM       LVPW    8MMRV   18MM       PA     23MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+          <t>左乳外下象限MT伴左侧腋窝淋巴结转移；左侧内乳淋巴结转移不除外；右肺中叶及左肺下叶小结节，请随访；甲状腺密度欠均匀，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽部PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、双侧蝶窦和双侧上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺密度欠均匀。胸部PET/CT图像示左侧腋窝多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者最大SUV值约为12.8，大小约为19.7MM×18.1MM；左乳外下象限见糖代谢异常增高的结节，最大SUV值约为6.7，大小约为14.4MM×10.6MM；左侧内乳(约第2肋水平)见糖代谢轻度增高的淋巴结，最大SUV值约为1.4，大小约为6.3MM×2.6MM；两肺纹理清晰，右肺中叶及左肺下叶见直径均小于5.0MM的小结节，无明显糖代谢异常增高；各级支气管腔通畅；纵隔及两肺门无明显肿大淋巴结及糖代谢异常增高灶；双侧胸腔无积液；心脏无明显增大。腹部PET图像示胃部充盈可，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝脏、胆囊、胰腺、脾脏、双肾上腺、双肾、双输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均匀，未见明显占位；胆囊、胰腺、双肾、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可，壁光滑无增厚；子宫及双侧附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示部分颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>左乳</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>14.4MM×10.6MM</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>左侧腋窝淋巴结,左侧内乳淋巴结</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>右肺癌综合治疗后，与2016-06-13片对比：右下肺支气管残端未见明确肿物；残余右肺少许纤维增殖灶，大致同前。左肺数个小类结节灶，较前变化不大。右锁下、纵隔数个淋巴结，较前变化不大。右侧胸腔少量积液，右侧胸膜稍增厚，大致同前。甲状腺右叶病灶，考虑结节性甲状腺肿，大致同前。肝S2小囊肿。胆囊小结石。右肾小囊肿。胃右血管旁及左侧膈脚后数个小淋巴结，大致同前。右肺癌综合治疗后，与2016-06-13片对比：右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化；左上肺外侧基底段小斑片影，大致同前。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、左下上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度欠均匀，增强后见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜稍增厚，大致同前。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊底部内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺未见异常。胃右血管旁及左侧膈脚后见小淋巴结，最大约7MM×6MM，边界清，增强后轻度强化。腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
+          <t>1、恶性病变伴多发转移，倾向肺来源：左肺门高代谢软组织影，左肺上叶基底段高代谢结节；全身多发高代谢淋巴结/结节，与肝S1、胃体小弯、胰腺及脾脏分界不清；胰颈及体部伴高代谢灶；脾大，脾内高代谢灶；左侧肾下腺高代谢结节；腹膜高代谢结节；多发骨破坏伴高代谢。2、脑内未见异常高代谢灶，请结合增强MRI检查以除外微小转移。3、两叶甲状腺局部伴高代谢，请结合超声检查。4、肝右叶稍低密度灶，未见高代谢，囊肿？请结合超声检查。5、右肺上叶微结节，随访。两侧胸腔及心包积液。脾脏钙化灶。右肾轻度扩张积水（请注意肾功能）。上腹部轻度皮上水肿。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺门见不规则浓聚软组织影，浓聚范围约为3.1CM×2.2CM，SUVmax值为10.3；左肺上叶基底段见一软组织结节，伴放射性浓聚，SUVmax6.5，大小约1.9CM×1.3CM。右肺上叶见一小结节，未见放射性摄取。心肌显影，心包见积液。胸膜无增厚，两侧胸腔见少量积液。两颈部、两锁骨区、右胸肌间、右腋窝、左内乳区、纵隔、两肺门、膈区、心包腔内、腹、盆腔及腹膜后、右臀部皮上见多发淋巴结/结节，伴放射性浓聚，SUVmax16.1，较大者约3.9CM×2.2CM，其中腹膜密度弥漫性增高，腹腔及腹膜后淋巴结/结节与肝S1、胃体小弯、胰腺及脾脏分界不清。胰颈、胰体伴异常放射性浓聚，SUVmax11.0，同机CT未见明显异常，胰管不扩张。脾脏体积增大，约占9个肋单元，实质见散在放射性浓聚灶，SUVmax19.7，较大者呈模糊低密度，大小约2.4CM×1.9CM，较小者同机CT未见明显异常；脾实质另可见钙化灶。左侧肾下腺结合部伴放射性浓聚，SUVmax10.0。右侧肾下腺未见明确异常放射性浓聚。全身骨骼多发放射性分布异常浓聚，SUVmax17.4，累及：右额骨、右股骨、右肩胛骨、右侧第6肋骨、脊柱诸骨、盆腔诸骨、两股骨，大部分伴骨质破坏征象，部分未见明确骨质破坏征象。上腹部皮上脂肪间隙密度增高伴多发索条影，未见异常放射性浓聚。大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，两叶腺实质局部伴放射性摄取，右叶为著，SUVmax4.0。胃充盈不佳，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶见稍低密度灶，未见异常放射性浓聚；余肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。双侧肾脏显影可，肾实质密度均匀。右侧肾盂、肾盏轻度扩张积水，右肾集合系统内未见放射性摄取，左侧肾盂、肾盏及输尿管无扩张。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>右肺</t>
+          <t>左肺门,左肺上叶基底段</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3.1CM×2.2CM,1.9CM×1.3CM</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>淋巴结,胰颈及体部,脾,左侧肾下腺,腹膜,骨</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>左腮腺癌颈淋巴结转移纵隔治疗后病例：1.两侧颈部、锁骨区、肝门多发淋巴结转移；肝左叶及腰4椎、左肱骨转移。2.右侧筛窦、下颌窦炎。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。副鼻窦PET/CT图像示右下颌窦和筛窦粘膜增厚，软组织密度影增多伴糖代谢异常增高，最大SUV值约8.08；余副鼻窦和鼻咽部无殊。颈部PET/CT图像示左腮腺癌两颈淋巴结转移术后，颈部术区结构紊乱；两颈血管旁、左颌上、颏上、两锁骨区、气管旁、胸骨下窝多发糖代谢异常增高的肿大淋巴结，最大者约35.0MM×22.7MM，最大SUV值约16.90；口咽、喉咽部和甲状腺无殊。胸部PET图像示两肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示两肺纹理清晰，未见明显异常占位；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏不大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示肝左叶见一大小约30.5MM×23.4MM、糖代谢异常增高的类圆形低密度灶，最大SUV值约25.70，内部密度不均，边缘模糊；肝内外胆管扩张；肝门区见一直径约15.3MM、糖代谢异常增高的肿大淋巴结，最大SUV值约12.67；胆囊、胰、脾、两肾下腺、肾、输尿管无殊；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；腹膜后无异常糖代谢增高和肿大淋巴结；腹腔无积液。盆部PET图像示膀胱放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫、两侧附件未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示腰4椎体内见一直径约20.3MM稍高密度结节，伴糖代谢异常增高，最大SUV值约13.70；左肱骨髓腔内软组织密度影伴糖代谢异常增高，最大SUV值为8.57；余骨未见异常糖代谢增高；CT定位片见颈胸腰骶椎顺列，颈椎生理曲度变平。</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>左腮腺</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>颈淋巴结,两侧颈部,锁骨区,肝门多发淋巴结,肝左叶,腰4椎,左肱骨</t>
+          <t>肝囊肿，右肾囊肿肝肋上斜切120MM/（－），剑上纵切62MM/2指，肝区回声较密尚均，肝左叶见17MM×14MM无回声区，门脉主干内径10MM，左支内径7MM，流速0.18MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径4MM，血流通畅。肝静脉血流通畅。脾肋间切27MM/（－）。胆囊62MM×22MM，胆总管5MM。胰头15MM，胰体12MM，胰尾14MM。左肾109MM×45MM×46MM，肾盂分离(-)，右肾105MM×46MM×47MM，肾盂分离(-)，右肾见10MM无回声区。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。腹膜后未见明显肿块回声。CDFI未见异常彩色血流。CDFI肝胆胰肾血流正常。</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>肺癌化疗后复查，较2017-4-18日CT片对比：右肺上叶背段病灶，符合肺癌，较前稍增大。右肺上叶阻塞性肺炎。右肺下叶舌段小片状灶，炎症可能，较前缩小，建议复查。左肺、右肺下叶纤维增殖钙化灶。右肺门多发淋巴结肿大，考虑转移，较前变化不大。肝右外叶与腹壁间隙结节，考虑转移淋巴结可能性大，大致同前。肝S7包膜上结节钙化灶。左肾下腺病灶，考虑转移瘤，大致同前。右肾结石。肺癌化疗后复查，较2017-4-18日CT片对比：右肺上叶背段见一软组织团块，边界尚清，范围约50MM×35MM，呈分叶状，密度不均匀，内见钙化，增强扫描呈明显不均匀强化，累及邻近胸膜，较前稍增大；邻近右上肺背段、后基底段可见条状、斑片状影，边界不清。右肺下叶舌段见小片状灶，边界欠清，可见强化，范围较前缩小。两肺下叶、左肺中叶、左肺上叶外基底段可见多发结节状致密灶，边界尚清，周围见多发索条状影，部分与胸膜粘连。气管及其余支气管尚通畅。右肺门可见多发肿大淋巴结，边界欠清，部分相互融合，大者范围约33MM×23MM，部分内见钙化，增强呈不均匀强化，包绕挤压右上肺支气管，管腔变窄。左侧胸膜未见增厚、粘连。两侧胸腔未见积液。肝右外叶与腹壁间隙见一结节，大小约28MM×13MM，边界清，呈不均匀强化。肝脏形态正常，各叶比例尚可，其外形轮廓光整，肝S7边缘见一致密灶，边界清楚，直径约2MM，余肝实质密度均匀，未见异常强化表现。肝内胆管及胆总管未见扩张，其内未见结石影。胆囊不大，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾、胰腺大小、形态正常，密度均匀。右肾盂见致密灶。左肾及右肾下腺未见明确异常。左肾下腺见一结节，大小约16MM×13MM，边界尚清，强化不均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
+          <t>左上肺癌术后化疗后，对比2015-08-18片：左上肺术后改变，局部未见明确肿物。左下肺少许纤维灶。右下肺斑片灶，考虑增殖钙化灶，较前无大变化。左胸腔少量积液，较前无大变化。肝内数个小囊肿，大致同前。左上肺癌术后化疗后，对比2015-08-18片：左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，左下肺见少许条片状密度增高影，相邻胸膜受牵拉，较前变化不大；右下肺尖后段见一小斑片影，大小约7MM×3MM，内见点状钙化影，大致同前；余肺内未见明确实质性病变；气管、支气管分支通畅；两肺门及纵隔未见肿大淋巴结影；左胸腔见少量积液，较前无大变化；左侧胸膜稍增厚、粘连，右侧胸腔未见积液，右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。腹主动脉旁未见肿大淋巴结。扫描所见多个胸腰椎见骨质增生，未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>右肺上叶背段</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>50MM×35MM</t>
+          <t>左上肺</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1.右乳癌术后,右腋顶部、右颈根部、锁上、左腋窝、纵隔及右肺门淋巴结肿大,考虑转移;左肺门及双上颈部淋巴结肿大;双肺转移;肝转移2.肝脏小囊肿;右肾小囊肿3.双侧上颌窦炎症4.颅脑扫描未见明显异常5.腰椎退行性变右乳术后缺如,术区未见异常增厚及强化。左乳未见异常。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结,大者短径约1.2CM。双肺示多发结节及肿块,大者直径约3.0CM,可见强化。肝左右叶交界处示一低密度结节灶,截面约1.3CM×2.3CM,边缘模糊,可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。双侧上颌窦内示液体密度影。甲状腺显示可,咽喉壁不厚。双颈上深示数个略大淋巴结,大者短径约0.7CM。脑实质密度均匀腰椎椎体前缘可见棘状突起。诸骨质未见明显破坏征象。</t>
+          <t>1.右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移，较前(2015-02-25)结节示减少；多发骨质破坏，考虑为骨转移，变化不著；左锁骨上淋巴结肿大，较前缩小2.右肺中叶结节灶，建议观察3.轻度脂肪肝右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶，大者直径约0.5CM，边界较清。右肺中叶见一结节灶(图4-27)，直径约0.4CM，密度较低。余双肺野清晰，气管及各级支气管通畅，未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T8、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结，大者短径约1.0CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>右乳,右腋顶部、右颈根部、锁上、左腋窝、纵隔及右肺门淋巴结</t>
+          <t>右乳</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>双肺,肝</t>
+          <t>右侧胸膜,骨</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>右乳癌术后多线治疗后,肝转移术后,对比2016-10-20、10-15、04-07片:右乳癌术后改变,局部未见明显复发。双下肺小结节,考虑转移可能。双下肺增殖灶,较前未见明显变化。甲状腺右叶及峡部结节,较前未见明显变化,考虑结节性甲状腺肿可能性大。肝内多发类圆形结节,考虑转移,较前增大增多。肝门区、门腔间隙及下腔静脉旁淋巴结,较前增大。双肾多发小囊肿。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影,考虑转移可能。盆腔CT未见明显异常。头颅CT扫描未见明显异常。右乳癌术后多线治疗后,肝转移术后,对比2016-10-20、10-15、04-07片:右乳术后缺失,局部皮肤未见明显增厚;左乳大小、形态未见明显异常。双侧腋窝及内乳区未见明显肿大淋巴结。右肺下叶外基底段(SE14,IM166)、左肺下叶后基底段(SE14,IM177)各见一结节,大者直径约6MM,边界清,增强可见轻度强化。双肺下叶见条索影及类结节灶,边界较清,较前未见明显变化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。右侧斜裂可见结节样稍厚,左侧胸膜无增厚、粘连。所示甲状腺右叶及峡部可见数个低密度结节,最大约25MM×16MM,边界欠清,增强可见明显不均匀强化,较前未见明显变化。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S1见一不规则低密度灶,大小约17MM×12MM,边界稍模糊,密度欠均匀,增强扫描不均匀强化;残肝内见多发小类圆形稍低密度灶,大者直径15MM,边界模糊,增强扫描轻度强化,较前增大增多。肝内胆管正常,胆囊大小正常,胆总管未见扩张。门静脉所见正常。肝门区、门腔间隙及下腔静脉旁见数枚淋巴结,相互融合,增强扫描明显强化,较大者24MM×17MM,较前增大。脾大小、形态正常,密度均匀。胰腺体积缩小,实质萎缩,密度均匀。双肾见多个小类圆形低密度影,边界清,大小约2~3MM,未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。大脑各叶、小脑及脑干形态未见异常,脑实质内未见明确异常密度影及异常强化灶,脑沟、裂、池不宽,脑室对称不大,中线结构无移位,幕下结构未见异常,颅骨未见骨质异常。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影,大者直径约10MM,边界较清。余骨质未见明显异常。</t>
+          <t>1.考虑为右肺下叶主动脉弓旁来源MT伴多处（右侧颈后三角、两侧锁骨区、右侧胸壁、纵隔及右肺门）淋巴结转移可能，请结合临床；2.双肺多发慢性炎性结节可能，请随访除外转移；3.右侧肾下腺小腺瘤可能，请随访；肝脏及两肾囊肿；前列腺增生。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示右侧颈后三角及两侧锁骨区多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者位于右侧颈后三角，最大SUV值为11.9，大小为13.5MM×7.2MM；口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示右肺下叶尖后段主动脉弓旁见糖代谢异常增高的结节，最大SUV值为5.4，大小为12.7MM×9.6MM，边缘呈浅分叶；左肺野内多发不伴明显糖代谢增高的小结节，直径均小于5.0MM；右肺上叶内前基底段和后基底段胸膜上见不伴明显糖代谢异常增高的结节灶，较大者大小为10.3MM×6.1MM；右侧胸壁、纵隔内气管腔静脉间、主动脉弓右、主肺动脉窗及右肺门多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者位于主肺动脉窗，最大SUV值为9.1，大小为25.5MM×13.0MM；两侧胸腔无积液；心脏无明显增大。腹部PET图像示胃部充盈可，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见直径为3.0MM的囊性灶；肝内外胆管无扩张；脾周见副脾结节影；脾脏不大，密度均，未见明显占位；右肾下极见直径为47.8MM的囊性灶；左肾中部见一直径约为6.5MM囊性灶；右侧肾下腺局部增粗，见一直径约为6.0MM稍低密度灶；胆囊、胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可；前列腺增大，密度尚均匀；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>右乳</t>
+          <t>右肺下叶主动脉弓</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>12.7MM×9.6MM</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>肝,双下肺,L1椎体,L2椎体,骶尾椎体,双侧髂骨,双侧坐骨后支,左侧股骨</t>
+          <t>（右侧颈后三角,两侧锁骨区,右侧胸壁,纵隔及右肺门）淋巴结</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1、右乳癌术后，右侧胸壁及右腋窝多发索条影，代谢轻度活跃，倾向术后改变。右腋窝散在小淋巴结，未见高代谢，随访。2、右肺下叶尖后段高代谢结节，倾向恶性（不除外原发肺癌）。左肺中叶外段叶间胸膜上小结节，未见高代谢，良性可能，随访。3、结节性甲状腺肿伴多发钙化？请结合超声。4、两侧下颌窦炎。鼻咽及口咽炎性摄取。声门部软组织非特异性高摄取。左乳良性钙化灶。肝多发囊肿。盆腔钙化淋巴结。脊柱退变。5、脑部未见明显异常代谢征象。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：右乳癌术后，右侧胸壁及右腋窝见多发索条影，放射性摄取轻度增高，SUVmax3.34，右腋窝见数个小淋巴结，较大约0.8CM×0.6CM，未见放射性浓聚。左侧乳腺轻度显影，左乳内下象限钙化灶，乳腺区未见异常浓聚灶。左腋窝未见异常肿大淋巴结或淋巴结浓聚。双肺显影清晰，肺纹理正常，右肺下叶尖后段见不规则结节，伴放射性浓聚，较大层面约1.3CM×1.0CM，SUVmax2.86，病变边缘见分叶及多发毛刺，牵拉斜裂胸膜凹陷。左肺中叶外段叶间胸膜上小结节，未见异常放射性浓聚。纵隔及双侧肺门未见异常肿大淋巴结或淋巴结浓聚。心肌显影。胸膜无增厚，胸水征阴性。大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。两侧下颌窦内软组织密度影，未见异常放射性浓聚。鼻咽及口咽部两侧壁放射性摄取增高，SUVmax4.04、6.63。声门区软组织放射性摄取增高，SUVmax6.05。甲状腺双叶增大，两侧腺实质内多发稍低密度结节及钙化灶，伴放射性稀疏，较大位于右侧中部，约1.2CM×0.9CM。颈部及锁骨下区未见明显异常淋巴结浓聚。胃充盈不佳，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内多发低密度结节，较大约2.1CM×1.3CM，伴放射性稀疏。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。子宫体积、形态尚可，局部无异常放射性浓聚。双侧附件区未见异常放射性摄取。盆腔系膜区见钙化淋巴结。双侧腹股沟无异常淋巴结显示。脊柱多椎体缘骨质增生硬化。视野内轴心骨未见异常放射性浓聚。</t>
+          <t>右乳MT术后化疗后，肝右左叶交界处病灶，较2013-8-10片略增大，肝内多发新增小病灶，肝内胆管扩张较前明显；左肾下腺结节，双侧少量胸水，基本同前；两肾小囊肿。右乳MT术后化疗后，肝右左叶交界处见不规则异常信号灶，大小约3.7MM×7.3MM，T1WI为低信号，T2WI为略高信号，增强后动脉期不均匀强化，门脉期及延迟期持续强化，肝右左叶肝内胆管扩张，右叶为著，病灶与胆囊分界不清，另见肝右左叶见多发小结节状异常强化信号灶，最大者约1.3CM，肝内血管尚可。脾脏饱满，信号尚均。胰腺无殊。两肾见小囊性灶。左肾下腺见一结节异常信号灶，大小约1CM×1.2CM，不均匀强化。后腹膜未见肿大淋巴結，腹腔未见明确积液。双侧胸腔见少量弧形液性信号灶。</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>右乳,右肺下叶尖后段</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>1.3CM×1.0CM</t>
+          <t>右乳</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>两侧颈部淋巴结甲状腺左叶35MM×14MM×11MM，甲状腺右叶35MM×15MM×11MM，峡部3MM。甲状腺内部回声均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.20MM/s，RI0.48。颈部右侧甲状腺下动脉血流通畅，PSV0.23MM/s，RI0.54。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大11MM×3MM，右侧最大11MM×3MM，CDFI未见明显彩色血流。两侧锁骨下未见明显肿块回声，CDFI未见异常血流。肝肋上斜切117MM/（－），剑上纵切55MM/2指，肝区回声较密尚均，门脉主干内径10MM。脾肋间切25MM/（－）。左肾103MM×43MM×48MM，肾盂分离（－），右肾90MM×46MM×47MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝肾血流正常。</t>
+          <t>左乳上象限团块及其旁小结节，考虑乳腺癌可能性大。左侧腋窝肿大淋巴结，考虑转移。左乳外上象限小片状强化灶，考虑增殖灶可能性大。左肺下叶胸膜下小结节，考虑增殖灶可能性大，建议复查。右肺中叶纤维增殖灶。脾内多发低密度灶，性质待定，血管瘤?转移瘤?建议MR检查。副脾。肝脏未见明确病变。颈部未见明确病变。左乳上象限可见一异常密度团块，边界欠清，范围约41MM×31MM×42MM，密度欠均匀，增强后可见边缘明显强化，病灶后缘与胸壁软组织分界欠清，病灶上极外侧可见一小结节，直径约3门脉，亦呈边缘强化。左乳外上象限腺体内见一小片状强化影，边界尚清，大小约6MM×7MM。左侧腋窝可见肿大淋巴结，边界欠清，大者大小约12MM×18MM，增强后呈不均匀强化。右侧乳腺形态、密度尚可，未见异常强化灶。右侧腋窝未见肿大淋巴结。左肺下叶外基底段胸膜下可见小结节灶，直径约2MM，边界清楚。右肺中叶内侧段可见散在索条，边界尚清。余双肺纹理尚清，未见明确实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常，各叶比例尚可，其外形轮廓光整，密度均匀，未见异常强化表现。肝内胆管正常，胆囊大小正常，胆总管未见扩张，其内均未见结石影。门静脉充盈尚可。脾大小正常，脾内可见散在低密度灶，边界尚清，大者直径约10MM，增强后动脉期强化不明显，门脉期及平衡期似见轻度强化，范围略显缩小。脾周见小结节，大者直径约8MM，强化与脾一致。胰腺未见异常。所示双肾未见异常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。颈部未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>左乳</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>左侧腋窝肿大淋巴结,脾</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>肝内多发实质占位性病变,请结合其他检查胆囊壁增厚,胆囊结石左肾高回声病变，请结合其他检查肝肋上斜径约：14.0CM。肝脏形态大小正常，肝表面光滑，肝边缘锐，肝实质回声不均匀，肝静脉显示清晰，门脉系统无扩张，肝内血流显示良好,肝内散在多个大小不等低回声及高回声,大者约：4.6CM×5.7CM,小者约2.0CM×1.9CM。胆囊大小约：5.4CM×1.8CM。壁厚约0.6CM，胆囊内充满点状低回声,并可见强回声移动,有声影，肝内外胆管无扩张。脾肋间长约：10.0CM，脾厚约：3.2CM。脾脏回声均匀。胰腺形态大小正常，回声均匀，胰管无扩张。膀胱充盈不良。左肾大小约：11.0CM×5.1CM×5.2CM,左肾实质处可见高回声区,范围约5.8CM×6.9CM,轮廓不清。右肾大小约：11.0CM×5.1CM×5.0CM。两肾形态大小正常，皮髓质界限清晰，两肾窦无分离，两肾血流显示良好，两侧输尿管未显示。左肾下腺大小约:2.8CM×2.0CM右肾下腺大小约:1.8CM×2.4CM两肾下腺区未见明显包块样回声腹腔内可见数个淋巴结回声,大者约：2.4CM×1.5CM</t>
+          <t>1.右肺上叶周围型肺癌；2.左肺下叶背段胸膜下小结节，随诊；3.支气管炎；4.部分上位椎体骨质改变考虑转移。两肺纹理增强，右肺上叶后段可见团块状高密度影，最大截面约3.7CM×3.7CM，其内密度均匀，CT值约48HU，邻近胸膜受牵拉；左肺下叶背段胸膜下可见小结节影，边缘光整，径约0.32CM，双肺门区未见异常，所示气管支气管影通畅；纵隔内未见异常增大的淋巴结，两胸腔未见明显积液征象，心脏不大。部分上位椎体内骨质密度减低。</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>右肺上叶,右肺上叶后段</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3.7CM×3.7CM</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>上位椎体</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>右肺癌化疗后复查：1、右肺门区不规则高代谢肿块，且侵及肺门、胸膜及纵隔，并与胸主动脉管壁分界不清。右肺不张。2、右胸膜转移；右侧胸腔积液。3、多发骨转移。4、左肺多发小结节，未见明显高代谢，首先考虑为转移。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行胸部PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：扫及两锁骨下区未见肿大淋巴结或淋巴结浓聚。右肺癌化疗后，纵隔右移，右肺气体密度影消失，右侧胸腔代之以软组织及液性密度影，右肺支气管周围见不规则软组织密度影，侵及肺门、胸膜及纵隔，且与胸主动脉分界不清，PET示病变区域呈显著浓聚，最大SUV:22.0，较大浓聚截面约7.0CM×4.1CM大小。右胸膜多发不规则异常增厚伴放射性分布异常浓聚，最大SUV：13.0，较厚处约3.5CM。右侧胸腔积液。左肺多发小结节，较大者直径约0.4CM，未见明显高摄取。左肺门未见异常淋巴结浓聚。左胸膜光，未见胸腔积液。多个胸椎、右侧多发后肋、左4侧肋、右肩胛骨骨质破坏并放射性分布异常浓聚。扫及肝脾未见放射性分布异常浓聚灶。两肾下腺未见异常结节及放射性分布浓聚灶。</t>
+          <t>左下中肺癌术后化疗后，与2015-08-12片对比：左肺癌术后改变，未见明确复发征象。右下肺及左上肺多发肺大泡，较前相仿。右下肺及左上肺少许纤维增殖灶，较前相仿。纵隔小淋巴结，较前相仿。左侧胸膜增厚，较前相仿。肝多发囊肿，较前未见明显变化。左下中肺癌术后化疗后，与2015-08-12片对比：左侧胸廓稍塌陷，纵隔结构轻度向左侧移位。左中下肺术后缺失，支气管残端未见明确软组织肿块形成。左上肺膨胀良好，右下肺及左上肺见多个散在分布的大小不等透亮影，边界清楚，壁薄，较前相仿；右肺下叶、左上肺见少许斑片状影、条索状影及类结节灶，边界清，较前相仿；余肺野未见明显实质性病变。气管和支气管分支通畅。左侧气管食管沟、两上气管旁、主肺动脉窗及隆突上内见数个小淋巴结，边界尚清，较大者短径约8MM，增强扫描中度强化，较前相仿；两侧肺门未见明显肿大淋巴结。两侧胸腔未见积液。左侧胸膜增厚、粘连；右侧胸膜未见增厚。肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，密度不均匀，肝S2~8见多个类圆形低密度灶，边界清楚，较大者约27MM×22MM，增强扫描未见强化。肝内外胆管、胆总管及胆囊未见异常。肝门区、门静脉未见异常。脾脏不大密度均匀；胰腺大小形态及密度未见异常。两肾及肾下腺区未见异常。膈脚后、腹腔干周围、腹主动脉旁未见肿大淋巴结。左侧第6后肋呈术后改变；余所见骨质未见破坏征象。</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>右肺</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>右胸膜,骨,左肺</t>
+          <t>左下中肺</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>左肺癌多发转移化疗后：左肺中叶肿物较前缩小。左侧胸壁、斜裂及水平裂结节，考虑肺癌胸膜转移，较前无明显改变。左侧胸腔少量积液。右上肺少许纤维条索。肝S6低密度灶，考虑囊肿。副脾。左肾小囊肿。腹膜后、左前膈角、纵隔多发小淋巴结。左肺癌多发转移化疗后复查：左肺中叶可见一不规则肿物影，边界欠清，大小约为21MM×32MM，密度尚均匀，可见分叶及毛刺，与水平裂及斜裂胸膜关系密切，可见牵拉，增强扫描后病灶可见强化，病灶外缘可见一长条致密灶。左侧胸壁胸膜、斜裂及水平裂胸膜可见多发结节增厚，最大结节约5MM×8MM，增强扫描后可见强化。右上肺可见少许条索影，余右肺未见实质性病变。左肺中叶支气管变窄，余气管及支气管分支通畅，未见明确肿物及受压变窄。左侧胸腔可见少量积液。左侧下上气管旁可见多个小淋巴结，最大短径约8MM，可见强化，两侧肺门未见肿大淋巴结。肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，肝S6可见一点状低密度灶，短径约2MM，未见强化，余肝实质未见异常密度及强化灶。肝内外胆管未见扩张，胆囊不大，壁不厚，内未见结石影。肝门区正常，门静脉所见正常，脾脏不大，密度均匀，前缘可见一结节，短径约8MM，密度及强化方式与脾脏类似。胰腺大小形态及密度未见异常。左肾可见一类圆形囊性低密度灶，边界清，短径约3MM，未见强化，右肾及两侧肾下腺区未见异常。腹膜后、左前膈角可见多个小淋巴结，最大短径约6MM，孤立散在，可见强化。</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>左肺中叶</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>21MM×32MM</t>
+          <t>肝脏多发低密度灶，考虑转移。脾脏多发结节及肿块，考虑转移。胰头后方淋巴结，考虑转移；余腹膜后小淋巴结，建议追查。左肾周小结节，考虑转移。右肾囊肿。肝脏右叶萎缩，肝实质内见多发低密度灶，肝实质内见多发低密度灶，较大约为22MM×22MM（IM61），增强后呈环形强化。肝内胆管及血管未见异常。脾脏体积增大，脾实质内见多发低密度灶，较大约42MM×32MM（IM66），增强后呈不均匀强化。左肾周脂肪囊内小结节灶，约为15MM×9MM（IM73）。胰头后方见肿大淋巴结，较大约为19MM×17MM（IM73），其与邻近胰头钩突及十二指肠分界不清。余腹膜后见小淋巴结，均小于10MM。未见腹水征象。右肾见低密度灶，约为14MM×12MM（IM72），增强后未见强化征象。胆囊、胰腺、左肾及两侧肾下腺未见异常。右侧胸腔内见大量积液。左肺见多发小结节。扫及诸骨未见破坏征象。</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>左侧胸壁,斜裂及水平裂,胸膜</t>
+          <t>肝脏,脾脏,胰头后方淋巴结,左肾周</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>肝胆胰肾输尿管肾下腺两侧颈部未见占位肝肋上斜切118MM/（－），剑上纵切60MM/2指，肝区回声较密尚均，门脉主干内径10MM，左支内径7MM，流速0.23MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。胆囊50MM×14MM，胆总管5MM。胰头15MM，胰体14MM，胰尾14MM。左肾83MM×40MM×41MM，肾盂分离（－），右肾105×50×52，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显占位。CDFI示肝胆胰肾血流正常。两侧颌上、两侧颈血管旁及两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
+          <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-30-21右房内径：36升主动脉：30室间隔厚度：8右室舒末内径：42右室缩末内径：26右室后壁厚度：8左室内径：17肺动脉内径：21Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰1.0A峰0.8三尖瓣：0.8主动脉瓣：1.4肺动脉瓣：1.0心功能测值：右室舒末容积EDV：78(ml)右室缩末容积ESV：30(ml)每搏量SV：48(ml)射血分数EF：61%各心腔内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围，二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>右肺上叶纵隔旁见一小结节灶,边缘分叶、毛糙,与邻近胸膜可见牵拉,截面积约1.5CM×0.6CM;增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结,大者短径约1.5CM,增强呈不均匀强化。右侧腋窝见增大淋巴结,短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉充盈尚可。扫描野肝实质内见多发低密度灶,边缘模糊,大者直径约2.1CM,呈边缘强化。另于肝实质内见小低密度灶,边界较清,直径不足0.5CM。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变,部分骨质周围可见软组织肿块形成,呈不均匀强化。1.结合临床,考虑右肺癌;右肺门及纵隔、右锁上淋巴结转移;较前变化不著;肝转移,较前略好转;骨转移,变化不著2.右侧腋窝淋巴结肿大3.肝小囊肿4.右侧肺动脉栓塞已基本显示不清</t>
+          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，较前(2014-11-19)相仿；2.右肺下叶磨玻璃结节，较前相仿；3.所示多发骨转移征象，较前部分较前进展，左侧第5肋病理性骨折。右肺下叶背段见类圆形肿块影，约2.15CM×1.9CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉斜裂胸膜，CT值约30HU。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.5CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧多根肋骨、胸骨柄及胸骨体内可见高密度影，多个上位胸椎椎体及附件骨质破坏。</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>右肺上叶</t>
+          <t>右肺下叶背段</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1.5CM×0.6CM</t>
+          <t>2.15CM×1.9CM</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>肝,骨,右肺门及纵隔,右锁上淋巴结</t>
+          <t>纵隔淋巴结,骨</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1.右肺上叶结节,纵隔内、右肺门多发肿大淋巴结,考虑右上肺癌伴肺门及纵隔淋巴结转移,较前片(2017-1-9)未见明显变化,请结合临床;2.支气管炎,肺气肿,双肺轻度间质性改变;3.右肺上叶粟粒灶,双肺下叶小结节,请随诊;4.肝囊肿;5.右侧肾上腺结节,考虑腺瘤可能,请随诊。双肺支气管血管束稍增强,双肺胸膜下小叶间隔增厚,呈网格状改变,双肺胸膜下可见多发类圆形透亮影。右肺上叶见高密度结节影,长径约1.54CM,边缘毛糙,分叶状,平扫CT值约-13HU,增强后三期CT值约37、12、13HU。右肺上叶前段(23)可见粟粒影;右肺下叶后基底段(60)、左肺下叶后基底段(44)可见结节影,大者径约0.5CM;所示气管支气管影通畅。纵隔、右肺门见多发肿大淋巴结影,大者短径约3.4CM,平扫CT值约40HU,增强后均匀强化,三期CT值约74、66、68HU。两胸腔未见积液征象。心脏不大,主动脉管壁可见弧形致密影。所示肝内见多发类圆形低密度影,增强后未见强化。右侧肾上腺见低密度结节影,径约1.9CM,平扫CT值约19HU,增强后三期CT值约38、58、35HU。</t>
+          <t>肺淋巴下皮癌化疗后，与2014-7-16片对比：两肺多发结节病钙化灶，考虑转移瘤，大致同前；两锁下、纵隔及两肺门多发淋巴结肿大，考虑转移瘤，较前未见明显变化；甲状腺两叶增大并多发结节，考虑结节性甲状腺肿；肝S6、8低密度灶，考虑小囊肿；腹主动脉旁多个淋巴结，性质待定；左肾结石，两肾囊肿；多发骨质致密影，大致同前。肺淋巴下皮癌化疗后，与2014-7-16片对比：两肺可见多发结节影，大小约2MM~9MM，部分边界欠清，密度欠均匀，部分内可见钙化影，与前片对比，未见明显变化。两锁下、胸骨下窝、血管前间隙、下、上气管旁、主动脉旁、隆突上及两肺门可见多个肿大淋巴结，边界不清，部分融合，最大约36MM×37MM，增强见不均匀强化。病灶包绕气管，包绕右侧头臂静脉，血管管腔变扁，与前片对比，病灶大小较前未见明显变化，左上气管旁病灶内见坏死。气管呈支架置入术后改变。两侧胸腔未见积液。两侧胸膜无增厚、粘连。甲状腺两叶体积增大，密度不均匀，内见多发低密度结节，边界不清，最大约19MM×20MM，密度不均匀，内见钙化灶，增强扫描可见轻度不均匀强化，强化程度低于正常甲状腺组织。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S6、8见一类圆形低密度灶，直径约5MM及2MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾盂可见数个结节样致密影，最大直径约11MM。两肾见数个类圆形低密度灶，最大直径约9MM，左侧肾盂见高密度结石影。两肾下腺未见异常。膈脚后、腹主动脉旁见多发淋巴结，短径约4~9MM。膀胱充盈良好，境界清楚。精囊大小、形态正常，密度均匀，膀胱精囊角存在。前列腺大小、形态正常，密度均匀。两侧髂血管旁、腹股沟未见肿大淋巴结。胸骨、多个胸椎、腰椎、骶椎、肋骨及两侧髂骨、左侧耻骨见成骨性骨质破坏，较前未见明显变化。</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>右肺上叶</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>1.54CM</t>
+          <t>肺</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>肺门及纵隔淋巴结</t>
+          <t>两肺,两锁下,纵隔及两肺门多发淋巴结</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>左侧乳腺退化不全；左侧腋窝见淋巴结肝肋上斜切115MM/（－），剑上纵切56MM/2指，肝区回声较密尚均，门脉主干内径10MM。脾肋间切30MM/（－）。胆囊59MM×21MM，胆总管4MM。胰头14MM，胰体10MM，胰尾11MM。左肾96MM×40MM×41MM，肾盂分离（－），右肾90MM×42MM×45MM，肾盂分离（－）。两侧输尿管未见明显扩张。CDFI肝胆胰肾血流正常。左侧乳腺导管增多，腺体结构尚正常，未见明显肿块回声，CDFI示其内未见异常彩色血流。右侧乳腺未显示。左侧腋窝见8MM×4MM低回声区，边界清，CDFI未见明显彩色血流。右侧腋窝未见明显肿块，CDFI示血流分布尚正常。</t>
+          <t>右侧肾上腺区见团块影，边缘清晰，大小约7.3CM×6.4CM，CT值约为15-31HU，右肾受压。肝左内叶见一类圆形低密度影，径约2.6CM，边界略模糊，CT值25HU。右肾实质内见一类圆形低密度影，径约0.85CM，CT值15HU。胆囊底部见高密度影。脾不、胰腺大小形态及密度正常。腹膜后未见肿大淋巴结。食道下段管壁增厚，管腔变窄，最厚处约2.2CM，周围见增大淋巴结影，径约2.29CM。1、对比2014.05.05上腹CT片：食管下段癌伴周围淋巴结增大较前相仿，右肾上腺区肿块较前增大，右肾囊肿较前相仿；2、肝左内叶圆形低密度影，转移可能性大；3、胆囊底部改变，伪影可能大。</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>食管下段</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2.2CM</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>肝左内叶</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为6.6CM×3.0CM,平扫CT值约45HU。右肺上叶近水平裂见一结节。双肺纵隔旁可见多发条片状模糊影。主动脉弓旁、纵隔及左肺门多发淋巴结增大,大者短径约3.8CM,病灶互相融合。两胸腔无积液征象,双侧胸膜略增厚。心脏大血管形态未见异常,心包增厚。1.左肺上叶纵隔旁型肺癌伴左肺门及纵隔淋巴结转移,较2012-03-15CT进展;2.双肺纵隔旁放射性肺炎;双侧胸膜略厚,心包增厚;3.右肺上叶小结节,较前相仿。</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>左肺上叶,左肺上叶纵隔旁型</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>6.6CM×3.0CM</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>左肺门及纵隔淋巴结</t>
+          <t>右肺下叶背段见类圆形肿块影，径约.56CM，边缘毛糙，可见血管进入，牵拉邻近胸膜，其内密度不均，平扫CT值约32HU，增强扫描可见轻度强化。右下肺散在斑片影。右肺门及纵隔内可见多发肿大淋巴结影，大者短径约1.95CM。两胸腔无积液征象。心脏大血管未见异常。右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移；右下肺散在炎症。</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>乳腺癌综合治疗后化疗后复查：左侧乳腺内侧小结节，较前变化不明显。左肺上叶近肺门区病变，较前变化不明显。左侧胸腔少量积液，较前稍减少。左肺下叶片状病变，范围较前稍缩小。肝脏多发转移瘤，较前缩小，部分病灶已显示不清。胸腰椎椎体多发稍高密度灶，较前变化不明显，考虑骨转移瘤可能性大。乳腺癌综合治疗后化疗后复查，与2015-4-9片对比：右侧乳腺术后缺失，右侧胸壁未见异常密度灶。左侧乳腺内侧缘见一小结节，直径约4MM，较前变化不明显。左侧腋窝见数个小淋巴结，较大者约8MM×8MM，大致同前。两侧锁骨下区及右侧腋窝未见肿大淋巴结。左肺上叶近肺门区软组织增多，边界不清，准确范围难以测量，病灶范围较前变化不明显。左肺下叶近水平裂见片状稍高密度病灶，边界不清，范围较前稍缩小。右肺下叶前段见片状稍高密度灶，边界清，较前未见明显变化。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸腔见少量积液，较前减少。右侧胸腔未见积液，两侧胸膜未见增厚。肝脏各叶比例在正常范围以内，其外形轮廓光整，肝内见弥漫分布低密度病灶，边界不清，周围见不均匀轻度环形强化，最大者直径约9MM，大部分较前缩小，部分病灶已显示不清。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾稍大，密度均匀。胰腺大小、形态正常，密度均匀。两侧肾下腺未见异常。扫描范围胸腰椎椎体见多发边界不清的稍高密度灶，局部骨小梁模糊，较前未见明显变化。</t>
+          <t>左上肺占位性病变，考虑肺癌可能性大；左上肺节段性不张；两侧肺气肿；两肺条索及斑片模糊影，考虑炎症并间质纤维化改变；左侧胸膜多发转移瘤；左侧中量胸腔积液；纵隔及左肺门淋巴结肿大，考虑转移；肝S1、4、6多发结节，考虑转移瘤可能性大；肝内多发囊肿；两肾小囊肿；腹腔干周围淋巴结肿大，考虑转移。两肺纹理紊乱，左肺上叶纵隔旁见一软组织肿块，约35MM×36MM，边界欠清，密度欠均，增强扫描可见不均匀明显强化。左上肺体积缩小，肺纹理聚集，呈斑片状稍高密度影，其内见支气管气相，增强扫描可见强化。余肺内见弥漫囊薄壁透亮影，左下肺、右下肺上舌叶及右上肺见斑片及条索状模糊影，部分呈网格状，增强扫描未见明显实性强化灶。气管及支气管分支通畅。左上气管旁、左肺门见多发淋巴结，大者直径约22MM，界清，增强扫描强化较明显。左侧见中量胸腔积液。左前、侧及左上小胸壁胸膜见多发结节状稍高密度影，大者约22MM×26MM，边界较清，增强扫描可见明显强化。右侧未见明显胸腔积液及胸膜增厚。肝脏形态、各叶比例未见明显异常，轮廓光整，肝S1、4、6内见多发类结节状稍低密度影，大者直径约19MM，边界较清，增强扫描轻度强化。肝内另见多发囊状低密度灶，界清，大者直径约24MM，增强扫描无明显强化。肝内外胆管无扩张，胆囊不大，未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见小囊状低密度灶，界清，大者直径约5MM，无明显强化。两肾下腺所见正常。腹腔干周围见数个淋巴结，大者直径约13MM，密度不均，增强扫描不均匀强化。所示骨质未见明显破坏征象。</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>右侧乳腺</t>
+          <t>左肺上叶</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>35MM×36MM</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>肝脏,胸腰椎椎体,骨</t>
+          <t>左侧胸膜,纵隔及左肺门淋巴结,肝S1、4、6多发结节,腹腔干周围淋巴结</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>右肺尖示小片状不规则软组织密度影,截面约1.3CM×0.8CM(肺窗),边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈不均匀强化,其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊,并可见少许类结节灶,大者直径约1.1CM。另右肺近斜裂胸膜处可见片状密度增高影,形态不规则,内见支气管充气征。双侧叶间胸膜示增厚,左侧叶间胸膜及左肺下叶见小类结节灶,大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶,长径约0.6CM,边缘分叶可见少许毛刺,增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约0.7CM,部分内可见钙化。1.结合临床,右肺癌治疗后,较前(2016-3-24)变化不著;双肺转移较前进展2.结合临床,左乳癌治疗后,较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结,变化不著4.右肺局限性炎症及纤维炎性变;双侧叶间胸膜增厚,均变化不著</t>
+          <t>左肺下叶见不规则团块影，呈浅分叶，与邻近胸膜关系密切，较大截面约5.2CM×4.5CM，其内密度欠均匀，CT值约16HU。右肺上叶(HR178)、左肺上叶(169)见高密度结节影，边界清晰，大者径约0.7CM。两肺支气管血管束模糊，双肺另见多发条索影。两肺门区未见异常。纵隔内未见多发小淋巴结，大者短径约0.75CM。两胸腔无积液征象。心脏大血管未见异常。双侧甲状腺密度不均匀减低，甲状腺左叶见结节样致密影。1.左肺下叶周围型肺癌，双肺上叶小结节，转移不除外，请结合临床、详查；2.支气管炎征象，双肺多发条索灶；3.所示双侧甲状腺病变，请结合相关检查。</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>右肺尖,左乳</t>
+          <t>左肺下叶</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1.3CM×0.8CM,0.6CM</t>
+          <t>5.2CM×4.5CM</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>双肺</t>
+          <t>双肺上叶</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>右肺下叶尖后段病灶，考虑周围型肺癌可能性大。甲状腺两侧叶多发病灶，考虑结节性甲状腺肿。肝S2、S6低密度灶，考虑囊肿。两肺纹理清晰，右肺下叶尖后段紧邻纵隔旁见一片状高密度影，边缘毛糙，可见分叶及毛刺，牵拉邻近右下肺胸膜，范围约18MM×12MM，增强扫描不均匀轻度强化，余肺内未见明显病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。心包未见积液。扫描层面甲状腺两侧叶见多个低密度灶，边界欠清，较大者约11MM×10MM，密度不均匀，增强扫描轻度强化。扫描层面肝S2、S6见数个类圆形低密度灶，边界尚清，较大者直径约7MM，增强扫描未见明显强化。扫描范围内骨质未见破坏征象。</t>
+          <t>与2013-05-22前片对比：1.左乳腺癌；双侧腋窝淋巴结转移，较前进展；2.左肺上叶磨玻璃密度影，较前略大；3.右肺粟粒灶，较前相仿。请结合临床随诊。左肺上叶前段可见磨玻璃密度影，最大截面大小约1.1CM×1.05CM。右肺见粟粒影。两肺纹理尚清。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大，大血管壁可见钙化影。所示左侧乳腺可见团块影，最大截面大小约8.91CM×5.42CM，其内密度欠均，邻近左乳皮肤增厚。双侧腋窝淋巴结增大，以左侧为著，较大者径约2.0CM。</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>右肺下叶尖后段</t>
+          <t>左乳腺</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>18MM×12MM</t>
+          <t>8.91CM×5.42CM</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>双侧腋窝淋巴结</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>C7-T4椎体转移瘤，T1椎体病理性骨折可能大，请结合临床、对比原片。胸椎退变。T10-11水平黄韧带肥厚。T9-11水平椎管内局部血管扭曲强化，请结合临床。胸椎生理曲度存在，部分椎体缘骨质增生变尖，扫描范围所见C7-T4椎体及部分椎弓、棘突信号不均，增强扫描后见片状明显强化，T1椎体变扁，C7-T1水平棘突周围软组织可见结节状、条片状长T2信号，局部蔓延至C7-T1水平椎管内硬膜外，增强扫描明显强化。部分椎体可见斑点状、小片状高信号影（脂肪沉积）。椎间盘未见突出及膨出信号影，T10-11水平黄韧带肥厚，压迫硬膜囊。增强扫描胸髓未见异常信号影，T9-11水平椎管内硬膜囊上扭曲强化血管影。</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>C7-T4椎体</t>
+          <t>左肺癌化疗后，与2013-5-21日片对比：左肺下叶后段病灶，较前无大变化。两肺多发结节，部分较前增大。左锁下、纵隔、左肺门淋巴结，较前变化不大。左侧肋胸膜局部增厚并强化，较前变化不大。肝内数个囊肿。胸骨、多个椎体及右侧第2、第11后肋骨质改变，较前变化不大。左肺癌化疗后，与2013-5-21日片对比：左肺下叶后段见一类结节灶，边界欠清，最大层面大小约14MM×12MM，呈分叶状，密度不均匀，增强扫描不均匀强化，与邻近侧胸壁胸膜牵拉、粘连，与前片对比稍缩小。两肺散在数个结节、类结节影，边界部分清楚，部分不清，最大者直径约16MM。气管及支气管分支未见明显狭窄及异常扩张。左锁下、左下气管旁、两上气管旁、主肺动脉窗、隆突上、两肺门见多枚淋巴结，最大者短径约7MM，增强扫描不均匀强化。两侧胸腔未见积液。左侧肋胸膜不均匀增厚，增强扫描较明显强化，较前变化不大，右侧胸膜无增厚。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，肝S2、S4、S8见多个类圆形低密度影，边界尚清，最大者约12MM×12MM，增强扫描未见明显强化。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾及两侧肾下腺未见明显异常。腹膜后未见肿大淋巴结胸骨、胸1、5、12椎体、腰1椎体、右侧第2后肋、右侧第11后肋骨质密度不均匀，见点状、小片状密度增高影，边界尚清。</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>左肺下叶后段</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>14MM×12MM</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>左肺门、纵隔、左锁上示小淋巴结,大者短径约0.6CM。双颈部未见明显增大淋巴结。左肺下叶胸椎旁示类结节灶,边缘模糊,有强化,短径约0.4CM。肝胰脾右肾上腺双肾形态、密度未见明显异常。胆囊壁厚,有强化。左肾上腺饱满局部呈类结节状,有强化。左肾囊肿。T12椎体局部骨质密度呈结节状增高。1.结合临床,左肺癌并左肺门淋巴结转移治疗后,纵隔、左锁上淋巴结肿大;左肾上腺类结节灶,不除外转移;T12椎体骨质异常,考虑骨转移2.胆囊炎,左肾囊肿3.颈部未见明显异常</t>
+          <t>左侧乳腺癌术后局部复发2程化疗后，对比2012.4.24CT：左侧胸壁多发结节及团块，左侧胸壁皮肤不均匀增厚，较前明显好转。左锁上下区、右侧腋窝、纵膈、双肺门、右前膈角区、膈脚后、胃左血管旁及腹膜后多发肿大淋巴结，考虑转移瘤，均较前缩小。双侧胸腔积液，较前吸收、减少；双下肺组织膨胀不全。肝脏未见明确病变。肝左叶肝内胆管结石；胆囊结石。左侧乳腺癌术后局部复发2程化疗后，对比2012.4.24CT：左侧乳腺癌术后，左侧乳腺缺失，左侧胸壁见多发结节及团块影，边界不清楚，密度不均匀，最大范围约20MM×32MM，增强后不均匀强化，左侧局部皮肤不均匀增厚，皮下索条影增多，边界模糊。左侧锁骨上下区、右侧腋窝见多发肿大淋巴结，可见融合坏死，边界欠清，最大约21MM×25MM，增强后不均匀强化，左侧锁骨下动脉、静脉被包绕，边界欠清。右侧乳腺腺体结构稍乱，呈团片影，边界欠清，未见明确肿物。双肺纹理粗多，双侧胸腔见少量积液，双下肺组织受压膨胀不全。最上纵膈、血管前、双上下气管旁、主肺动脉窗、主动脉弓旁、隆突下及双肺门、右前膈角区见多发肿大淋巴结，可见融合，最大约19MM×32MM，边界欠清。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝左叶肝内胆管见散在高密度影，余肝内胆管正常，其内未见结石影，胆囊大小正常，其内见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁见多发肿大淋巴结，最大约15MM×22MM，增强后较明显强化。扫描所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>左肺下叶</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>0.4CM</t>
+          <t>左侧乳腺</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>左肺门淋巴结,左肾上腺,T12椎体</t>
+          <t>左锁上下区,右侧腋窝,纵膈,双肺门,右前膈角区,膈脚后,胃左血管旁及腹膜后多发肿大淋巴结</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>右房增大伴右室舒张功能减退常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,34,20-37,右房内径,42,19-40,右室舒张末内径,46,35-56,右室收缩末内径,28,23-35,室间隔厚度,11,6-11,右室后壁厚度,10,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约38MMHg,。,三、,右心功能测定：,FS:40%;LVEF:70%；二尖瓣血流图示E/A,&amp;lt;,1;DT:170MMs,四、组织多普勒测定：,DTI示S波峰值:8.7CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>SPECT/CT显像结合全身骨平面显像：右侧髂骨不伴显像剂浓聚的高密度灶，考虑为良性病变可能，请短期随访；所示胸腰椎及两侧骶髂关节退行性变。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集中上段胸肋至骶髂关节断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，胸椎及左侧骶髂部显像剂略浓聚；余处骨骼未见明显显像剂异常分布。　　SPECT/CT融合图像示：所示中上段胸椎及腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节骨质增生，伴显像剂略浓聚；所示两侧肋骨在位，走行正常；两侧骶髂关节在位，组成骨缘骨质增生，伴显像剂略浓聚，左侧略显著；右侧髂骨见高密度灶，不伴显像剂异常浓聚；余所示骨骼未见明显骨质吸收破坏征象或显像剂异常分布。</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>两肺多发转移。两侧锁骨下、纵隔、左侧膈下及扫及腹部多发肿大淋巴结，考虑转移。左侧胸腔积液，胸膜转移不除外。左乳术后、心脏术后改变。与2011-02-22胸部CT比较：两肺各叶见散在多发类圆形结节及肿块，边缘较清晰，较大约3.3CM×2.0CM（Im29）。两侧锁骨下区、纵隔、左侧膈下及扫及腹腔内见多发肿大淋巴结，如右侧锁骨下较大约3.0CM×1.6CM（Im5）；纵隔内较大约1.4CM×1.4CM（Im12）。两侧肺门饱满，平扫与血管结构无法分辨。左侧胸膜增厚，可见少量胸腔积液；右侧未见胸水征象。心脏体积增大，右房室间见金属影。扫描所及诸骨未见骨质破坏征象。左乳术后，左乳腺体结构紊乱，原腺体后方类圆形结节现未见显示，局部见不规则片絮状高密度影（IM30），边缘模糊，结合乳腺相关检查。</t>
+          <t>1.左肺下叶肺癌，较前(2017-1-18)好转；双肺、左侧胸膜转移，变化不著；左侧胸膜增厚，变化不著；骨转移，较前变化不著；右侧第6后肋骨质密度增高，变化不著2.脂肪肝；肝内小结节，变化不著左肺下叶后基底段示一不规则肿块影，边缘分叶状，周围可见粗长毛刺，局部与纵隔胸膜关系密切，可见条索影同肺门相连，外周肺野可见纤维条索状密度增高影，呈明显不均匀强化，大小约2.0CM×1.3CM，左侧背侧胸膜可见轻度增厚；双肺野及左侧胸膜区可见多个结节灶，大者边缘毛糙，位于右肺下叶及肺门区，可见强化，直径约1.3CM。右肺门示淋巴结，直径约为1.0CM。肝脏密度普遍性减低，未见异常密度灶。肝左叶见一高密度结节灶，边缘较清晰。胆胰脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。多个胸腰椎体、右侧肱骨见成骨性骨改变。右侧第6后肋局部骨质密度增高。</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>左肺下叶后基底段</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2.0CM×1.3CM</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>双肺,左侧胸膜,骨</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>左乳外侧局部结构紊乱,未见具体结节及异常强化灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见短径不足0.5CM小淋巴结。宫颈体积稍大,密度不均,增强后强化不均。宫体体积不规则增大,见多发软组织结节灶,增强后呈高低不均强化。左侧附件略饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体示密度不均。左侧坐骨局限性骨质密度减低。1.结合临床,左乳癌,宫颈转移,骨转移2.左肺下叶类结节灶,左肺炎症3.子宫肌瘤4.左侧附件略饱满5.双侧腋窝、腹腔腹膜后、盆腔小淋巴结以上请结合临床</t>
+          <t>右乳癌化疗后复查，对比2017-11-26PET/CT：右侧乳腺上象限见多个不规则肿块、结节，部分互相融合，较大者大小约35MM×21MM，病灶累及右侧乳头及乳晕处皮肤，乳腺腺体后脂肪间隙模糊，增强扫描不均匀明显强化，较前缩小。左乳腺实质内未见异常密度及异常强化灶。右侧腋窝及右侧内乳区见多发肿大淋巴结，边界欠清，最大者约8MM×7MM，增强扫描明显强化，较前明显缩小。双侧锁骨上区及左侧腋窝未见明显肿大淋巴结。双肺纹理清晰，右肺中叶内侧段及左肺上叶下舌段见少许斑片影、条索影，边界不清，余肺野内未见明显实质性病变。气管及支气管分支通畅。余纵膈、双肺门未见肿大淋巴结。双侧胸腔未见积液。双侧胸膜稍增厚、粘连，未见强化。肝脏大小、形态未见异常，各叶比例在正常范围内。肝内见多发稍低密度结节、肿块，边界不清，大者位于肝S7/8，最大层面范围约36MM×28MM，密度不均匀，内见坏死，邻近肝包膜凹陷，增强扫描轻度强化，较前明显缩小。肝内外胆管未见扩张，其内未见结石影，胆囊内见稍高密度结石，较大者直径约7MM，壁不厚。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀，脾门见一结节影，长径约11MM，密度及强化方式与脾相近。右肾见一小囊性灶，边界清，较大者长径约6MM，未见强化。胰腺、左肾及双肾上腺未见明确病变。胃左动脉旁、腹主动脉旁见多发淋巴结，边界欠清，较大者大小约11MM×8MM，明显强化，胃左动脉旁淋巴结稍增大，余部分淋巴结较前稍缩小。甲状腺双叶及峡部形态正常，右叶中部见一低密度结节，边界清，直径约4MM，轻度强化。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、双侧腮腺大小、形态正常，密度均匀。双颈II~IV区见数个淋巴结，大者约为8MM×6MM，均匀明显强化，较前相仿。左侧第2肋、右侧第4肋、T6、7、12、L2椎体及部分附件见不规则骨质密度减低，边界不清，右侧第4肋腋段骨皮质不连续，周围见骨痂形成。右侧肱骨头、L4左侧附件见类结节状高密度影。右乳癌化疗后复查，对比2017-11-26PET/CT：右乳多发肿块、结节，符合乳腺癌治疗后改变，较前缩小。右腋窝及右内乳区肿大淋巴结，考虑转移，较前明显缩小。肝内多发稍低密度结节、肿块，考虑转移瘤，较前明显缩小。胃左动脉旁、腹主动脉旁淋巴结，部分较前稍增大，考虑转移可能性大。全身多发骨质破坏，考虑转移瘤。右侧第4肋腋段病理性骨折可能。胆囊结石。右肾囊肿。副脾。右肺中叶及左肺上叶斑片影、条索影，考虑慢性炎症可能。双侧胸膜稍增厚。甲状腺右叶结节，考虑结节性甲状腺肿。双颈II~IV区淋巴结同前，考虑反应性淋巴结。</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>左乳</t>
+          <t>右乳</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>35MM×21MM</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>宫颈</t>
+          <t>胃左动脉旁淋巴结,右腋窝及右内乳区肿大淋巴结,肝,腹主动脉旁淋巴结,骨</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>左下肺癌化疗后:1、左肺门高代谢占位,与左肺门及纵隔7区增大淋巴结分界不清,符合肺癌表现,病变仍有活性。纵隔3P、4L/R、7区及左侧肺门多发淋巴结转移,左右肺动脉主干受挤压并狭窄。双肺上叶散在微小结节,纵隔5、8区小淋巴结,未见高代谢,建议随访。心包积液。2、左肺下叶胸膜下小结节,伴轻度代谢,倾向炎性,建议对比老片或定期复查。双肺气肿、肺大泡、左肺下叶及右肺中叶索条、右肺上叶钙化结节、双侧胸膜轻度增厚伴钙化。3、甲状腺右叶稍低密度结节,未见高代谢,倾向良性,请结合B超。4、骨髓代谢弥漫性增高,首先考虑骨髓反应性增殖,随访。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行胸部PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左下肺癌化疗后:左肺下叶外基底段胸膜下见一不规则小结节,大小约1.2CM×0.8CM,边缘见短索条牵拉邻近胸膜,伴轻度摄取,最大SUV1.45。左肺门见不规则放射性浓聚占位灶,与左肺门及纵隔7区增大浓聚淋巴结分界不清,与左肺门大血管关系密切,较大层面约2.9CM×2.4CM,最大SUV约11.77。双肺上叶另见散在微小结节,未见高摄取,右肺上叶胸膜下见一钙化结节。左肺下叶及右肺中叶另见高密度索条,未见明确高摄取。双肺另见多发无壁透亮区,部分融合。双侧胸膜轻度增厚伴钙化,胸水征阴性。纵隔3P、4L/R、7区及左侧肺门淋巴结肿大,部分融合,挤压左右肺动脉主干并致狭窄,纵隔7区融合淋巴结较大层面约4.9CM×4.3CM,均伴放射性浓聚,最大SUV约10.86-13.31。纵隔5、8区另见少许小淋巴结,较大者约1.2CM×0.4CM,均未见明确高摄取。心肌显影,心包见少量积液。甲状腺两叶不大,右叶后侧实质内见一稍低密度结节,约1.1CM×0.9CM,未见明确高摄取,左叶腺实质内未见异常放射性增高灶。双锁骨上区未见明显异常淋巴结浓聚。胃充盈不良,胃壁显影如常。扫及肝脏、胆囊、胰腺、脾脏、双肾及双侧肾上腺未见异常占位及放射性浓聚灶。扫及上腹腹腔内及腹膜后未见明显肿大或浓聚淋巴结。扫及上腹未见腹水。骨髓放射性分布弥漫性增高。</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>左下肺</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>纵隔3P,4L/R,7区,左侧肺门淋巴结</t>
+          <t>右下肺叶切除术后：右侧支气管残端上缘软组织灶，术后改变？复发？建议密切随诊。右侧胸腔少量积气、积液，部分为包裹性；右侧胸膜稍增厚，考虑术后反应性改变可能，建议复查。左肺及右肺上叶少许纤维增殖灶。左肺中叶、两肺上叶钙化灶。右侧锁骨下窝、纵隔散在小淋巴结，考虑反应性淋巴结可能，建议复查。肝S3囊肿。右下肺叶切除术后：右肺下叶术后缺如，右肺下叶支气管残端见条状金属灶，残端上缘见团块灶，边界稍模糊，大小约35MM×15MM，密度尚均匀，增强后较明显强化。右侧胸腔见少量积气、积液，部分为包裹性；右侧胸膜稍增厚，未见明显结节；左肺及右肺上叶见少许条索灶，边界模糊；左肺中叶、两肺上叶见颗粒状高密度钙化灶，边界清；气管及其余支气管分支通畅。右侧锁骨下、左侧下上气管旁、右上气管旁、主肺动脉窗、隆突上、左肺门见散在淋巴结，边界清，密度均匀，较大者短径约6MM。左侧胸腔未见积液。左侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S3见囊性灶，界清，直径4MM，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第7肋呈术后改变，余扫描所见骨质未见破坏征象。</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>考虑为右肺下叶前基底段周围型MT伴右侧肺门淋巴结转移可能,纵隔气管隆突下淋巴结转移不除外,请结合临床;两肺胸膜旁慢性炎性结节可能,请随访;两肺轻度气肿;肝脏多发囊肿;胆囊结石;左肾小囊肿。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。筛窦、双侧蝶窦和上颌窦粘膜增厚,考虑为炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,密度欠均匀。胸部PET/CT图像示右肺下叶前基底段见大小约为20.0MM×15.5MM、糖代谢增高的软组织结节,平均CT值约为17.4HU,最大SUV值约为7.1,边缘见细小毛刺,牵拉毗邻斜裂;两肺上叶和右肺下叶胸膜旁见数枚小结节,较大者位于右肺下叶前基底段胸膜旁,形态不规则,长径约为5.5MM,最大SUV值约为0.6;两肺另见少许透亮无纹理区;右侧肺门见数枚糖代谢增高的淋巴结,糖代谢较高者大小约为10.0MM×9.0MM,平均CT值约为34.2HU,最大SUV值约为6.5;纵隔气管隆突下右主支气管旁见大小约为10.0MM×6.6MM、糖代谢增高的淋巴结,平均CT值约为39.5HU,最大SUV值约为4.5;左肺门无殊;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显糖代谢异常增高和肿大淋巴结。腹部PET/CT图像示肝脏表面光整,各叶比例匀称,肝脏实质内见数枚囊性灶,较大者位于右后下叶,大小约为15.5MM×11.0MM,平均CT值约为16.0HU,最大SUV值约为1.3;肝内外胆管无扩张;胆囊内见致密小结节;左肾上极见直径约为6.0MM囊性低密度灶,平均CT值约为10.3HU,最大SUV值约为1.5;胃壁呈生理性糖代谢增强;肠道内见显像剂生理性积聚;脾脏、胰、双肾上腺、右肾和双输尿管未见明显糖代谢异常增高和占位;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道内见显像剂生理性积聚;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺饱满伴钙化;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。平扫骨窗示诸骨未见明显骨质破坏吸收征象;脊椎椎骨缘和小关节骨质增生;脊柱侧弯。</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>右肺下叶前基底段</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>20.0MM×15.5MM</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>右侧肺门淋巴结</t>
+          <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   28MM       AO     28MM        MV E 0.37MM/s     EF 62%LV   51MM       IVS     8MM           A 0.42MM/s     FS 34% RA   27MM       LVPW    8MMRV   18MM       PA     23MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>左肺下叶可见结节影,边缘光滑,大小约12MM×12MM(IM36)。左肺下叶后基底段胸膜下可见结节影,范围约14MM×9MM(IM43),边缘可见毛刺及分叶,邻近胸膜受牵拉。右肺下叶可见多发小结节影(IM44、45),较大约6MM(IM44)。双肺上叶胸膜下可见多发囊状透光区。余肺内透亮度均匀,未见结节或实变影。纵隔4L、6、左肺门可见多发肿大淋巴结,较大约38MM×26MM(IM28)。右肺门、锁骨上区未见肿大淋巴结。双侧胸膜光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。肝实质内可见多发小圆形低密度结节影。左肺下叶结节,考虑恶性,周围型肺癌可能大。左肺多发转移;右肺转移待排,随诊。纵隔及左肺门多发淋巴结转移。双肺上叶间隔旁肺气肿。肝脏多发低密度结节影,请结合腹部检查。</t>
+          <t>右乳癌术后化疗后，肝右左叶交界处病灶及左肾下腺结节，肝左后叶小病灶，较前片12-12-29相仿；两肾小囊肿。双侧少量胸水。肝右左叶交界处见不规则异常信号灶，大小约26.2MM×32.8MM，T1WI为低信号，T2WI为等略高信号，动脉期异常不均匀强化，门脉期呈边缘持续强化，邻近肝内胆管轻度扩张，病灶与胆囊分界不清，另见肝左后叶一小点状T2高T1低持续强化灶，大小约6MM，肝内血管尚可。脾脏饱满，信号尚均。胰腺无殊。两肾见小囊性灶。左肾下腺见一结节异常信号灶，大小约7.5MM×12.4MM，不均匀强化。后腹膜未见肿大淋巴結，腹腔未见明确积液。双侧胸腔见少量弧形液性信号灶。</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>左肺下叶</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>14MM×9MM</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>左肺,右肺,纵隔及左肺门多发淋巴结</t>
+          <t>右乳</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1、右肺上叶占位,考虑肺癌;2、右侧锁骨上及纵隔内淋巴结转移;3、右肺上叶结节,考虑转移;4、右肺中叶钙化灶;5、左肺多发索条灶。右肺上叶近纵隔旁可见软组织密度影,大小为7.64CM×6.08CM,CT值为36HU,边界欠清,右肺上叶支气管未见异常,纵隔内气管及食管受压变窄。增强后三期CT值为50HU、64HU、60HU。右肺尖及上叶后段可见一结节状高密度影,大者直径为1.1CM。右肺中叶可见点状钙化灶。左肺内可见多发纤维索条影。左侧胸膜增厚,部分可见钙化斑。两肺及肺门区未见异常密度影。两胸腔无积液征象。各大血管边界清晰。右侧锁骨上及纵隔内可见多个淋巴结,最大者位于锁骨上,直径为3.51CM。</t>
+          <t>左肺癌治疗后，左肺下叶前段、左肺门病变，较前缩小。左肺多发散在片状、斑片状病变，考虑炎症，较前吸收、减少。两肺多发肺大泡，两肺散在纤维增殖灶。纵隔淋巴结大致同前；左肺门淋巴结，较前缩小。左侧胸腔积液及心包积液较前明显减少。肝多发囊肿。两肾囊肿。增强动脉期肝S6斑片状明显强化灶，考虑异常灌注可能性大，血管瘤待排。T10椎体右后缘稍致密，较前相仿。盆腔未见明显异常。左肺癌治疗后，与2017.01.17片对比：左肺下叶前段见一不规则形密度增高影，密度不均匀，边界欠清，范围约23MM×29MM(肺窗显示)，与左侧水平裂胸膜关系密切，增强扫描不均匀强化，较前缩小。左肺门见片状软组织密度灶包绕，边界不清，部分与左肺下叶前段病变相连，范围约26MM×20MM，增强扫描不均匀轻度强化，较前缩小。左肺另见多发散在片状、斑片状密度增高影，边界模糊，较前减少。两肺见多发大小不等薄壁无肺纹理区及散在条索灶，以左肺下叶为著，较前相仿。两上气管旁、主肺动脉窗、隆突上、左肺门可见多个淋巴结，部分融合，大者位于左肺门，短径约11MM，边界不清楚，密度欠均匀，增强扫描不均匀轻度强化，左肺门淋巴结较前稍缩小，纵隔淋巴结较前相仿。两侧锁骨下窝小淋巴结，大者短径约6MM，较前相仿。左侧胸腔见少量积液，较前明显减少，右侧胸腔未见积液。左侧胸膜增厚、粘连。心包积液较前明显减少。肝脏形态正常，各叶比例在正常范围以内，平扫肝实质内不均匀减低，低于正常脾脏密度；肝S1、2、3、4、5、6见多个类圆形低密度灶，界清，最大者约26MM×20MM，增强扫描未见强化，大致同前；动脉期肝S6见斑片状明显强化灶，门脉期及平衡期呈稍高密度改变。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多个类圆形低密度灶，界清，大者约21MM×20MM，增强扫描未见强化。两肾下腺未见明显异常。膈脚后未见肿大淋巴结。腹膜后未见明显肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度均匀。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。T10椎体右后缘见片状致密灶，边界欠清晰，较前相仿。</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>右肺上叶</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>7.64CM×6.08CM</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>纵隔内淋巴结,右肺上叶</t>
+          <t>左肺</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>直肠癌术后肺转移、肝转移综合治疗后，与2015-12-2片对比：左下肺病灶，较前增大，左中肺及上肺多发病灶，较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化。直肠癌术后肺转移、肝转移综合治疗后，与2015-12-02日片对比：左肺下叶见一结节灶，大小约25MM×26MM，形态不规则，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前增大。左肺上叶前基底段见一结节，大小约17MM×15MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>直肠</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>左下肺,左中肺及上肺,肝S4,S7</t>
+          <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，39，20-37MM，右房内径，30，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，7，6-11MM，右室后壁厚度，8，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;gt；，1；DT：，176，ms，DTI示S波峰值：，7.9，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，增宽为39MM，，升主动脉，增宽为41MM，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>左肺门区及左肺下叶可见巨大团块影,最大截面径约8.41CM,CT值约31HU,左肺下叶支气管截断,肿块周围肺组织见多发斑片影,呈网格状改变,增强扫描肿块不均匀强化,内可见多发血管影,三期CT值约:39-78HU、36-63HU、41-67HU,并见左下肺静脉截断。右肺上叶可见淡片影,边界模糊,双肺上叶、右肺中叶可见多发粟粒影。左上肺钙化灶。纵隔内可见度多发淋巴结影,大者径约1.18CM。两胸腔无积液征象。心脏大小形态未见异常。1.左肺门及左肺下叶肿块,考虑恶性,左肺下叶阻塞性炎症,间质增厚,左下肺静脉受侵可能;纵隔淋巴结增大;2.右肺上叶炎症改变,左上肺钙化灶;3.双肺多发粟粒灶,转移不除外,请结合临床。</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>左肺门,左肺下叶</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>8.41CM</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>双肺</t>
+          <t>右心增大二尖瓣关闭不全（轻-中度）三尖瓣少量返流心室舒张功能减低心包腔中量积液升主动脉32MM。瓣开20MM。右房前后径42MM。室间隔：10MM，右室前后径：54MM，右室后壁：8MM。左室径：22MM。右室收缩功能：射血分数（EF）54%肺动脉瓣：V：0.9MM/s。三尖瓣：E/A：0.4/0.5MM/s；反向：2.5MM/s，P：26MMHg。二尖瓣：E/A：0.8/1.1MM/s；反向：5.3MM/s，P：112MMHg。主动脉瓣：V：1.0MM/s。右心增大，左房室大小形态正常，室间隔及右室后壁厚度正常，运动协调反向。静息状态上未见节段性室壁运动障碍。各瓣膜形态结构正常。右室收缩运动及收缩功能正常。二、三尖瓣频谱示心室舒张功能减低。心包腔可见中量积液，后心包舒张期液体厚度约1.8CM。</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>None与2015-09-18片比较:肝脏多发转移结节较前增大，现较大约29MM(66图)，原约24MM(IM19)，边界模糊；肝内血管及胆管未见异常。脾脏多发低强化结节较前缩小，现较大约11MM×7MM(图71)，原约17MM（IMA19）。胆囊、胰腺、两肾实质及两侧肾下腺未见异常。大网膜不均匀增厚局部呈结节状改变、腹腔内多发环形强化结节较前增多增大，较大约34MM×24MM(图89），腹腔新见大量腹水，考虑腹膜转移。腹腔及腹膜后多发肿大淋巴结，原较大淋巴结缩小，部分淋巴结较前增大，现较大约28MM×16MM(图87)，原约21MM×12MM（IM38）。扫描所及肺上叶多发实性密度结节较前缩小。</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>肝脏,腹膜</t>
+          <t>左下肺癌术后改变。左上肺局限性肺不张，较前好转。左肺中上叶少许斑片、条索灶，考虑炎症，较前减少。左侧少量胸腔积液，部分包裹，较前减少。左侧胸膜稍增厚、粘连。左乳外下象限小结节，考虑良性病变，大致同前。肝散在小囊肿。右肾小囊肿。左下肺癌术后，对比2016-3-25CT：左下肺术后缺失，支气管残端未见明显软组织肿物。左肺上叶肺门旁见条片状肺不张组织，内见条索状致密影，强化明显，范围较前缩小。左肺中叶及上叶可见散在斑片、条索灶，部分边界尚清，与邻近胸膜粘连。右肺未见明显实质性病变。气管及其余支气管尚通畅。纵隔、两肺门未见明显肿大淋巴结。左侧胸腔少量积液，部分包裹，较前减少；右侧未见胸腔积液。左侧胸膜稍增厚、粘连，右侧胸膜未见增厚。左侧乳腺外下象限内见强化小结节，大者直径约6MM，边界尚清。左侧胸壁呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内可见散在小囊状低密度灶，大者位于S5，直径约5MM，增强扫描未见强化。肝内胆管未见扩张。胆囊大小正常，胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小囊性灶，直径约3MM，未见强化。左肾未见明确异常。两肾下腺未见明确异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围骨质结构未见破坏征象。</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>左下肺</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>鼻咽癌治疗后复查，与2014-9-24对比：左肺上叶、右肺下叶病灶，较前未见明显变化，考虑纤维增殖钙化灶可能。右肺上叶新增磨玻璃灶，炎性病变可能大。原右侧锁骨下肿大淋巴结较前明显缩小。两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门多发肿大淋巴结，较前增大、增多，结合病史，考虑转移可能性大。肝脏未见明显占位病变。左肾囊肿。腹主动脉旁淋巴结，建议复查。鼻咽癌治疗后复查，与2014-9-24对比：两肺纹理清晰，左上肺、右下肺见数个小结节状病灶，大小约3MM~5MM，边界清楚，部分与左侧斜裂胸膜相连，部分病灶内见钙化灶，与前片对比，病灶较前变化不明显。两肺下叶见少许条索灶及空腔影，边清。右肺上叶后基底段新增小片状磨玻璃灶，边界模糊，长径约14MM。原右侧锁骨下多发肿大淋巴结较前明显缩小，大者短径约6MM；两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门见多发肿大淋巴结，部分相互融合成团块状灶，边界稍模糊，增强扫描不均匀强化稍明显，轴位最大约89MM×56MM（Se7，Im29），病灶包绕、推挤胸中段食管、下腔静脉、两侧主支气管、两肺动脉干、两下肺静脉、右上肺静脉致其管腔稍变窄，胸中段食管分界不清，管壁增厚，淋巴结较前增大、增多；气管及其余支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。门静脉未见充盈缺损影。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两侧肾盂未见结石，左肾见边界清晰的类圆形低密度灶，增强扫描各期均无明显强化，直径约8MM；余两肾实质未见异常。两肾下腺未见异常。腹主动脉旁见数枚淋巴结，较大者短径约8MM。左侧第5~7肋、右侧第4、5肋骨见模糊骨折线及周围骨质密度增高灶，边界模糊；余扫描范围内骨质未见骨质破坏征象。</t>
+          <t>右肺腺癌化疗后复查，与2013-1-22片对比：右肺上叶不张，右上肺病灶显示不清。右侧胸腔大量积液。右肺下叶节段性不张。肝内多发转移瘤，较前增多、增大。两肾多发结节灶，较前未见明显变化。门腔静脉间淋巴结，考虑转移瘤，较前缩小。胸骨、颈椎、胸椎、腰椎骨转移瘤，范围较前增大。颅脑未见明确病变。右肺腺癌化疗后复查，与2013-1-22片对比：右侧胸腔见大量积液，右肺上叶不张，右肺下叶节段性不张，原右上肺叶前内基底段结节显示不清。余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚。左侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内散在多发结节灶，边界不清，最大者约96MM×83MM，边界不清，部分融合，增强扫描不均匀强化，侵犯肝左静脉、门静脉左前支，较前增多、增大。肝内外胆管无扩张，胆囊体积稍增大。肝门区结构未见异常。肝包膜上见少量积液。脾不大，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约10MM×8MM，边界不清，增强扫描轻度强化，较前未见明显变化。门腔静脉间见一淋巴结，大小9MM×6MM，增强轻度强化，较前缩小。胸骨、C7、T1、T8、T9椎体及附件、T11、L1右侧附件、L2、L3椎体见不规则致密影，边欠清，范围较前增大。右侧第5肋腋段见致密灶。大脑各叶、小脑及脑干形态、密度未见异常，增强扫描未见异常强化灶。各脑室及脑池大小、形态未见异常；大脑中线结构未见移位。颅骨骨质未见破坏。两眼球后未见占位性病变。</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>鼻咽</t>
+          <t>右肺</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>两侧下上气管旁,血管前,主肺动脉窗,隆突上,气管后方,两肺门多发肿大淋巴结</t>
+          <t>肝,门腔静脉间淋巴结,胸骨,颈椎,胸椎,腰椎骨</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1、左肺下叶前段结节，代谢增高，倾向肺癌；余双肺多发模糊小结节，未见高代谢，密切随访除外转移；纵隔2R、4R、7区、两肺门淋巴结代谢增高，暂无法与炎性淋巴结鉴别。2、两下颌窦炎症。右肺上叶钙化灶。双侧胸膜增厚。冠脉少许钙化。肝多发囊肿。右肾囊肿。3、脊柱退变。L3-S1椎间隙狭窄。左髋臼、骶骨骨岛。左胸锁关节退变。4、脑代谢未见明确异常。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。两下颌窦粘膜增厚，未见异常浓聚。口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，腺实质内未见异常放射性增高灶。颈部及锁骨下区未见明显异常淋巴结浓聚。双肺显影清晰，肺纹理正常，左肺下叶前段见一结节，大小约1.3CM×1.0CM，可见分叶、毛刺、胸膜牵拉，结节放射性增高，SUVmax1.7，余双肺多发模糊结节，较大者位于左肺下叶后段胸膜上，约0.6CM×0.6CM，均未见明显放射性增高，右肺上叶见钙化灶。纵隔2R、4R、7区、两肺门淋巴结伴放射性增高，SUVmax2.0-5.2，4R区较大者约1.8CM×1.3CM。气管居中。胸膜增厚，胸水征阴性。心肌浅淡显影，冠脉管壁可见钙化。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内多发囊性低密度灶，放射性稀疏，较大者约3.7CM×3.7CM，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，右肾见大小不等囊性低密度灶，较大者约2.5CM×2.3CM，放射性稀疏，左肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。膀胱放射性浓聚如常，膀胱壁无增厚。双侧腹股沟无异常淋巴结显示。前列腺大小正常，放射性分布大致正常。视野内轴心骨未见异常放射性浓聚。椎体边缘骨质增生。L3-S1椎间隙狭窄。下、上肢关节带大致正常。左胸锁关节见气体密度影。左髋臼、骶骨见高密度骨岛。视野内皮肤及软组织内未见异常放射性摄取。</t>
+          <t>左乳MT肺转移综合治疗后，与2013.3.8本院PET/CT图像比较：1.未见明显肿瘤复发转移征象；2.第2骶椎良性病变可能性大；腰椎退行性变；余较前大致相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2013.3.8本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺术后，右叶上极见低密度灶，大小约为9.7MM×8.8MM，下缘见钙化影，较前相仿。胸部PET/CT图像示左乳MT术后，左肺中叶及上叶部分切除术后；双肺少许斑片影，左肺上叶微小不规则结节影，不伴糖代谢异常增高；肺门及纵隔未见明显肿大淋巴结及糖代谢异常增高灶；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显占位；两侧腋窝未见明显肿大淋巴结及糖代谢异常增高灶。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右左叶交界处见边界清楚的低密度灶，大小为12.2MM×9.2MM，余实质内未见异常占位；肝内外胆管无扩张；右肾见边界清楚的低密度灶，最大者大小为14.5MM×13.2MM，左肾无殊；脾脏不大，密度均，未见异常占位；胆囊切除术后；右侧肾下腺见钙化影；胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示颈胸腰骶椎顺列，生理曲度存在；第2骶椎椎体左侧见小低密度灶，不伴糖代谢异常增高；腰椎少许骨质增生，余颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象及糖代谢异常增高灶。</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>左肺下叶前段</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>1.3CM×1.0CM</t>
+          <t>左乳</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>肺</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1、恶性病变伴多发转移，倾向肺来源：左肺门高代谢软组织影，左肺上叶基底段高代谢结节；全身多发高代谢淋巴结/结节，与肝S1、胃体小弯、胰腺及脾脏分界不清；胰颈及体部伴高代谢灶；脾大，脾内高代谢灶；左侧肾下腺高代谢结节；腹膜高代谢结节；多发骨破坏伴高代谢。2、脑内未见异常高代谢灶，请结合增强MRI检查以除外微小转移。3、两叶甲状腺局部伴高代谢，请结合超声检查。4、肝右叶稍低密度灶，未见高代谢，囊肿？请结合超声检查。5、右肺上叶微结节，随访。两侧胸腔及心包积液。脾脏钙化灶。右肾轻度扩张积水（请注意肾功能）。上腹部轻度皮上水肿。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺门见不规则浓聚软组织影，浓聚范围约为3.1CM×2.2CM，SUVmax值为10.3；左肺上叶基底段见一软组织结节，伴放射性浓聚，SUVmax6.5，大小约1.9CM×1.3CM。右肺上叶见一小结节，未见放射性摄取。心肌显影，心包见积液。胸膜无增厚，两侧胸腔见少量积液。两颈部、两锁骨区、右胸肌间、右腋窝、左内乳区、纵隔、两肺门、膈区、心包腔内、腹、盆腔及腹膜后、右臀部皮上见多发淋巴结/结节，伴放射性浓聚，SUVmax16.1，较大者约3.9CM×2.2CM，其中腹膜密度弥漫性增高，腹腔及腹膜后淋巴结/结节与肝S1、胃体小弯、胰腺及脾脏分界不清。胰颈、胰体伴异常放射性浓聚，SUVmax11.0，同机CT未见明显异常，胰管不扩张。脾脏体积增大，约占9个肋单元，实质见散在放射性浓聚灶，SUVmax19.7，较大者呈模糊低密度，大小约2.4CM×1.9CM，较小者同机CT未见明显异常；脾实质另可见钙化灶。左侧肾下腺结合部伴放射性浓聚，SUVmax10.0。右侧肾下腺未见明确异常放射性浓聚。全身骨骼多发放射性分布异常浓聚，SUVmax17.4，累及：右额骨、右股骨、右肩胛骨、右侧第6肋骨、脊柱诸骨、盆腔诸骨、两股骨，大部分伴骨质破坏征象，部分未见明确骨质破坏征象。上腹部皮上脂肪间隙密度增高伴多发索条影，未见异常放射性浓聚。大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，两叶腺实质局部伴放射性摄取，右叶为著，SUVmax4.0。胃充盈不佳，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶见稍低密度灶，未见异常放射性浓聚；余肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。双侧肾脏显影可，肾实质密度均匀。右侧肾盂、肾盏轻度扩张积水，右肾集合系统内未见放射性摄取，左侧肾盂、肾盏及输尿管无扩张。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>左肺门,左肺上叶基底段</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>3.1CM×2.2CM,1.9CM×1.3CM</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>淋巴结,胰颈及体部,脾,左侧肾下腺,腹膜,骨</t>
+          <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   21MM       AO     24MM        MV E 0.70MM/s     EF 71%LV   40MM       IVS     7MM           A 0.68MM/s      RA   29MM       LVPW    9MMRV   17MM       PA     17MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>右肺上叶周围型肺癌,双肺多发转移瘤,纵隔淋巴结转移,双侧胸腔积液、心包积液,胸椎骨质破坏,较前(2015.7.15)进展。右肺上叶纵隔旁见椭圆形肿块影,大小约5.1CM×2.7CM,CT值19HU;两肺多发大小不等的结节影,大者直径约2.8CM。右肺上叶后段支气管截断。两肺门影增大。纵隔内多发增大的淋巴结,大者短径约2.0CM,其内见钙化灶。两胸腔见积液征象,右侧为著。冠脉钙化。心包积液。上胸椎骨质破坏,周围见软组织肿块影。</t>
+          <t>肝内见多发结节状低密度灶，大者约2.5CM，增强后可见轻度边缘强化，边界不清，胆道内见金属支架影，门脉右支未见充盈缺损；脾脏未见肿大，密度均匀；胰腺及双侧肾脏无殊；宫颈见小囊性低密度无强化灶；宫颈见小囊性低密度无强化灶；右侧卵巢见二枚囊状低密度灶，约2.5CM，局部后缘囊壁略厚，腹盆腔内无积液。部分腰椎内见结节状高密度影及类圆形透亮影，骶骨内见小结节高密度影。左乳MT术后病例，肝脏多发转移，较16-7-24片明显进展；右侧卵巢囊状灶，较前片增大；部分腰骶椎骨转移；宫颈小囊肿，请结合超声检查。</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>右肺上叶</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>5.1CM×2.7CM</t>
+          <t>左乳</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>双肺,纵隔淋巴结</t>
+          <t>肝脏,腰骶椎骨</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>肝门胆管MT病例，侵犯肝脏、胰头及门静脉，较13-04-15片进展，双侧肾下腺转移，胸、腰椎转移；肝左叶结节较前片相仿；双侧胸腔积液，脾及两肾囊肿。肝门区见一约6.8CM×6.9CM团块影，呈T1WI低信号，T2WI稍高信号，增强呈延迟强化，边缘欠清，周围见多发小结节样类似强化灶，肝左叶后段可见一异常信号灶，T1WI呈低信号，T2WI、DWI略高信号，动态增强后见小片状强化，延迟期呈稍高信号，肝内胆管扩张，胆总管壁增厚，增强后明显强化并累及胰头钩突，门静脉主干及右支受侵犯；脾脏未见肿大，内见一囊性无强化灶；胰腺无殊，两侧肾脏见囊状无强化影，双侧肾下腺增粗，边界不清；后腹膜未见肿大淋巴结；双侧胸腔积液，腹腔内无积液；所扫胸椎、腰椎多发结节，增强后强化。</t>
+          <t>左肺癌治疗后，左肺下叶前段病变，较前变化不明显；左肺门软组织灶较前相仿。左肺及右上肺多发散在片状、斑片状病变，考虑炎症，较前变化不明显。两肺多发肺大泡，两肺散在纤维增殖灶。左肺门、纵隔淋巴结大致同前。肝多发囊肿。两肾囊肿。增强动脉期肝S6斑片状明显强化灶，考虑异常灌注可能性大，血管瘤待排。腹主动脉旁多发淋巴结，部分轻度肿大，较前稍增大，考虑转移。T10椎体右后缘稍致密，较前相仿。盆腔未见明显异常。左肺癌治疗后，与2017.05.19片对比：左肺下叶前段见一不规则形密度增高影，密度不均匀，边界欠清，范围约25MM×25MM(肺窗显示)，与左侧水平裂胸膜关系密切，增强扫描不均匀强化，较前变化不明显。左肺门见片状软组织密度灶包绕，边界不清，部分与左肺下叶前段病变相连，范围无法准确测量，增强扫描不均匀轻度强化，较前相仿。左肺及右上肺另见多发散在片状、斑片状密度增高影，边界模糊，较前变化不明显。两肺见多发大小不等薄壁无肺纹理区及散在条索灶，以左肺下叶为著，较前相仿。两上气管旁、主肺动脉窗、隆突上、左肺门可见多个淋巴结，部分融合，大者位于左肺门，短径约11MM，边界不清楚，密度欠均匀，增强扫描不均匀轻度强化，较前相仿。两侧锁骨下窝小淋巴结，大者短径约6MM，较前相仿。两侧胸腔未见积液。左侧胸膜增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，平扫肝实质内不均匀减低，低于正常脾脏密度；肝S1、2、3、4、5、6见多个类圆形低密度灶，界清，最大者约26MM×20MM，增强扫描未见强化，大致同前；动脉期肝S6见斑片状明显强化灶，门脉期及平衡期呈稍高密度改变。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多个类圆形低密度灶，界清，大者约21MM×20MM，增强扫描未见强化。两肾下腺未见明显异常。腹主动脉旁见多发淋巴结，较大者短径约13MM，增强扫描可见强化，部分较前稍增大。膀胱充盈良好，境界清楚。两侧精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度均匀。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。T10椎体右后缘见片状稍高密度灶，边界欠清晰，较前相仿，余扫描范围未见明显骨质破坏。</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>肝门胆管</t>
+          <t>左肺</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>双侧肾下腺,胸,腰椎</t>
+          <t>腹主动脉旁多发淋巴结</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>左肺癌化疗后复查，与2016-06-15对比：左上肺背段肿物，较前明显缩小。左肺上叶前基底段胸膜上病灶，较前新发，考虑炎症可能性大，建议复查。右肺下叶、左肺中叶及两肺上叶散在类结节及条索灶，考虑纤维增殖灶可能。两下肺肺大泡。肝囊肿。两肾囊肿。肺癌化疗后复查：左上肺后基底段见一肿物，大小约30MM×25MM，浅分叶，可见细小毛刺，内密度不均，见斑点状、小片状钙化灶；增强后轻度强化；左肺上叶后基底段支气管分支受压变窄。左肺上叶前基底段胸膜上见斑片状密度增高影，边界不清，与邻近胸膜粘连；另右肺下叶尖后段、左肺中叶、两肺上叶见多发散在的类结节及条索灶；两下肺见多发无肺纹理透亮区，边界清。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜无增厚、粘连。心包未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，其内见散在多发低密度灶，直径约2MM~5MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多发数个囊性低密度灶，较大直径约15MM，边界清，增强无强化。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。腰椎向右侧弯，所见骨质未见破坏征象。</t>
+          <t>1、右肺上叶尖段恶性肿瘤，伴纵隔淋巴结多发转移，较2012-05-17CT明显增大；2、支气管炎征象；右肺中叶钙化灶；3、主动脉及冠状动脉硬化；4、轻度食管裂孔疝；左下小膈疝不除外，较前相仿，请结合临床；5、双侧胸膜肥厚。所示支气管血管束增强、紊乱，右肺上叶尖段可见团块影，其内密度稍欠均匀，周边见分叶征及短小毛刺，较大层面大小约4.73CM×5.58CM，CT值约35-45HU；余右肺中叶可见结节状钙化灶；纵隔可见增大的淋巴结影，大者短径约1.87CM；双侧胸膜肥厚。主动脉、冠状动脉走行区可见条片状致密影。主动脉弓管壁不规整、凸凹不平。左下肺见一与膈肌相连脂肪密度影，长径约3.32CM。贲门位于膈上。</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>左上肺后基底段</t>
+          <t>右肺上叶尖段</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>30MM×25MM</t>
+          <t>4.73CM×5.58CM</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>纵隔淋巴结</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>肾盂癌术后、化疗后复查，术区未见明确肿瘤复发征象；脂肪肝；左肺下叶尖段条索、类结节影，考虑增殖灶，大致同前；右肺上叶后基底段小结节，大致同前，考虑增殖灶可能性大；右锁骨下窝、纵隔小淋巴结，较前未见明显变化；左心房内充盈缺损影，较前未见明显变化；甲状腺两叶病灶，考虑结节性甲状腺肿；腰1椎体压缩性骨折，大致同前。肾盂癌术后、化疗后，与2015-10-14片对比：右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态、比例正常，轮廓光整，肝实质密度普遍减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许低密度影，未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余骨质未见明确破坏征象。</t>
+          <t>左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-11-09片对比：左侧乳腺缺失，左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结，最大者约10MM×15MM，增强后可见明显强化，较前未见明显变化。甲状腺右叶增大，内见结节状病灶，大小约为18MM×21MM及16MM×17MM，边界清楚，内见钙化，肿物下缘约平胸骨切迹，局部气管无明显受压变窄，增强后可见明显强化，未见明显变化。右乳可见结节状病灶，大小约6MM×13MM及9MM×9MM，增强后可见较明显强化，与前片对比，未见明显变化。左上肺叶可见斑片状、条索状影，右肺纹理清晰，未见结节影；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。双侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见多个囊性低密度区，大小约3MM×3MM~48MM×36MM，边界清楚，密度均匀，增强后未见强化，与前片对比，较前未见明显变化；肝内胆管未见扩张，胆囊大小正常，其内未见结石影，胆总管未见扩张。肝门区未见肿大淋巴结；门静脉未见充盈缺损。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双肾大小、形态正常，双肾实质见数个小囊性灶，大小约5MM×5MM~10MM×10MM；双侧肾上腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-11-09片对比：左侧内乳区、主动脉弓旁淋巴结较前未见明显变化。左上肺叶纤维增殖灶。甲状腺右叶病灶，考虑结节性甲状腺肿可能性大。右侧乳腺结节，较前未见明显变化。肝囊肿，肾囊肿。</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>肾盂,右肾</t>
+          <t>左乳</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>左锁骨上窝淋巴结</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>左上肺癌术后化疗后复发放化疗后:左下肺前底段及右上肺后段结节代谢较活跃,疑转移;左侧胸膜增厚代谢活跃,考虑转移;双锁骨上、纵隔、右膈角后、腹主动脉旁及右髂总血管旁淋巴结代谢活跃,考虑转移;骶骨右份局部骨质破坏代谢活跃,考虑转移。双侧上颌窦炎症。右上肺尖肺大泡。肝S4及S5囊肿。前列腺钙化灶。空腹6H以上,静脉注射18F-FDG,静息约60MMIN后行全身PET/CT断层显像,影像清晰。左上肺癌术后化疗后复发放化疗后:左上肺缺如;左下肺前底段及右上肺后段结节放射性分布略浓密,SUV约3.5,大者约0.9CM×1.0CM;右上肺尖囊状透亮影;余双侧肺纹理未见明显异常,气管、支气管通畅。左侧胸膜增厚放射浓聚,SUV约7.9,部分层面病灶侵犯左膈脚。双锁骨上、纵隔右侧气管食管沟、右上气管旁及隆突下多个淋巴结放射性分布较浓密,SUV约6.0,最大约1.0CM×1.3CM。纵隔主动脉旁小淋巴结放射性分布未见异常。双肺门及双侧腋窝未见肿大淋巴结及异常放射性分布。双侧脑实质密度、形态正常,放射性分布均匀、对称,诸脑室、脑池、脑沟、脑裂未见异常,中线结构居中。双侧上颌窦低密度影放射性稀疏。蝶窦、额窦及筛窦结构及放射性分布未见明显异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。甲状腺形态结构及放射性分布未见明显异常。双上颈小淋巴结放射性分布未见明显异常。肝S4及S5囊状低密度影放射性稀疏,最大约0.5CM×0.6CM,CT值约19HU;余肝脏形态、结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、胰腺、双肾及肾上腺形态、结构及放射性分布未见明显异常。右膈脚后、腹主动脉旁及右髂总血管旁数个淋巴结放射性分布较浓密,SUV约4.8,最大约1.2CM×1.4CM。盆腔放射性分布均匀。前列腺内数个点状高密度影放射性缺损,CT值约157HU。膀胱及肠管等形态、结构及放射性分布未见明显异常。左侧髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。左侧第6后肋术后改变。骶骨右份局部骨质破坏放射性浓聚,SUV约6.6。余所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，左右侧下极各见一低密度灶，大小分别为7.9MM×6.4MM×9.5MM和4.2MM×3.0MM×3.11MM。胸部PET/CT图像示双侧乳腺切除术后，胸壁呈术后改变，左侧胸壁约第4肋腋段外侧见一糖代谢轻度增高的结节，大小约为12.3MM×9.2MM，最大SUV值为1.3；双肺纹理清晰，左肺下叶背段近斜裂见两枚糖代谢轻度增高的小结节，边界光滑，大小分别为8.4MM×2.9MM和8.8MM×5.2MM，最大SUV值均为1.2；右肺上叶尖段见少许不伴糖代谢增高的条片影及钙化灶；各级支气管腔通畅；纵隔气管胸廓入口处、气管前间隙、主肺动脉窗、气管隆突下、胸主动脉旁及双肺门多发肿大淋巴结，伴不同程度糖代谢增高，糖代谢最高者位于胸主动脉旁(约第8胸椎水平)，最大SUV值为7.6，大小约为11.9MM×9.1MM；最大者位于气管隆突下，大小约为14.2MM×10.7MM，最大SUV值约为6.2；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝未见明显糖代谢增高及肿大淋巴结。腹部PET/CT图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝脏表面尚光整，左右叶多发糖代谢异常增高的低密度灶，较大者三枚分别位于右叶膈顶(2枚)及尾叶，大小分别为26.0MM×23.0MM、21.4MM×13.0MM和30.6MM×24.5MM，最大SUV值分别为8.0、5.8和9.4；右后叶包膜下另见一无糖代谢增高的低密度灶，边界欠清，大小约为8.3MM×6.5MM；肝内外胆管无扩张；脾脏不大，内见多发钙化，未见明显糖代谢增高及占位；左肾内见多发结节状致密影；胆囊、胰、双肾上腺、右肾、输尿管及大血管处未见明显糖代谢异常增高及占位；腹膜后未见明显糖代谢增高及肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第1骶椎右侧见溶骨性骨质破坏，局部骨皮质连续性中断，伴糖代谢异常增高，最大SUV值为6.9；余全身骨骼未见明显糖代谢增高及骨质破坏吸收吸收征象。双侧乳腺MT综合治疗后病例，结合病史，考虑为纵隔淋巴结转移、肝脏及第1骶骨转移；右侧胸壁结节及右肺下叶小结节，转移可能，请随访；双侧甲状腺良性病变，建议超声随访；右肺上叶慢性炎症及陈旧灶；肝脏右叶良性病变；脾脏多发钙化灶；左肾多发结石。</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>左上肺</t>
+          <t>双侧乳腺</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>左下肺前底段,右上肺后段,左侧胸膜,双锁骨上,纵隔,右膈角后,腹主动脉旁及右髂总血管旁淋巴结,骶骨</t>
+          <t>纵隔淋巴结,肝脏,第1骶骨,右侧胸壁,右肺下叶</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1.肝脏多发代谢增高灶，密度略减低，多考虑为恶性病变转移；2.右侧第8肋、骶骨代谢增高，密度略减低，多考虑为恶性病变转移；第2腰椎局部代谢增高灶，恶性病变转移不除外；右侧髂骨局部密度增高，代谢增高，建议密切复查；3.透明隔增宽；两侧颈部淋巴结影，右侧者代谢略增高，多考虑为炎性病变；左侧下颌窦炎；4.两肺下叶胸膜上小突起，两肺条索影；右侧乳腺组织代谢不均匀，请结合临床；副脾；5.视野内余部未见异常。检查方法：空腹4小时以下，静脉注射显像剂平静休息后行PET/CT体部断层显像。PET图像经衰减校正、迭代法重建后行多层面、多幅显像并与CT图像进行融合，影像清晰。图像所见：CT示透明隔增宽，脑FDG摄取、分布未见异常。CT示左侧下颌窦粘膜增厚，FDG摄取未见异常；CT示两侧颈部淋巴结影，右侧者FDG摄取略增高，最大SUV为1.7；余颌面部及颈部软组织结构、形态及FDG摄取、分布未见异常。CT示两肺下叶胸膜上小突起，两肺条索影，FDG摄取未见异常；余两肺野FDG摄取未见异常。纵隔内FDG摄取未见异常。CT示左侧乳腺组织缺如；CT示右侧乳腺组织致密，FDG摄取不均匀，最大SUV为2.2。食管FDG摄取未见异常。胃及十二指肠FDG摄取未见异常。PET示肝脏多发团状、结节状FDG摄取增高影，最大SUV为18.6，CT示相应部位密度略减低影，大者最大径约为60MM；CT示脾脏上方类圆形软组织影，同于脾脏密度，FDG摄取未见异常。胰腺FDG摄取未见异常。肾下腺、肾FDG摄取未见异常。腹部见数个形态不一、条管状浓淡不一的肠影。腹膜后区FDG摄取未见异常。子宫、附件区FDG摄取未见异常。PET示右侧第8肋、骶骨局部FDG摄取增高影，最大SUV为11.4，CT示密度略减低；PET示第2腰椎局部FDG摄取略增高，最大SUV为4.2，CT未见异常；CT示右侧髂骨局部密度增高，FDG摄取增高，最大SUV为2.6；视野内余骨骼及骨髓FDG摄取未见异常。余无特殊。</t>
+          <t>1.右肺下叶肺癌，较(2016-02-17)CT增大；2.双肺多发小结节，部分病灶较前略增大；右肺下叶胸膜下小结节较前新发；3.前上纵隔结节，较前相仿；4.纵隔内多发增大淋巴结，转移不除外，左腋窝稍大淋巴结，请结合临床；5.第3胸椎右侧横突高密度灶，较前相仿；第8胸椎骨质破坏，较前相仿，考虑转移；部分胸椎术后改变。右肺下叶见片状肿块影，CT值约26HU，边界欠清，大小约4.7CM×2.7CM，呈分叶状，边缘可见毛刺，邻近胸膜凹陷。左肺叶(S28、36)、右肺(36、39、45、48)、中叶(31、34、36)、下叶胸膜下(19)及左肺下叶外侧底段(S30)见多发小结节影，边界清晰，大者径约0.7CM；两肺门区未见异常。前上纵隔可见结节影，径约1.0CM，CT值约38HU。纵隔见增大淋巴结影，大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整，其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>右肺下叶</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4.7CM×2.7CM</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>肝脏,右侧第8肋,骶骨,第2腰椎</t>
+          <t>纵隔内多发增大淋巴结,第8胸椎</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>左乳外上象限可见圆形团块影,大小约为1.58CM×1.66CM,边界清晰,邻近皮肤略牵拉凹陷。左侧腋窝可见增大淋巴结影,直径约为1.76CM,边界尚清。右肺上叶后段可见结节影,直径约为0.5CM,中心可见透亮影。两肺支气管血管束欠清。两肺门区未见异常。纵隔内未见异常增大的淋巴结。双侧胸膜局限性增厚,部分钙化。双侧胸腔无积液征象。主动脉、冠脉可见条状钙化。所示部分胸椎密度欠均。1、左乳外上象限肿块,考虑乳腺癌,左侧腋窝淋巴结转移,肝脏两枚低密度病灶不除外转移,详查;2、右肺上叶后段结节,请随诊;3、双侧胸膜局限性增厚钙化;4、所示部分胸椎密度欠均。</t>
+          <t>1.考虑鼻咽癌并颈部淋巴结转移，对比2012-04-16片，颈部肿大淋巴结部分缩小，余未见明显改变，请结合临床详查；2.双侧上颌窦及筛窦炎；3.甲状腺改变，首先考虑为结节性甲状腺肿，请结合临床。鼻咽部后部软组织增厚，密度欠均，边缘不规整，可见结节突起影，右侧侧隐窝变浅，右侧鼻咽部饱满，突起结节样增强后明显强化。甲状腺双叶密度欠均，可见小圆形低密度影，大者径约为0.4CM。增强扫描未见强化。双侧上颌窦及筛窦粘膜增厚。双侧颈部可见多发肿大淋巴结影。</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>左乳</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>1.58CM×1.66CM</t>
+          <t>鼻咽</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>左侧腋窝淋巴结,肝脏</t>
+          <t>颈部淋巴结</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>右乳腺癌治疗后复查,对比2016-11-25片:乳腺癌治疗后,左侧前胸壁局部皮肤结节状、条片状增厚,考虑复发,较前缩小。左侧前胸壁皮下结节,较前稍缩小。右侧乳腺多发肿块,考虑转移,较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结,考虑转移,较前缩小。隆突下淋巴结,较前缩小,考虑转移可能性大。肝S4小囊性病变,较前稍缩小。左肾囊肿。左肺上叶病变,考虑放射性肺炎。双侧锁骨头、胸骨及多发椎体骨质破坏,考虑转移瘤,部分病灶较前稍增大。右侧第1、2前肋、第6~8肋腋段不同程度骨质破坏,考虑转移可能性大,较前变化不明显。右乳腺癌治疗后复查,对比2016-11-25片:左侧乳腺术后缺失,左侧前胸壁局部皮肤呈条片状增厚,最大约35MM×5MM,较前缩小。左侧前胸壁皮下(SE5-15)见一结节影,大小约6MM×5MM,可见强化,较前稍缩小。左侧腋窝见少许条索影,未见肿大淋巴结。右侧乳腺见多个不均匀强化结节,边界欠清,大者约23MM×12MM,较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结,最大约21MM×18MM,边界欠清,密度不均匀,增强后不均匀轻中度强化,较前缩小。左上肺近前胸壁处见散在小斑片灶,边界欠清,较前相仿,余肺未见实质性病变。气管及支气管分支通畅,未见明显软组织肿物或受压变窄。隆突下见一稍大淋巴结,大小约12MM×6MM,不均匀强化,较前稍缩小。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常,轮廓欠光整;肝S4见一小囊性病变,直径约3MM,增强扫描未见强化,较前缩小。肝内胆管正常,其内未见结石影,胆囊不大,内未见结石,胆总管未见扩张,其内未见结石影。肝门区、门静脉所见正常。脾大小正常,密度均匀,脾门区见一结节影,直径约4MM,密度与强化方式与脾脏相似。胰腺大小、形态正常,密度均匀。左肾见类圆形囊性灶,直径约7MM,边界清楚,未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见明显肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏,周围见软组织肿块形成,增强扫描轻度强化,较前变化不明显。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶,边界模糊,密度欠均匀,与前片对比,部分病灶范围较前增大。右侧第1、2前肋、第6~8肋腋段见不同程度骨质破坏,大致同前。</t>
+          <t>1.结合病史，考虑为胃窦部MT伴腹腔、腹膜后淋巴结转移，肝脏及双肺多发转移；2.双肺气肿；3.前列腺增大伴钙化。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部、鼻咽PET/CT图像示眶部、鼻咽部、咽旁间隙、副鼻窦均无殊。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示双肺见多发大小不等、糖代谢轻度增高的结节，较大者位于右肺上叶后基底段，大小约为9.8MM×8.7MM，最大SUV值约为4.5；双肺透亮度增高，见多发囊状透亮影；各级支气管腔通畅；两侧肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃窦近幽门部胃壁异常增厚伴糖代谢增高，最大SUV值约为9.9，病灶旁脂肪间隙模糊，胃周、肝门部、胰头周围及腹膜后见糖代谢异常增高的肿大淋巴结，最大者位于胃窦旁，大小约为31.3MM×23.5MM，最大SUV值约为13.5；肝脏表面光整，各叶比例匀称，实质内见多发大小不等、糖代谢异常增高的稍低密度影，较大者位于左叶膈顶、右外叶下段及上段，大分别为28.3MM×20.7MM、33.7MM×15.5MM和33.2MM×26.8MM，最大SUV值分别为10.7、7.8和9.9；肝内外胆管无扩张；肠道呈生理性糖代谢增强；脾脏、胆囊、胰、两肾、肾下腺无殊；腹腔无积液。盆部PET/CT图像示前列腺增大，内似见微小致密影；膀胱内显像剂生理性积聚；肠道呈生理性糖代谢增强；膀胱充盈欠佳；两侧精囊腺形态可；两侧膀胱精囊三角对称；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性改变。</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>右乳腺</t>
+          <t>胃窦部</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>右侧乳腺,右侧腋窝、胸骨上窝多发肿大淋巴结,隆突下淋巴结,双侧锁骨头,胸骨,椎体,右侧第1、2前肋,第6~8肋腋段</t>
+          <t>腹腔,腹膜后淋巴结,肝脏,双肺</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>肺癌病例：两侧肾下腺及腹膜后淋巴结转移，左侧腹壁转移，较2016-8-6片明显进展。肝脏和两肾囊肿肝脏表面光滑，各叶比例匀称，肝实质内见数枚小囊性低密度无强化灶，大者14MM，肝内血管未见狭窄或充盈缺损；脾脏未见肿大，密度均匀；胆管未见扩张；两侧肾下腺区见软组织肿块影，形态不规则，增强后左侧病灶环形强化，大小约30MM×18MM，右侧病灶持续性强化，密度不均，大小约28MM×28MM。胰腺无殊，两肾见小囊肿；心膈角区和后腹膜见多发肿大淋巴结，增强后强化不均匀；腹腔内无积液。左侧前腹壁皮上见结节，增强后环形强化，密度不均，大小约30MM×22MM。膀胱充盈差，盆腔内未见积液，前列腺见钙化点。</t>
+          <t>右侧乳腺多发实性占位，结合病史，考虑恶性。左侧乳腺实性结节，考虑良性可能性大(纤维腺瘤?)，建议定期复查。右侧腋窝腋下组淋巴结肿大，考虑淋巴结转移瘤可能性大。左侧腋窝淋巴结，考虑良性淋巴结。乳腺各层组织结构清晰，右乳11-2点钟方向乳头旁可见不均质低回声灶，范围约59MM×44MM×22MM，形态不规则，边界不清，边缘呈毛玻璃状改变，内部回声不均匀，可见散在点状强回声，后方回声稍衰减，局部浅筋膜浅深层回声中断；其旁约11点钟距乳头约24MM处可见一低回声结节，大小约8MM×5MM，边界尚清，形态欠规则，前后径&gt;左右径，内部回声欠均匀，后方回声稍衰减，COOPER'S韧带部分受侵；右乳12点钟乳头约37MM另可见一低回声灶，大小约24MM×20MM×17MM，呈浅分叶状，边界尚清，内部回声不均，可见点状强回声，局部浅筋膜浅深层显示模糊，与上述较大病灶界限欠清。左乳内可见2个低回声结节，大小分别约：6MM×5MM(12点钟方向距乳头约9MM处)，7MM×5MM(5点钟方向距乳头约6MM处)，呈浅分叶状，边界清，似可见包膜样回声，局部浅筋膜浅深层连续；余腺组织尚均质，呈细蜂窝状较强回声。左侧乳腺导管未见扩张。CDFI：右乳11-2点钟病灶内可见少许点条状血流信号，可测及动脉频谱，VP8CM/S，RI0.84；左乳结节内未见明确血流信号。右侧腋窝可见多个淋巴结，均位于腋下组，大小约25MM×13MM，边界清，形态不规则，皮质不规则增厚，较厚处约10MM，皮髓质界限清，淋巴门存在。腋中组及腋上组淋巴结未探及。CDFI：上述淋巴结内可探及丰富血流信号。左侧腋窝可见一个淋巴结回声，位于腋下组，大小约11MM×5MM，边界清，椭圆形，皮髓质分界清，淋巴结门存在。CDFI：上述淋巴结内未见明确异常血流信号。</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>肺</t>
+          <t>右侧乳腺</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>8MM×5MM,6MM×5MM,7MM×5MM</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>两侧肾下腺,腹膜后淋巴结,左侧腹壁</t>
+          <t>右侧腋窝腋下组淋巴结</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1.结合临床,卵巢癌术后2.右肺上叶占位,考虑为中心型肺癌伴阻塞性炎症,侵及右肺动脉,右肺门、纵隔、右侧锁骨上淋巴结转移3.脑转移4.左肺门淋巴结肿大,建议观察5.肝囊肿右肺上叶支气管截断,局部见一软组织密度肿块,大小约3.3CM×2.6CM,病变远端右肺上叶见实变的肺组织影,增强后轻度强化,局部包埋右肺动脉。双肺门10区、纵隔内4R、7区、8R、9R、4R、4L、5区、2R、3A、右侧锁骨上1R见多发增大淋巴结,部分相互融合,大者短径约2.0CM。双侧胸腔内未见液性密度影。肝脏形态、大小可,实质内见囊性密度灶,大者直径约2.3CM,边缘清晰。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰腺走行自然,形态、大小、密度未见异常。脾、双肾及肾上腺形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双侧附件术后缺失,阴道残端未见显著增厚。膀胱充盈好,壁略示增厚。盆腔内未见显著增大淋巴结。盆腔内未见液性密度影。左侧额叶见一直径约1.9CM结节灶,边缘清晰,增强后显著不均匀强化。病变周围见片状低密度水肿带。颅骨未见显著骨质破坏。</t>
+          <t>左乳癌术后双肺转移治疗后，与2013.11.15片对比：左侧乳腺缺失，左侧胸壁局部皮肤稍增厚，皮下脂肪间隙索条增多，边界欠清，大致同前。左侧胸壁约T10水平皮下脂肪间隙见一小片状软组织灶，边界欠清，大小约21MM×11MM，增强扫描轻度强化，较前未见明显变化。右乳未见明确异常。双侧腋窝未见肿大淋巴结。双肺上叶、右肺中叶及右肺下叶见多个肿块，边界欠清，最大者约30MM×23MM，边界欠清，轻度强化，较前缩小，双上肺尖肿块内可见支气管气相。气管和各支气管分支通畅。双侧锁骨上窝、双肺门、纵隔未见肿大淋巴结。双侧胸腔未见积液。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S8见一片状低密度病变，大小约6MM×4MM，边界不清，增强扫描未见强化，大致同前。肝内胆管未见异常，胆囊壁不厚，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉及肝静脉所见未见异常。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾未见异常。双肾上腺未见异常。腹主动脉旁未见明显肿大的淋巴结。右侧第1~3前肋、左侧第2前肋见骨皮质密度稍增高，较前未见明显变化，右侧第5、7、8前肋骨质密度增高，较前新见。左乳癌术后双肺转移治疗后，与2013.11.15片对比：左前胸壁呈术后改变，较前变化不大。左侧胸壁约T10水平皮下脂肪间隙片状软组织灶，较前未见明显变化。双肺多发转移瘤，较前缩小。肝S8低密度灶，较前未见明显变化。右侧第1~3前肋、左侧第2前肋骨质密度稍增高，较前未见明显变化；右侧第5、7、8前肋骨质密度增高，较前新见，考虑转移可能大。</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>卵巢,右肺上叶</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>3.3CM×2.6CM</t>
+          <t>左乳</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>右肺门,纵隔,右侧锁骨上淋巴结,脑</t>
+          <t>双肺,右侧第5、7、8前肋</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1.左肺中心型肺癌;左胸膜及胸膜下肺内多发结节转移;纵膈及左腋窝肿大淋巴结转移;2.右肺支气管炎、肺气肿改变。左主支气管及其分支管壁明显增厚,管腔狭窄。左肺上叶尖后段至下叶背段见巨大空洞影,9.2CM×5.1CM×6.0CM,宽基底贴于胸膜,内壁不甚规整,CT值24HU-36HU,邻近胸膜腔少量积液,该病灶上方见少许纤维条索、肺大泡、小钙化点。左肺上叶尖后段亦见一1.7CM×2.2CM×1.5CM结节影,宽基底连于胸膜,CT值39HU。左肺下叶胸膜下见直径3.0CM-0.9CM多个结节,大者贴近胸膜,相应胸膜增厚。右肺上叶透过度不均,见多个大小不等泡状影。右肺上叶、中叶、下叶分别见少许小点片模糊影。纵隔内气管隆凸下见最大截面3.0CM×2.1CM肿大淋巴结,左下肺门见一直径1.8CM肿大淋巴结,纵隔内另见多个小淋巴结。左腋窝见直径2.8CM肿大淋巴结。心脏大血管未见明显异常。</t>
+          <t>右肺腺癌治疗后复查，与2013-7-19日片对比：右下肺及上肺不张，大致同前。右侧大量胸腔积液，较前稍减少。肝内多发转移瘤，较前增多，部分增大。腹腔少量积液，较前稍增多。两肾多发结节，大致同前。胸骨、颈椎、胸椎、腰椎骨转移瘤，大致同前。右肺腺癌治疗后复查，与2013-7-19日片对比：右侧胸腔见大量积液，右肺上叶及下叶体积缩小，增强扫描右肺不张、实变肺组织强化明显；余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚。左侧胸腔未见积液。肝脏形态失常，肝右叶增大，其外形轮廓略呈波浪状，肝内散在多发结节灶，边界不清，最大者约66MM×64MM，边界不清，部分融合，增强扫描不均匀强化，侵犯肝左静脉、门静脉左前支，病灶较前增多，部分增大。肝内外胆管无扩张。胆囊不大，胆囊壁均匀增厚，增强扫描粘膜强化明显。肝门区未见肿大淋巴结。腹腔见少量积液，较前稍增多。脾稍大，最厚处约46MM，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约14MM×4MM，边界不清，增强扫描轻度强化，大致同前。胸骨、C7、T1、T6、T8、T9椎体及附件、T10、T11、L1右侧附件、L2、L3椎体见不规则致密影，边欠清，范围较前无明显变化。右侧第5肋腋段见致密灶，较前无明显变化。</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>左肺</t>
+          <t>右肺</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>左胸膜,胸膜下肺内</t>
+          <t>肝,胸骨,颈椎,胸椎,腰椎,骨</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右肺中叶见一结节灶(图3-28),直径约0.3CM,密度较低。右肺下叶见少许斑片影,局部似呈类结节状,邻近胸膜略增厚。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶,大者短径约1.0CM,密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床,右乳癌术后改变;骨转移,较前(2015-5-19)变化不著;左锁骨上淋巴结肿大,较前略饱满2.右肺中叶结节灶,略缩小;右肺下叶炎症伴类结节灶,建议观察3.脂肪肝,肝内钙化灶4.左侧副鼻窦炎,变化不著</t>
+          <t>鼻咽癌并肺腺癌四程诱导化疗后：颅脑未见明显病变。肝多发囊肿。两肾囊肿。右侧肾下腺结合部增粗，考虑增生性改变可能性大，建议复查。枕骨粗隆处板障内多个类圆形低密度区，可疑蛛网膜颗粒压迹，建议复查排除转移瘤。鼻咽癌并肺腺癌四程诱导化疗后：脑实质内未见明确异常密度影及异常强化灶，脑沟、裂、池不宽，脑室对称不大，中线结构无移位，幕上结构未见异常。枕骨粗隆处板障内见多个类圆形低密度区，边界锐利，颅骨内板不连续，余颅骨未见明显骨质破坏改变。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S2、S3、S4、S6、S7见数个类圆形低密度病变，边界清晰，较大者直径约25MM，增强扫描未见强化。肝内胆管未见扩张，其内未见结石，胆囊大小未见异常，其内未见结石，胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾实质内见数个类圆形低密度病变，较大者直径约12MM，边界清晰，增强扫描未见强化。右肾下腺结合部增粗，隐约见一类圆形病变，大小约13MM×10MM，平扫及增强扫描呈等密度改变。左肾下腺未见异常。肝门区及腹主动脉旁见多发小淋巴结，较大者直径约7MM。扫描所见胸、腰椎骨质未见明显破坏改变。</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>右乳</t>
+          <t>鼻咽,肺</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>骨</t>
+          <t>枕骨粗隆处板障内</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   29MM       AO     27MM        MV E 0.60MM/s     EF 71%LV   34MM       IVS    11MM           A 0.52MM/s     FS 39% RA   30MM       LVPW   9MMRV   18MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+          <t>右上肺癌术后，与2015-12-28日片对比：右上胸膜增厚。左肺下叶、上叶斑点影，考虑增殖灶可能性大，较前未见明显变化。纵膈及右侧锁骨下淋巴结转移，较前相似。右侧胸腔少量积液，较前无明显变化。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌术后，与2015-12-28日片对比：右肺下叶术后缺失，右肺上叶见少许纤维条索，边界清晰，未见明确结节影；左下肺及上肺见小斑点状影，边界欠清，直径约2MM；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM；右侧胸腔见少量积液，较前无明显变化。左侧胸腔未见积液。右上胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，余肝实质密度均匀；肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影；肝门区正常；门静脉所见正常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常；两肾下腺所见正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>右上肺</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>纵膈,右侧锁骨下淋巴结</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>左上肺癌术后化疗后复查，对比2012-5-21片：左肺术后改变，左肺中叶斑片、条索灶，考虑增殖灶。左侧胸膜不均匀增厚，可疑转移，建议随诊。左侧胸腔少量弧形积液。肝内多发囊肿，右肾小囊肿，较前变化不大。左侧第4、5前肋术后改变。左上肺癌术后化疗后，左肺上叶术后缺如，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索，与胸膜粘连。余两肺未见明确实质性病变。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量弧形积液，左侧胸膜稍增厚，可见小结节。右侧胸腔未见积液。右侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝内见多发低密灶，边界清，大者短径约11MM，未见强化。胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋见斜行线样高密度影。</t>
+          <t>右上肺癌综合治疗后，与2016-02-04日片对比：右肺上叶术后缺失。右残肺内少许纤维增殖灶。右上胸膜增厚。左肺下叶、上叶类结节影同前，建议随访。纵膈及右侧锁骨下淋巴结转移，较前未见明显变化。右侧胸腔少量积液同前。甲状腺右叶病灶，考虑结节性甲状腺肿。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌综合治疗后，与2016-02-04日片对比：右肺下叶术后缺失。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺可见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度不均，内见坏死，增强后可见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜增厚。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>左上肺</t>
+          <t>右上肺</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>纵膈及右侧锁骨下淋巴结</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>None与2010-09-25胸部CT比较：1、左肺中间段支气管显示，局部不规则软组织肿块较前缩小，现约41MM×31MM（IMA32），原为51MM×48MM（IMA36），包绕右上肺动脉并压迫右上肺静脉较前减轻，肿块远端左肺中、上叶复张。右肺下叶尖后段胸膜上浅淡小结节同前相仿，约4MM×2MM（IMA27、肺窗），余肺未见异常密度区及结节灶。2、纵隔内2、4、7、10组多发肿大淋巴结较前缩小，较大现约30MM×22MM（IMA21），原为34MM×23MM（IMA24）。3、两侧胸膜略厚较前减轻，未见胸水征象。4、扫及诸骨未见破坏征象。</t>
+          <t>直肠癌术后肺转移、肝转移综合治疗后，与2015-12-2片对比：左下肺病灶，较前增大，左中肺及上肺多发病灶，较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化。直肠癌术后肺转移、肝转移综合治疗后，与2015-12-02日片对比：左肺下叶见一结节灶，大小约25MM×26MM，形态不规则，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前增大。左肺上叶前基底段见一结节，大小约17MM×15MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>直肠</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>左下肺,左中肺及上肺,肝S4,S7</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>左肺癌术后化疗后，对比2013-5-28片：左中肺内段少许节段性不张，左肺中叶条索影及斑片影考虑为纤维增殖灶，较前变化不大。右上肺近膈面新见小类结节，转移待排，建议观察。右侧肾下腺结节，考虑腺瘤可能性大，大致同前。左肺癌术后化疗后，对比2013-5-28片：左下肺叶术后缺如，左侧胸廓稍缩小，左肺中叶见条索影及斑片影，边界尚清，邻近胸膜粘连，左肺中叶纵隔旁见条片状软组织密度灶，所见较前变化不大。右上肺近膈面见一小结节，直径约3MM，边界尚清。余肺内未见明确实质性病灶。气管、所示支气管及其分枝通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜未见增厚、粘连。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。右侧肾下腺见一结节，直径约10MM，边界清楚，密度均匀，增强扫描均匀强化，大致同前。左侧肾下腺未见异常。两肾未见异常。肝门区及腹膜后未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+          <t>左肺上叶癌术后：1、①支气管断端周围软组织密度肿块，伴高代谢，考虑复发，伴远端条状肺不张；②纵隔2R、3A、4R区及左肺门多发淋巴结转移；左心膈角轻度代谢小淋巴结，建议随访复查定性。③左侧胸膜转移伴包裹性胸腔积液；左侧胸膜区多发转移结节；④左4前肋、L5、左髋臼骨转移。2、①左肺及右肺下叶多发小结节，未见高代谢，建议密切随访。②纵隔5区及右肺门老年炎性淋巴结可能大。3、脑部未见明显异常代谢征象；大枕大池；左下颌窦炎；鼻咽左侧壁炎性摄取；心包少量积液；胆囊小结石；两肾囊肿；前列腺多发钙化灶；多发骨岛；脊柱退变；左髋关节旁肌肉炎性或非特异性摄取；左胸壁术后改变。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺上叶癌术后：支气管断端周围可见软组织密度肿块，伴放射性浓聚，SUVmax12.6，较大截面约4.8CM×4.4CM，侵及隆突上，与左肺门淋巴结、左肺动脉及食管分界不清，包绕左肺中间段支气管及中叶支气管，局部支气管狭窄，伴远端条状肺不张。左肺及右肺下叶可见多发小结节，未见明显放射性高摄取。左侧胸膜增厚伴结节，伴放射性浓聚，SUVmax7.1，大小约2.2CM×1.4CM，左侧胸腔及叶间裂间可见包裹性积液。左侧胸膜区可见多发结节，伴放射性浓聚，SUVmax8.8，较大者大小约2.0CM×1.6CM。右侧胸膜未见增厚，胸水征阴性。左胸壁皮上可见索条影，放射性摄取轻度增高，SUVmax2.4。心肌显影清晰，心包少量积液。纵隔左移，纵隔2R、3A、4R区及左肺门可见多发肿大伴异常浓聚淋巴结，SUVmax11.0，较大者大小约1.6CM×1.3CM，密度较高。左心膈角见轻度摄取小淋巴结，较大者约0.8CM×0.4CM，最大SUV2.01；纵隔5区及右肺门可见高密度淋巴结，伴轻度摄取，SUVmax3.1，较大者大小约1.7CM×1.2CM。左4前肋、L5、左髋臼可见多发骨质破坏伴异常浓聚，SUVmax7.2，以左4前肋为著。T7、右髂骨、右股骨及左耻骨可见致密小结节，未见放射性高摄取。脊柱椎体缘可见多发骨质增生。L4-L5椎间隙变窄。大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。大枕大池。左下颌窦粘膜增厚，未见异常放射性浓聚。口咽部双侧腺体显影对称。鼻咽左侧壁放射性摄取轻度增高，SUVmax4.4。甲状腺双叶不大，形态可，腺实质内未见异常放射性增高灶。两颈部及锁骨下区未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，腔内可见致密小结节，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，两肾实质内可见囊状低密度结节，放射性摄取稀疏，较大者直径约1.4CM，两肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，实质内可见钙化灶，放射性分布大致正常。双侧腹股沟无异常淋巴结显示。左髋关节旁肌肉放射性摄取轻度增高，SUVmax2.5。</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>左肺</t>
+          <t>左肺上叶</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>纵隔2R,3A,4R区及左肺门多发淋巴结,左侧胸膜,左侧胸膜区,左4前肋,L5,左髋臼骨</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常;脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常;眼球环壁完整,球内未见明显占位,视神经未见明显异常密度灶,眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶;鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰;双侧上颌窦粘膜增厚,考虑为慢性炎症。颈部PET/CT图像示甲状腺无明显肿大,双侧叶密度欠均匀,未见明显糖代谢异常增高灶;双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结;口咽及喉咽部无殊。胸部PET/CT图像示左肺MT术后,左肺体积缩小;左肺下叶见纤维条索灶;右肺上叶前段见多枚小结节,直径小于5.0MM,最大SUV值约为0.4;右肺下叶背段见斑片状稍高密度影,最大SUV值约为1.1;左侧内乳区(约平第2前肋水平)见糖代谢异常增高的淋巴结,大小约为9.7MM×6.8MM,平均CT值约为47.5HU,最大SUV值约为14.0;余纵隔及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结;双侧胸腔无积液;心脏无明显增大;双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结;左侧乳腺见钙化灶;右侧乳腺无殊。腹部PET/CT图像示肝脏右叶近膈顶处见糖代谢异常增高的低密度灶,大小约为25.3MM×18.1MM,平均CT值约为19.5HU,最大SUV值约为12.7;肝脏见小囊性灶,较大者位于右后叶下段,直径约为5.4MM,平均CT值约为23.0HU,最大SUV值约为2.2;肝内外胆管未见明显扩张;脾脏见点状钙化灶,未见明显糖代谢异常增高;胆囊、双肾、胰腺和双侧肾上腺未见明显糖代谢异常增高灶及占位;胃肠道内见显像剂生理性分布;腹膜后未见明显糖代谢异常增高灶及肿大淋巴结;腹腔无积液。盆部PET/CT图像示左侧髂血管旁见糖代谢异常增高的淋巴结,直径约为5.2MM,平均CT值约为54.0HU,最大SUV值约为6.1;肠道内见显像剂生理性分布;膀胱内见显像剂生理性积聚;子宫和双侧附件区未见明显糖代谢异常增高灶及占位;双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结;盆腔无积液。骨骼PET/CT图像示胸骨下段和骶骨见溶骨性骨质破坏、周围软组织伴糖代谢异常增高,最大SUV值分别约为19.2和30.1;左侧第5肋后段局部骨质不连,考虑为术后改变。肺MT综合治疗后病例:左侧内乳和左侧髂血管旁淋巴结转移;肝脏右叶转移;胸骨和骶骨转移;右肺慢性炎性小结节可能,请随访;两肺慢性炎症;左侧乳腺钙化灶;肝脏囊肿;脾脏钙化灶。</t>
+          <t>右肺MT病例，下腹部CT检查未见明显转移灶。肝脏多发囊肿；右外叶小片异常强化灶，考虑灌注异常；肝脏散在钙化灶。腹主动脉瘤伴附壁血栓。右肾囊肿。右肺MT病例，肝脏表面光滑，各叶比例匀称，肝内多发囊样低密度影，较大者位于左叶，直径约14MM，动态增强后未见异常强化；右外叶小片低密度异常强化灶，静脉期呈等密度；另见肝脏数个小钙化；肝内血管分布均匀，走向自然，未见狭窄或充盈缺损；脾脏未见肿大，密度均匀；胆囊壁光滑，未见局限性增厚，胆管未见扩张；胰腺及所见左侧肾脏无殊，右肾小囊样无强化低密度灶；后腹膜未见肿大淋巴结；腹腔内无积液。腹主动脉扩张，内见附壁无强化灶。</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>左肺</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>左侧内乳,左侧髂血管旁淋巴结,肝脏右叶,胸骨,骶骨</t>
+          <t>右肺</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>右肺腺癌治疗后复查，与2013-5-13日片对比：右下肺及上肺不张，大致同前；右侧大量胸腔积液，大致同前；肝内多发转移瘤，较前增多，部分增大；两肾多发结节，大致同前；胸骨、颈椎、胸椎、腰椎骨转移瘤，大致同前。右肺腺癌治疗后复查，与2013-5-13日片对比：右侧胸腔见大量积液，右肺上叶及下叶体积缩小，增强扫描右肺不张、实变肺组织强化明显；余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚。左侧胸腔未见积液。肝脏形态失常，肝右叶增大，其外形轮廓略呈波浪状，肝内散在多发结节灶，边界不清，最大者约66MM×64MM，边界不清，部分融合，增强扫描不均匀强化，侵犯肝左静脉、门静脉左前支，病灶较前增多，部分增大。肝内外胆管无扩张.胆囊不大，胆囊壁均匀增厚，增强扫描粘膜强化明显。肝门区未见肿大淋巴结。肝包膜上见少量积液。脾稍大，最厚处约46MM，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约14MM×4MM，边界不清，增强扫描轻度强化，大致同前。胸骨、C7、T1、T6、T8、T9椎体及附件、T10、T11、L1右侧附件、L2、L3椎体见不规则致密影，边欠清，范围较前增大。右侧第5肋腋段见致密灶。</t>
+          <t>左肺癌切除术后复查，与2013-6-14片对比：左肺术后改变，左中上肺少许索条及斑片灶，大致同前，考虑纤维增殖性病灶。两肺多发局限性肺气肿。左侧少量胸腔积液，大致同前。肝脏未见明确病变。两肾多发囊肿。左肺癌切除术后复查，与2013-6-14片对比：左肺下叶缺如，残肺膨胀良好，左侧斜裂胸膜稍增厚，左中肺及左上肺见不规则条片影，边界欠清，所见较前变化不大。右肺下叶、两肺上叶胸膜上见局限性类圆形透亮度增加，大致同前，两肺未见明显结节影。气管、左中、上叶及右肺各叶支气管分枝通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸膜轻度增厚，左侧胸腔见少量积液，较前变化不大。右侧胸腔未见积液，右侧胸膜未见增厚。肝脏大小正常，各叶比例在正常范围以内，外形轮廓光整，密度均匀。肝内胆管未见扩张。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石头影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态及密度未见异常。两肾见数个囊性灶，最大者大小约11MM×9MM，边界清晰，密度均匀，未见强化。两肾动脉壁见散在钙化斑。两侧肾下腺所见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>右肺</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>肝,胸骨,颈椎,胸椎,腰椎,骨</t>
+          <t>左肺</t>
         </is>
       </c>
     </row>
